--- a/gd/交互系统/邮箱系统设计.xlsx
+++ b/gd/交互系统/邮箱系统设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="195" windowWidth="20730" windowHeight="11070" activeTab="1"/>
+    <workbookView xWindow="3105" yWindow="195" windowWidth="20730" windowHeight="11070"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="自用" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_2._已读邮件的定义">'逻辑+UI'!$C$333</definedName>
+    <definedName name="_2._已读邮件的定义">'逻辑+UI'!$C$314</definedName>
     <definedName name="_3、功能界面">#REF!</definedName>
     <definedName name="_4、录音模式">#REF!</definedName>
     <definedName name="_5_、功能按钮">#REF!</definedName>
     <definedName name="二、聊天框玩家名称">美术需求!$B$27</definedName>
+    <definedName name="若无邮件_则列表处为空着即可。">'逻辑+UI'!$F$140:$H$140</definedName>
+    <definedName name="若邮件不包含附件_则附件处空着即可。">'逻辑+UI'!$F$268</definedName>
     <definedName name="三、走马灯">美术需求!$B$72</definedName>
-    <definedName name="四、系统公告提示">美术需求!$B$92</definedName>
+    <definedName name="四、系统公告提示">美术需求!#REF!</definedName>
     <definedName name="五、提示信息">美术需求!#REF!</definedName>
     <definedName name="显示格式">#REF!</definedName>
     <definedName name="长按才能录音_松手后直接发送录音内容。">#REF!</definedName>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="354">
   <si>
     <t>文档名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -614,14 +616,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>若无邮件，则列表处为空，显示没有邮件的提示图。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果参考</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>邮件数量/最大邮件数量</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -818,10 +812,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>若邮件不包含附件，则在附件处显示文字 “没有附件哦….”</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>系统邮件没有发送数量上限。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -848,10 +838,6 @@
   <si>
     <t>附件数量每封邮件不能超过5个。</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考效果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
@@ -949,18 +935,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>提示图</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示文字</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>待美术设计后回归</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>多语言</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1032,26 +1006,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>若无邮件，则列表处为空，显示没有邮件的提示图和提示文字。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有邮件…</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有附件哦…</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>若邮件不包含附件，则在附件处显示没有附件的提示图和提示文字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示文字</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>收取</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1113,10 +1067,6 @@
   </si>
   <si>
     <t>数值程序字？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>感觉这个可有可无。没太多想法</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1608,6 +1558,38 @@
   </si>
   <si>
     <t>若全部邮件收取成功，则清空邮件列表以及邮件内容显示框，同时弹出提示框如下：客户端会在收取完成后一次刷新邮件列表和邮件内容显示框。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若无邮件，则列表处为空着即可。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若无邮件，则列表处空着即可。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>若邮件不包含附件，则附件处空着即可。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若邮件不包含附件，则附件处空着即可</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉界面空着时的提示图和提示文字显示需求</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1795,7 +1777,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1853,6 +1835,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0099FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2092,7 +2080,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2223,6 +2211,9 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="58" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2268,9 +2259,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5175,13 +5168,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5222,13 +5215,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5272,13 +5265,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>106363</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5322,13 +5315,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>87313</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5372,13 +5365,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>96838</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5422,13 +5415,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>115888</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5472,13 +5465,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5522,13 +5515,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>601871</xdr:colOff>
-      <xdr:row>275</xdr:row>
+      <xdr:row>262</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5712,13 +5705,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9223</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>133310</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5786,138 +5779,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>580764</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>28233</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3752850" y="28384500"/>
-          <a:ext cx="2085714" cy="2733333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="直接箭头连接符 90"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3200400" y="29670375"/>
-          <a:ext cx="666750" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="直接箭头连接符 91"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5410200" y="29851351"/>
-          <a:ext cx="1076325" cy="66674"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
@@ -5937,7 +5798,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5975,7 +5836,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6107,13 +5968,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6162,13 +6023,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>53423</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>94422</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>642969</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>152294</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6238,13 +6099,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6305,13 +6166,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6360,13 +6221,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>34373</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>75372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>623919</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>133244</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6436,13 +6297,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6497,13 +6358,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>124304</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6514,7 +6375,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6533,147 +6394,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>281</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>161658</xdr:colOff>
-      <xdr:row>284</xdr:row>
-      <xdr:rowOff>18969</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="图片 19"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3943350" y="57912000"/>
-          <a:ext cx="2133333" cy="647619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>283</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>283</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="112" name="直接箭头连接符 111"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5724525" y="58397775"/>
-          <a:ext cx="819150" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>282</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>283</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="116" name="直接箭头连接符 115"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3314701" y="58273950"/>
-          <a:ext cx="962024" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>304</xdr:row>
+      <xdr:row>285</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>182415</xdr:colOff>
-      <xdr:row>316</xdr:row>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6684,7 +6413,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6705,13 +6434,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>66539</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6722,7 +6451,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6760,7 +6489,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6769,6 +6498,44 @@
         <a:xfrm>
           <a:off x="9220200" y="6896100"/>
           <a:ext cx="161925" cy="1085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180876</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>190410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="41452800"/>
+          <a:ext cx="790476" cy="723810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9054,13 +8821,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9101,13 +8868,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9151,13 +8918,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>106363</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9201,13 +8968,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>87313</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9251,13 +9018,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>96838</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9301,13 +9068,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>115888</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9351,13 +9118,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9401,13 +9168,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>627271</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9553,13 +9320,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>628342</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>171408</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9589,326 +9356,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>580764</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>9183</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="图片 88"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3981450" y="17678400"/>
-          <a:ext cx="2085714" cy="2733333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="直接箭头连接符 89"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3429000" y="18964275"/>
-          <a:ext cx="666750" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="直接箭头连接符 90"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5638800" y="19145251"/>
-          <a:ext cx="1076325" cy="66674"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="直接箭头连接符 91"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3200400" y="30508575"/>
-          <a:ext cx="666750" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>18782</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>18969</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="图片 92"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4743449" y="30041850"/>
-          <a:ext cx="2133333" cy="647619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="直接箭头连接符 94"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6524624" y="30527625"/>
-          <a:ext cx="819150" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="直接箭头连接符 95"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4114800" y="30403800"/>
-          <a:ext cx="962024" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>66539</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9919,7 +9375,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9957,7 +9413,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9995,7 +9451,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13124,10 +12580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H29"/>
+  <dimension ref="A2:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -13186,17 +12642,17 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70" t="s">
+      <c r="C12" s="72"/>
+      <c r="D12" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
@@ -13205,79 +12661,79 @@
       <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="77"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="77"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="80"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="65"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="70"/>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -13300,11 +12756,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
@@ -13318,74 +12774,93 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
       <c r="C24" s="11">
         <v>42222</v>
       </c>
       <c r="E24" s="50"/>
       <c r="F24" s="3" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="11">
         <v>42226</v>
       </c>
       <c r="E25" s="55"/>
       <c r="F25" s="3" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="C26" s="11">
+        <v>42256</v>
+      </c>
+      <c r="E26" s="82"/>
+      <c r="F26" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="K26" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="L26" s="42" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="2"/>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="11">
-        <v>42226</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="C29" s="11">
+        <v>42226</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13400,16 +12875,20 @@
     <mergeCell ref="D16:H16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K26" location="若无邮件_则列表处为空着即可。" display="位置1"/>
+    <hyperlink ref="L26" location="若邮件不包含附件_则附件处空着即可。" display="位置2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA336"/>
+  <dimension ref="A1:AA317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="S209" sqref="S209"/>
+    <sheetView topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="F268" sqref="F268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -13419,34 +12898,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B2" s="31" t="s">
@@ -13456,7 +12935,7 @@
     <row r="3" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B3" s="32"/>
       <c r="C3" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.35">
@@ -13491,7 +12970,7 @@
     <row r="12" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B12" s="31"/>
       <c r="U12" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.35">
@@ -13512,7 +12991,7 @@
         <v>72</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.35">
@@ -13591,10 +13070,10 @@
         <v>80</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.35">
@@ -13617,24 +13096,24 @@
     </row>
     <row r="34" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P34" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D49" s="53" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E49" s="54"/>
     </row>
     <row r="50" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D50" s="54"/>
       <c r="E50" s="54" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D52" s="25" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
@@ -13658,7 +13137,7 @@
     </row>
     <row r="54" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C54" s="41" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>84</v>
@@ -13756,7 +13235,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C65" s="41" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E65" s="22" t="s">
         <v>91</v>
@@ -13889,10 +13368,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C77" s="58" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E77" s="57" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
@@ -13902,10 +13381,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E78" s="57" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
@@ -13913,12 +13392,12 @@
       <c r="I78" s="57"/>
       <c r="J78" s="57"/>
       <c r="L78" s="42" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E79" s="57" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
@@ -13929,7 +13408,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E80" s="57" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
@@ -14077,7 +13556,7 @@
       <c r="E94" s="21"/>
       <c r="F94" s="21"/>
       <c r="G94" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
@@ -14142,7 +13621,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E101" s="41" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>120</v>
@@ -14156,15 +13635,15 @@
     </row>
     <row r="103" spans="1:15" ht="33" x14ac:dyDescent="0.35">
       <c r="A103" s="46" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>121</v>
@@ -14179,7 +13658,7 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E106" s="41" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>123</v>
@@ -14214,15 +13693,15 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="H112" s="48"/>
       <c r="I112" s="48"/>
       <c r="J112" s="47" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="K112" s="48"/>
     </row>
@@ -14233,15 +13712,15 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="47" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>131</v>
@@ -14277,7 +13756,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G120" s="25" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="H120" s="25"/>
       <c r="I120" s="25"/>
@@ -14288,7 +13767,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F121" s="25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G121" s="25"/>
       <c r="H121" s="25"/>
@@ -14300,7 +13779,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F122" s="25" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G122" s="25"/>
       <c r="H122" s="25"/>
@@ -14383,7 +13862,7 @@
       <c r="N128" s="13"/>
       <c r="O128" s="13"/>
     </row>
-    <row r="129" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:15" x14ac:dyDescent="0.35">
       <c r="F129" s="21"/>
       <c r="G129" s="13"/>
       <c r="H129" s="13" t="s">
@@ -14397,11 +13876,11 @@
       <c r="N129" s="13"/>
       <c r="O129" s="13"/>
     </row>
-    <row r="130" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:15" x14ac:dyDescent="0.35">
       <c r="F130" s="21"/>
       <c r="G130" s="13"/>
       <c r="H130" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I130" s="13"/>
       <c r="J130" s="13"/>
@@ -14411,7 +13890,7 @@
       <c r="N130" s="13"/>
       <c r="O130" s="13"/>
     </row>
-    <row r="131" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:15" x14ac:dyDescent="0.35">
       <c r="F131" s="21"/>
       <c r="G131" s="13"/>
       <c r="H131" s="20"/>
@@ -14423,7 +13902,7 @@
       <c r="N131" s="20"/>
       <c r="O131" s="20"/>
     </row>
-    <row r="132" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:15" x14ac:dyDescent="0.35">
       <c r="F132" s="21"/>
       <c r="G132" s="13"/>
       <c r="H132" s="20"/>
@@ -14435,7 +13914,7 @@
       <c r="N132" s="20"/>
       <c r="O132" s="20"/>
     </row>
-    <row r="133" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:15" x14ac:dyDescent="0.35">
       <c r="F133" s="21"/>
       <c r="G133" s="13"/>
       <c r="H133" s="20"/>
@@ -14447,7 +13926,7 @@
       <c r="N133" s="20"/>
       <c r="O133" s="20"/>
     </row>
-    <row r="134" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:15" x14ac:dyDescent="0.35">
       <c r="F134" s="21"/>
       <c r="G134" s="13"/>
       <c r="H134" s="20"/>
@@ -14459,7 +13938,7 @@
       <c r="N134" s="20"/>
       <c r="O134" s="20"/>
     </row>
-    <row r="135" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="4:15" x14ac:dyDescent="0.35">
       <c r="F135" s="13" t="s">
         <v>139</v>
       </c>
@@ -14473,7 +13952,7 @@
       <c r="N135" s="20"/>
       <c r="O135" s="20"/>
     </row>
-    <row r="136" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="4:15" x14ac:dyDescent="0.35">
       <c r="F136" s="21"/>
       <c r="G136" s="13"/>
       <c r="H136" s="20"/>
@@ -14485,7 +13964,7 @@
       <c r="N136" s="20"/>
       <c r="O136" s="20"/>
     </row>
-    <row r="137" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="4:15" x14ac:dyDescent="0.35">
       <c r="F137" s="21"/>
       <c r="G137" s="13"/>
       <c r="H137" s="13" t="s">
@@ -14499,7 +13978,7 @@
       <c r="N137" s="20"/>
       <c r="O137" s="20"/>
     </row>
-    <row r="138" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="4:15" x14ac:dyDescent="0.35">
       <c r="F138" s="21"/>
       <c r="G138" s="13" t="s">
         <v>141</v>
@@ -14513,474 +13992,609 @@
       <c r="N138" s="20"/>
       <c r="O138" s="20"/>
     </row>
-    <row r="139" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="4:15" x14ac:dyDescent="0.35">
       <c r="E139" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="F140" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="141" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="F141" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="144" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="N144" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="O144" s="2" t="s">
+    <row r="140" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="F140" s="83" t="s">
+        <v>346</v>
+      </c>
+      <c r="G140" s="83"/>
+      <c r="H140" s="83"/>
+    </row>
+    <row r="142" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D142" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="E143" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="M146" s="41" t="s">
+      <c r="F143" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="N146" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="O146" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F147" s="2" t="s">
-        <v>229</v>
+    </row>
+    <row r="144" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="E144" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+      <c r="A146" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E146" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="F146" s="48"/>
+      <c r="G146" s="48"/>
+      <c r="H146" s="48"/>
+      <c r="I146" s="48"/>
+      <c r="J146" s="48"/>
+      <c r="K146" s="48"/>
+      <c r="L146" s="48"/>
+      <c r="M146" s="48"/>
+      <c r="N146" s="48"/>
+      <c r="O146" s="48"/>
+      <c r="P146" s="48"/>
+      <c r="Q146" s="48"/>
+    </row>
+    <row r="147" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+      <c r="A147" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="L148" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D155" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E156" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>239</v>
+      <c r="A148" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K149" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A151" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="J151" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="N151" s="48"/>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K152" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K153" s="36" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E157" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A158" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E158" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K159" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="161" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="J161" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M161" s="48"/>
+      <c r="N161" s="48"/>
+    </row>
+    <row r="162" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="K162" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="33" x14ac:dyDescent="0.35">
-      <c r="A159" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="E159" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="F159" s="48"/>
-      <c r="G159" s="48"/>
-      <c r="H159" s="48"/>
-      <c r="I159" s="48"/>
-      <c r="J159" s="48"/>
-      <c r="K159" s="48"/>
-      <c r="L159" s="48"/>
-      <c r="M159" s="48"/>
-      <c r="N159" s="48"/>
-      <c r="O159" s="48"/>
-      <c r="P159" s="48"/>
-      <c r="Q159" s="48"/>
-    </row>
-    <row r="160" spans="1:17" ht="33" x14ac:dyDescent="0.35">
-      <c r="A160" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A161" s="47" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K162" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A164" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="J164" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="K164" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="N164" s="48"/>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K165" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K166" s="36" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E170" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K172" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="J174" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="K174" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="M174" s="48"/>
-      <c r="N174" s="48"/>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K175" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K176" s="36" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="180" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D180" s="1" t="s">
+    <row r="163" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="K163" s="36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="167" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D167" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="168" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D168" s="1"/>
+      <c r="E168" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F168" s="23"/>
+      <c r="G168" s="23"/>
+      <c r="H168" s="23"/>
+    </row>
+    <row r="169" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D169" s="1"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G169" s="23"/>
+      <c r="H169" s="23"/>
+    </row>
+    <row r="170" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D170" s="1"/>
+      <c r="E170" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F170" s="23"/>
+      <c r="G170" s="23"/>
+      <c r="H170" s="23"/>
+    </row>
+    <row r="171" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D171" s="1"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G171" s="23"/>
+      <c r="H171" s="23"/>
+    </row>
+    <row r="172" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D172" s="1"/>
+      <c r="E172" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F172" s="23"/>
+      <c r="G172" s="23"/>
+      <c r="H172" s="23"/>
+    </row>
+    <row r="173" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D173" s="1"/>
+      <c r="E173" s="22"/>
+      <c r="F173" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G173" s="23"/>
+      <c r="H173" s="23"/>
+    </row>
+    <row r="174" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D174" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E174" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F174" s="23"/>
+      <c r="G174" s="23"/>
+      <c r="H174" s="23"/>
+    </row>
+    <row r="175" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D175" s="1"/>
+      <c r="E175" s="22"/>
+      <c r="F175" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G175" s="23"/>
+      <c r="H175" s="23"/>
+    </row>
+    <row r="176" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D176" s="1"/>
+      <c r="E176" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D177" s="1"/>
+      <c r="F177" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G177" s="21"/>
+      <c r="H177" s="21"/>
+      <c r="I177" s="21"/>
+      <c r="J177" s="21"/>
+      <c r="K177" s="21"/>
+      <c r="L177" s="21"/>
+      <c r="M177" s="21"/>
+      <c r="N177" s="21"/>
+      <c r="O177" s="21"/>
+      <c r="P177" s="21"/>
+      <c r="Q177" s="21"/>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D178" s="1"/>
+      <c r="F178" s="21" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="181" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="G178" s="21"/>
+      <c r="H178" s="21"/>
+      <c r="I178" s="21"/>
+      <c r="J178" s="21"/>
+      <c r="K178" s="21"/>
+      <c r="L178" s="21"/>
+      <c r="M178" s="21"/>
+      <c r="N178" s="21"/>
+      <c r="O178" s="21"/>
+      <c r="P178" s="21"/>
+      <c r="Q178" s="21"/>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D179" s="1"/>
+      <c r="F179" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G179" s="21"/>
+      <c r="H179" s="21"/>
+      <c r="I179" s="21"/>
+      <c r="J179" s="21"/>
+      <c r="K179" s="21"/>
+      <c r="L179" s="21"/>
+      <c r="M179" s="21"/>
+      <c r="N179" s="21"/>
+      <c r="O179" s="21"/>
+      <c r="P179" s="21"/>
+      <c r="Q179" s="21"/>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D180" s="1"/>
+      <c r="F180" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G180" s="21"/>
+      <c r="H180" s="21"/>
+      <c r="I180" s="21"/>
+      <c r="K180" s="21"/>
+      <c r="L180" s="21"/>
+      <c r="M180" s="21"/>
+      <c r="N180" s="21"/>
+      <c r="O180" s="21"/>
+      <c r="P180" s="21"/>
+      <c r="Q180" s="21"/>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D181" s="1"/>
-      <c r="E181" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F181" s="23"/>
-      <c r="G181" s="23"/>
-      <c r="H181" s="23"/>
-    </row>
-    <row r="182" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="F181" s="21"/>
+      <c r="G181" s="21"/>
+      <c r="H181" s="21"/>
+      <c r="I181" s="21"/>
+      <c r="K181" s="21"/>
+      <c r="L181" s="21"/>
+      <c r="M181" s="21"/>
+      <c r="N181" s="21"/>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D182" s="1"/>
-      <c r="E182" s="22"/>
-      <c r="F182" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G182" s="23"/>
-      <c r="H182" s="23"/>
-    </row>
-    <row r="183" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="F182" s="59" t="s">
+        <v>326</v>
+      </c>
+      <c r="G182" s="59"/>
+      <c r="H182" s="59"/>
+      <c r="I182" s="59"/>
+      <c r="J182" s="59"/>
+      <c r="K182" s="59"/>
+      <c r="L182" s="59"/>
+      <c r="M182" s="59"/>
+      <c r="N182" s="59"/>
+      <c r="O182" s="59" t="s">
+        <v>321</v>
+      </c>
+      <c r="P182" s="60"/>
+      <c r="Q182" s="60"/>
+      <c r="R182" s="60"/>
+      <c r="S182" s="60"/>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D183" s="1"/>
-      <c r="E183" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F183" s="23"/>
-      <c r="G183" s="23"/>
-      <c r="H183" s="23"/>
-    </row>
-    <row r="184" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="E183" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="F183" s="59" t="s">
+        <v>334</v>
+      </c>
+      <c r="G183" s="59"/>
+      <c r="H183" s="59"/>
+      <c r="I183" s="59"/>
+      <c r="J183" s="59"/>
+      <c r="K183" s="59"/>
+      <c r="L183" s="59"/>
+      <c r="M183" s="59"/>
+      <c r="N183" s="59"/>
+      <c r="O183" s="59"/>
+      <c r="P183" s="59"/>
+      <c r="Q183" s="59"/>
+      <c r="R183" s="60"/>
+      <c r="S183" s="60"/>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D184" s="1"/>
-      <c r="E184" s="22"/>
-      <c r="F184" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G184" s="23"/>
-      <c r="H184" s="23"/>
-    </row>
-    <row r="185" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="E184" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="F184" s="59" t="s">
+        <v>335</v>
+      </c>
+      <c r="G184" s="59"/>
+      <c r="H184" s="59"/>
+      <c r="I184" s="59"/>
+      <c r="J184" s="59"/>
+      <c r="K184" s="59"/>
+      <c r="L184" s="59"/>
+      <c r="M184" s="59"/>
+      <c r="N184" s="59"/>
+      <c r="O184" s="59"/>
+      <c r="P184" s="59"/>
+      <c r="Q184" s="59"/>
+      <c r="R184" s="60"/>
+      <c r="S184" s="60"/>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D185" s="1"/>
-      <c r="E185" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F185" s="23"/>
-      <c r="G185" s="23"/>
-      <c r="H185" s="23"/>
-    </row>
-    <row r="186" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="F185" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="G185" s="59"/>
+      <c r="H185" s="59"/>
+      <c r="I185" s="59"/>
+      <c r="J185" s="59"/>
+      <c r="K185" s="59"/>
+      <c r="L185" s="59"/>
+      <c r="M185" s="59"/>
+      <c r="N185" s="59"/>
+      <c r="O185" s="60"/>
+      <c r="P185" s="59"/>
+      <c r="Q185" s="59"/>
+      <c r="R185" s="60"/>
+      <c r="S185" s="60"/>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D186" s="1"/>
-      <c r="E186" s="22"/>
-      <c r="F186" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G186" s="23"/>
-      <c r="H186" s="23"/>
-    </row>
-    <row r="187" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D187" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="E187" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F187" s="23"/>
-      <c r="G187" s="23"/>
-      <c r="H187" s="23"/>
-    </row>
-    <row r="188" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D188" s="1"/>
-      <c r="E188" s="22"/>
-      <c r="F188" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="G188" s="23"/>
-      <c r="H188" s="23"/>
-    </row>
-    <row r="189" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D189" s="1"/>
-      <c r="E189" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="190" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D190" s="1"/>
-      <c r="F190" s="21" t="s">
-        <v>152</v>
-      </c>
+      <c r="F186" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="G186" s="59"/>
+      <c r="H186" s="59"/>
+      <c r="I186" s="59"/>
+      <c r="J186" s="59"/>
+      <c r="K186" s="59"/>
+      <c r="L186" s="59"/>
+      <c r="M186" s="59"/>
+      <c r="N186" s="59"/>
+      <c r="O186" s="60"/>
+      <c r="P186" s="59"/>
+      <c r="Q186" s="59"/>
+      <c r="R186" s="60"/>
+      <c r="S186" s="60"/>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D187" s="1"/>
+      <c r="F187" s="59"/>
+      <c r="G187" s="59"/>
+      <c r="H187" s="59"/>
+      <c r="I187" s="59"/>
+      <c r="J187" s="59"/>
+      <c r="K187" s="59"/>
+      <c r="L187" s="59"/>
+      <c r="M187" s="59"/>
+      <c r="N187" s="59"/>
+      <c r="O187" s="59"/>
+      <c r="P187" s="59"/>
+      <c r="Q187" s="59"/>
+      <c r="R187" s="60"/>
+      <c r="S187" s="60"/>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A188" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="F188" s="59" t="s">
+        <v>345</v>
+      </c>
+      <c r="G188" s="59"/>
+      <c r="H188" s="59"/>
+      <c r="I188" s="59"/>
+      <c r="J188" s="59"/>
+      <c r="K188" s="59"/>
+      <c r="L188" s="59"/>
+      <c r="M188" s="59"/>
+      <c r="N188" s="59"/>
+      <c r="O188" s="59"/>
+      <c r="P188" s="59"/>
+      <c r="Q188" s="59"/>
+      <c r="R188" s="60"/>
+      <c r="S188" s="60"/>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A189" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="F189" s="21"/>
+      <c r="G189" s="21"/>
+      <c r="H189" s="21"/>
+      <c r="I189" s="21"/>
+      <c r="J189" s="21"/>
+      <c r="K189" s="21"/>
+      <c r="L189" s="21"/>
+      <c r="M189" s="21"/>
+      <c r="N189" s="21"/>
+      <c r="O189" s="21"/>
+      <c r="P189" s="21"/>
+      <c r="Q189" s="21"/>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="F190" s="21"/>
       <c r="G190" s="21"/>
       <c r="H190" s="21"/>
       <c r="I190" s="21"/>
       <c r="J190" s="21"/>
       <c r="K190" s="21"/>
-      <c r="L190" s="21"/>
-      <c r="M190" s="21"/>
-      <c r="N190" s="21"/>
-      <c r="O190" s="21"/>
-      <c r="P190" s="21"/>
-      <c r="Q190" s="21"/>
-    </row>
-    <row r="191" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D191" s="1"/>
-      <c r="F191" s="21" t="s">
-        <v>151</v>
-      </c>
+      <c r="O190" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="F191" s="21"/>
       <c r="G191" s="21"/>
       <c r="H191" s="21"/>
       <c r="I191" s="21"/>
       <c r="J191" s="21"/>
       <c r="K191" s="21"/>
-      <c r="L191" s="21"/>
-      <c r="M191" s="21"/>
-      <c r="N191" s="21"/>
-      <c r="O191" s="21"/>
-      <c r="P191" s="21"/>
-      <c r="Q191" s="21"/>
-    </row>
-    <row r="192" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D192" s="1"/>
-      <c r="F192" s="21" t="s">
-        <v>156</v>
-      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="F192" s="21"/>
       <c r="G192" s="21"/>
       <c r="H192" s="21"/>
       <c r="I192" s="21"/>
       <c r="J192" s="21"/>
       <c r="K192" s="21"/>
-      <c r="L192" s="21"/>
-      <c r="M192" s="21"/>
-      <c r="N192" s="21"/>
-      <c r="O192" s="21"/>
-      <c r="P192" s="21"/>
-      <c r="Q192" s="21"/>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D193" s="1"/>
-      <c r="F193" s="21" t="s">
-        <v>202</v>
-      </c>
+      <c r="N192" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="O192" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="193" spans="5:23" x14ac:dyDescent="0.35">
+      <c r="F193" s="21"/>
       <c r="G193" s="21"/>
       <c r="H193" s="21"/>
       <c r="I193" s="21"/>
+      <c r="J193" s="21"/>
       <c r="K193" s="21"/>
-      <c r="L193" s="21"/>
-      <c r="M193" s="21"/>
-      <c r="N193" s="21"/>
-      <c r="O193" s="21"/>
-      <c r="P193" s="21"/>
-      <c r="Q193" s="21"/>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D194" s="1"/>
+      <c r="O193" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194" spans="5:23" x14ac:dyDescent="0.35">
       <c r="F194" s="21"/>
       <c r="G194" s="21"/>
       <c r="H194" s="21"/>
       <c r="I194" s="21"/>
+      <c r="J194" s="21"/>
       <c r="K194" s="21"/>
-      <c r="L194" s="21"/>
-      <c r="M194" s="21"/>
-      <c r="N194" s="21"/>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D195" s="1"/>
-      <c r="F195" s="59" t="s">
-        <v>339</v>
-      </c>
-      <c r="G195" s="59"/>
-      <c r="H195" s="59"/>
-      <c r="I195" s="59"/>
-      <c r="J195" s="59"/>
-      <c r="K195" s="59"/>
-      <c r="L195" s="59"/>
-      <c r="M195" s="59"/>
-      <c r="N195" s="59"/>
-      <c r="O195" s="59" t="s">
-        <v>334</v>
-      </c>
-      <c r="P195" s="60"/>
-      <c r="Q195" s="60"/>
-      <c r="R195" s="60"/>
-      <c r="S195" s="60"/>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D196" s="1"/>
-      <c r="E196" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="F196" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="G196" s="59"/>
-      <c r="H196" s="59"/>
-      <c r="I196" s="59"/>
-      <c r="J196" s="59"/>
-      <c r="K196" s="59"/>
-      <c r="L196" s="59"/>
-      <c r="M196" s="59"/>
-      <c r="N196" s="59"/>
-      <c r="O196" s="59"/>
-      <c r="P196" s="59"/>
-      <c r="Q196" s="59"/>
-      <c r="R196" s="60"/>
-      <c r="S196" s="60"/>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D197" s="1"/>
-      <c r="E197" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="F197" s="59" t="s">
-        <v>348</v>
-      </c>
-      <c r="G197" s="59"/>
-      <c r="H197" s="59"/>
-      <c r="I197" s="59"/>
-      <c r="J197" s="59"/>
-      <c r="K197" s="59"/>
-      <c r="L197" s="59"/>
-      <c r="M197" s="59"/>
-      <c r="N197" s="59"/>
-      <c r="O197" s="59"/>
-      <c r="P197" s="59"/>
-      <c r="Q197" s="59"/>
-      <c r="R197" s="60"/>
-      <c r="S197" s="60"/>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D198" s="1"/>
-      <c r="F198" s="59" t="s">
-        <v>337</v>
-      </c>
-      <c r="G198" s="59"/>
-      <c r="H198" s="59"/>
-      <c r="I198" s="59"/>
-      <c r="J198" s="59"/>
-      <c r="K198" s="59"/>
-      <c r="L198" s="59"/>
-      <c r="M198" s="59"/>
-      <c r="N198" s="59"/>
-      <c r="O198" s="60"/>
-      <c r="P198" s="59"/>
-      <c r="Q198" s="59"/>
-      <c r="R198" s="60"/>
-      <c r="S198" s="60"/>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D199" s="1"/>
-      <c r="F199" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="G199" s="59"/>
-      <c r="H199" s="59"/>
-      <c r="I199" s="59"/>
-      <c r="J199" s="59"/>
-      <c r="K199" s="59"/>
-      <c r="L199" s="59"/>
-      <c r="M199" s="59"/>
-      <c r="N199" s="59"/>
-      <c r="O199" s="60"/>
-      <c r="P199" s="59"/>
-      <c r="Q199" s="59"/>
-      <c r="R199" s="60"/>
-      <c r="S199" s="60"/>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D200" s="1"/>
-      <c r="F200" s="59"/>
-      <c r="G200" s="59"/>
-      <c r="H200" s="59"/>
-      <c r="I200" s="59"/>
-      <c r="J200" s="59"/>
-      <c r="K200" s="59"/>
-      <c r="L200" s="59"/>
-      <c r="M200" s="59"/>
-      <c r="N200" s="59"/>
-      <c r="O200" s="59"/>
-      <c r="P200" s="59"/>
-      <c r="Q200" s="59"/>
-      <c r="R200" s="60"/>
-      <c r="S200" s="60"/>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A201" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="F201" s="59" t="s">
-        <v>358</v>
-      </c>
-      <c r="G201" s="59"/>
-      <c r="H201" s="59"/>
-      <c r="I201" s="59"/>
-      <c r="J201" s="59"/>
-      <c r="K201" s="59"/>
-      <c r="L201" s="59"/>
-      <c r="M201" s="59"/>
-      <c r="N201" s="59"/>
-      <c r="O201" s="59"/>
-      <c r="P201" s="59"/>
-      <c r="Q201" s="59"/>
-      <c r="R201" s="60"/>
-      <c r="S201" s="60"/>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A202" s="47" t="s">
-        <v>294</v>
-      </c>
+      <c r="O194" s="36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="195" spans="5:23" x14ac:dyDescent="0.35">
+      <c r="F195" s="21"/>
+      <c r="G195" s="21"/>
+      <c r="H195" s="21"/>
+      <c r="I195" s="21"/>
+      <c r="J195" s="21"/>
+      <c r="K195" s="21"/>
+      <c r="L195" s="21"/>
+      <c r="M195" s="21"/>
+      <c r="N195" s="21"/>
+      <c r="O195" s="21"/>
+      <c r="P195" s="21"/>
+      <c r="Q195" s="21"/>
+    </row>
+    <row r="196" spans="5:23" x14ac:dyDescent="0.35">
+      <c r="F196" s="21"/>
+      <c r="G196" s="21"/>
+      <c r="H196" s="21"/>
+      <c r="I196" s="21"/>
+      <c r="J196" s="21"/>
+      <c r="K196" s="21"/>
+      <c r="L196" s="21"/>
+      <c r="M196" s="21"/>
+      <c r="N196" s="21"/>
+      <c r="O196" s="21"/>
+      <c r="P196" s="21"/>
+      <c r="Q196" s="21"/>
+    </row>
+    <row r="197" spans="5:23" x14ac:dyDescent="0.35">
+      <c r="F197" s="21"/>
+      <c r="G197" s="21"/>
+      <c r="H197" s="21"/>
+      <c r="I197" s="21"/>
+      <c r="J197" s="21"/>
+      <c r="K197" s="21"/>
+      <c r="L197" s="21"/>
+      <c r="M197" s="21"/>
+      <c r="N197" s="21"/>
+      <c r="O197" s="21"/>
+      <c r="P197" s="21"/>
+      <c r="Q197" s="21"/>
+    </row>
+    <row r="198" spans="5:23" x14ac:dyDescent="0.35">
+      <c r="F198" s="21"/>
+      <c r="G198" s="21"/>
+      <c r="H198" s="21"/>
+      <c r="I198" s="21"/>
+      <c r="J198" s="21"/>
+      <c r="K198" s="21"/>
+      <c r="L198" s="21"/>
+      <c r="M198" s="21"/>
+      <c r="N198" s="21"/>
+      <c r="O198" s="21"/>
+      <c r="P198" s="21"/>
+      <c r="Q198" s="21"/>
+    </row>
+    <row r="199" spans="5:23" x14ac:dyDescent="0.35">
+      <c r="F199" s="21"/>
+      <c r="G199" s="21"/>
+      <c r="H199" s="21"/>
+      <c r="I199" s="21"/>
+      <c r="J199" s="21"/>
+      <c r="K199" s="21"/>
+      <c r="L199" s="21"/>
+      <c r="M199" s="21"/>
+      <c r="N199" s="21"/>
+      <c r="O199" s="21"/>
+      <c r="P199" s="21"/>
+      <c r="Q199" s="21"/>
+    </row>
+    <row r="200" spans="5:23" x14ac:dyDescent="0.35">
+      <c r="F200" s="21"/>
+      <c r="G200" s="21"/>
+      <c r="H200" s="21"/>
+      <c r="I200" s="21"/>
+      <c r="J200" s="21"/>
+      <c r="K200" s="21"/>
+      <c r="L200" s="21"/>
+      <c r="M200" s="21"/>
+      <c r="N200" s="21"/>
+      <c r="O200" s="21"/>
+      <c r="P200" s="21"/>
+      <c r="Q200" s="21"/>
+    </row>
+    <row r="201" spans="5:23" x14ac:dyDescent="0.35">
+      <c r="F201" s="21"/>
+      <c r="G201" s="21"/>
+      <c r="H201" s="21"/>
+      <c r="I201" s="21"/>
+      <c r="J201" s="21"/>
+      <c r="K201" s="21"/>
+      <c r="L201" s="21"/>
+      <c r="M201" s="21"/>
+      <c r="N201" s="21"/>
+      <c r="O201" s="21"/>
+      <c r="P201" s="21"/>
+      <c r="Q201" s="21"/>
+    </row>
+    <row r="202" spans="5:23" x14ac:dyDescent="0.35">
       <c r="F202" s="21"/>
       <c r="G202" s="21"/>
       <c r="H202" s="21"/>
@@ -14994,419 +14608,380 @@
       <c r="P202" s="21"/>
       <c r="Q202" s="21"/>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="203" spans="5:23" x14ac:dyDescent="0.35">
       <c r="F203" s="21"/>
       <c r="G203" s="21"/>
       <c r="H203" s="21"/>
       <c r="I203" s="21"/>
       <c r="J203" s="21"/>
       <c r="K203" s="21"/>
-      <c r="O203" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="F204" s="21"/>
-      <c r="G204" s="21"/>
-      <c r="H204" s="21"/>
-      <c r="I204" s="21"/>
-      <c r="J204" s="21"/>
-      <c r="K204" s="21"/>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="L203" s="21"/>
+      <c r="M203" s="21"/>
+      <c r="N203" s="21"/>
+      <c r="O203" s="21"/>
+      <c r="P203" s="21"/>
+      <c r="Q203" s="21"/>
+    </row>
+    <row r="204" spans="5:23" x14ac:dyDescent="0.35">
+      <c r="F204" s="59" t="s">
+        <v>333</v>
+      </c>
+      <c r="G204" s="59"/>
+      <c r="H204" s="59"/>
+      <c r="I204" s="59"/>
+      <c r="J204" s="59"/>
+      <c r="K204" s="59"/>
+      <c r="L204" s="59"/>
+      <c r="M204" s="59"/>
+      <c r="N204" s="59"/>
+      <c r="O204" s="59"/>
+      <c r="P204" s="59"/>
+      <c r="Q204" s="59"/>
+      <c r="R204" s="60"/>
+      <c r="S204" s="60"/>
+      <c r="T204" s="60"/>
+      <c r="U204" s="60"/>
+      <c r="V204" s="60"/>
+      <c r="W204" s="60"/>
+    </row>
+    <row r="205" spans="5:23" x14ac:dyDescent="0.35">
       <c r="F205" s="21"/>
       <c r="G205" s="21"/>
       <c r="H205" s="21"/>
       <c r="I205" s="21"/>
       <c r="J205" s="21"/>
       <c r="K205" s="21"/>
-      <c r="N205" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="O205" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="F206" s="21"/>
-      <c r="G206" s="21"/>
-      <c r="H206" s="21"/>
-      <c r="I206" s="21"/>
-      <c r="J206" s="21"/>
-      <c r="K206" s="21"/>
-      <c r="O206" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="F207" s="21"/>
-      <c r="G207" s="21"/>
-      <c r="H207" s="21"/>
-      <c r="I207" s="21"/>
-      <c r="J207" s="21"/>
-      <c r="K207" s="21"/>
-      <c r="O207" s="36" t="s">
+      <c r="L205" s="21"/>
+      <c r="M205" s="21"/>
+      <c r="N205" s="21"/>
+      <c r="O205" s="21"/>
+      <c r="P205" s="21"/>
+      <c r="Q205" s="21"/>
+    </row>
+    <row r="206" spans="5:23" x14ac:dyDescent="0.35">
+      <c r="E206" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="F206" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="F208" s="21"/>
-      <c r="G208" s="21"/>
-      <c r="H208" s="21"/>
-      <c r="I208" s="21"/>
-      <c r="J208" s="21"/>
-      <c r="K208" s="21"/>
-      <c r="L208" s="21"/>
-      <c r="M208" s="21"/>
-      <c r="N208" s="21"/>
-      <c r="O208" s="21"/>
-      <c r="P208" s="21"/>
-      <c r="Q208" s="21"/>
-    </row>
-    <row r="209" spans="5:23" x14ac:dyDescent="0.35">
-      <c r="F209" s="21"/>
-      <c r="G209" s="21"/>
-      <c r="H209" s="21"/>
-      <c r="I209" s="21"/>
-      <c r="J209" s="21"/>
-      <c r="K209" s="21"/>
-      <c r="L209" s="21"/>
-      <c r="M209" s="21"/>
-      <c r="N209" s="21"/>
-      <c r="O209" s="21"/>
-      <c r="P209" s="21"/>
-      <c r="Q209" s="21"/>
-    </row>
-    <row r="210" spans="5:23" x14ac:dyDescent="0.35">
-      <c r="F210" s="21"/>
-      <c r="G210" s="21"/>
-      <c r="H210" s="21"/>
-      <c r="I210" s="21"/>
-      <c r="J210" s="21"/>
-      <c r="K210" s="21"/>
-      <c r="L210" s="21"/>
-      <c r="M210" s="21"/>
-      <c r="N210" s="21"/>
-      <c r="O210" s="21"/>
-      <c r="P210" s="21"/>
-      <c r="Q210" s="21"/>
-    </row>
-    <row r="211" spans="5:23" x14ac:dyDescent="0.35">
-      <c r="F211" s="21"/>
-      <c r="G211" s="21"/>
-      <c r="H211" s="21"/>
-      <c r="I211" s="21"/>
-      <c r="J211" s="21"/>
-      <c r="K211" s="21"/>
-      <c r="L211" s="21"/>
-      <c r="M211" s="21"/>
-      <c r="N211" s="21"/>
-      <c r="O211" s="21"/>
-      <c r="P211" s="21"/>
-      <c r="Q211" s="21"/>
-    </row>
-    <row r="212" spans="5:23" x14ac:dyDescent="0.35">
-      <c r="F212" s="21"/>
-      <c r="G212" s="21"/>
-      <c r="H212" s="21"/>
-      <c r="I212" s="21"/>
-      <c r="J212" s="21"/>
-      <c r="K212" s="21"/>
-      <c r="L212" s="21"/>
-      <c r="M212" s="21"/>
-      <c r="N212" s="21"/>
-      <c r="O212" s="21"/>
-      <c r="P212" s="21"/>
-      <c r="Q212" s="21"/>
-    </row>
-    <row r="213" spans="5:23" x14ac:dyDescent="0.35">
-      <c r="F213" s="21"/>
-      <c r="G213" s="21"/>
-      <c r="H213" s="21"/>
-      <c r="I213" s="21"/>
-      <c r="J213" s="21"/>
-      <c r="K213" s="21"/>
-      <c r="L213" s="21"/>
-      <c r="M213" s="21"/>
-      <c r="N213" s="21"/>
-      <c r="O213" s="21"/>
-      <c r="P213" s="21"/>
-      <c r="Q213" s="21"/>
-    </row>
-    <row r="214" spans="5:23" x14ac:dyDescent="0.35">
-      <c r="F214" s="21"/>
-      <c r="G214" s="21"/>
-      <c r="H214" s="21"/>
-      <c r="I214" s="21"/>
-      <c r="J214" s="21"/>
-      <c r="K214" s="21"/>
-      <c r="L214" s="21"/>
-      <c r="M214" s="21"/>
-      <c r="N214" s="21"/>
-      <c r="O214" s="21"/>
-      <c r="P214" s="21"/>
-      <c r="Q214" s="21"/>
-    </row>
-    <row r="215" spans="5:23" x14ac:dyDescent="0.35">
-      <c r="F215" s="21"/>
-      <c r="G215" s="21"/>
-      <c r="H215" s="21"/>
-      <c r="I215" s="21"/>
-      <c r="J215" s="21"/>
-      <c r="K215" s="21"/>
-      <c r="L215" s="21"/>
-      <c r="M215" s="21"/>
-      <c r="N215" s="21"/>
-      <c r="O215" s="21"/>
-      <c r="P215" s="21"/>
-      <c r="Q215" s="21"/>
-    </row>
-    <row r="216" spans="5:23" x14ac:dyDescent="0.35">
-      <c r="F216" s="21"/>
-      <c r="G216" s="21"/>
-      <c r="H216" s="21"/>
-      <c r="I216" s="21"/>
-      <c r="J216" s="21"/>
-      <c r="K216" s="21"/>
-      <c r="L216" s="21"/>
-      <c r="M216" s="21"/>
-      <c r="N216" s="21"/>
-      <c r="O216" s="21"/>
-      <c r="P216" s="21"/>
-      <c r="Q216" s="21"/>
-    </row>
-    <row r="217" spans="5:23" x14ac:dyDescent="0.35">
-      <c r="F217" s="59" t="s">
-        <v>346</v>
-      </c>
-      <c r="G217" s="59"/>
-      <c r="H217" s="59"/>
-      <c r="I217" s="59"/>
-      <c r="J217" s="59"/>
-      <c r="K217" s="59"/>
-      <c r="L217" s="59"/>
-      <c r="M217" s="59"/>
-      <c r="N217" s="59"/>
-      <c r="O217" s="59"/>
-      <c r="P217" s="59"/>
-      <c r="Q217" s="59"/>
-      <c r="R217" s="60"/>
-      <c r="S217" s="60"/>
-      <c r="T217" s="60"/>
-      <c r="U217" s="60"/>
-      <c r="V217" s="60"/>
-      <c r="W217" s="60"/>
-    </row>
-    <row r="218" spans="5:23" x14ac:dyDescent="0.35">
-      <c r="F218" s="21"/>
-      <c r="G218" s="21"/>
-      <c r="H218" s="21"/>
-      <c r="I218" s="21"/>
-      <c r="J218" s="21"/>
-      <c r="K218" s="21"/>
-      <c r="L218" s="21"/>
-      <c r="M218" s="21"/>
-      <c r="N218" s="21"/>
-      <c r="O218" s="21"/>
-      <c r="P218" s="21"/>
-      <c r="Q218" s="21"/>
-    </row>
-    <row r="219" spans="5:23" x14ac:dyDescent="0.35">
-      <c r="E219" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="221" spans="5:23" x14ac:dyDescent="0.35">
-      <c r="E221" s="22" t="s">
+    <row r="208" spans="5:23" x14ac:dyDescent="0.35">
+      <c r="E208" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F221" s="23"/>
-      <c r="G221" s="23"/>
-    </row>
-    <row r="222" spans="5:23" x14ac:dyDescent="0.35">
-      <c r="E222" s="22"/>
-      <c r="F222" s="23" t="s">
+      <c r="F208" s="23"/>
+      <c r="G208" s="23"/>
+    </row>
+    <row r="209" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E209" s="22"/>
+      <c r="F209" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G209" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="210" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E210" s="22"/>
+      <c r="F210" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G210" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="211" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E211" s="22"/>
+      <c r="F211" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G222" s="29" t="s">
+      <c r="G211" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="212" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E212" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F212" s="23"/>
+      <c r="G212" s="23"/>
+    </row>
+    <row r="213" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E213" s="21"/>
+      <c r="F213" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G213" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="214" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E214" s="21"/>
+      <c r="F214" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G214" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="215" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E215" s="21"/>
+      <c r="F215" s="23"/>
+      <c r="G215" s="25"/>
+    </row>
+    <row r="216" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D216" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="218" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="K218" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="219" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D219" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K219" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="222" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D222" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="226" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="K226" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="231" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="H231" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="233" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E233" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="234" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E234" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="235" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D235" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="236" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F236" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="237" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F237" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G237" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="238" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F238" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G238" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="239" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D239" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E239" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F239" s="21"/>
+      <c r="G239" s="21"/>
+      <c r="H239" s="21"/>
+      <c r="I239" s="21"/>
+      <c r="J239" s="21"/>
+    </row>
+    <row r="240" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E240" s="21"/>
+      <c r="F240" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G240" s="21"/>
+      <c r="H240" s="21"/>
+      <c r="I240" s="21"/>
+      <c r="J240" s="21"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E241" s="21"/>
+      <c r="F241" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G241" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="H241" s="21"/>
+      <c r="I241" s="21"/>
+      <c r="J241" s="21"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E242" s="21"/>
+      <c r="F242" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G242" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="H242" s="21"/>
+      <c r="I242" s="21"/>
+      <c r="J242" s="21"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E243" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F243" s="21"/>
+      <c r="G243" s="21"/>
+      <c r="H243" s="21"/>
+      <c r="I243" s="21"/>
+      <c r="J243" s="21"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E244" s="21"/>
+      <c r="F244" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G244" s="21"/>
+      <c r="H244" s="21"/>
+      <c r="I244" s="21"/>
+      <c r="J244" s="21"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E245" s="21"/>
+      <c r="F245" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G245" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="H245" s="21"/>
+      <c r="I245" s="21"/>
+      <c r="J245" s="21"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E246" s="21"/>
+      <c r="F246" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G246" s="25" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="223" spans="5:23" x14ac:dyDescent="0.35">
-      <c r="E223" s="22"/>
-      <c r="F223" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G223" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="224" spans="5:23" x14ac:dyDescent="0.35">
-      <c r="E224" s="22"/>
-      <c r="F224" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="G224" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="225" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="E225" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="F225" s="23"/>
-      <c r="G225" s="23"/>
-    </row>
-    <row r="226" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="E226" s="21"/>
-      <c r="F226" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="G226" s="23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="227" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="E227" s="21"/>
-      <c r="F227" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="G227" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="228" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="E228" s="21"/>
-      <c r="F228" s="23"/>
-      <c r="G228" s="25"/>
-    </row>
-    <row r="229" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D229" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="231" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="K231" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="232" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D232" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="H246" s="21"/>
+      <c r="I246" s="21"/>
+      <c r="J246" s="21"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D247" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E247" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="235" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D235" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="239" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="K239" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="244" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="H244" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="246" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="E246" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="247" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="E247" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="248" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D248" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="249" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="F249" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="250" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="F250" s="25" t="s">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F248" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G248" s="21"/>
+      <c r="H248" s="21"/>
+      <c r="I248" s="21"/>
+      <c r="J248" s="21"/>
+      <c r="K248" s="21"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F249" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="G249" s="21"/>
+      <c r="H249" s="21"/>
+      <c r="I249" s="21"/>
+      <c r="J249" s="21"/>
+      <c r="K249" s="21"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F250" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="G250" s="21"/>
+      <c r="H250" s="21"/>
+      <c r="I250" s="43"/>
+      <c r="J250" s="25"/>
+      <c r="K250" s="43"/>
+      <c r="L250" s="13"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A251" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F251" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="G251" s="48"/>
+      <c r="H251" s="48"/>
+      <c r="I251" s="48"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F252" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G252" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="G250" s="25" t="s">
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F253" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G253" s="29" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="251" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="F251" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G251" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="252" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D252" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="E252" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="F252" s="21"/>
-      <c r="G252" s="21"/>
-      <c r="H252" s="21"/>
-      <c r="I252" s="21"/>
-      <c r="J252" s="21"/>
-    </row>
-    <row r="253" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="E253" s="21"/>
-      <c r="F253" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="G253" s="21"/>
-      <c r="H253" s="21"/>
-      <c r="I253" s="21"/>
-      <c r="J253" s="21"/>
-    </row>
-    <row r="254" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="E254" s="21"/>
-      <c r="F254" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G254" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="H254" s="21"/>
-      <c r="I254" s="21"/>
-      <c r="J254" s="21"/>
-    </row>
-    <row r="255" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="E255" s="21"/>
-      <c r="F255" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G255" s="29" t="s">
-        <v>172</v>
-      </c>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F254" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D255" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E255" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F255" s="21"/>
+      <c r="G255" s="21"/>
       <c r="H255" s="21"/>
       <c r="I255" s="21"/>
       <c r="J255" s="21"/>
     </row>
-    <row r="256" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="E256" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="F256" s="21"/>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E256" s="21"/>
+      <c r="F256" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="G256" s="21"/>
       <c r="H256" s="21"/>
       <c r="I256" s="21"/>
@@ -15415,329 +14990,390 @@
     <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E257" s="21"/>
       <c r="F257" s="21" t="s">
-        <v>173</v>
+        <v>307</v>
       </c>
       <c r="G257" s="21"/>
       <c r="H257" s="21"/>
       <c r="I257" s="21"/>
       <c r="J257" s="21"/>
+      <c r="L257" s="48"/>
+      <c r="M257" s="48"/>
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A258" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="E258" s="21"/>
-      <c r="F258" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G258" s="25" t="s">
-        <v>170</v>
-      </c>
+      <c r="F258" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="G258" s="21"/>
       <c r="H258" s="21"/>
       <c r="I258" s="21"/>
-      <c r="J258" s="21"/>
+      <c r="J258" s="59"/>
+      <c r="K258" s="60"/>
+      <c r="L258" s="60"/>
+      <c r="M258" s="60"/>
+      <c r="N258" s="60"/>
+      <c r="O258" s="60"/>
+      <c r="P258" s="60"/>
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A259" s="48" t="s">
+        <v>283</v>
+      </c>
       <c r="E259" s="21"/>
-      <c r="F259" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G259" s="25" t="s">
-        <v>174</v>
-      </c>
+      <c r="F259" s="21"/>
+      <c r="G259" s="21"/>
       <c r="H259" s="21"/>
       <c r="I259" s="21"/>
       <c r="J259" s="21"/>
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D260" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="E260" s="21"/>
+      <c r="F260" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="G260" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="H260" s="59"/>
+      <c r="I260" s="47"/>
+      <c r="J260" s="21"/>
+      <c r="K260" s="60"/>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="F261" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="G261" s="21"/>
-      <c r="H261" s="21"/>
-      <c r="I261" s="21"/>
-      <c r="J261" s="21"/>
-      <c r="K261" s="21"/>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="F262" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="G262" s="21"/>
-      <c r="H262" s="21"/>
-      <c r="I262" s="21"/>
-      <c r="J262" s="21"/>
-      <c r="K262" s="21"/>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="F263" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="G263" s="21"/>
-      <c r="H263" s="21"/>
-      <c r="I263" s="43"/>
-      <c r="J263" s="25"/>
-      <c r="K263" s="43"/>
-      <c r="L263" s="13"/>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A264" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F264" s="48" t="s">
-        <v>295</v>
-      </c>
-      <c r="G264" s="48"/>
-      <c r="H264" s="48"/>
-      <c r="I264" s="48"/>
+      <c r="A261" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="F265" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G265" s="25" t="s">
-        <v>170</v>
-      </c>
+      <c r="A265" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="F265" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G265" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="H265" s="47"/>
+      <c r="I265" s="47"/>
+      <c r="J265" s="47"/>
+      <c r="K265" s="21"/>
+      <c r="L265" s="21"/>
+      <c r="M265" s="21"/>
+      <c r="N265" s="21"/>
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="F266" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G266" s="29" t="s">
-        <v>172</v>
-      </c>
+      <c r="A266" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="G266" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="H266" s="21"/>
+      <c r="I266" s="21"/>
+      <c r="J266" s="21"/>
+      <c r="K266" s="21"/>
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="F267" s="2" t="s">
-        <v>233</v>
-      </c>
+      <c r="A267" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="G267" s="21"/>
+      <c r="H267" s="21"/>
+      <c r="I267" s="21"/>
+      <c r="J267" s="21"/>
+      <c r="K267" s="21"/>
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D268" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="E268" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="F268" s="21"/>
-      <c r="G268" s="21"/>
-      <c r="H268" s="21"/>
-      <c r="I268" s="21"/>
-      <c r="J268" s="21"/>
+      <c r="F268" s="84" t="s">
+        <v>350</v>
+      </c>
+      <c r="G268" s="84"/>
+      <c r="H268" s="84"/>
+      <c r="I268" s="83"/>
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E269" s="21"/>
-      <c r="F269" s="21" t="s">
-        <v>177</v>
-      </c>
+      <c r="E269" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="F269" s="21"/>
       <c r="G269" s="21"/>
       <c r="H269" s="21"/>
       <c r="I269" s="21"/>
       <c r="J269" s="21"/>
+      <c r="K269" s="21"/>
+      <c r="L269" s="21"/>
+      <c r="M269" s="21"/>
+      <c r="N269" s="21"/>
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E270" s="21"/>
-      <c r="F270" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="G270" s="21"/>
-      <c r="H270" s="21"/>
-      <c r="I270" s="21"/>
-      <c r="J270" s="21"/>
-      <c r="L270" s="48"/>
-      <c r="M270" s="48"/>
+      <c r="E270" s="35"/>
+      <c r="F270" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G270" s="23"/>
+      <c r="H270" s="23"/>
+      <c r="I270" s="23"/>
+      <c r="J270" s="23"/>
+      <c r="K270" s="23"/>
+      <c r="N270" s="21"/>
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A271" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E271" s="21"/>
-      <c r="F271" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="G271" s="21"/>
-      <c r="H271" s="21"/>
-      <c r="I271" s="21"/>
-      <c r="J271" s="59"/>
-      <c r="K271" s="60"/>
-      <c r="L271" s="60"/>
-      <c r="M271" s="60"/>
-      <c r="N271" s="60"/>
-      <c r="O271" s="60"/>
-      <c r="P271" s="60"/>
+      <c r="E271" s="35"/>
+      <c r="F271" s="22"/>
+      <c r="G271" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H271" s="23"/>
+      <c r="I271" s="23"/>
+      <c r="J271" s="23"/>
+      <c r="K271" s="23"/>
+      <c r="N271" s="21"/>
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A272" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="E272" s="21"/>
-      <c r="F272" s="21"/>
-      <c r="G272" s="21"/>
-      <c r="H272" s="21"/>
-      <c r="I272" s="21"/>
-      <c r="J272" s="21"/>
-    </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="E273" s="21"/>
-      <c r="F273" s="59" t="s">
-        <v>333</v>
-      </c>
-      <c r="G273" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="H273" s="59"/>
-      <c r="I273" s="47"/>
-      <c r="J273" s="21"/>
-      <c r="K273" s="60"/>
-    </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A274" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G274" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A278" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="F278" s="21" t="s">
-        <v>61</v>
-      </c>
+      <c r="E272" s="35"/>
+      <c r="F272" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G272" s="23"/>
+      <c r="H272" s="23"/>
+      <c r="I272" s="23"/>
+      <c r="J272" s="23"/>
+      <c r="K272" s="23"/>
+      <c r="N272" s="21"/>
+    </row>
+    <row r="273" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E273" s="35"/>
+      <c r="F273" s="22"/>
+      <c r="G273" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H273" s="23"/>
+      <c r="I273" s="23"/>
+      <c r="J273" s="23"/>
+      <c r="K273" s="23"/>
+      <c r="N273" s="21"/>
+    </row>
+    <row r="274" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E274" s="35"/>
+      <c r="F274" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G274" s="23"/>
+      <c r="H274" s="23"/>
+      <c r="I274" s="23"/>
+      <c r="J274" s="23"/>
+      <c r="K274" s="23"/>
+      <c r="N274" s="21"/>
+    </row>
+    <row r="275" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E275" s="35"/>
+      <c r="F275" s="22"/>
+      <c r="G275" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="H275" s="23"/>
+      <c r="I275" s="23"/>
+      <c r="J275" s="23"/>
+      <c r="K275" s="23"/>
+      <c r="N275" s="21"/>
+    </row>
+    <row r="276" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E276" s="35"/>
+      <c r="F276" s="22"/>
+      <c r="G276" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H276" s="23"/>
+      <c r="I276" s="23"/>
+      <c r="J276" s="23"/>
+      <c r="K276" s="23"/>
+      <c r="N276" s="21"/>
+    </row>
+    <row r="277" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E277" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="F277" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G277" s="23"/>
+      <c r="H277" s="23"/>
+      <c r="I277" s="23"/>
+      <c r="J277" s="23"/>
+      <c r="K277" s="23"/>
+      <c r="N277" s="21"/>
+    </row>
+    <row r="278" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E278" s="35"/>
+      <c r="F278" s="22"/>
       <c r="G278" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="H278" s="47"/>
-      <c r="I278" s="47"/>
-      <c r="J278" s="47"/>
-      <c r="K278" s="21"/>
-      <c r="L278" s="21"/>
-      <c r="M278" s="21"/>
+        <v>243</v>
+      </c>
+      <c r="H278" s="23"/>
+      <c r="I278" s="23"/>
+      <c r="J278" s="23"/>
+      <c r="K278" s="23"/>
       <c r="N278" s="21"/>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A279" s="45" t="s">
-        <v>278</v>
-      </c>
-      <c r="G279" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="H279" s="21"/>
-      <c r="I279" s="21"/>
-      <c r="J279" s="21"/>
-      <c r="K279" s="21"/>
-    </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A280" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="G280" s="21"/>
+    <row r="279" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E279" s="35"/>
+      <c r="F279" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G279" s="23"/>
+      <c r="H279" s="23"/>
+      <c r="I279" s="23"/>
+      <c r="J279" s="23"/>
+      <c r="K279" s="23"/>
+      <c r="N279" s="21"/>
+    </row>
+    <row r="280" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E280" s="35"/>
+      <c r="F280" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="G280" s="21" t="s">
+        <v>308</v>
+      </c>
       <c r="H280" s="21"/>
       <c r="I280" s="21"/>
       <c r="J280" s="21"/>
       <c r="K280" s="21"/>
-    </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="F281" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="G281" s="21"/>
-      <c r="H281" s="21"/>
-    </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A282" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F282" s="21"/>
-      <c r="G282" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="H282" s="21"/>
-      <c r="O282" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P282" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="F283" s="21"/>
-      <c r="G283" s="21"/>
+      <c r="L280" s="21"/>
+      <c r="M280" s="21"/>
+      <c r="N280" s="21"/>
+      <c r="O280" s="59" t="s">
+        <v>321</v>
+      </c>
+      <c r="P280" s="60"/>
+      <c r="Q280" s="60"/>
+    </row>
+    <row r="281" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E281" s="35"/>
+      <c r="F281" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="G281" s="59" t="s">
+        <v>322</v>
+      </c>
+      <c r="H281" s="59"/>
+      <c r="I281" s="59"/>
+      <c r="J281" s="59"/>
+      <c r="K281" s="59"/>
+      <c r="L281" s="59"/>
+      <c r="M281" s="59"/>
+      <c r="N281" s="59"/>
+      <c r="O281" s="59"/>
+      <c r="P281" s="60"/>
+      <c r="Q281" s="60"/>
+      <c r="R281" s="60"/>
+      <c r="S281" s="60"/>
+      <c r="T281" s="60"/>
+    </row>
+    <row r="282" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E282" s="35"/>
+      <c r="F282" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="G282" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="H282" s="59"/>
+      <c r="I282" s="59"/>
+      <c r="J282" s="59"/>
+      <c r="K282" s="59"/>
+      <c r="L282" s="59"/>
+      <c r="M282" s="59"/>
+      <c r="N282" s="59"/>
+      <c r="O282" s="59"/>
+      <c r="P282" s="60"/>
+      <c r="Q282" s="60"/>
+      <c r="R282" s="60"/>
+      <c r="S282" s="60"/>
+      <c r="T282" s="60"/>
+    </row>
+    <row r="283" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E283" s="35"/>
+      <c r="F283" s="61"/>
+      <c r="G283" s="21" t="s">
+        <v>325</v>
+      </c>
       <c r="H283" s="21"/>
-    </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="F284" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="G284" s="21"/>
-      <c r="H284" s="21"/>
-      <c r="L284" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="N284" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="O284" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="P284" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="I283" s="21"/>
+      <c r="J283" s="21"/>
+      <c r="K283" s="21"/>
+      <c r="L283" s="21"/>
+      <c r="M283" s="21"/>
+      <c r="N283" s="21"/>
+      <c r="O283" s="21"/>
+    </row>
+    <row r="284" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E284" s="35"/>
+      <c r="F284" s="61"/>
+      <c r="G284" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="H284" s="59"/>
+      <c r="I284" s="59"/>
+      <c r="J284" s="59"/>
+      <c r="K284" s="59"/>
+      <c r="L284" s="59"/>
+      <c r="M284" s="59"/>
+      <c r="N284" s="59"/>
+      <c r="O284" s="21"/>
+    </row>
+    <row r="285" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E285" s="35"/>
-      <c r="F285" s="21"/>
-      <c r="G285" s="23"/>
-      <c r="H285" s="23"/>
-      <c r="I285" s="21"/>
-      <c r="J285" s="21"/>
-      <c r="N285" s="22"/>
-      <c r="O285" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q285" s="23"/>
-      <c r="R285" s="23"/>
-      <c r="S285" s="23"/>
-    </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="F285" s="61"/>
+      <c r="G285" s="60" t="s">
+        <v>317</v>
+      </c>
+      <c r="H285" s="59"/>
+      <c r="I285" s="59"/>
+      <c r="J285" s="59"/>
+      <c r="K285" s="59"/>
+      <c r="L285" s="59"/>
+      <c r="M285" s="59"/>
+      <c r="N285" s="59"/>
+      <c r="O285" s="21"/>
+    </row>
+    <row r="286" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E286" s="35"/>
       <c r="F286" s="21"/>
-      <c r="G286" s="23"/>
-      <c r="H286" s="23"/>
+      <c r="G286" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="H286" s="21"/>
       <c r="I286" s="21"/>
       <c r="J286" s="21"/>
-      <c r="N286" s="22"/>
-      <c r="O286" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q286" s="23"/>
-      <c r="R286" s="23"/>
-      <c r="S286" s="23"/>
-    </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K286" s="21"/>
+      <c r="L286" s="21"/>
+      <c r="M286" s="21"/>
+      <c r="N286" s="21"/>
+      <c r="O286" s="21"/>
+    </row>
+    <row r="287" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E287" s="35"/>
       <c r="F287" s="21"/>
-      <c r="G287" s="23"/>
-      <c r="H287" s="23"/>
+      <c r="G287" s="21"/>
+      <c r="H287" s="21"/>
       <c r="I287" s="21"/>
       <c r="J287" s="21"/>
-      <c r="N287" s="22"/>
-      <c r="O287" s="23"/>
-      <c r="P287" s="23"/>
-      <c r="Q287" s="23"/>
-      <c r="R287" s="23"/>
-      <c r="S287" s="23"/>
-    </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="E288" s="35" t="s">
-        <v>183</v>
-      </c>
+      <c r="K287" s="21"/>
+      <c r="L287" s="21"/>
+      <c r="M287" s="21"/>
+      <c r="N287" s="21"/>
+      <c r="O287" s="21"/>
+    </row>
+    <row r="288" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E288" s="35"/>
       <c r="F288" s="21"/>
       <c r="G288" s="21"/>
       <c r="H288" s="21"/>
@@ -15747,255 +15383,247 @@
       <c r="L288" s="21"/>
       <c r="M288" s="21"/>
       <c r="N288" s="21"/>
-    </row>
-    <row r="289" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="O288" s="21"/>
+    </row>
+    <row r="289" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E289" s="35"/>
-      <c r="F289" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G289" s="23"/>
-      <c r="H289" s="23"/>
-      <c r="I289" s="23"/>
-      <c r="J289" s="23"/>
-      <c r="K289" s="23"/>
+      <c r="F289" s="21"/>
+      <c r="G289" s="21"/>
+      <c r="H289" s="21"/>
+      <c r="I289" s="21"/>
+      <c r="J289" s="21"/>
+      <c r="K289" s="21"/>
+      <c r="L289" s="21"/>
+      <c r="M289" s="21"/>
       <c r="N289" s="21"/>
-    </row>
-    <row r="290" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="O289" s="21"/>
+    </row>
+    <row r="290" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E290" s="35"/>
-      <c r="F290" s="22"/>
-      <c r="G290" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H290" s="23"/>
-      <c r="I290" s="23"/>
-      <c r="J290" s="23"/>
-      <c r="K290" s="23"/>
+      <c r="F290" s="21"/>
+      <c r="G290" s="21"/>
+      <c r="H290" s="21"/>
+      <c r="I290" s="21"/>
+      <c r="J290" s="21"/>
+      <c r="K290" s="21"/>
+      <c r="L290" s="21"/>
+      <c r="M290" s="21"/>
       <c r="N290" s="21"/>
-    </row>
-    <row r="291" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="O290" s="21"/>
+    </row>
+    <row r="291" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E291" s="35"/>
-      <c r="F291" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G291" s="23"/>
-      <c r="H291" s="23"/>
-      <c r="I291" s="23"/>
-      <c r="J291" s="23"/>
-      <c r="K291" s="23"/>
+      <c r="F291" s="21"/>
+      <c r="G291" s="21"/>
+      <c r="H291" s="21"/>
+      <c r="I291" s="21"/>
+      <c r="J291" s="21"/>
+      <c r="K291" s="21"/>
+      <c r="L291" s="21"/>
+      <c r="M291" s="21"/>
       <c r="N291" s="21"/>
-    </row>
-    <row r="292" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="O291" s="21"/>
+    </row>
+    <row r="292" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E292" s="35"/>
-      <c r="F292" s="22"/>
-      <c r="G292" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H292" s="23"/>
-      <c r="I292" s="23"/>
-      <c r="J292" s="23"/>
-      <c r="K292" s="23"/>
+      <c r="F292" s="21"/>
+      <c r="G292" s="21"/>
+      <c r="H292" s="21"/>
+      <c r="I292" s="21"/>
+      <c r="J292" s="21"/>
+      <c r="K292" s="21"/>
+      <c r="L292" s="21"/>
+      <c r="M292" s="21"/>
       <c r="N292" s="21"/>
-    </row>
-    <row r="293" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="O292" s="21"/>
+    </row>
+    <row r="293" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E293" s="35"/>
-      <c r="F293" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G293" s="23"/>
-      <c r="H293" s="23"/>
-      <c r="I293" s="23"/>
-      <c r="J293" s="23"/>
-      <c r="K293" s="23"/>
+      <c r="F293" s="21"/>
+      <c r="G293" s="21"/>
+      <c r="H293" s="21"/>
+      <c r="I293" s="21"/>
+      <c r="J293" s="21"/>
+      <c r="K293" s="21"/>
+      <c r="L293" s="21"/>
+      <c r="M293" s="21"/>
       <c r="N293" s="21"/>
-    </row>
-    <row r="294" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="O293" s="21"/>
+    </row>
+    <row r="294" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E294" s="35"/>
-      <c r="F294" s="22"/>
-      <c r="G294" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="H294" s="23"/>
-      <c r="I294" s="23"/>
-      <c r="J294" s="23"/>
-      <c r="K294" s="23"/>
+      <c r="F294" s="21"/>
+      <c r="G294" s="21"/>
+      <c r="H294" s="21"/>
+      <c r="I294" s="21"/>
+      <c r="J294" s="21"/>
+      <c r="K294" s="21"/>
+      <c r="L294" s="21"/>
+      <c r="M294" s="21"/>
       <c r="N294" s="21"/>
-    </row>
-    <row r="295" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="O294" s="21"/>
+    </row>
+    <row r="295" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E295" s="35"/>
-      <c r="F295" s="22"/>
-      <c r="G295" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="H295" s="23"/>
-      <c r="I295" s="23"/>
-      <c r="J295" s="23"/>
-      <c r="K295" s="23"/>
+      <c r="F295" s="21"/>
+      <c r="G295" s="21"/>
+      <c r="H295" s="21"/>
+      <c r="I295" s="21"/>
+      <c r="J295" s="21"/>
+      <c r="K295" s="21"/>
+      <c r="L295" s="21"/>
+      <c r="M295" s="21"/>
       <c r="N295" s="21"/>
-    </row>
-    <row r="296" spans="5:20" x14ac:dyDescent="0.35">
-      <c r="E296" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="F296" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G296" s="23"/>
-      <c r="H296" s="23"/>
-      <c r="I296" s="23"/>
-      <c r="J296" s="23"/>
-      <c r="K296" s="23"/>
+      <c r="O295" s="21"/>
+    </row>
+    <row r="296" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E296" s="35"/>
+      <c r="F296" s="21"/>
+      <c r="G296" s="21"/>
+      <c r="H296" s="21"/>
+      <c r="I296" s="21"/>
+      <c r="J296" s="21"/>
+      <c r="K296" s="21"/>
+      <c r="L296" s="21"/>
+      <c r="M296" s="21"/>
       <c r="N296" s="21"/>
-    </row>
-    <row r="297" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="O296" s="21"/>
+    </row>
+    <row r="297" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E297" s="35"/>
-      <c r="F297" s="22"/>
-      <c r="G297" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="H297" s="23"/>
-      <c r="I297" s="23"/>
-      <c r="J297" s="23"/>
-      <c r="K297" s="23"/>
+      <c r="F297" s="21"/>
+      <c r="G297" s="21"/>
+      <c r="H297" s="21"/>
+      <c r="I297" s="21"/>
+      <c r="J297" s="21"/>
+      <c r="K297" s="21"/>
+      <c r="L297" s="21"/>
+      <c r="M297" s="21"/>
       <c r="N297" s="21"/>
-    </row>
-    <row r="298" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="O297" s="21"/>
+    </row>
+    <row r="298" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E298" s="35"/>
-      <c r="F298" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G298" s="23"/>
-      <c r="H298" s="23"/>
-      <c r="I298" s="23"/>
-      <c r="J298" s="23"/>
-      <c r="K298" s="23"/>
+      <c r="F298" s="21"/>
+      <c r="G298" s="21"/>
+      <c r="H298" s="21"/>
+      <c r="I298" s="21"/>
+      <c r="J298" s="21"/>
+      <c r="K298" s="21"/>
+      <c r="L298" s="21"/>
+      <c r="M298" s="21"/>
       <c r="N298" s="21"/>
-    </row>
-    <row r="299" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="O298" s="21"/>
+    </row>
+    <row r="299" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E299" s="35"/>
-      <c r="F299" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="G299" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="H299" s="21"/>
+      <c r="F299" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G299" s="23"/>
+      <c r="H299" s="23"/>
       <c r="I299" s="21"/>
       <c r="J299" s="21"/>
       <c r="K299" s="21"/>
       <c r="L299" s="21"/>
       <c r="M299" s="21"/>
       <c r="N299" s="21"/>
-      <c r="O299" s="59" t="s">
-        <v>334</v>
-      </c>
-      <c r="P299" s="60"/>
-      <c r="Q299" s="60"/>
-    </row>
-    <row r="300" spans="5:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="300" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E300" s="35"/>
-      <c r="F300" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="G300" s="59" t="s">
-        <v>335</v>
-      </c>
-      <c r="H300" s="59"/>
-      <c r="I300" s="59"/>
-      <c r="J300" s="59"/>
-      <c r="K300" s="59"/>
-      <c r="L300" s="59"/>
-      <c r="M300" s="59"/>
-      <c r="N300" s="59"/>
-      <c r="O300" s="59"/>
-      <c r="P300" s="60"/>
-      <c r="Q300" s="60"/>
-      <c r="R300" s="60"/>
-      <c r="S300" s="60"/>
-      <c r="T300" s="60"/>
-    </row>
-    <row r="301" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="F300" s="22"/>
+      <c r="G300" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="H300" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="I300" s="21"/>
+      <c r="J300" s="21"/>
+      <c r="K300" s="21"/>
+      <c r="L300" s="21"/>
+      <c r="M300" s="21"/>
+      <c r="N300" s="21"/>
+    </row>
+    <row r="301" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E301" s="35"/>
-      <c r="F301" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="G301" s="59" t="s">
-        <v>336</v>
-      </c>
-      <c r="H301" s="59"/>
-      <c r="I301" s="59"/>
-      <c r="J301" s="59"/>
-      <c r="K301" s="59"/>
-      <c r="L301" s="59"/>
-      <c r="M301" s="59"/>
-      <c r="N301" s="59"/>
-      <c r="O301" s="59"/>
-      <c r="P301" s="60"/>
-      <c r="Q301" s="60"/>
-      <c r="R301" s="60"/>
-      <c r="S301" s="60"/>
-      <c r="T301" s="60"/>
-    </row>
-    <row r="302" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="F301" s="22"/>
+      <c r="G301" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="H301" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="I301" s="21"/>
+      <c r="J301" s="21"/>
+      <c r="K301" s="21"/>
+      <c r="L301" s="21"/>
+      <c r="M301" s="21"/>
+      <c r="N301" s="21"/>
+    </row>
+    <row r="302" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E302" s="35"/>
-      <c r="F302" s="61"/>
-      <c r="G302" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="H302" s="21"/>
+      <c r="F302" s="22"/>
+      <c r="G302" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="H302" s="29" t="s">
+        <v>170</v>
+      </c>
       <c r="I302" s="21"/>
       <c r="J302" s="21"/>
       <c r="K302" s="21"/>
       <c r="L302" s="21"/>
       <c r="M302" s="21"/>
       <c r="N302" s="21"/>
-      <c r="O302" s="21"/>
-    </row>
-    <row r="303" spans="5:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="303" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E303" s="35"/>
-      <c r="F303" s="61"/>
-      <c r="G303" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="H303" s="59"/>
-      <c r="I303" s="59"/>
-      <c r="J303" s="59"/>
-      <c r="K303" s="59"/>
-      <c r="L303" s="59"/>
-      <c r="M303" s="59"/>
-      <c r="N303" s="59"/>
-      <c r="O303" s="21"/>
-    </row>
-    <row r="304" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="F303" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G303" s="23"/>
+      <c r="H303" s="23"/>
+      <c r="I303" s="21"/>
+      <c r="J303" s="21"/>
+      <c r="K303" s="21"/>
+      <c r="L303" s="21"/>
+      <c r="M303" s="21"/>
+      <c r="N303" s="21"/>
+    </row>
+    <row r="304" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E304" s="35"/>
-      <c r="F304" s="61"/>
-      <c r="G304" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="H304" s="59"/>
-      <c r="I304" s="59"/>
-      <c r="J304" s="59"/>
-      <c r="K304" s="59"/>
-      <c r="L304" s="59"/>
-      <c r="M304" s="59"/>
-      <c r="N304" s="59"/>
-      <c r="O304" s="21"/>
-    </row>
-    <row r="305" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="F304" s="21"/>
+      <c r="G304" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="H304" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I304" s="21"/>
+      <c r="J304" s="21"/>
+      <c r="K304" s="21"/>
+      <c r="L304" s="21"/>
+      <c r="M304" s="21"/>
+      <c r="N304" s="21"/>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E305" s="35"/>
       <c r="F305" s="21"/>
-      <c r="G305" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="H305" s="21"/>
+      <c r="G305" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="H305" s="29" t="s">
+        <v>170</v>
+      </c>
       <c r="I305" s="21"/>
       <c r="J305" s="21"/>
       <c r="K305" s="21"/>
       <c r="L305" s="21"/>
       <c r="M305" s="21"/>
       <c r="N305" s="21"/>
-      <c r="O305" s="21"/>
-    </row>
-    <row r="306" spans="5:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E306" s="35"/>
       <c r="F306" s="21"/>
       <c r="G306" s="21"/>
@@ -16006,9 +15634,11 @@
       <c r="L306" s="21"/>
       <c r="M306" s="21"/>
       <c r="N306" s="21"/>
-      <c r="O306" s="21"/>
-    </row>
-    <row r="307" spans="5:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B307" s="31" t="s">
+        <v>196</v>
+      </c>
       <c r="E307" s="35"/>
       <c r="F307" s="21"/>
       <c r="G307" s="21"/>
@@ -16019,9 +15649,11 @@
       <c r="L307" s="21"/>
       <c r="M307" s="21"/>
       <c r="N307" s="21"/>
-      <c r="O307" s="21"/>
-    </row>
-    <row r="308" spans="5:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C308" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="E308" s="35"/>
       <c r="F308" s="21"/>
       <c r="G308" s="21"/>
@@ -16032,10 +15664,15 @@
       <c r="L308" s="21"/>
       <c r="M308" s="21"/>
       <c r="N308" s="21"/>
-      <c r="O308" s="21"/>
-    </row>
-    <row r="309" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E309" s="35"/>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A309" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D309" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="E309" s="49"/>
       <c r="F309" s="21"/>
       <c r="G309" s="21"/>
       <c r="H309" s="21"/>
@@ -16045,35 +15682,41 @@
       <c r="L309" s="21"/>
       <c r="M309" s="21"/>
       <c r="N309" s="21"/>
-      <c r="O309" s="21"/>
-    </row>
-    <row r="310" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E310" s="35"/>
-      <c r="F310" s="21"/>
-      <c r="G310" s="21"/>
-      <c r="H310" s="21"/>
-      <c r="I310" s="21"/>
-      <c r="J310" s="21"/>
-      <c r="K310" s="21"/>
-      <c r="L310" s="21"/>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D310" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="E310" s="49"/>
+      <c r="F310" s="47"/>
+      <c r="G310" s="47"/>
+      <c r="H310" s="47"/>
+      <c r="I310" s="47"/>
+      <c r="J310" s="47"/>
+      <c r="K310" s="47"/>
+      <c r="L310" s="47"/>
       <c r="M310" s="21"/>
       <c r="N310" s="21"/>
-      <c r="O310" s="21"/>
-    </row>
-    <row r="311" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E311" s="35"/>
-      <c r="F311" s="21"/>
-      <c r="G311" s="21"/>
-      <c r="H311" s="21"/>
-      <c r="I311" s="21"/>
-      <c r="J311" s="21"/>
-      <c r="K311" s="21"/>
-      <c r="L311" s="21"/>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D311" s="48"/>
+      <c r="E311" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="F311" s="47"/>
+      <c r="G311" s="47"/>
+      <c r="H311" s="47"/>
+      <c r="I311" s="47"/>
+      <c r="J311" s="47"/>
+      <c r="K311" s="47"/>
+      <c r="L311" s="47"/>
       <c r="M311" s="21"/>
       <c r="N311" s="21"/>
-      <c r="O311" s="21"/>
-    </row>
-    <row r="312" spans="5:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D312" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="E312" s="35"/>
       <c r="F312" s="21"/>
       <c r="G312" s="21"/>
@@ -16084,9 +15727,8 @@
       <c r="L312" s="21"/>
       <c r="M312" s="21"/>
       <c r="N312" s="21"/>
-      <c r="O312" s="21"/>
-    </row>
-    <row r="313" spans="5:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E313" s="35"/>
       <c r="F313" s="21"/>
       <c r="G313" s="21"/>
@@ -16097,10 +15739,12 @@
       <c r="L313" s="21"/>
       <c r="M313" s="21"/>
       <c r="N313" s="21"/>
-      <c r="O313" s="21"/>
-    </row>
-    <row r="314" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E314" s="35"/>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C314" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E314" s="21"/>
       <c r="F314" s="21"/>
       <c r="G314" s="21"/>
       <c r="H314" s="21"/>
@@ -16110,305 +15754,25 @@
       <c r="L314" s="21"/>
       <c r="M314" s="21"/>
       <c r="N314" s="21"/>
-      <c r="O314" s="21"/>
-    </row>
-    <row r="315" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E315" s="35"/>
-      <c r="F315" s="21"/>
-      <c r="G315" s="21"/>
-      <c r="H315" s="21"/>
-      <c r="I315" s="21"/>
-      <c r="J315" s="21"/>
-      <c r="K315" s="21"/>
-      <c r="L315" s="21"/>
-      <c r="M315" s="21"/>
-      <c r="N315" s="21"/>
-      <c r="O315" s="21"/>
-    </row>
-    <row r="316" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E316" s="35"/>
-      <c r="F316" s="21"/>
-      <c r="G316" s="21"/>
-      <c r="H316" s="21"/>
-      <c r="I316" s="21"/>
-      <c r="J316" s="21"/>
-      <c r="K316" s="21"/>
-      <c r="L316" s="21"/>
-      <c r="M316" s="21"/>
-      <c r="N316" s="21"/>
-      <c r="O316" s="21"/>
-    </row>
-    <row r="317" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E317" s="35"/>
-      <c r="F317" s="21"/>
-      <c r="G317" s="21"/>
-      <c r="H317" s="21"/>
-      <c r="I317" s="21"/>
-      <c r="J317" s="21"/>
-      <c r="K317" s="21"/>
-      <c r="L317" s="21"/>
-      <c r="M317" s="21"/>
-      <c r="N317" s="21"/>
-      <c r="O317" s="21"/>
-    </row>
-    <row r="318" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E318" s="35"/>
-      <c r="F318" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G318" s="23"/>
-      <c r="H318" s="23"/>
-      <c r="I318" s="21"/>
-      <c r="J318" s="21"/>
-      <c r="K318" s="21"/>
-      <c r="L318" s="21"/>
-      <c r="M318" s="21"/>
-      <c r="N318" s="21"/>
-    </row>
-    <row r="319" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E319" s="35"/>
-      <c r="F319" s="22"/>
-      <c r="G319" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="H319" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="I319" s="21"/>
-      <c r="J319" s="21"/>
-      <c r="K319" s="21"/>
-      <c r="L319" s="21"/>
-      <c r="M319" s="21"/>
-      <c r="N319" s="21"/>
-    </row>
-    <row r="320" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E320" s="35"/>
-      <c r="F320" s="22"/>
-      <c r="G320" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H320" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="I320" s="21"/>
-      <c r="J320" s="21"/>
-      <c r="K320" s="21"/>
-      <c r="L320" s="21"/>
-      <c r="M320" s="21"/>
-      <c r="N320" s="21"/>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E321" s="35"/>
-      <c r="F321" s="22"/>
-      <c r="G321" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="H321" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="I321" s="21"/>
-      <c r="J321" s="21"/>
-      <c r="K321" s="21"/>
-      <c r="L321" s="21"/>
-      <c r="M321" s="21"/>
-      <c r="N321" s="21"/>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E322" s="35"/>
-      <c r="F322" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="G322" s="23"/>
-      <c r="H322" s="23"/>
-      <c r="I322" s="21"/>
-      <c r="J322" s="21"/>
-      <c r="K322" s="21"/>
-      <c r="L322" s="21"/>
-      <c r="M322" s="21"/>
-      <c r="N322" s="21"/>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E323" s="35"/>
-      <c r="F323" s="21"/>
-      <c r="G323" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="H323" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="I323" s="21"/>
-      <c r="J323" s="21"/>
-      <c r="K323" s="21"/>
-      <c r="L323" s="21"/>
-      <c r="M323" s="21"/>
-      <c r="N323" s="21"/>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E324" s="35"/>
-      <c r="F324" s="21"/>
-      <c r="G324" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="H324" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="I324" s="21"/>
-      <c r="J324" s="21"/>
-      <c r="K324" s="21"/>
-      <c r="L324" s="21"/>
-      <c r="M324" s="21"/>
-      <c r="N324" s="21"/>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E325" s="35"/>
-      <c r="F325" s="21"/>
-      <c r="G325" s="21"/>
-      <c r="H325" s="21"/>
-      <c r="I325" s="21"/>
-      <c r="J325" s="21"/>
-      <c r="K325" s="21"/>
-      <c r="L325" s="21"/>
-      <c r="M325" s="21"/>
-      <c r="N325" s="21"/>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B326" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="E326" s="35"/>
-      <c r="F326" s="21"/>
-      <c r="G326" s="21"/>
-      <c r="H326" s="21"/>
-      <c r="I326" s="21"/>
-      <c r="J326" s="21"/>
-      <c r="K326" s="21"/>
-      <c r="L326" s="21"/>
-      <c r="M326" s="21"/>
-      <c r="N326" s="21"/>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C327" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E327" s="35"/>
-      <c r="F327" s="21"/>
-      <c r="G327" s="21"/>
-      <c r="H327" s="21"/>
-      <c r="I327" s="21"/>
-      <c r="J327" s="21"/>
-      <c r="K327" s="21"/>
-      <c r="L327" s="21"/>
-      <c r="M327" s="21"/>
-      <c r="N327" s="21"/>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A328" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D328" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="E328" s="49"/>
-      <c r="F328" s="21"/>
-      <c r="G328" s="21"/>
-      <c r="H328" s="21"/>
-      <c r="I328" s="21"/>
-      <c r="J328" s="21"/>
-      <c r="K328" s="21"/>
-      <c r="L328" s="21"/>
-      <c r="M328" s="21"/>
-      <c r="N328" s="21"/>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D329" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="E329" s="49"/>
-      <c r="F329" s="47"/>
-      <c r="G329" s="47"/>
-      <c r="H329" s="47"/>
-      <c r="I329" s="47"/>
-      <c r="J329" s="47"/>
-      <c r="K329" s="47"/>
-      <c r="L329" s="47"/>
-      <c r="M329" s="21"/>
-      <c r="N329" s="21"/>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D330" s="48"/>
-      <c r="E330" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="F330" s="47"/>
-      <c r="G330" s="47"/>
-      <c r="H330" s="47"/>
-      <c r="I330" s="47"/>
-      <c r="J330" s="47"/>
-      <c r="K330" s="47"/>
-      <c r="L330" s="47"/>
-      <c r="M330" s="21"/>
-      <c r="N330" s="21"/>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D331" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E331" s="35"/>
-      <c r="F331" s="21"/>
-      <c r="G331" s="21"/>
-      <c r="H331" s="21"/>
-      <c r="I331" s="21"/>
-      <c r="J331" s="21"/>
-      <c r="K331" s="21"/>
-      <c r="L331" s="21"/>
-      <c r="M331" s="21"/>
-      <c r="N331" s="21"/>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E332" s="35"/>
-      <c r="F332" s="21"/>
-      <c r="G332" s="21"/>
-      <c r="H332" s="21"/>
-      <c r="I332" s="21"/>
-      <c r="J332" s="21"/>
-      <c r="K332" s="21"/>
-      <c r="L332" s="21"/>
-      <c r="M332" s="21"/>
-      <c r="N332" s="21"/>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C333" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E333" s="21"/>
-      <c r="F333" s="21"/>
-      <c r="G333" s="21"/>
-      <c r="H333" s="21"/>
-      <c r="I333" s="21"/>
-      <c r="J333" s="21"/>
-      <c r="K333" s="21"/>
-      <c r="L333" s="21"/>
-      <c r="M333" s="21"/>
-      <c r="N333" s="21"/>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D334" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E334" s="21"/>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E335" s="21"/>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E336" s="21"/>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D315" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E315" s="21"/>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E316" s="21"/>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E317" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:AA1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A102 A157:A158 A162:A163 A266:A271 A105:A114 A116:A155 A203:A264 A273:A277 A281:A1048576 A165:A200">
+  <conditionalFormatting sqref="A1:A102 A144:A145 A149:A150 A253:A258 A105:A114 A190:A251 A260:A264 A152:A187 A116:A142 A268:A1048576">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -16443,116 +15807,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
+      <c r="A1" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B2" s="35" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="35"/>
       <c r="B3" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>218</v>
-      </c>
       <c r="G3" s="49" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="35"/>
       <c r="B4" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>210</v>
-      </c>
       <c r="G4" s="51" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -16563,17 +15927,17 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G9" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G10" s="21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G13" s="44" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -16588,10 +15952,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA147"/>
+  <dimension ref="A1:AA130"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O89" sqref="O89"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="R125" sqref="R125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -16601,34 +15965,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
     </row>
     <row r="2" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
@@ -16678,7 +16042,7 @@
     </row>
     <row r="6" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -16696,7 +16060,7 @@
     </row>
     <row r="7" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -16847,12 +16211,12 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -17021,7 +16385,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -17247,7 +16611,7 @@
       <c r="B40" s="13"/>
       <c r="C40" s="2"/>
       <c r="D40" s="56" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="2"/>
@@ -17267,7 +16631,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="38"/>
       <c r="E41" s="38" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -17531,7 +16895,7 @@
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
       <c r="G60" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
@@ -17718,12 +17082,12 @@
       <c r="E74" s="13"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="25" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="K74" s="13"/>
     </row>
@@ -17751,7 +17115,7 @@
       <c r="E76" s="13"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -17812,279 +17176,294 @@
       <c r="D80" s="13"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
-        <v>146</v>
+        <v>349</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="14"/>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2" t="s">
+      <c r="D81" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="13"/>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E81" s="13"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="13"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E82" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F82" s="23"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="13"/>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E83" s="22"/>
+      <c r="F83" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="13"/>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E84" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="13"/>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E85" s="22"/>
+      <c r="F85" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
       <c r="J86" s="13"/>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
       <c r="J87" s="13"/>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
       <c r="J88" s="13"/>
-      <c r="L88" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
+      <c r="D89" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
-      <c r="J89" s="13"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
+      <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
-      <c r="J90" s="13"/>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
+      <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
-      <c r="J91" s="13"/>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B92" s="30"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B92" s="13"/>
       <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
+      <c r="D92" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
-      <c r="J92" s="13"/>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="J92" s="2"/>
+      <c r="K92" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
+      <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
-      <c r="J93" s="13"/>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
-      <c r="J94" s="13"/>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B95" s="13"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B95" s="30"/>
       <c r="C95" s="13"/>
-      <c r="D95" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E95" s="13"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D95" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F96" s="23"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
-      <c r="D103" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -18093,19 +17472,20 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
+      <c r="H104" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
       <c r="D105" s="2"/>
@@ -18115,177 +17495,208 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
-      <c r="K105" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K105" s="2"/>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
-      <c r="D106" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E106" s="2"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
-      <c r="K106" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B109" s="30"/>
+    </row>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B109" s="13"/>
       <c r="C109" s="13"/>
-      <c r="D109" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="D109" s="13"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="F109" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
-      <c r="D110" s="2"/>
+      <c r="D110" s="13"/>
       <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="F110" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="21"/>
+      <c r="J111" s="21"/>
       <c r="K111" s="2"/>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+    </row>
+    <row r="112" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="K112" s="13"/>
+      <c r="L112" s="13"/>
+      <c r="M112" s="13"/>
+      <c r="N112" s="13"/>
+      <c r="O112" s="13"/>
+      <c r="P112" s="13"/>
+      <c r="Q112" s="13"/>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="D113" s="13"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="K113" s="13"/>
+      <c r="L113" s="13"/>
+      <c r="M113" s="13"/>
+      <c r="N113" s="13"/>
+      <c r="O113" s="13"/>
+      <c r="P113" s="13"/>
+      <c r="Q113" s="13"/>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="K114" s="13"/>
+      <c r="L114" s="13"/>
+      <c r="M114" s="13"/>
+      <c r="N114" s="13"/>
+      <c r="O114" s="13"/>
+      <c r="P114" s="13"/>
+      <c r="Q114" s="13"/>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="21"/>
       <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G116" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="H116" s="21"/>
+      <c r="I116" s="21"/>
+      <c r="J116" s="21"/>
       <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
-      <c r="D117" s="2"/>
+      <c r="D117" s="13"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
+      <c r="G117" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
-      <c r="D118" s="2"/>
+      <c r="D118" s="13"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
-      <c r="H118" s="2" t="s">
-        <v>163</v>
-      </c>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
-      <c r="D119" s="2"/>
+      <c r="D119" s="13"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -18293,370 +17704,116 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
-      <c r="E120" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G120" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="H120" s="21"/>
+      <c r="I120" s="21"/>
+      <c r="J120" s="21"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="21"/>
+      <c r="M120" s="21"/>
+      <c r="N120" s="21"/>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
-      <c r="E121" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="E121" s="2"/>
       <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
+      <c r="G121" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="H121" s="21"/>
+      <c r="I121" s="21"/>
+      <c r="J121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
     </row>
     <row r="122" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
-      <c r="E122" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="E122" s="2"/>
       <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="21"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
     </row>
     <row r="123" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
-      <c r="E123" s="2"/>
+      <c r="E123" s="13"/>
       <c r="F123" s="21" t="s">
-        <v>175</v>
+        <v>352</v>
       </c>
       <c r="G123" s="21"/>
       <c r="H123" s="21"/>
-      <c r="I123" s="21"/>
-      <c r="J123" s="21"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="G124" s="21"/>
-      <c r="H124" s="21"/>
-      <c r="I124" s="21"/>
-      <c r="J124" s="21"/>
+      <c r="E124" s="35" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="F125" s="21"/>
-      <c r="G125" s="21"/>
-      <c r="H125" s="21"/>
-      <c r="I125" s="21"/>
-      <c r="J125" s="21"/>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
+      <c r="F125" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G125" s="23"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="21"/>
-      <c r="F126" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="K126" s="13"/>
-      <c r="L126" s="13"/>
-      <c r="M126" s="13"/>
-      <c r="N126" s="13"/>
-      <c r="O126" s="13"/>
-      <c r="P126" s="13"/>
-      <c r="Q126" s="13"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="23" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="K127" s="13"/>
-      <c r="L127" s="13"/>
-      <c r="M127" s="13"/>
-      <c r="N127" s="13"/>
-      <c r="O127" s="13"/>
-      <c r="P127" s="13"/>
-      <c r="Q127" s="13"/>
+      <c r="F127" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G127" s="23"/>
+      <c r="H127" s="23"/>
     </row>
     <row r="128" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="K128" s="13"/>
-      <c r="L128" s="13"/>
-      <c r="M128" s="13"/>
-      <c r="N128" s="13"/>
-      <c r="O128" s="13"/>
-      <c r="P128" s="13"/>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="21"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="21"/>
-      <c r="H129" s="21"/>
-      <c r="I129" s="21"/>
-      <c r="J129" s="21"/>
-      <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B130" s="13"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="21"/>
-      <c r="F130" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="G130" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="H130" s="21"/>
-      <c r="I130" s="21"/>
-      <c r="J130" s="21"/>
-      <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B131" s="13"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B132" s="13"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B133" s="13"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B134" s="13"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G134" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="H134" s="21"/>
-      <c r="I134" s="21"/>
-      <c r="J134" s="21"/>
-      <c r="K134" s="21"/>
-      <c r="L134" s="21"/>
-      <c r="M134" s="21"/>
-      <c r="N134" s="21"/>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B135" s="13"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="H135" s="21"/>
-      <c r="I135" s="21"/>
-      <c r="J135" s="21"/>
-      <c r="K135" s="21"/>
-      <c r="L135" s="2"/>
-      <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B136" s="13"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="21"/>
-      <c r="H136" s="21"/>
-      <c r="I136" s="21"/>
-      <c r="J136" s="21"/>
-      <c r="K136" s="21"/>
-      <c r="L136" s="2"/>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B137" s="13"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G137" s="21"/>
-      <c r="H137" s="21"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B138" s="13"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="21"/>
-      <c r="G138" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="H138" s="21"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B139" s="13"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="21"/>
-      <c r="G139" s="21"/>
-      <c r="H139" s="21"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B140" s="13"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="21"/>
-      <c r="G140" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="H140" s="21"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="E141" s="35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="F142" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G142" s="23"/>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="F143" s="22"/>
-      <c r="G143" s="23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="F144" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G144" s="23"/>
-      <c r="H144" s="23"/>
-    </row>
-    <row r="145" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F145" s="22"/>
-      <c r="G145" s="23" t="s">
+      <c r="F128" s="22"/>
+      <c r="G128" s="23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="146" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F146" s="22"/>
-      <c r="G146" s="23" t="s">
+    <row r="129" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F129" s="22"/>
+      <c r="G129" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="147" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F147" s="22"/>
-      <c r="G147" s="23" t="s">
-        <v>186</v>
+    <row r="130" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F130" s="22"/>
+      <c r="G130" s="23" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -18749,16 +17906,16 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E3" s="28">
         <v>1</v>
@@ -18772,16 +17929,16 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E4" s="28">
         <v>1</v>
@@ -18795,16 +17952,16 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="62" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C5" s="62" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="E5" s="63">
         <v>1</v>
@@ -18818,16 +17975,16 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="62" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="E6" s="63">
         <v>1</v>
@@ -18974,24 +18131,24 @@
     <col min="10" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="81" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79">
+    <row r="1" spans="1:13" s="66" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="64">
         <v>42198</v>
       </c>
-      <c r="D2" s="80" t="s">
-        <v>340</v>
-      </c>
-      <c r="E2" s="80" t="s">
-        <v>341</v>
-      </c>
-      <c r="J2" s="80" t="s">
-        <v>340</v>
+      <c r="D2" s="65" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B3" s="35" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -19000,7 +18157,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="35" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
@@ -19009,7 +18166,7 @@
     </row>
     <row r="4" spans="1:13" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -19030,7 +18187,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="D5" s="21">
         <v>1</v>
@@ -19050,7 +18207,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="D6" s="21">
         <v>1</v>
@@ -19070,7 +18227,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="D7" s="21">
         <v>1</v>
@@ -19090,7 +18247,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="D8" s="21">
         <v>1.5</v>
@@ -19121,7 +18278,7 @@
     </row>
     <row r="10" spans="1:13" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B10" s="21" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -19140,7 +18297,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D11" s="21">
         <v>1</v>
@@ -19160,7 +18317,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="D12" s="21">
         <v>1.5</v>
@@ -19171,7 +18328,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D13" s="21">
         <v>1</v>
@@ -19179,12 +18336,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15" s="35" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C16" s="21" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D16" s="21">
         <v>4</v>

--- a/gd/交互系统/邮箱系统设计.xlsx
+++ b/gd/交互系统/邮箱系统设计.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="359">
   <si>
     <t>文档名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -200,10 +200,6 @@
   <si>
     <t>系统频道的提示信息颜色可配置</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统频道</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>走马灯</t>
@@ -1590,6 +1586,30 @@
   </si>
   <si>
     <t>去掉界面空着时的提示图和提示文字显示需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应英文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会频道</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界频道</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉邮件附件位置显示的”附件“两个字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照标准格式回归”提示信息“切页</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2080,7 +2100,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2214,6 +2234,11 @@
     <xf numFmtId="58" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2259,11 +2284,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6536,6 +6562,120 @@
         <a:xfrm>
           <a:off x="5524500" y="41452800"/>
           <a:ext cx="790476" cy="723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>18992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962774" y="8010525"/>
+          <a:ext cx="123825" cy="466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>171392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="图片 87"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4972050" y="47767875"/>
+          <a:ext cx="123825" cy="466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>161867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="图片 89"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7029450" y="62217300"/>
+          <a:ext cx="123825" cy="466667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9625,6 +9765,82 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>209492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="图片 67"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="6315075"/>
+          <a:ext cx="123825" cy="466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>9467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="图片 68"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5000625" y="20574000"/>
+          <a:ext cx="123825" cy="466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12580,10 +12796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L30"/>
+  <dimension ref="A2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -12601,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -12612,7 +12828,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -12628,7 +12844,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -12642,17 +12858,17 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73" t="s">
+      <c r="C12" s="75"/>
+      <c r="D12" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
@@ -12661,76 +12877,76 @@
       <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="71"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="77"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="83"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="71"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="71"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="68"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="71"/>
     </row>
     <row r="19" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="70"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="73"/>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -12781,10 +12997,10 @@
       </c>
       <c r="E24" s="50"/>
       <c r="F24" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -12794,10 +13010,10 @@
       </c>
       <c r="E25" s="55"/>
       <c r="F25" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -12805,62 +13021,80 @@
       <c r="C26" s="11">
         <v>42256</v>
       </c>
-      <c r="E26" s="82"/>
+      <c r="E26" s="67"/>
       <c r="F26" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="K26" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="K26" s="42" t="s">
-        <v>348</v>
-      </c>
       <c r="L26" s="42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
-      <c r="C27" s="11"/>
+      <c r="C27" s="11">
+        <v>42270</v>
+      </c>
+      <c r="E27" s="86"/>
+      <c r="F27" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="11"/>
+      <c r="G28" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="11">
-        <v>42226</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="C30" s="11">
+        <v>42226</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12887,8 +13121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA317"/>
   <sheetViews>
-    <sheetView topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="F268" sqref="F268"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F256" sqref="F256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -12898,61 +13132,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B1" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
+      <c r="B1" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B2" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B3" s="32"/>
       <c r="C3" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B5" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B6" s="31"/>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B7" s="31"/>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.35">
@@ -12970,7 +13204,7 @@
     <row r="12" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B12" s="31"/>
       <c r="U12" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.35">
@@ -12982,22 +13216,22 @@
     <row r="15" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B15" s="31"/>
       <c r="H15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B16" s="31"/>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" s="31"/>
       <c r="C17" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -13010,7 +13244,7 @@
       <c r="B18" s="31"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -13022,7 +13256,7 @@
       <c r="B19" s="31"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -13044,7 +13278,7 @@
       <c r="B21" s="31"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -13062,18 +13296,18 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I24" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.35">
@@ -13081,39 +13315,39 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P34" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D49" s="53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E49" s="54"/>
     </row>
     <row r="50" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D50" s="54"/>
       <c r="E50" s="54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D52" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
@@ -13137,25 +13371,25 @@
     </row>
     <row r="54" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C54" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E55" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D56" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E57" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F57" s="23"/>
       <c r="G57" s="23"/>
@@ -13166,7 +13400,7 @@
     <row r="58" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E58" s="22"/>
       <c r="F58" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
@@ -13175,7 +13409,7 @@
     </row>
     <row r="59" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E59" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F59" s="23"/>
       <c r="G59" s="23"/>
@@ -13186,7 +13420,7 @@
     <row r="60" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E60" s="22"/>
       <c r="F60" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G60" s="23"/>
       <c r="H60" s="23"/>
@@ -13195,7 +13429,7 @@
     </row>
     <row r="61" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E61" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
@@ -13206,7 +13440,7 @@
     <row r="62" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E62" s="22"/>
       <c r="F62" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G62" s="23"/>
       <c r="H62" s="23"/>
@@ -13215,7 +13449,7 @@
     </row>
     <row r="63" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E63" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
@@ -13226,7 +13460,7 @@
     <row r="64" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E64" s="22"/>
       <c r="F64" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G64" s="23"/>
       <c r="H64" s="23"/>
@@ -13235,10 +13469,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C65" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
@@ -13249,7 +13483,7 @@
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E66" s="22"/>
       <c r="F66" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
@@ -13258,7 +13492,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E67" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
@@ -13269,7 +13503,7 @@
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E68" s="22"/>
       <c r="F68" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G68" s="23"/>
       <c r="H68" s="23"/>
@@ -13278,7 +13512,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E69" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
@@ -13289,10 +13523,10 @@
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E70" s="22"/>
       <c r="F70" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G70" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H70" s="33"/>
       <c r="I70" s="23"/>
@@ -13301,10 +13535,10 @@
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E71" s="22"/>
       <c r="F71" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G71" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H71" s="33"/>
       <c r="I71" s="23"/>
@@ -13313,10 +13547,10 @@
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E72" s="22"/>
       <c r="F72" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G72" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H72" s="33"/>
       <c r="I72" s="23"/>
@@ -13324,7 +13558,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E73" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
@@ -13335,10 +13569,10 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E74" s="23"/>
       <c r="F74" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G74" s="23" t="s">
         <v>98</v>
-      </c>
-      <c r="G74" s="23" t="s">
-        <v>99</v>
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="23"/>
@@ -13347,10 +13581,10 @@
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E75" s="23"/>
       <c r="F75" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G75" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H75" s="23"/>
       <c r="I75" s="23"/>
@@ -13358,7 +13592,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E76" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F76" s="23"/>
       <c r="G76" s="24"/>
@@ -13368,10 +13602,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C77" s="58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E77" s="57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
@@ -13381,10 +13615,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E78" s="57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
@@ -13392,12 +13626,12 @@
       <c r="I78" s="57"/>
       <c r="J78" s="57"/>
       <c r="L78" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E79" s="57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
@@ -13408,7 +13642,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E80" s="57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
@@ -13442,12 +13676,12 @@
     </row>
     <row r="84" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D84" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="4:15" x14ac:dyDescent="0.35">
       <c r="E85" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F85" s="21"/>
       <c r="G85" s="21"/>
@@ -13540,7 +13774,7 @@
     <row r="93" spans="4:15" x14ac:dyDescent="0.35">
       <c r="E93" s="21"/>
       <c r="F93" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G93" s="21"/>
       <c r="H93" s="21"/>
@@ -13556,7 +13790,7 @@
       <c r="E94" s="21"/>
       <c r="F94" s="21"/>
       <c r="G94" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
@@ -13571,12 +13805,12 @@
       <c r="E95" s="21"/>
       <c r="G95" s="21"/>
       <c r="H95" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I95" s="21"/>
       <c r="J95" s="21"/>
       <c r="K95" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L95" s="21"/>
       <c r="M95" s="21"/>
@@ -13600,7 +13834,7 @@
       <c r="E97" s="21"/>
       <c r="F97" s="21"/>
       <c r="G97" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
@@ -13613,127 +13847,127 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H98" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="K98" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="K98" s="21" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E101" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F102" s="1"/>
       <c r="G102" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="33" x14ac:dyDescent="0.35">
       <c r="A103" s="46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G105" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H105" s="36"/>
       <c r="I105" s="36"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E106" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G107" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G108" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G109" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F110" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G111" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H112" s="48"/>
       <c r="I112" s="48"/>
       <c r="J112" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K112" s="48"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F113" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E117" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F118" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G118" s="25"/>
       <c r="H118" s="25"/>
@@ -13745,7 +13979,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G119" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H119" s="25"/>
       <c r="I119" s="25"/>
@@ -13756,7 +13990,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G120" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H120" s="25"/>
       <c r="I120" s="25"/>
@@ -13767,7 +14001,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F121" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G121" s="25"/>
       <c r="H121" s="25"/>
@@ -13779,7 +14013,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F122" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G122" s="25"/>
       <c r="H122" s="25"/>
@@ -13791,7 +14025,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F123" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
@@ -13803,13 +14037,13 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F124" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F125" s="21"/>
       <c r="G125" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H125" s="20"/>
       <c r="I125" s="20"/>
@@ -13823,7 +14057,7 @@
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F126" s="21"/>
       <c r="G126" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
@@ -13837,7 +14071,7 @@
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F127" s="21"/>
       <c r="G127" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H127" s="20"/>
       <c r="I127" s="20"/>
@@ -13852,7 +14086,7 @@
       <c r="F128" s="21"/>
       <c r="G128" s="13"/>
       <c r="H128" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I128" s="13"/>
       <c r="J128" s="13"/>
@@ -13866,7 +14100,7 @@
       <c r="F129" s="21"/>
       <c r="G129" s="13"/>
       <c r="H129" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I129" s="13"/>
       <c r="J129" s="13"/>
@@ -13880,7 +14114,7 @@
       <c r="F130" s="21"/>
       <c r="G130" s="13"/>
       <c r="H130" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I130" s="13"/>
       <c r="J130" s="13"/>
@@ -13940,7 +14174,7 @@
     </row>
     <row r="135" spans="4:15" x14ac:dyDescent="0.35">
       <c r="F135" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G135" s="13"/>
       <c r="H135" s="20"/>
@@ -13968,7 +14202,7 @@
       <c r="F137" s="21"/>
       <c r="G137" s="13"/>
       <c r="H137" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I137" s="13"/>
       <c r="J137" s="13"/>
@@ -13981,7 +14215,7 @@
     <row r="138" spans="4:15" x14ac:dyDescent="0.35">
       <c r="F138" s="21"/>
       <c r="G138" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
@@ -13994,48 +14228,48 @@
     </row>
     <row r="139" spans="4:15" x14ac:dyDescent="0.35">
       <c r="E139" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="F140" s="83" t="s">
-        <v>346</v>
-      </c>
-      <c r="G140" s="83"/>
-      <c r="H140" s="83"/>
+      <c r="F140" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="G140" s="68"/>
+      <c r="H140" s="68"/>
     </row>
     <row r="142" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D142" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="4:15" x14ac:dyDescent="0.35">
       <c r="E143" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="144" spans="4:15" x14ac:dyDescent="0.35">
       <c r="E144" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="146" spans="1:17" ht="33" x14ac:dyDescent="0.35">
       <c r="A146" s="46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E146" s="48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F146" s="48"/>
       <c r="G146" s="48"/>
@@ -14052,83 +14286,83 @@
     </row>
     <row r="147" spans="1:17" ht="33" x14ac:dyDescent="0.35">
       <c r="A147" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K149" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" s="46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J151" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N151" s="48"/>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K152" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K153" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E157" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K159" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="161" spans="4:14" x14ac:dyDescent="0.35">
       <c r="J161" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M161" s="48"/>
       <c r="N161" s="48"/>
     </row>
     <row r="162" spans="4:14" x14ac:dyDescent="0.35">
       <c r="K162" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="163" spans="4:14" x14ac:dyDescent="0.35">
       <c r="K163" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="167" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D167" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="168" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D168" s="1"/>
       <c r="E168" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F168" s="23"/>
       <c r="G168" s="23"/>
@@ -14138,7 +14372,7 @@
       <c r="D169" s="1"/>
       <c r="E169" s="22"/>
       <c r="F169" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G169" s="23"/>
       <c r="H169" s="23"/>
@@ -14146,7 +14380,7 @@
     <row r="170" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D170" s="1"/>
       <c r="E170" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F170" s="23"/>
       <c r="G170" s="23"/>
@@ -14156,7 +14390,7 @@
       <c r="D171" s="1"/>
       <c r="E171" s="22"/>
       <c r="F171" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G171" s="23"/>
       <c r="H171" s="23"/>
@@ -14164,7 +14398,7 @@
     <row r="172" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D172" s="1"/>
       <c r="E172" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F172" s="23"/>
       <c r="G172" s="23"/>
@@ -14174,17 +14408,17 @@
       <c r="D173" s="1"/>
       <c r="E173" s="22"/>
       <c r="F173" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G173" s="23"/>
       <c r="H173" s="23"/>
     </row>
     <row r="174" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D174" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E174" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F174" s="23"/>
       <c r="G174" s="23"/>
@@ -14194,7 +14428,7 @@
       <c r="D175" s="1"/>
       <c r="E175" s="22"/>
       <c r="F175" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G175" s="23"/>
       <c r="H175" s="23"/>
@@ -14202,13 +14436,13 @@
     <row r="176" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D176" s="1"/>
       <c r="E176" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D177" s="1"/>
       <c r="F177" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G177" s="21"/>
       <c r="H177" s="21"/>
@@ -14225,7 +14459,7 @@
     <row r="178" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D178" s="1"/>
       <c r="F178" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G178" s="21"/>
       <c r="H178" s="21"/>
@@ -14242,7 +14476,7 @@
     <row r="179" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D179" s="1"/>
       <c r="F179" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G179" s="21"/>
       <c r="H179" s="21"/>
@@ -14259,7 +14493,7 @@
     <row r="180" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D180" s="1"/>
       <c r="F180" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G180" s="21"/>
       <c r="H180" s="21"/>
@@ -14286,7 +14520,7 @@
     <row r="182" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D182" s="1"/>
       <c r="F182" s="59" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G182" s="59"/>
       <c r="H182" s="59"/>
@@ -14297,7 +14531,7 @@
       <c r="M182" s="59"/>
       <c r="N182" s="59"/>
       <c r="O182" s="59" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P182" s="60"/>
       <c r="Q182" s="60"/>
@@ -14307,10 +14541,10 @@
     <row r="183" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D183" s="1"/>
       <c r="E183" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F183" s="59" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G183" s="59"/>
       <c r="H183" s="59"/>
@@ -14329,10 +14563,10 @@
     <row r="184" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D184" s="1"/>
       <c r="E184" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F184" s="59" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G184" s="59"/>
       <c r="H184" s="59"/>
@@ -14351,7 +14585,7 @@
     <row r="185" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D185" s="1"/>
       <c r="F185" s="59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G185" s="59"/>
       <c r="H185" s="59"/>
@@ -14370,7 +14604,7 @@
     <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D186" s="1"/>
       <c r="F186" s="60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G186" s="59"/>
       <c r="H186" s="59"/>
@@ -14405,10 +14639,10 @@
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A188" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F188" s="59" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G188" s="59"/>
       <c r="H188" s="59"/>
@@ -14426,7 +14660,7 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A189" s="47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F189" s="21"/>
       <c r="G189" s="21"/>
@@ -14449,7 +14683,7 @@
       <c r="J190" s="21"/>
       <c r="K190" s="21"/>
       <c r="O190" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.35">
@@ -14468,10 +14702,10 @@
       <c r="J192" s="21"/>
       <c r="K192" s="21"/>
       <c r="N192" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O192" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="193" spans="5:23" x14ac:dyDescent="0.35">
@@ -14482,7 +14716,7 @@
       <c r="J193" s="21"/>
       <c r="K193" s="21"/>
       <c r="O193" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="194" spans="5:23" x14ac:dyDescent="0.35">
@@ -14493,7 +14727,7 @@
       <c r="J194" s="21"/>
       <c r="K194" s="21"/>
       <c r="O194" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="195" spans="5:23" x14ac:dyDescent="0.35">
@@ -14624,7 +14858,7 @@
     </row>
     <row r="204" spans="5:23" x14ac:dyDescent="0.35">
       <c r="F204" s="59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G204" s="59"/>
       <c r="H204" s="59"/>
@@ -14660,15 +14894,15 @@
     </row>
     <row r="206" spans="5:23" x14ac:dyDescent="0.35">
       <c r="E206" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="208" spans="5:23" x14ac:dyDescent="0.35">
       <c r="E208" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F208" s="23"/>
       <c r="G208" s="23"/>
@@ -14676,33 +14910,33 @@
     <row r="209" spans="4:11" x14ac:dyDescent="0.35">
       <c r="E209" s="22"/>
       <c r="F209" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G209" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="210" spans="4:11" x14ac:dyDescent="0.35">
       <c r="E210" s="22"/>
       <c r="F210" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G210" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="211" spans="4:11" x14ac:dyDescent="0.35">
       <c r="E211" s="22"/>
       <c r="F211" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G211" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="212" spans="4:11" x14ac:dyDescent="0.35">
       <c r="E212" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F212" s="23"/>
       <c r="G212" s="23"/>
@@ -14710,19 +14944,19 @@
     <row r="213" spans="4:11" x14ac:dyDescent="0.35">
       <c r="E213" s="21"/>
       <c r="F213" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G213" s="23" t="s">
         <v>186</v>
-      </c>
-      <c r="G213" s="23" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="214" spans="4:11" x14ac:dyDescent="0.35">
       <c r="E214" s="21"/>
       <c r="F214" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G214" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="215" spans="4:11" x14ac:dyDescent="0.35">
@@ -14732,82 +14966,82 @@
     </row>
     <row r="216" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D216" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="218" spans="4:11" x14ac:dyDescent="0.35">
       <c r="K218" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="219" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D219" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K219" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="222" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D222" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="226" spans="4:11" x14ac:dyDescent="0.35">
       <c r="K226" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="231" spans="4:11" x14ac:dyDescent="0.35">
       <c r="H231" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="233" spans="4:11" x14ac:dyDescent="0.35">
       <c r="E233" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="234" spans="4:11" x14ac:dyDescent="0.35">
       <c r="E234" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="235" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D235" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="236" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F236" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="237" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F237" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G237" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="238" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F238" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G238" s="29" t="s">
         <v>169</v>
-      </c>
-      <c r="G238" s="29" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="239" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D239" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E239" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F239" s="21"/>
       <c r="G239" s="21"/>
@@ -14818,7 +15052,7 @@
     <row r="240" spans="4:11" x14ac:dyDescent="0.35">
       <c r="E240" s="21"/>
       <c r="F240" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G240" s="21"/>
       <c r="H240" s="21"/>
@@ -14828,10 +15062,10 @@
     <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E241" s="21"/>
       <c r="F241" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G241" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H241" s="21"/>
       <c r="I241" s="21"/>
@@ -14840,10 +15074,10 @@
     <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E242" s="21"/>
       <c r="F242" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G242" s="29" t="s">
         <v>169</v>
-      </c>
-      <c r="G242" s="29" t="s">
-        <v>170</v>
       </c>
       <c r="H242" s="21"/>
       <c r="I242" s="21"/>
@@ -14851,7 +15085,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E243" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F243" s="21"/>
       <c r="G243" s="21"/>
@@ -14862,7 +15096,7 @@
     <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E244" s="21"/>
       <c r="F244" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G244" s="21"/>
       <c r="H244" s="21"/>
@@ -14872,10 +15106,10 @@
     <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E245" s="21"/>
       <c r="F245" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G245" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H245" s="21"/>
       <c r="I245" s="21"/>
@@ -14884,10 +15118,10 @@
     <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E246" s="21"/>
       <c r="F246" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G246" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H246" s="21"/>
       <c r="I246" s="21"/>
@@ -14895,15 +15129,15 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D247" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F248" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G248" s="21"/>
       <c r="H248" s="21"/>
@@ -14913,7 +15147,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F249" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G249" s="21"/>
       <c r="H249" s="21"/>
@@ -14923,7 +15157,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F250" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G250" s="21"/>
       <c r="H250" s="21"/>
@@ -14934,10 +15168,10 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F251" s="48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G251" s="48"/>
       <c r="H251" s="48"/>
@@ -14945,31 +15179,31 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F252" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G252" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F253" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G253" s="29" t="s">
         <v>169</v>
-      </c>
-      <c r="G253" s="29" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F254" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D255" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E255" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
@@ -14980,7 +15214,7 @@
     <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E256" s="21"/>
       <c r="F256" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G256" s="21"/>
       <c r="H256" s="21"/>
@@ -14990,7 +15224,7 @@
     <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E257" s="21"/>
       <c r="F257" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G257" s="21"/>
       <c r="H257" s="21"/>
@@ -15001,11 +15235,11 @@
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E258" s="21"/>
       <c r="F258" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G258" s="21"/>
       <c r="H258" s="21"/>
@@ -15020,7 +15254,7 @@
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A259" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E259" s="21"/>
       <c r="F259" s="21"/>
@@ -15032,10 +15266,10 @@
     <row r="260" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E260" s="21"/>
       <c r="F260" s="59" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G260" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H260" s="59"/>
       <c r="I260" s="47"/>
@@ -15044,21 +15278,21 @@
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A265" s="45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F265" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G265" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H265" s="47"/>
       <c r="I265" s="47"/>
@@ -15070,10 +15304,10 @@
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A266" s="45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G266" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H266" s="21"/>
       <c r="I266" s="21"/>
@@ -15082,7 +15316,7 @@
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A267" s="48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G267" s="21"/>
       <c r="H267" s="21"/>
@@ -15091,16 +15325,16 @@
       <c r="K267" s="21"/>
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="F268" s="84" t="s">
-        <v>350</v>
-      </c>
-      <c r="G268" s="84"/>
-      <c r="H268" s="84"/>
-      <c r="I268" s="83"/>
+      <c r="F268" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="G268" s="69"/>
+      <c r="H268" s="69"/>
+      <c r="I268" s="68"/>
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E269" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F269" s="21"/>
       <c r="G269" s="21"/>
@@ -15115,7 +15349,7 @@
     <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E270" s="35"/>
       <c r="F270" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G270" s="23"/>
       <c r="H270" s="23"/>
@@ -15128,7 +15362,7 @@
       <c r="E271" s="35"/>
       <c r="F271" s="22"/>
       <c r="G271" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H271" s="23"/>
       <c r="I271" s="23"/>
@@ -15139,7 +15373,7 @@
     <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E272" s="35"/>
       <c r="F272" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G272" s="23"/>
       <c r="H272" s="23"/>
@@ -15152,7 +15386,7 @@
       <c r="E273" s="35"/>
       <c r="F273" s="22"/>
       <c r="G273" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H273" s="23"/>
       <c r="I273" s="23"/>
@@ -15163,7 +15397,7 @@
     <row r="274" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E274" s="35"/>
       <c r="F274" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G274" s="23"/>
       <c r="H274" s="23"/>
@@ -15176,7 +15410,7 @@
       <c r="E275" s="35"/>
       <c r="F275" s="22"/>
       <c r="G275" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H275" s="23"/>
       <c r="I275" s="23"/>
@@ -15188,7 +15422,7 @@
       <c r="E276" s="35"/>
       <c r="F276" s="22"/>
       <c r="G276" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H276" s="23"/>
       <c r="I276" s="23"/>
@@ -15198,10 +15432,10 @@
     </row>
     <row r="277" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E277" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F277" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G277" s="23"/>
       <c r="H277" s="23"/>
@@ -15214,7 +15448,7 @@
       <c r="E278" s="35"/>
       <c r="F278" s="22"/>
       <c r="G278" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H278" s="23"/>
       <c r="I278" s="23"/>
@@ -15225,7 +15459,7 @@
     <row r="279" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E279" s="35"/>
       <c r="F279" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G279" s="23"/>
       <c r="H279" s="23"/>
@@ -15237,10 +15471,10 @@
     <row r="280" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E280" s="35"/>
       <c r="F280" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G280" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H280" s="21"/>
       <c r="I280" s="21"/>
@@ -15250,7 +15484,7 @@
       <c r="M280" s="21"/>
       <c r="N280" s="21"/>
       <c r="O280" s="59" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P280" s="60"/>
       <c r="Q280" s="60"/>
@@ -15258,10 +15492,10 @@
     <row r="281" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E281" s="35"/>
       <c r="F281" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G281" s="59" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H281" s="59"/>
       <c r="I281" s="59"/>
@@ -15280,10 +15514,10 @@
     <row r="282" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E282" s="35"/>
       <c r="F282" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G282" s="59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H282" s="59"/>
       <c r="I282" s="59"/>
@@ -15303,7 +15537,7 @@
       <c r="E283" s="35"/>
       <c r="F283" s="61"/>
       <c r="G283" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H283" s="21"/>
       <c r="I283" s="21"/>
@@ -15318,7 +15552,7 @@
       <c r="E284" s="35"/>
       <c r="F284" s="61"/>
       <c r="G284" s="60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H284" s="59"/>
       <c r="I284" s="59"/>
@@ -15333,7 +15567,7 @@
       <c r="E285" s="35"/>
       <c r="F285" s="61"/>
       <c r="G285" s="60" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H285" s="59"/>
       <c r="I285" s="59"/>
@@ -15348,7 +15582,7 @@
       <c r="E286" s="35"/>
       <c r="F286" s="21"/>
       <c r="G286" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H286" s="21"/>
       <c r="I286" s="21"/>
@@ -15518,7 +15752,7 @@
     <row r="299" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E299" s="35"/>
       <c r="F299" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G299" s="23"/>
       <c r="H299" s="23"/>
@@ -15533,10 +15767,10 @@
       <c r="E300" s="35"/>
       <c r="F300" s="22"/>
       <c r="G300" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H300" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I300" s="21"/>
       <c r="J300" s="21"/>
@@ -15549,10 +15783,10 @@
       <c r="E301" s="35"/>
       <c r="F301" s="22"/>
       <c r="G301" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H301" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I301" s="21"/>
       <c r="J301" s="21"/>
@@ -15565,10 +15799,10 @@
       <c r="E302" s="35"/>
       <c r="F302" s="22"/>
       <c r="G302" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H302" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I302" s="21"/>
       <c r="J302" s="21"/>
@@ -15580,7 +15814,7 @@
     <row r="303" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E303" s="35"/>
       <c r="F303" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G303" s="23"/>
       <c r="H303" s="23"/>
@@ -15595,10 +15829,10 @@
       <c r="E304" s="35"/>
       <c r="F304" s="21"/>
       <c r="G304" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="H304" s="23" t="s">
         <v>186</v>
-      </c>
-      <c r="H304" s="23" t="s">
-        <v>187</v>
       </c>
       <c r="I304" s="21"/>
       <c r="J304" s="21"/>
@@ -15611,10 +15845,10 @@
       <c r="E305" s="35"/>
       <c r="F305" s="21"/>
       <c r="G305" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H305" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I305" s="21"/>
       <c r="J305" s="21"/>
@@ -15637,7 +15871,7 @@
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B307" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E307" s="35"/>
       <c r="F307" s="21"/>
@@ -15652,7 +15886,7 @@
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C308" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E308" s="35"/>
       <c r="F308" s="21"/>
@@ -15667,10 +15901,10 @@
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D309" s="48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E309" s="49"/>
       <c r="F309" s="21"/>
@@ -15685,7 +15919,7 @@
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D310" s="48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E310" s="49"/>
       <c r="F310" s="47"/>
@@ -15701,7 +15935,7 @@
     <row r="311" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D311" s="48"/>
       <c r="E311" s="47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F311" s="47"/>
       <c r="G311" s="47"/>
@@ -15715,7 +15949,7 @@
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D312" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E312" s="35"/>
       <c r="F312" s="21"/>
@@ -15742,7 +15976,7 @@
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C314" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E314" s="21"/>
       <c r="F314" s="21"/>
@@ -15757,7 +15991,7 @@
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D315" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E315" s="21"/>
     </row>
@@ -15807,116 +16041,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="81" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
+      <c r="A1" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B2" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="D2" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="49" t="s">
         <v>208</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="35"/>
       <c r="B3" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="D3" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="E3" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>214</v>
-      </c>
       <c r="G3" s="49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="35"/>
       <c r="B4" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="D4" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="E4" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="F4" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="40" t="s">
-        <v>206</v>
-      </c>
       <c r="G4" s="51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="C5" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>319</v>
-      </c>
-      <c r="D5" s="39" t="s">
+      <c r="E5" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>218</v>
-      </c>
       <c r="G5" s="52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -15927,17 +16161,17 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G9" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G10" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G13" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -15954,8 +16188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA130"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="R125" sqref="R125"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -15965,49 +16199,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B1" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
+      <c r="B1" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
     </row>
     <row r="2" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="S2" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -16042,7 +16276,7 @@
     </row>
     <row r="6" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -16060,7 +16294,7 @@
     </row>
     <row r="7" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -16110,7 +16344,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -16139,7 +16373,7 @@
     <row r="12" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -16184,7 +16418,7 @@
     </row>
     <row r="15" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -16207,16 +16441,16 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -16299,12 +16533,12 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -16338,7 +16572,7 @@
     </row>
     <row r="24" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -16385,7 +16619,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -16611,7 +16845,7 @@
       <c r="B40" s="13"/>
       <c r="C40" s="2"/>
       <c r="D40" s="56" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="2"/>
@@ -16631,7 +16865,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="38"/>
       <c r="E41" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -16649,7 +16883,7 @@
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
@@ -16663,7 +16897,7 @@
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
@@ -16677,7 +16911,7 @@
       <c r="D44" s="13"/>
       <c r="E44" s="22"/>
       <c r="F44" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
@@ -16689,7 +16923,7 @@
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
@@ -16703,7 +16937,7 @@
       <c r="D46" s="13"/>
       <c r="E46" s="22"/>
       <c r="F46" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
@@ -16716,7 +16950,7 @@
       <c r="D47" s="13"/>
       <c r="E47" s="22"/>
       <c r="F47" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
@@ -16729,7 +16963,7 @@
       <c r="D48" s="13"/>
       <c r="E48" s="22"/>
       <c r="F48" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G48" s="38"/>
       <c r="H48" s="38"/>
@@ -16751,7 +16985,7 @@
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
@@ -16765,7 +16999,7 @@
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
@@ -16878,7 +17112,7 @@
       <c r="D59" s="13"/>
       <c r="E59" s="21"/>
       <c r="F59" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
@@ -16895,7 +17129,7 @@
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
       <c r="G60" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
@@ -16912,12 +17146,12 @@
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
       <c r="H61" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I61" s="21"/>
       <c r="J61" s="21"/>
       <c r="K61" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L61" s="21"/>
       <c r="M61" s="21"/>
@@ -16943,7 +17177,7 @@
       <c r="E63" s="21"/>
       <c r="F63" s="21"/>
       <c r="G63" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
@@ -16958,12 +17192,12 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -16981,7 +17215,7 @@
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.35">
       <c r="F66" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.35">
@@ -16989,7 +17223,7 @@
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
       <c r="G67" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -17003,7 +17237,7 @@
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
       <c r="G68" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -17016,7 +17250,7 @@
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
       <c r="F69" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -17031,7 +17265,7 @@
       <c r="E70" s="20"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -17043,7 +17277,7 @@
     <row r="71" spans="2:14" x14ac:dyDescent="0.35">
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -17055,7 +17289,7 @@
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
       <c r="F72" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -17069,7 +17303,7 @@
       <c r="E73" s="13"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -17082,12 +17316,12 @@
       <c r="E74" s="13"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K74" s="13"/>
     </row>
@@ -17097,7 +17331,7 @@
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -17115,7 +17349,7 @@
       <c r="E76" s="13"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -17132,7 +17366,7 @@
       <c r="E77" s="13"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -17162,7 +17396,7 @@
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -17176,7 +17410,7 @@
       <c r="D80" s="13"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -17187,7 +17421,7 @@
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="14"/>
@@ -17201,7 +17435,7 @@
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F82" s="23"/>
       <c r="G82" s="14"/>
@@ -17215,7 +17449,7 @@
       <c r="D83" s="13"/>
       <c r="E83" s="22"/>
       <c r="F83" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
@@ -17227,7 +17461,7 @@
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F84" s="23"/>
       <c r="G84" s="23"/>
@@ -17241,7 +17475,7 @@
       <c r="D85" s="13"/>
       <c r="E85" s="22"/>
       <c r="F85" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
@@ -17253,7 +17487,7 @@
       <c r="D86" s="13"/>
       <c r="E86" s="22"/>
       <c r="F86" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
@@ -17265,7 +17499,7 @@
       <c r="D87" s="13"/>
       <c r="E87" s="22"/>
       <c r="F87" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
@@ -17286,7 +17520,7 @@
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -17319,14 +17553,14 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -17335,7 +17569,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.35">
@@ -17364,7 +17598,7 @@
       <c r="B95" s="30"/>
       <c r="C95" s="13"/>
       <c r="D95" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -17421,7 +17655,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.35">
@@ -17480,7 +17714,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
@@ -17502,7 +17736,7 @@
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
       <c r="E106" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -17515,7 +17749,7 @@
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -17528,7 +17762,7 @@
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -17542,7 +17776,7 @@
       <c r="D109" s="13"/>
       <c r="E109" s="2"/>
       <c r="F109" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G109" s="21"/>
       <c r="H109" s="21"/>
@@ -17555,7 +17789,7 @@
       <c r="D110" s="13"/>
       <c r="E110" s="2"/>
       <c r="F110" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G110" s="21"/>
       <c r="H110" s="21"/>
@@ -17567,7 +17801,7 @@
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F111" s="21"/>
       <c r="G111" s="21"/>
@@ -17585,7 +17819,7 @@
       <c r="D112" s="13"/>
       <c r="E112" s="21"/>
       <c r="F112" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K112" s="13"/>
       <c r="L112" s="13"/>
@@ -17601,7 +17835,7 @@
       <c r="D113" s="13"/>
       <c r="E113" s="21"/>
       <c r="F113" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K113" s="13"/>
       <c r="L113" s="13"/>
@@ -17617,7 +17851,7 @@
       <c r="D114" s="13"/>
       <c r="E114" s="21"/>
       <c r="F114" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K114" s="13"/>
       <c r="L114" s="13"/>
@@ -17648,10 +17882,10 @@
       <c r="D116" s="13"/>
       <c r="E116" s="21"/>
       <c r="F116" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G116" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
@@ -17668,7 +17902,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -17714,10 +17948,10 @@
       <c r="D120" s="13"/>
       <c r="E120" s="2"/>
       <c r="F120" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G120" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H120" s="21"/>
       <c r="I120" s="21"/>
@@ -17734,7 +17968,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
@@ -17765,7 +17999,7 @@
       <c r="D123" s="13"/>
       <c r="E123" s="13"/>
       <c r="F123" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G123" s="21"/>
       <c r="H123" s="21"/>
@@ -17776,24 +18010,24 @@
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.35">
       <c r="E124" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.35">
       <c r="F125" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G125" s="23"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.35">
       <c r="F126" s="22"/>
       <c r="G126" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.35">
       <c r="F127" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G127" s="23"/>
       <c r="H127" s="23"/>
@@ -17801,19 +18035,19 @@
     <row r="128" spans="2:17" x14ac:dyDescent="0.35">
       <c r="F128" s="22"/>
       <c r="G128" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F129" s="22"/>
       <c r="G129" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="130" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F130" s="22"/>
       <c r="G130" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -17833,10 +18067,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -17844,32 +18078,34 @@
     <col min="1" max="1" width="15" style="21" customWidth="1"/>
     <col min="2" max="2" width="46" style="21" customWidth="1"/>
     <col min="3" max="3" width="20.375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="43.875" style="21" customWidth="1"/>
-    <col min="5" max="6" width="9" style="21"/>
-    <col min="7" max="7" width="17.125" style="21" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="21" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="21"/>
+    <col min="4" max="5" width="43.875" style="21" customWidth="1"/>
+    <col min="6" max="8" width="9" style="21"/>
+    <col min="9" max="9" width="17.125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="21" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>31</v>
       </c>
@@ -17882,209 +18118,239 @@
       <c r="D2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="85" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="I2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
-      <c r="P2" s="25"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="25"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>153</v>
-      </c>
       <c r="D3" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="E3" s="28">
+        <v>199</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28">
         <v>1</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28">
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28">
         <v>1</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="E4" s="28">
+        <v>248</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28">
         <v>1</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28">
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28">
         <v>1</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63">
+        <v>1</v>
+      </c>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63">
+        <v>1</v>
+      </c>
+      <c r="K5" s="63"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="62" t="s">
         <v>313</v>
       </c>
-      <c r="B5" s="62" t="s">
-        <v>309</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>315</v>
-      </c>
-      <c r="E5" s="63">
+      <c r="E6" s="62"/>
+      <c r="F6" s="63">
         <v>1</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63">
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63">
         <v>1</v>
       </c>
-      <c r="I5" s="63"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="62" t="s">
-        <v>311</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>314</v>
-      </c>
-      <c r="E6" s="63">
-        <v>1</v>
-      </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63">
-        <v>1</v>
-      </c>
-      <c r="I6" s="63"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K6" s="63"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -18094,8 +18360,10 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -18105,6 +18373,8 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -18137,18 +18407,18 @@
         <v>42198</v>
       </c>
       <c r="D2" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="65" t="s">
         <v>327</v>
       </c>
-      <c r="E2" s="65" t="s">
-        <v>328</v>
-      </c>
       <c r="J2" s="65" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B3" s="35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -18157,7 +18427,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
@@ -18166,7 +18436,7 @@
     </row>
     <row r="4" spans="1:13" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -18187,7 +18457,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D5" s="21">
         <v>1</v>
@@ -18207,7 +18477,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D6" s="21">
         <v>1</v>
@@ -18227,7 +18497,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D7" s="21">
         <v>1</v>
@@ -18247,7 +18517,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D8" s="21">
         <v>1.5</v>
@@ -18278,7 +18548,7 @@
     </row>
     <row r="10" spans="1:13" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B10" s="21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -18297,7 +18567,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D11" s="21">
         <v>1</v>
@@ -18317,7 +18587,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D12" s="21">
         <v>1.5</v>
@@ -18328,7 +18598,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D13" s="21">
         <v>1</v>
@@ -18336,12 +18606,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15" s="35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C16" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D16" s="21">
         <v>4</v>
@@ -18376,10 +18646,10 @@
         <v>37</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -18387,7 +18657,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -18397,7 +18667,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -18412,7 +18682,7 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">

--- a/gd/交互系统/邮箱系统设计.xlsx
+++ b/gd/交互系统/邮箱系统设计.xlsx
@@ -16,25 +16,29 @@
     <sheet name="自用" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_2._已读邮件的定义">'逻辑+UI'!$C$314</definedName>
+    <definedName name="_2._已读邮件的定义">'逻辑+UI'!$C$315</definedName>
     <definedName name="_3、功能界面">#REF!</definedName>
     <definedName name="_4、录音模式">#REF!</definedName>
     <definedName name="_5_、功能按钮">#REF!</definedName>
+    <definedName name="打开邮箱UI时_刷新邮件。UI开启的过程中_若有新邮件来_界面立即刷新。">'逻辑+UI'!$D$52</definedName>
     <definedName name="二、聊天框玩家名称">美术需求!$B$27</definedName>
     <definedName name="若无邮件_则列表处为空着即可。">'逻辑+UI'!$F$140:$H$140</definedName>
-    <definedName name="若邮件不包含附件_则附件处空着即可。">'逻辑+UI'!$F$268</definedName>
+    <definedName name="若邮件不包含附件_则附件处空着即可。">'逻辑+UI'!$F$269</definedName>
+    <definedName name="若邮箱已满_玩家打开邮箱_又收到x封新邮件_则邮箱界面时时刷新_新邮件会根据上面的规则定掉老邮件。">'逻辑+UI'!$E$147</definedName>
     <definedName name="三、走马灯">美术需求!$B$72</definedName>
     <definedName name="四、系统公告提示">美术需求!#REF!</definedName>
     <definedName name="五、提示信息">美术需求!#REF!</definedName>
+    <definedName name="系统邮件正文内容汉字数上限500">'逻辑+UI'!$F$255</definedName>
     <definedName name="显示格式">#REF!</definedName>
+    <definedName name="邮件标题采用文字缩放规则显示">'逻辑+UI'!$G$103:$I$103</definedName>
     <definedName name="长按才能录音_松手后直接发送录音内容。">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="365">
   <si>
     <t>文档名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -923,10 +927,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>打开邮箱UI时，刷新邮件。UI开启的过程中，界面不刷新。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>沿平行线滑动手指，不滚动。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -935,16 +935,8 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>系统邮件正文内容根据配置显示，不限制最大字数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>显示选中邮件的标题，居中显示</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>文字支持变色、换行功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>当邮箱中包含未读邮件时，在标签页上显示未读邮件数量。</t>
@@ -1251,10 +1243,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>邮件标题最多支持显示10个汉字及对应的字符</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>删了</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1610,6 +1598,46 @@
   </si>
   <si>
     <t>按照标准格式回归”提示信息“切页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件标题采用文字缩放规则显示</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件标题采用文字缩放规则显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统邮件正文内容汉字数上限500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字支持变色、换行功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开邮箱UI时，刷新邮件。UI开启的过程中，若有新邮件来，界面立即刷新。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱开启过程中，有新邮件来，界面刷新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件正文汉字上限回归</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若邮箱已满，玩家打开邮箱，又收到x封新邮件，则邮箱界面时时刷新，新邮件会根据上面的规则定掉老邮件。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱开启时邮箱满且又收到新邮件的处理</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1797,7 +1825,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1861,6 +1889,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0099FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1BDF4E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2100,7 +2134,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2208,12 +2242,6 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2224,8 +2252,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2239,6 +2265,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2284,12 +2316,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2316,13 +2351,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF1BDF4E"/>
       <color rgb="FF0099FF"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFFF99FF"/>
       <color rgb="FF6699FF"/>
       <color rgb="FF3399FF"/>
       <color rgb="FF0CEE62"/>
-      <color rgb="FF1BDF4E"/>
       <color rgb="FF996633"/>
     </mruColors>
   </colors>
@@ -5194,14 +5229,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5241,13 +5276,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5291,13 +5326,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>106363</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5341,13 +5376,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>87313</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5391,13 +5426,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>96838</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5441,13 +5476,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>115888</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5491,13 +5526,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5541,13 +5576,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>261</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>601871</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5731,13 +5766,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9223</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>133310</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5994,13 +6029,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6049,13 +6084,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>53423</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>94422</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>642969</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>152294</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6125,13 +6160,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6192,13 +6227,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6247,13 +6282,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>34373</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>75372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>623919</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>133244</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6323,13 +6358,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6384,13 +6419,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>124304</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6422,13 +6457,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>285</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>182415</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>298</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6460,13 +6495,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>66539</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6536,14 +6571,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180876</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>190410</xdr:rowOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>190409</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6612,13 +6647,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>171392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6650,13 +6685,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>294</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>161867</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12796,10 +12831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L31"/>
+  <dimension ref="A2:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -12858,17 +12893,17 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76" t="s">
+      <c r="C12" s="73"/>
+      <c r="D12" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="77"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
@@ -12877,76 +12912,76 @@
       <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="71"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="83"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="71"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="71"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
     </row>
     <row r="19" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="73"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="71"/>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -12997,10 +13032,10 @@
       </c>
       <c r="E24" s="50"/>
       <c r="F24" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -13008,12 +13043,12 @@
       <c r="C25" s="11">
         <v>42226</v>
       </c>
-      <c r="E25" s="55"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -13021,18 +13056,18 @@
       <c r="C26" s="11">
         <v>42256</v>
       </c>
-      <c r="E26" s="67"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="K26" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="L26" s="42" t="s">
         <v>346</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="K26" s="42" t="s">
-        <v>347</v>
-      </c>
-      <c r="L26" s="42" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -13040,12 +13075,12 @@
       <c r="C27" s="11">
         <v>42270</v>
       </c>
-      <c r="E27" s="86"/>
+      <c r="E27" s="67"/>
       <c r="F27" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K27" s="42"/>
       <c r="L27" s="42"/>
@@ -13054,47 +13089,89 @@
       <c r="B28" s="2"/>
       <c r="C28" s="11"/>
       <c r="G28" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="11">
+        <v>42294</v>
+      </c>
+      <c r="E29" s="84"/>
+      <c r="F29" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G29" s="86" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+      <c r="C30" s="11"/>
+      <c r="E30" s="84"/>
+      <c r="G30" s="86" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+      <c r="C31" s="11"/>
+      <c r="E31" s="84"/>
+      <c r="G31" s="86" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+      <c r="C32" s="11"/>
+      <c r="E32" s="84"/>
+      <c r="G32" s="86" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+      <c r="C33" s="11"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="11">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="11">
         <v>42226</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13112,6 +13189,10 @@
   <hyperlinks>
     <hyperlink ref="K26" location="若无邮件_则列表处为空着即可。" display="位置1"/>
     <hyperlink ref="L26" location="若邮件不包含附件_则附件处空着即可。" display="位置2"/>
+    <hyperlink ref="G29" location="邮件标题采用文字缩放规则显示" display="邮件标题采用文字缩放规则显示"/>
+    <hyperlink ref="G30" location="打开邮箱UI时_刷新邮件。UI开启的过程中_若有新邮件来_界面立即刷新。" display="邮箱开启过程中，有新邮件来，界面刷新"/>
+    <hyperlink ref="G31" location="邮件标题采用文字缩放规则显示" display="邮件正文汉字上限回归"/>
+    <hyperlink ref="G32" location="若邮箱已满_玩家打开邮箱_又收到x封新邮件_则邮箱界面时时刷新_新邮件会根据上面的规则定掉老邮件。" display="邮箱开启时邮箱满且又收到新邮件的处理"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13119,47 +13200,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA317"/>
+  <dimension ref="A1:AA318"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F256" sqref="F256"/>
+    <sheetView topLeftCell="B132" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.75" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B2" s="31" t="s">
@@ -13204,7 +13285,7 @@
     <row r="12" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B12" s="31"/>
       <c r="U12" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.35">
@@ -13225,7 +13306,7 @@
         <v>71</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.35">
@@ -13304,7 +13385,7 @@
         <v>79</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>146</v>
@@ -13328,33 +13409,43 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:16" x14ac:dyDescent="0.35">
       <c r="P34" s="2" t="s">
         <v>147</v>
       </c>
     </row>
+    <row r="48" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+    </row>
     <row r="49" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="D49" s="53" t="s">
-        <v>297</v>
-      </c>
-      <c r="E49" s="54"/>
+      <c r="D49" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="E49" s="38"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="D50" s="54"/>
-      <c r="E50" s="54" t="s">
-        <v>298</v>
-      </c>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
     <row r="52" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D52" s="25" t="s">
-        <v>222</v>
+        <v>360</v>
       </c>
       <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="87"/>
       <c r="K52" s="25"/>
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
@@ -13371,7 +13462,7 @@
     </row>
     <row r="54" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C54" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>83</v>
@@ -13469,7 +13560,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C65" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E65" s="22" t="s">
         <v>90</v>
@@ -13601,70 +13692,70 @@
       <c r="J76" s="23"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C77" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="E77" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="F77" s="57"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="57"/>
-      <c r="I77" s="57"/>
-      <c r="J77" s="57"/>
+      <c r="C77" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="E77" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="55"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E78" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="F78" s="57"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="57"/>
-      <c r="J78" s="57"/>
+        <v>250</v>
+      </c>
+      <c r="E78" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="F78" s="55"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="55"/>
       <c r="L78" s="42" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E79" s="57" t="s">
-        <v>271</v>
-      </c>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="57"/>
+      <c r="E79" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="55"/>
       <c r="L79" s="42"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E80" s="57" t="s">
-        <v>229</v>
-      </c>
-      <c r="F80" s="57"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="57"/>
-      <c r="I80" s="57"/>
-      <c r="J80" s="57"/>
+      <c r="E80" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="F80" s="55"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="55"/>
     </row>
     <row r="81" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="E81" s="57"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="57"/>
-      <c r="I81" s="57"/>
-      <c r="J81" s="57"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="55"/>
     </row>
     <row r="82" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="E82" s="57"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="57"/>
-      <c r="I82" s="57"/>
-      <c r="J82" s="57"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="55"/>
     </row>
     <row r="83" spans="4:15" x14ac:dyDescent="0.35">
       <c r="E83" s="23"/>
@@ -13855,7 +13946,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E101" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>119</v>
@@ -13869,15 +13960,17 @@
     </row>
     <row r="103" spans="1:15" ht="33" x14ac:dyDescent="0.35">
       <c r="A103" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>272</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="G103" s="85" t="s">
+        <v>356</v>
+      </c>
+      <c r="H103" s="85"/>
+      <c r="I103" s="85"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>120</v>
@@ -13892,7 +13985,7 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E106" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>122</v>
@@ -13919,25 +14012,40 @@
       <c r="F110" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="13"/>
+      <c r="M110" s="13"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="G111" s="2" t="s">
+      <c r="G111" s="13" t="s">
         <v>128</v>
       </c>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="13"/>
+      <c r="M111" s="13"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H112" s="48"/>
-      <c r="I112" s="48"/>
-      <c r="J112" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="K112" s="48"/>
+        <v>251</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="K112" s="13"/>
+      <c r="L112" s="13"/>
+      <c r="M112" s="13"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F113" s="37" t="s">
@@ -13946,7 +14054,7 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>221</v>
@@ -13954,7 +14062,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="47" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>130</v>
@@ -13990,7 +14098,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G120" s="25" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H120" s="25"/>
       <c r="I120" s="25"/>
@@ -14114,7 +14222,7 @@
       <c r="F130" s="21"/>
       <c r="G130" s="13"/>
       <c r="H130" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I130" s="13"/>
       <c r="J130" s="13"/>
@@ -14232,11 +14340,13 @@
       </c>
     </row>
     <row r="140" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="F140" s="68" t="s">
-        <v>345</v>
-      </c>
-      <c r="G140" s="68"/>
-      <c r="H140" s="68"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
     </row>
     <row r="142" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D142" s="1" t="s">
@@ -14245,221 +14355,240 @@
     </row>
     <row r="143" spans="4:15" x14ac:dyDescent="0.35">
       <c r="E143" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="144" spans="4:15" x14ac:dyDescent="0.35">
       <c r="E144" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" ht="33" x14ac:dyDescent="0.35">
+      <c r="A146" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="13"/>
+      <c r="K146" s="13"/>
+      <c r="L146" s="13"/>
+      <c r="M146" s="13"/>
+      <c r="N146" s="13"/>
+      <c r="O146" s="13"/>
+      <c r="P146" s="13"/>
+      <c r="Q146" s="13"/>
+      <c r="R146" s="13"/>
+      <c r="S146" s="13"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A147" s="46"/>
+      <c r="E147" s="85" t="s">
+        <v>363</v>
+      </c>
+      <c r="F147" s="85"/>
+      <c r="G147" s="85"/>
+      <c r="H147" s="85"/>
+      <c r="I147" s="85"/>
+      <c r="J147" s="85"/>
+      <c r="K147" s="85"/>
+      <c r="L147" s="85"/>
+      <c r="M147" s="85"/>
+      <c r="N147" s="85"/>
+      <c r="O147" s="13"/>
+      <c r="P147" s="13"/>
+      <c r="Q147" s="13"/>
+      <c r="R147" s="13"/>
+      <c r="S147" s="13"/>
+    </row>
+    <row r="148" spans="1:19" ht="33" x14ac:dyDescent="0.35">
+      <c r="A148" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13"/>
+      <c r="J148" s="13"/>
+      <c r="K148" s="13"/>
+      <c r="L148" s="13"/>
+      <c r="M148" s="13"/>
+      <c r="N148" s="13"/>
+      <c r="O148" s="13"/>
+      <c r="P148" s="13"/>
+      <c r="Q148" s="13"/>
+      <c r="R148" s="13"/>
+      <c r="S148" s="13"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A149" s="47" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K150" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A145" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E145" s="2" t="s">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A152" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="J152" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="N152" s="13"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K153" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K154" s="36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="E158" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="33" x14ac:dyDescent="0.35">
-      <c r="A146" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="E146" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="F146" s="48"/>
-      <c r="G146" s="48"/>
-      <c r="H146" s="48"/>
-      <c r="I146" s="48"/>
-      <c r="J146" s="48"/>
-      <c r="K146" s="48"/>
-      <c r="L146" s="48"/>
-      <c r="M146" s="48"/>
-      <c r="N146" s="48"/>
-      <c r="O146" s="48"/>
-      <c r="P146" s="48"/>
-      <c r="Q146" s="48"/>
-    </row>
-    <row r="147" spans="1:17" ht="33" x14ac:dyDescent="0.35">
-      <c r="A147" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A148" s="47" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K149" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A151" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="J151" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="K151" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="N151" s="48"/>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K152" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K153" s="36" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E157" s="2" t="s">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K160" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="162" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="J162" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="M162" s="13"/>
+      <c r="N162" s="13"/>
+    </row>
+    <row r="163" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="K163" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="164" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="K164" s="36" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K159" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="161" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="J161" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="K161" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="M161" s="48"/>
-      <c r="N161" s="48"/>
-    </row>
-    <row r="162" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="K162" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="163" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="K163" s="36" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="167" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D167" s="1" t="s">
+    <row r="168" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D168" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="168" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D168" s="1"/>
-      <c r="E168" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F168" s="23"/>
-      <c r="G168" s="23"/>
-      <c r="H168" s="23"/>
     </row>
     <row r="169" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D169" s="1"/>
-      <c r="E169" s="22"/>
-      <c r="F169" s="23" t="s">
-        <v>48</v>
-      </c>
+      <c r="E169" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F169" s="23"/>
       <c r="G169" s="23"/>
       <c r="H169" s="23"/>
     </row>
     <row r="170" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D170" s="1"/>
-      <c r="E170" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F170" s="23"/>
+      <c r="E170" s="22"/>
+      <c r="F170" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="G170" s="23"/>
       <c r="H170" s="23"/>
     </row>
     <row r="171" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D171" s="1"/>
-      <c r="E171" s="22"/>
-      <c r="F171" s="23" t="s">
-        <v>58</v>
-      </c>
+      <c r="E171" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F171" s="23"/>
       <c r="G171" s="23"/>
       <c r="H171" s="23"/>
     </row>
     <row r="172" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D172" s="1"/>
-      <c r="E172" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F172" s="23"/>
+      <c r="E172" s="22"/>
+      <c r="F172" s="23" t="s">
+        <v>58</v>
+      </c>
       <c r="G172" s="23"/>
       <c r="H172" s="23"/>
     </row>
     <row r="173" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D173" s="1"/>
-      <c r="E173" s="22"/>
-      <c r="F173" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="E173" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F173" s="23"/>
       <c r="G173" s="23"/>
       <c r="H173" s="23"/>
     </row>
     <row r="174" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D174" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="E174" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F174" s="23"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="22"/>
+      <c r="F174" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="G174" s="23"/>
       <c r="H174" s="23"/>
     </row>
     <row r="175" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D175" s="1"/>
-      <c r="E175" s="22"/>
-      <c r="F175" s="23" t="s">
-        <v>191</v>
-      </c>
+      <c r="D175" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E175" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F175" s="23"/>
       <c r="G175" s="23"/>
       <c r="H175" s="23"/>
     </row>
     <row r="176" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D176" s="1"/>
-      <c r="E176" s="22" t="s">
-        <v>52</v>
-      </c>
+      <c r="E176" s="22"/>
+      <c r="F176" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G176" s="23"/>
+      <c r="H176" s="23"/>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D177" s="1"/>
-      <c r="F177" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="G177" s="21"/>
-      <c r="H177" s="21"/>
-      <c r="I177" s="21"/>
-      <c r="J177" s="21"/>
-      <c r="K177" s="21"/>
-      <c r="L177" s="21"/>
-      <c r="M177" s="21"/>
-      <c r="N177" s="21"/>
-      <c r="O177" s="21"/>
-      <c r="P177" s="21"/>
-      <c r="Q177" s="21"/>
+      <c r="E177" s="22" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D178" s="1"/>
       <c r="F178" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G178" s="21"/>
       <c r="H178" s="21"/>
@@ -14476,7 +14605,7 @@
     <row r="179" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D179" s="1"/>
       <c r="F179" s="21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G179" s="21"/>
       <c r="H179" s="21"/>
@@ -14493,11 +14622,12 @@
     <row r="180" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D180" s="1"/>
       <c r="F180" s="21" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="G180" s="21"/>
       <c r="H180" s="21"/>
       <c r="I180" s="21"/>
+      <c r="J180" s="21"/>
       <c r="K180" s="21"/>
       <c r="L180" s="21"/>
       <c r="M180" s="21"/>
@@ -14508,7 +14638,9 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D181" s="1"/>
-      <c r="F181" s="21"/>
+      <c r="F181" s="21" t="s">
+        <v>198</v>
+      </c>
       <c r="G181" s="21"/>
       <c r="H181" s="21"/>
       <c r="I181" s="21"/>
@@ -14516,175 +14648,178 @@
       <c r="L181" s="21"/>
       <c r="M181" s="21"/>
       <c r="N181" s="21"/>
+      <c r="O181" s="21"/>
+      <c r="P181" s="21"/>
+      <c r="Q181" s="21"/>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D182" s="1"/>
-      <c r="F182" s="59" t="s">
-        <v>325</v>
-      </c>
-      <c r="G182" s="59"/>
-      <c r="H182" s="59"/>
-      <c r="I182" s="59"/>
-      <c r="J182" s="59"/>
-      <c r="K182" s="59"/>
-      <c r="L182" s="59"/>
-      <c r="M182" s="59"/>
-      <c r="N182" s="59"/>
-      <c r="O182" s="59" t="s">
-        <v>320</v>
-      </c>
-      <c r="P182" s="60"/>
-      <c r="Q182" s="60"/>
-      <c r="R182" s="60"/>
-      <c r="S182" s="60"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="21"/>
+      <c r="H182" s="21"/>
+      <c r="I182" s="21"/>
+      <c r="K182" s="21"/>
+      <c r="L182" s="21"/>
+      <c r="M182" s="21"/>
+      <c r="N182" s="21"/>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D183" s="1"/>
-      <c r="E183" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="F183" s="59" t="s">
-        <v>333</v>
-      </c>
-      <c r="G183" s="59"/>
-      <c r="H183" s="59"/>
-      <c r="I183" s="59"/>
-      <c r="J183" s="59"/>
-      <c r="K183" s="59"/>
-      <c r="L183" s="59"/>
-      <c r="M183" s="59"/>
-      <c r="N183" s="59"/>
-      <c r="O183" s="59"/>
-      <c r="P183" s="59"/>
-      <c r="Q183" s="59"/>
-      <c r="R183" s="60"/>
-      <c r="S183" s="60"/>
+      <c r="F183" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="G183" s="25"/>
+      <c r="H183" s="25"/>
+      <c r="I183" s="25"/>
+      <c r="J183" s="25"/>
+      <c r="K183" s="25"/>
+      <c r="L183" s="25"/>
+      <c r="M183" s="25"/>
+      <c r="N183" s="25"/>
+      <c r="O183" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="P183" s="13"/>
+      <c r="Q183" s="13"/>
+      <c r="R183" s="13"/>
+      <c r="S183" s="13"/>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D184" s="1"/>
       <c r="E184" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="F184" s="59" t="s">
-        <v>334</v>
-      </c>
-      <c r="G184" s="59"/>
-      <c r="H184" s="59"/>
-      <c r="I184" s="59"/>
-      <c r="J184" s="59"/>
-      <c r="K184" s="59"/>
-      <c r="L184" s="59"/>
-      <c r="M184" s="59"/>
-      <c r="N184" s="59"/>
-      <c r="O184" s="59"/>
-      <c r="P184" s="59"/>
-      <c r="Q184" s="59"/>
-      <c r="R184" s="60"/>
-      <c r="S184" s="60"/>
+        <v>223</v>
+      </c>
+      <c r="F184" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="G184" s="25"/>
+      <c r="H184" s="25"/>
+      <c r="I184" s="25"/>
+      <c r="J184" s="25"/>
+      <c r="K184" s="25"/>
+      <c r="L184" s="25"/>
+      <c r="M184" s="25"/>
+      <c r="N184" s="25"/>
+      <c r="O184" s="25"/>
+      <c r="P184" s="25"/>
+      <c r="Q184" s="25"/>
+      <c r="R184" s="13"/>
+      <c r="S184" s="13"/>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D185" s="1"/>
-      <c r="F185" s="59" t="s">
-        <v>323</v>
-      </c>
-      <c r="G185" s="59"/>
-      <c r="H185" s="59"/>
-      <c r="I185" s="59"/>
-      <c r="J185" s="59"/>
-      <c r="K185" s="59"/>
-      <c r="L185" s="59"/>
-      <c r="M185" s="59"/>
-      <c r="N185" s="59"/>
-      <c r="O185" s="60"/>
-      <c r="P185" s="59"/>
-      <c r="Q185" s="59"/>
-      <c r="R185" s="60"/>
-      <c r="S185" s="60"/>
+      <c r="E185" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="F185" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="G185" s="25"/>
+      <c r="H185" s="25"/>
+      <c r="I185" s="25"/>
+      <c r="J185" s="25"/>
+      <c r="K185" s="25"/>
+      <c r="L185" s="25"/>
+      <c r="M185" s="25"/>
+      <c r="N185" s="25"/>
+      <c r="O185" s="25"/>
+      <c r="P185" s="25"/>
+      <c r="Q185" s="25"/>
+      <c r="R185" s="13"/>
+      <c r="S185" s="13"/>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D186" s="1"/>
-      <c r="F186" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="G186" s="59"/>
-      <c r="H186" s="59"/>
-      <c r="I186" s="59"/>
-      <c r="J186" s="59"/>
-      <c r="K186" s="59"/>
-      <c r="L186" s="59"/>
-      <c r="M186" s="59"/>
-      <c r="N186" s="59"/>
-      <c r="O186" s="60"/>
-      <c r="P186" s="59"/>
-      <c r="Q186" s="59"/>
-      <c r="R186" s="60"/>
-      <c r="S186" s="60"/>
+      <c r="F186" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="G186" s="25"/>
+      <c r="H186" s="25"/>
+      <c r="I186" s="25"/>
+      <c r="J186" s="25"/>
+      <c r="K186" s="25"/>
+      <c r="L186" s="25"/>
+      <c r="M186" s="25"/>
+      <c r="N186" s="25"/>
+      <c r="O186" s="13"/>
+      <c r="P186" s="25"/>
+      <c r="Q186" s="25"/>
+      <c r="R186" s="13"/>
+      <c r="S186" s="13"/>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D187" s="1"/>
-      <c r="F187" s="59"/>
-      <c r="G187" s="59"/>
-      <c r="H187" s="59"/>
-      <c r="I187" s="59"/>
-      <c r="J187" s="59"/>
-      <c r="K187" s="59"/>
-      <c r="L187" s="59"/>
-      <c r="M187" s="59"/>
-      <c r="N187" s="59"/>
-      <c r="O187" s="59"/>
-      <c r="P187" s="59"/>
-      <c r="Q187" s="59"/>
-      <c r="R187" s="60"/>
-      <c r="S187" s="60"/>
+      <c r="F187" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="G187" s="25"/>
+      <c r="H187" s="25"/>
+      <c r="I187" s="25"/>
+      <c r="J187" s="25"/>
+      <c r="K187" s="25"/>
+      <c r="L187" s="25"/>
+      <c r="M187" s="25"/>
+      <c r="N187" s="25"/>
+      <c r="O187" s="13"/>
+      <c r="P187" s="25"/>
+      <c r="Q187" s="25"/>
+      <c r="R187" s="13"/>
+      <c r="S187" s="13"/>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A188" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="F188" s="59" t="s">
-        <v>344</v>
-      </c>
-      <c r="G188" s="59"/>
-      <c r="H188" s="59"/>
-      <c r="I188" s="59"/>
-      <c r="J188" s="59"/>
-      <c r="K188" s="59"/>
-      <c r="L188" s="59"/>
-      <c r="M188" s="59"/>
-      <c r="N188" s="59"/>
-      <c r="O188" s="59"/>
-      <c r="P188" s="59"/>
-      <c r="Q188" s="59"/>
-      <c r="R188" s="60"/>
-      <c r="S188" s="60"/>
+      <c r="D188" s="1"/>
+      <c r="F188" s="25"/>
+      <c r="G188" s="25"/>
+      <c r="H188" s="25"/>
+      <c r="I188" s="25"/>
+      <c r="J188" s="25"/>
+      <c r="K188" s="25"/>
+      <c r="L188" s="25"/>
+      <c r="M188" s="25"/>
+      <c r="N188" s="25"/>
+      <c r="O188" s="25"/>
+      <c r="P188" s="25"/>
+      <c r="Q188" s="25"/>
+      <c r="R188" s="13"/>
+      <c r="S188" s="13"/>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A189" s="47" t="s">
-        <v>280</v>
-      </c>
-      <c r="F189" s="21"/>
-      <c r="G189" s="21"/>
-      <c r="H189" s="21"/>
-      <c r="I189" s="21"/>
-      <c r="J189" s="21"/>
-      <c r="K189" s="21"/>
-      <c r="L189" s="21"/>
-      <c r="M189" s="21"/>
-      <c r="N189" s="21"/>
-      <c r="O189" s="21"/>
-      <c r="P189" s="21"/>
-      <c r="Q189" s="21"/>
+      <c r="A189" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="F189" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="G189" s="25"/>
+      <c r="H189" s="25"/>
+      <c r="I189" s="25"/>
+      <c r="J189" s="25"/>
+      <c r="K189" s="25"/>
+      <c r="L189" s="25"/>
+      <c r="M189" s="25"/>
+      <c r="N189" s="25"/>
+      <c r="O189" s="25"/>
+      <c r="P189" s="25"/>
+      <c r="Q189" s="25"/>
+      <c r="R189" s="13"/>
+      <c r="S189" s="13"/>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A190" s="47" t="s">
+        <v>276</v>
+      </c>
       <c r="F190" s="21"/>
       <c r="G190" s="21"/>
       <c r="H190" s="21"/>
       <c r="I190" s="21"/>
       <c r="J190" s="21"/>
       <c r="K190" s="21"/>
-      <c r="O190" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="L190" s="21"/>
+      <c r="M190" s="21"/>
+      <c r="N190" s="21"/>
+      <c r="O190" s="21"/>
+      <c r="P190" s="21"/>
+      <c r="Q190" s="21"/>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F191" s="21"/>
@@ -14693,6 +14828,9 @@
       <c r="I191" s="21"/>
       <c r="J191" s="21"/>
       <c r="K191" s="21"/>
+      <c r="O191" s="2" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F192" s="21"/>
@@ -14701,50 +14839,44 @@
       <c r="I192" s="21"/>
       <c r="J192" s="21"/>
       <c r="K192" s="21"/>
-      <c r="N192" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="O192" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="193" spans="5:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="5:25" x14ac:dyDescent="0.35">
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
       <c r="H193" s="21"/>
       <c r="I193" s="21"/>
       <c r="J193" s="21"/>
       <c r="K193" s="21"/>
+      <c r="N193" s="41" t="s">
+        <v>223</v>
+      </c>
       <c r="O193" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="194" spans="5:23" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="194" spans="5:25" x14ac:dyDescent="0.35">
       <c r="F194" s="21"/>
       <c r="G194" s="21"/>
       <c r="H194" s="21"/>
       <c r="I194" s="21"/>
       <c r="J194" s="21"/>
       <c r="K194" s="21"/>
-      <c r="O194" s="36" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="195" spans="5:23" x14ac:dyDescent="0.35">
+      <c r="O194" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="195" spans="5:25" x14ac:dyDescent="0.35">
       <c r="F195" s="21"/>
       <c r="G195" s="21"/>
       <c r="H195" s="21"/>
       <c r="I195" s="21"/>
       <c r="J195" s="21"/>
       <c r="K195" s="21"/>
-      <c r="L195" s="21"/>
-      <c r="M195" s="21"/>
-      <c r="N195" s="21"/>
-      <c r="O195" s="21"/>
-      <c r="P195" s="21"/>
-      <c r="Q195" s="21"/>
-    </row>
-    <row r="196" spans="5:23" x14ac:dyDescent="0.35">
+      <c r="O195" s="36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="196" spans="5:25" x14ac:dyDescent="0.35">
       <c r="F196" s="21"/>
       <c r="G196" s="21"/>
       <c r="H196" s="21"/>
@@ -14758,7 +14890,7 @@
       <c r="P196" s="21"/>
       <c r="Q196" s="21"/>
     </row>
-    <row r="197" spans="5:23" x14ac:dyDescent="0.35">
+    <row r="197" spans="5:25" x14ac:dyDescent="0.35">
       <c r="F197" s="21"/>
       <c r="G197" s="21"/>
       <c r="H197" s="21"/>
@@ -14772,7 +14904,7 @@
       <c r="P197" s="21"/>
       <c r="Q197" s="21"/>
     </row>
-    <row r="198" spans="5:23" x14ac:dyDescent="0.35">
+    <row r="198" spans="5:25" x14ac:dyDescent="0.35">
       <c r="F198" s="21"/>
       <c r="G198" s="21"/>
       <c r="H198" s="21"/>
@@ -14786,7 +14918,7 @@
       <c r="P198" s="21"/>
       <c r="Q198" s="21"/>
     </row>
-    <row r="199" spans="5:23" x14ac:dyDescent="0.35">
+    <row r="199" spans="5:25" x14ac:dyDescent="0.35">
       <c r="F199" s="21"/>
       <c r="G199" s="21"/>
       <c r="H199" s="21"/>
@@ -14800,7 +14932,7 @@
       <c r="P199" s="21"/>
       <c r="Q199" s="21"/>
     </row>
-    <row r="200" spans="5:23" x14ac:dyDescent="0.35">
+    <row r="200" spans="5:25" x14ac:dyDescent="0.35">
       <c r="F200" s="21"/>
       <c r="G200" s="21"/>
       <c r="H200" s="21"/>
@@ -14814,7 +14946,7 @@
       <c r="P200" s="21"/>
       <c r="Q200" s="21"/>
     </row>
-    <row r="201" spans="5:23" x14ac:dyDescent="0.35">
+    <row r="201" spans="5:25" x14ac:dyDescent="0.35">
       <c r="F201" s="21"/>
       <c r="G201" s="21"/>
       <c r="H201" s="21"/>
@@ -14828,7 +14960,7 @@
       <c r="P201" s="21"/>
       <c r="Q201" s="21"/>
     </row>
-    <row r="202" spans="5:23" x14ac:dyDescent="0.35">
+    <row r="202" spans="5:25" x14ac:dyDescent="0.35">
       <c r="F202" s="21"/>
       <c r="G202" s="21"/>
       <c r="H202" s="21"/>
@@ -14842,7 +14974,7 @@
       <c r="P202" s="21"/>
       <c r="Q202" s="21"/>
     </row>
-    <row r="203" spans="5:23" x14ac:dyDescent="0.35">
+    <row r="203" spans="5:25" x14ac:dyDescent="0.35">
       <c r="F203" s="21"/>
       <c r="G203" s="21"/>
       <c r="H203" s="21"/>
@@ -14856,70 +14988,77 @@
       <c r="P203" s="21"/>
       <c r="Q203" s="21"/>
     </row>
-    <row r="204" spans="5:23" x14ac:dyDescent="0.35">
-      <c r="F204" s="59" t="s">
-        <v>332</v>
-      </c>
-      <c r="G204" s="59"/>
-      <c r="H204" s="59"/>
-      <c r="I204" s="59"/>
-      <c r="J204" s="59"/>
-      <c r="K204" s="59"/>
-      <c r="L204" s="59"/>
-      <c r="M204" s="59"/>
-      <c r="N204" s="59"/>
-      <c r="O204" s="59"/>
-      <c r="P204" s="59"/>
-      <c r="Q204" s="59"/>
-      <c r="R204" s="60"/>
-      <c r="S204" s="60"/>
-      <c r="T204" s="60"/>
-      <c r="U204" s="60"/>
-      <c r="V204" s="60"/>
-      <c r="W204" s="60"/>
-    </row>
-    <row r="205" spans="5:23" x14ac:dyDescent="0.35">
-      <c r="F205" s="21"/>
-      <c r="G205" s="21"/>
-      <c r="H205" s="21"/>
-      <c r="I205" s="21"/>
-      <c r="J205" s="21"/>
-      <c r="K205" s="21"/>
-      <c r="L205" s="21"/>
-      <c r="M205" s="21"/>
-      <c r="N205" s="21"/>
-      <c r="O205" s="21"/>
-      <c r="P205" s="21"/>
-      <c r="Q205" s="21"/>
-    </row>
-    <row r="206" spans="5:23" x14ac:dyDescent="0.35">
-      <c r="E206" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="208" spans="5:23" x14ac:dyDescent="0.35">
-      <c r="E208" s="22" t="s">
+    <row r="204" spans="5:25" x14ac:dyDescent="0.35">
+      <c r="F204" s="21"/>
+      <c r="G204" s="21"/>
+      <c r="H204" s="21"/>
+      <c r="I204" s="21"/>
+      <c r="J204" s="21"/>
+      <c r="K204" s="21"/>
+      <c r="L204" s="21"/>
+      <c r="M204" s="21"/>
+      <c r="N204" s="21"/>
+      <c r="O204" s="21"/>
+      <c r="P204" s="21"/>
+      <c r="Q204" s="21"/>
+    </row>
+    <row r="205" spans="5:25" x14ac:dyDescent="0.35">
+      <c r="F205" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="G205" s="25"/>
+      <c r="H205" s="25"/>
+      <c r="I205" s="25"/>
+      <c r="J205" s="25"/>
+      <c r="K205" s="25"/>
+      <c r="L205" s="25"/>
+      <c r="M205" s="25"/>
+      <c r="N205" s="25"/>
+      <c r="O205" s="25"/>
+      <c r="P205" s="25"/>
+      <c r="Q205" s="25"/>
+      <c r="R205" s="13"/>
+      <c r="S205" s="13"/>
+      <c r="T205" s="13"/>
+      <c r="U205" s="13"/>
+      <c r="V205" s="13"/>
+      <c r="W205" s="13"/>
+      <c r="X205" s="13"/>
+      <c r="Y205" s="13"/>
+    </row>
+    <row r="206" spans="5:25" x14ac:dyDescent="0.35">
+      <c r="F206" s="21"/>
+      <c r="G206" s="21"/>
+      <c r="H206" s="21"/>
+      <c r="I206" s="21"/>
+      <c r="J206" s="21"/>
+      <c r="K206" s="21"/>
+      <c r="L206" s="21"/>
+      <c r="M206" s="21"/>
+      <c r="N206" s="21"/>
+      <c r="O206" s="21"/>
+      <c r="P206" s="21"/>
+      <c r="Q206" s="21"/>
+    </row>
+    <row r="207" spans="5:25" x14ac:dyDescent="0.35">
+      <c r="E207" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="209" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E209" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F208" s="23"/>
-      <c r="G208" s="23"/>
-    </row>
-    <row r="209" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="E209" s="22"/>
-      <c r="F209" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="G209" s="29" t="s">
-        <v>169</v>
-      </c>
+      <c r="F209" s="23"/>
+      <c r="G209" s="23"/>
     </row>
     <row r="210" spans="4:11" x14ac:dyDescent="0.35">
       <c r="E210" s="22"/>
       <c r="F210" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G210" s="29" t="s">
         <v>169</v>
@@ -14928,132 +15067,131 @@
     <row r="211" spans="4:11" x14ac:dyDescent="0.35">
       <c r="E211" s="22"/>
       <c r="F211" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G211" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="212" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="E212" s="22" t="s">
+      <c r="E212" s="22"/>
+      <c r="F212" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G212" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="213" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E213" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="F212" s="23"/>
-      <c r="G212" s="23"/>
-    </row>
-    <row r="213" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="E213" s="21"/>
-      <c r="F213" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G213" s="23" t="s">
-        <v>186</v>
-      </c>
+      <c r="F213" s="23"/>
+      <c r="G213" s="23"/>
     </row>
     <row r="214" spans="4:11" x14ac:dyDescent="0.35">
       <c r="E214" s="21"/>
       <c r="F214" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="G214" s="29" t="s">
-        <v>169</v>
+        <v>185</v>
+      </c>
+      <c r="G214" s="23" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="215" spans="4:11" x14ac:dyDescent="0.35">
       <c r="E215" s="21"/>
-      <c r="F215" s="23"/>
-      <c r="G215" s="25"/>
+      <c r="F215" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G215" s="29" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="216" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D216" s="1" t="s">
+      <c r="E216" s="21"/>
+      <c r="F216" s="23"/>
+      <c r="G216" s="25"/>
+    </row>
+    <row r="217" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D217" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="218" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="K218" s="2" t="s">
+    <row r="219" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="K219" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="219" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D219" s="2" t="s">
+    <row r="220" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D220" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K219" s="2" t="s">
+      <c r="K220" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="222" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D222" s="2" t="s">
+    <row r="223" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D223" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="226" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="K226" s="2" t="s">
+    <row r="227" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="K227" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="231" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="H231" s="2" t="s">
+    <row r="232" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="H232" s="2" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="233" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="E233" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="234" spans="4:11" x14ac:dyDescent="0.35">
       <c r="E234" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="235" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E235" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="235" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D235" s="41" t="s">
+    <row r="236" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D236" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="237" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F237" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="236" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="F236" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="237" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="F237" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="G237" s="25" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="238" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F238" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="G238" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="239" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F239" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="G238" s="29" t="s">
+      <c r="G239" s="29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="239" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D239" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="E239" s="35" t="s">
+    <row r="240" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D240" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E240" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="F239" s="21"/>
-      <c r="G239" s="21"/>
-      <c r="H239" s="21"/>
-      <c r="I239" s="21"/>
-      <c r="J239" s="21"/>
-    </row>
-    <row r="240" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="E240" s="21"/>
-      <c r="F240" s="21" t="s">
-        <v>164</v>
-      </c>
+      <c r="F240" s="21"/>
       <c r="G240" s="21"/>
       <c r="H240" s="21"/>
       <c r="I240" s="21"/>
@@ -15061,12 +15199,10 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E241" s="21"/>
-      <c r="F241" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="G241" s="25" t="s">
-        <v>167</v>
-      </c>
+      <c r="F241" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G241" s="21"/>
       <c r="H241" s="21"/>
       <c r="I241" s="21"/>
       <c r="J241" s="21"/>
@@ -15074,30 +15210,32 @@
     <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E242" s="21"/>
       <c r="F242" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G242" s="29" t="s">
-        <v>169</v>
+        <v>165</v>
+      </c>
+      <c r="G242" s="25" t="s">
+        <v>167</v>
       </c>
       <c r="H242" s="21"/>
       <c r="I242" s="21"/>
       <c r="J242" s="21"/>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E243" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="F243" s="21"/>
-      <c r="G243" s="21"/>
+      <c r="E243" s="21"/>
+      <c r="F243" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G243" s="29" t="s">
+        <v>169</v>
+      </c>
       <c r="H243" s="21"/>
       <c r="I243" s="21"/>
       <c r="J243" s="21"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E244" s="21"/>
-      <c r="F244" s="21" t="s">
-        <v>170</v>
-      </c>
+      <c r="E244" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="F244" s="21"/>
       <c r="G244" s="21"/>
       <c r="H244" s="21"/>
       <c r="I244" s="21"/>
@@ -15105,12 +15243,10 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E245" s="21"/>
-      <c r="F245" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="G245" s="25" t="s">
-        <v>167</v>
-      </c>
+      <c r="F245" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G245" s="21"/>
       <c r="H245" s="21"/>
       <c r="I245" s="21"/>
       <c r="J245" s="21"/>
@@ -15118,36 +15254,38 @@
     <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E246" s="21"/>
       <c r="F246" s="25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G246" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H246" s="21"/>
       <c r="I246" s="21"/>
       <c r="J246" s="21"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D247" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="E247" s="1" t="s">
+      <c r="E247" s="21"/>
+      <c r="F247" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G247" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="H247" s="21"/>
+      <c r="I247" s="21"/>
+      <c r="J247" s="21"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D248" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E248" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F248" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G248" s="21"/>
-      <c r="H248" s="21"/>
-      <c r="I248" s="21"/>
-      <c r="J248" s="21"/>
-      <c r="K248" s="21"/>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F249" s="21" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="G249" s="21"/>
       <c r="H249" s="21"/>
@@ -15157,272 +15295,362 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F250" s="21" t="s">
-        <v>290</v>
+        <v>359</v>
       </c>
       <c r="G250" s="21"/>
       <c r="H250" s="21"/>
-      <c r="I250" s="43"/>
-      <c r="J250" s="25"/>
-      <c r="K250" s="43"/>
-      <c r="L250" s="13"/>
+      <c r="I250" s="21"/>
+      <c r="J250" s="21"/>
+      <c r="K250" s="21"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A251" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F251" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="G251" s="48"/>
-      <c r="H251" s="48"/>
-      <c r="I251" s="48"/>
+      <c r="F251" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="G251" s="21"/>
+      <c r="H251" s="21"/>
+      <c r="I251" s="43"/>
+      <c r="J251" s="25"/>
+      <c r="K251" s="43"/>
+      <c r="L251" s="13"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F252" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="G252" s="25" t="s">
-        <v>167</v>
-      </c>
+      <c r="A252" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F252" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G252" s="13"/>
+      <c r="H252" s="13"/>
+      <c r="I252" s="13"/>
+      <c r="J252" s="13"/>
+      <c r="K252" s="13"/>
+      <c r="L252" s="13"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F253" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="G253" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F254" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="G253" s="29" t="s">
+      <c r="G254" s="29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F254" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D255" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="E255" s="35" t="s">
+      <c r="F255" s="85" t="s">
+        <v>358</v>
+      </c>
+      <c r="G255" s="85"/>
+      <c r="H255" s="85"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D256" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E256" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="F255" s="21"/>
-      <c r="G255" s="21"/>
-      <c r="H255" s="21"/>
-      <c r="I255" s="21"/>
-      <c r="J255" s="21"/>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E256" s="21"/>
-      <c r="F256" s="21" t="s">
-        <v>174</v>
-      </c>
+      <c r="F256" s="21"/>
       <c r="G256" s="21"/>
       <c r="H256" s="21"/>
       <c r="I256" s="21"/>
       <c r="J256" s="21"/>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E257" s="21"/>
-      <c r="F257" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="G257" s="21"/>
-      <c r="H257" s="21"/>
-      <c r="I257" s="21"/>
-      <c r="J257" s="21"/>
-      <c r="L257" s="48"/>
-      <c r="M257" s="48"/>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A258" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E258" s="21"/>
-      <c r="F258" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="G258" s="21"/>
-      <c r="H258" s="21"/>
-      <c r="I258" s="21"/>
-      <c r="J258" s="59"/>
-      <c r="K258" s="60"/>
-      <c r="L258" s="60"/>
-      <c r="M258" s="60"/>
-      <c r="N258" s="60"/>
-      <c r="O258" s="60"/>
-      <c r="P258" s="60"/>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A259" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="E259" s="21"/>
-      <c r="F259" s="21"/>
-      <c r="G259" s="21"/>
-      <c r="H259" s="21"/>
-      <c r="I259" s="21"/>
-      <c r="J259" s="21"/>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E260" s="21"/>
-      <c r="F260" s="59" t="s">
-        <v>319</v>
-      </c>
-      <c r="G260" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="H260" s="59"/>
-      <c r="I260" s="47"/>
-      <c r="J260" s="21"/>
-      <c r="K260" s="60"/>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A261" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G261" s="2" t="s">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E257" s="25"/>
+      <c r="F257" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G257" s="25"/>
+      <c r="H257" s="25"/>
+      <c r="I257" s="25"/>
+      <c r="J257" s="25"/>
+      <c r="K257" s="13"/>
+      <c r="L257" s="13"/>
+      <c r="M257" s="13"/>
+      <c r="N257" s="13"/>
+      <c r="O257" s="13"/>
+      <c r="P257" s="13"/>
+      <c r="Q257" s="13"/>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E258" s="25"/>
+      <c r="F258" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="G258" s="25"/>
+      <c r="H258" s="25"/>
+      <c r="I258" s="25"/>
+      <c r="J258" s="25"/>
+      <c r="K258" s="13"/>
+      <c r="L258" s="13"/>
+      <c r="M258" s="13"/>
+      <c r="N258" s="13"/>
+      <c r="O258" s="13"/>
+      <c r="P258" s="13"/>
+      <c r="Q258" s="13"/>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A259" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E259" s="25"/>
+      <c r="F259" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="G259" s="25"/>
+      <c r="H259" s="25"/>
+      <c r="I259" s="25"/>
+      <c r="J259" s="25"/>
+      <c r="K259" s="13"/>
+      <c r="L259" s="13"/>
+      <c r="M259" s="13"/>
+      <c r="N259" s="13"/>
+      <c r="O259" s="13"/>
+      <c r="P259" s="13"/>
+      <c r="Q259" s="13"/>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A260" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="E260" s="25"/>
+      <c r="F260" s="25"/>
+      <c r="G260" s="25"/>
+      <c r="H260" s="25"/>
+      <c r="I260" s="25"/>
+      <c r="J260" s="25"/>
+      <c r="K260" s="13"/>
+      <c r="L260" s="13"/>
+      <c r="M260" s="13"/>
+      <c r="N260" s="13"/>
+      <c r="O260" s="13"/>
+      <c r="P260" s="13"/>
+      <c r="Q260" s="13"/>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E261" s="25"/>
+      <c r="F261" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="G261" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="H261" s="25"/>
+      <c r="I261" s="25"/>
+      <c r="J261" s="25"/>
+      <c r="K261" s="13"/>
+      <c r="L261" s="13"/>
+      <c r="M261" s="13"/>
+      <c r="N261" s="13"/>
+      <c r="O261" s="13"/>
+      <c r="P261" s="13"/>
+      <c r="Q261" s="13"/>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A262" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E262" s="13"/>
+      <c r="F262" s="13"/>
+      <c r="G262" s="13" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A265" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="F265" s="21" t="s">
+      <c r="H262" s="13"/>
+      <c r="I262" s="13"/>
+      <c r="J262" s="13"/>
+      <c r="K262" s="13"/>
+      <c r="L262" s="13"/>
+      <c r="M262" s="13"/>
+      <c r="N262" s="13"/>
+      <c r="O262" s="13"/>
+      <c r="P262" s="13"/>
+      <c r="Q262" s="13"/>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E263" s="13"/>
+      <c r="F263" s="13"/>
+      <c r="G263" s="13"/>
+      <c r="H263" s="13"/>
+      <c r="I263" s="13"/>
+      <c r="J263" s="13"/>
+      <c r="K263" s="13"/>
+      <c r="L263" s="13"/>
+      <c r="M263" s="13"/>
+      <c r="N263" s="13"/>
+      <c r="O263" s="13"/>
+      <c r="P263" s="13"/>
+      <c r="Q263" s="13"/>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E264" s="13"/>
+      <c r="F264" s="13"/>
+      <c r="G264" s="13"/>
+      <c r="H264" s="13"/>
+      <c r="I264" s="13"/>
+      <c r="J264" s="13"/>
+      <c r="K264" s="13"/>
+      <c r="L264" s="13"/>
+      <c r="M264" s="13"/>
+      <c r="N264" s="13"/>
+      <c r="O264" s="13"/>
+      <c r="P264" s="13"/>
+      <c r="Q264" s="13"/>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E265" s="13"/>
+      <c r="F265" s="13"/>
+      <c r="G265" s="13"/>
+      <c r="H265" s="13"/>
+      <c r="I265" s="13"/>
+      <c r="J265" s="13"/>
+      <c r="K265" s="13"/>
+      <c r="L265" s="13"/>
+      <c r="M265" s="13"/>
+      <c r="N265" s="13"/>
+      <c r="O265" s="13"/>
+      <c r="P265" s="13"/>
+      <c r="Q265" s="13"/>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A266" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="E266" s="13"/>
+      <c r="F266" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G265" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="H265" s="47"/>
-      <c r="I265" s="47"/>
-      <c r="J265" s="47"/>
-      <c r="K265" s="21"/>
-      <c r="L265" s="21"/>
-      <c r="M265" s="21"/>
-      <c r="N265" s="21"/>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A266" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="G266" s="21" t="s">
+      <c r="G266" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="H266" s="25"/>
+      <c r="I266" s="25"/>
+      <c r="J266" s="25"/>
+      <c r="K266" s="25"/>
+      <c r="L266" s="25"/>
+      <c r="M266" s="25"/>
+      <c r="N266" s="25"/>
+      <c r="O266" s="13"/>
+      <c r="P266" s="13"/>
+      <c r="Q266" s="13"/>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A267" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G267" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="H266" s="21"/>
-      <c r="I266" s="21"/>
-      <c r="J266" s="21"/>
-      <c r="K266" s="21"/>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A267" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="G267" s="21"/>
       <c r="H267" s="21"/>
       <c r="I267" s="21"/>
       <c r="J267" s="21"/>
       <c r="K267" s="21"/>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="F268" s="69" t="s">
-        <v>349</v>
-      </c>
-      <c r="G268" s="69"/>
-      <c r="H268" s="69"/>
-      <c r="I268" s="68"/>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E269" s="35" t="s">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A268" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="G268" s="21"/>
+      <c r="H268" s="21"/>
+      <c r="I268" s="21"/>
+      <c r="J268" s="21"/>
+      <c r="K268" s="21"/>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F269" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="G269" s="65"/>
+      <c r="H269" s="65"/>
+      <c r="I269" s="64"/>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E270" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="F269" s="21"/>
-      <c r="G269" s="21"/>
-      <c r="H269" s="21"/>
-      <c r="I269" s="21"/>
-      <c r="J269" s="21"/>
-      <c r="K269" s="21"/>
-      <c r="L269" s="21"/>
-      <c r="M269" s="21"/>
-      <c r="N269" s="21"/>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E270" s="35"/>
-      <c r="F270" s="22" t="s">
+      <c r="F270" s="21"/>
+      <c r="G270" s="21"/>
+      <c r="H270" s="21"/>
+      <c r="I270" s="21"/>
+      <c r="J270" s="21"/>
+      <c r="K270" s="21"/>
+      <c r="L270" s="21"/>
+      <c r="M270" s="21"/>
+      <c r="N270" s="21"/>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E271" s="35"/>
+      <c r="F271" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G270" s="23"/>
-      <c r="H270" s="23"/>
-      <c r="I270" s="23"/>
-      <c r="J270" s="23"/>
-      <c r="K270" s="23"/>
-      <c r="N270" s="21"/>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E271" s="35"/>
-      <c r="F271" s="22"/>
-      <c r="G271" s="23" t="s">
-        <v>48</v>
-      </c>
+      <c r="G271" s="23"/>
       <c r="H271" s="23"/>
       <c r="I271" s="23"/>
       <c r="J271" s="23"/>
       <c r="K271" s="23"/>
       <c r="N271" s="21"/>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E272" s="35"/>
-      <c r="F272" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G272" s="23"/>
+      <c r="F272" s="22"/>
+      <c r="G272" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="H272" s="23"/>
       <c r="I272" s="23"/>
       <c r="J272" s="23"/>
       <c r="K272" s="23"/>
       <c r="N272" s="21"/>
     </row>
-    <row r="273" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="273" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E273" s="35"/>
-      <c r="F273" s="22"/>
-      <c r="G273" s="23" t="s">
-        <v>58</v>
-      </c>
+      <c r="F273" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G273" s="23"/>
       <c r="H273" s="23"/>
       <c r="I273" s="23"/>
       <c r="J273" s="23"/>
       <c r="K273" s="23"/>
       <c r="N273" s="21"/>
     </row>
-    <row r="274" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="274" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E274" s="35"/>
-      <c r="F274" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G274" s="23"/>
+      <c r="F274" s="22"/>
+      <c r="G274" s="23" t="s">
+        <v>58</v>
+      </c>
       <c r="H274" s="23"/>
       <c r="I274" s="23"/>
       <c r="J274" s="23"/>
       <c r="K274" s="23"/>
       <c r="N274" s="21"/>
     </row>
-    <row r="275" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="275" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E275" s="35"/>
-      <c r="F275" s="22"/>
-      <c r="G275" s="21" t="s">
-        <v>243</v>
-      </c>
+      <c r="F275" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G275" s="23"/>
       <c r="H275" s="23"/>
       <c r="I275" s="23"/>
       <c r="J275" s="23"/>
       <c r="K275" s="23"/>
       <c r="N275" s="21"/>
     </row>
-    <row r="276" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="276" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E276" s="35"/>
       <c r="F276" s="22"/>
       <c r="G276" s="21" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H276" s="23"/>
       <c r="I276" s="23"/>
@@ -15430,183 +15658,219 @@
       <c r="K276" s="23"/>
       <c r="N276" s="21"/>
     </row>
-    <row r="277" spans="5:20" x14ac:dyDescent="0.35">
-      <c r="E277" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="F277" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G277" s="23"/>
+    <row r="277" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="E277" s="35"/>
+      <c r="F277" s="22"/>
+      <c r="G277" s="21" t="s">
+        <v>241</v>
+      </c>
       <c r="H277" s="23"/>
       <c r="I277" s="23"/>
       <c r="J277" s="23"/>
       <c r="K277" s="23"/>
       <c r="N277" s="21"/>
     </row>
-    <row r="278" spans="5:20" x14ac:dyDescent="0.35">
-      <c r="E278" s="35"/>
-      <c r="F278" s="22"/>
-      <c r="G278" s="21" t="s">
-        <v>242</v>
-      </c>
+    <row r="278" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="E278" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="F278" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G278" s="23"/>
       <c r="H278" s="23"/>
       <c r="I278" s="23"/>
       <c r="J278" s="23"/>
       <c r="K278" s="23"/>
       <c r="N278" s="21"/>
     </row>
-    <row r="279" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="279" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E279" s="35"/>
-      <c r="F279" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G279" s="23"/>
+      <c r="F279" s="22"/>
+      <c r="G279" s="21" t="s">
+        <v>239</v>
+      </c>
       <c r="H279" s="23"/>
       <c r="I279" s="23"/>
       <c r="J279" s="23"/>
       <c r="K279" s="23"/>
       <c r="N279" s="21"/>
     </row>
-    <row r="280" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="280" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E280" s="35"/>
-      <c r="F280" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="G280" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="H280" s="21"/>
-      <c r="I280" s="21"/>
-      <c r="J280" s="21"/>
-      <c r="K280" s="21"/>
-      <c r="L280" s="21"/>
-      <c r="M280" s="21"/>
+      <c r="F280" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G280" s="23"/>
+      <c r="H280" s="23"/>
+      <c r="I280" s="23"/>
+      <c r="J280" s="23"/>
+      <c r="K280" s="23"/>
       <c r="N280" s="21"/>
-      <c r="O280" s="59" t="s">
-        <v>320</v>
-      </c>
-      <c r="P280" s="60"/>
-      <c r="Q280" s="60"/>
-    </row>
-    <row r="281" spans="5:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="281" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E281" s="35"/>
       <c r="F281" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="G281" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="H281" s="59"/>
-      <c r="I281" s="59"/>
-      <c r="J281" s="59"/>
-      <c r="K281" s="59"/>
-      <c r="L281" s="59"/>
-      <c r="M281" s="59"/>
-      <c r="N281" s="59"/>
-      <c r="O281" s="59"/>
-      <c r="P281" s="60"/>
-      <c r="Q281" s="60"/>
-      <c r="R281" s="60"/>
-      <c r="S281" s="60"/>
-      <c r="T281" s="60"/>
-    </row>
-    <row r="282" spans="5:20" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+      <c r="G281" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="H281" s="25"/>
+      <c r="I281" s="25"/>
+      <c r="J281" s="25"/>
+      <c r="K281" s="25"/>
+      <c r="L281" s="25"/>
+      <c r="M281" s="25"/>
+      <c r="N281" s="25"/>
+      <c r="O281" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="P281" s="13"/>
+      <c r="Q281" s="13"/>
+      <c r="R281" s="13"/>
+      <c r="S281" s="13"/>
+      <c r="T281" s="13"/>
+      <c r="U281" s="13"/>
+      <c r="V281" s="13"/>
+    </row>
+    <row r="282" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E282" s="35"/>
       <c r="F282" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="G282" s="59" t="s">
-        <v>322</v>
-      </c>
-      <c r="H282" s="59"/>
-      <c r="I282" s="59"/>
-      <c r="J282" s="59"/>
-      <c r="K282" s="59"/>
-      <c r="L282" s="59"/>
-      <c r="M282" s="59"/>
-      <c r="N282" s="59"/>
-      <c r="O282" s="59"/>
-      <c r="P282" s="60"/>
-      <c r="Q282" s="60"/>
-      <c r="R282" s="60"/>
-      <c r="S282" s="60"/>
-      <c r="T282" s="60"/>
-    </row>
-    <row r="283" spans="5:20" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+      <c r="G282" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="H282" s="25"/>
+      <c r="I282" s="25"/>
+      <c r="J282" s="25"/>
+      <c r="K282" s="25"/>
+      <c r="L282" s="25"/>
+      <c r="M282" s="25"/>
+      <c r="N282" s="25"/>
+      <c r="O282" s="25"/>
+      <c r="P282" s="13"/>
+      <c r="Q282" s="13"/>
+      <c r="R282" s="13"/>
+      <c r="S282" s="13"/>
+      <c r="T282" s="13"/>
+      <c r="U282" s="13"/>
+      <c r="V282" s="13"/>
+    </row>
+    <row r="283" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E283" s="35"/>
-      <c r="F283" s="61"/>
-      <c r="G283" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="H283" s="21"/>
-      <c r="I283" s="21"/>
-      <c r="J283" s="21"/>
-      <c r="K283" s="21"/>
-      <c r="L283" s="21"/>
-      <c r="M283" s="21"/>
-      <c r="N283" s="21"/>
-      <c r="O283" s="21"/>
-    </row>
-    <row r="284" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="F283" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="G283" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="H283" s="25"/>
+      <c r="I283" s="25"/>
+      <c r="J283" s="25"/>
+      <c r="K283" s="25"/>
+      <c r="L283" s="25"/>
+      <c r="M283" s="25"/>
+      <c r="N283" s="25"/>
+      <c r="O283" s="25"/>
+      <c r="P283" s="13"/>
+      <c r="Q283" s="13"/>
+      <c r="R283" s="13"/>
+      <c r="S283" s="13"/>
+      <c r="T283" s="13"/>
+      <c r="U283" s="13"/>
+      <c r="V283" s="13"/>
+    </row>
+    <row r="284" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E284" s="35"/>
-      <c r="F284" s="61"/>
-      <c r="G284" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="H284" s="59"/>
-      <c r="I284" s="59"/>
-      <c r="J284" s="59"/>
-      <c r="K284" s="59"/>
-      <c r="L284" s="59"/>
-      <c r="M284" s="59"/>
-      <c r="N284" s="59"/>
-      <c r="O284" s="21"/>
-    </row>
-    <row r="285" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="F284" s="57"/>
+      <c r="G284" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="H284" s="25"/>
+      <c r="I284" s="25"/>
+      <c r="J284" s="25"/>
+      <c r="K284" s="25"/>
+      <c r="L284" s="25"/>
+      <c r="M284" s="25"/>
+      <c r="N284" s="25"/>
+      <c r="O284" s="25"/>
+      <c r="P284" s="13"/>
+      <c r="Q284" s="13"/>
+      <c r="R284" s="13"/>
+      <c r="S284" s="13"/>
+      <c r="T284" s="13"/>
+      <c r="U284" s="13"/>
+      <c r="V284" s="13"/>
+    </row>
+    <row r="285" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E285" s="35"/>
-      <c r="F285" s="61"/>
-      <c r="G285" s="60" t="s">
-        <v>316</v>
-      </c>
-      <c r="H285" s="59"/>
-      <c r="I285" s="59"/>
-      <c r="J285" s="59"/>
-      <c r="K285" s="59"/>
-      <c r="L285" s="59"/>
-      <c r="M285" s="59"/>
-      <c r="N285" s="59"/>
-      <c r="O285" s="21"/>
-    </row>
-    <row r="286" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="F285" s="57"/>
+      <c r="G285" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="H285" s="25"/>
+      <c r="I285" s="25"/>
+      <c r="J285" s="25"/>
+      <c r="K285" s="25"/>
+      <c r="L285" s="25"/>
+      <c r="M285" s="25"/>
+      <c r="N285" s="25"/>
+      <c r="O285" s="25"/>
+      <c r="P285" s="13"/>
+      <c r="Q285" s="13"/>
+      <c r="R285" s="13"/>
+      <c r="S285" s="13"/>
+      <c r="T285" s="13"/>
+      <c r="U285" s="13"/>
+      <c r="V285" s="13"/>
+    </row>
+    <row r="286" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E286" s="35"/>
-      <c r="F286" s="21"/>
-      <c r="G286" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="H286" s="21"/>
-      <c r="I286" s="21"/>
-      <c r="J286" s="21"/>
-      <c r="K286" s="21"/>
-      <c r="L286" s="21"/>
-      <c r="M286" s="21"/>
-      <c r="N286" s="21"/>
-      <c r="O286" s="21"/>
-    </row>
-    <row r="287" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="F286" s="57"/>
+      <c r="G286" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="H286" s="25"/>
+      <c r="I286" s="25"/>
+      <c r="J286" s="25"/>
+      <c r="K286" s="25"/>
+      <c r="L286" s="25"/>
+      <c r="M286" s="25"/>
+      <c r="N286" s="25"/>
+      <c r="O286" s="25"/>
+      <c r="P286" s="13"/>
+      <c r="Q286" s="13"/>
+      <c r="R286" s="13"/>
+      <c r="S286" s="13"/>
+      <c r="T286" s="13"/>
+      <c r="U286" s="13"/>
+      <c r="V286" s="13"/>
+    </row>
+    <row r="287" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E287" s="35"/>
       <c r="F287" s="21"/>
-      <c r="G287" s="21"/>
-      <c r="H287" s="21"/>
-      <c r="I287" s="21"/>
-      <c r="J287" s="21"/>
-      <c r="K287" s="21"/>
-      <c r="L287" s="21"/>
-      <c r="M287" s="21"/>
-      <c r="N287" s="21"/>
-      <c r="O287" s="21"/>
-    </row>
-    <row r="288" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="G287" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="H287" s="25"/>
+      <c r="I287" s="25"/>
+      <c r="J287" s="25"/>
+      <c r="K287" s="25"/>
+      <c r="L287" s="25"/>
+      <c r="M287" s="25"/>
+      <c r="N287" s="25"/>
+      <c r="O287" s="25"/>
+      <c r="P287" s="13"/>
+      <c r="Q287" s="13"/>
+      <c r="R287" s="13"/>
+      <c r="S287" s="13"/>
+      <c r="T287" s="13"/>
+      <c r="U287" s="13"/>
+      <c r="V287" s="13"/>
+    </row>
+    <row r="288" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E288" s="35"/>
       <c r="F288" s="21"/>
       <c r="G288" s="21"/>
@@ -15751,27 +16015,24 @@
     </row>
     <row r="299" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E299" s="35"/>
-      <c r="F299" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G299" s="23"/>
-      <c r="H299" s="23"/>
+      <c r="F299" s="21"/>
+      <c r="G299" s="21"/>
+      <c r="H299" s="21"/>
       <c r="I299" s="21"/>
       <c r="J299" s="21"/>
       <c r="K299" s="21"/>
       <c r="L299" s="21"/>
       <c r="M299" s="21"/>
       <c r="N299" s="21"/>
+      <c r="O299" s="21"/>
     </row>
     <row r="300" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E300" s="35"/>
-      <c r="F300" s="22"/>
-      <c r="G300" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="H300" s="29" t="s">
-        <v>169</v>
-      </c>
+      <c r="F300" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G300" s="23"/>
+      <c r="H300" s="23"/>
       <c r="I300" s="21"/>
       <c r="J300" s="21"/>
       <c r="K300" s="21"/>
@@ -15783,7 +16044,7 @@
       <c r="E301" s="35"/>
       <c r="F301" s="22"/>
       <c r="G301" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H301" s="29" t="s">
         <v>169</v>
@@ -15799,7 +16060,7 @@
       <c r="E302" s="35"/>
       <c r="F302" s="22"/>
       <c r="G302" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H302" s="29" t="s">
         <v>169</v>
@@ -15813,11 +16074,13 @@
     </row>
     <row r="303" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E303" s="35"/>
-      <c r="F303" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="G303" s="23"/>
-      <c r="H303" s="23"/>
+      <c r="F303" s="22"/>
+      <c r="G303" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="H303" s="29" t="s">
+        <v>169</v>
+      </c>
       <c r="I303" s="21"/>
       <c r="J303" s="21"/>
       <c r="K303" s="21"/>
@@ -15827,13 +16090,11 @@
     </row>
     <row r="304" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E304" s="35"/>
-      <c r="F304" s="21"/>
-      <c r="G304" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H304" s="23" t="s">
-        <v>186</v>
-      </c>
+      <c r="F304" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G304" s="23"/>
+      <c r="H304" s="23"/>
       <c r="I304" s="21"/>
       <c r="J304" s="21"/>
       <c r="K304" s="21"/>
@@ -15845,10 +16106,10 @@
       <c r="E305" s="35"/>
       <c r="F305" s="21"/>
       <c r="G305" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="H305" s="29" t="s">
-        <v>169</v>
+        <v>185</v>
+      </c>
+      <c r="H305" s="23" t="s">
+        <v>186</v>
       </c>
       <c r="I305" s="21"/>
       <c r="J305" s="21"/>
@@ -15860,8 +16121,12 @@
     <row r="306" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E306" s="35"/>
       <c r="F306" s="21"/>
-      <c r="G306" s="21"/>
-      <c r="H306" s="21"/>
+      <c r="G306" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H306" s="29" t="s">
+        <v>169</v>
+      </c>
       <c r="I306" s="21"/>
       <c r="J306" s="21"/>
       <c r="K306" s="21"/>
@@ -15870,9 +16135,6 @@
       <c r="N306" s="21"/>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B307" s="31" t="s">
-        <v>195</v>
-      </c>
       <c r="E307" s="35"/>
       <c r="F307" s="21"/>
       <c r="G307" s="21"/>
@@ -15885,8 +16147,8 @@
       <c r="N307" s="21"/>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C308" s="1" t="s">
-        <v>196</v>
+      <c r="B308" s="31" t="s">
+        <v>195</v>
       </c>
       <c r="E308" s="35"/>
       <c r="F308" s="21"/>
@@ -15900,13 +16162,10 @@
       <c r="N308" s="21"/>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A309" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D309" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="E309" s="49"/>
+      <c r="C309" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E309" s="35"/>
       <c r="F309" s="21"/>
       <c r="G309" s="21"/>
       <c r="H309" s="21"/>
@@ -15918,95 +16177,115 @@
       <c r="N309" s="21"/>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D310" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="E310" s="49"/>
-      <c r="F310" s="47"/>
-      <c r="G310" s="47"/>
-      <c r="H310" s="47"/>
-      <c r="I310" s="47"/>
-      <c r="J310" s="47"/>
-      <c r="K310" s="47"/>
-      <c r="L310" s="47"/>
-      <c r="M310" s="21"/>
+      <c r="A310" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D310" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="E310" s="83"/>
+      <c r="F310" s="25"/>
+      <c r="G310" s="25"/>
+      <c r="H310" s="25"/>
+      <c r="I310" s="25"/>
+      <c r="J310" s="25"/>
+      <c r="K310" s="25"/>
+      <c r="L310" s="25"/>
+      <c r="M310" s="25"/>
       <c r="N310" s="21"/>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D311" s="48"/>
-      <c r="E311" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="F311" s="47"/>
-      <c r="G311" s="47"/>
-      <c r="H311" s="47"/>
-      <c r="I311" s="47"/>
-      <c r="J311" s="47"/>
-      <c r="K311" s="47"/>
-      <c r="L311" s="47"/>
-      <c r="M311" s="21"/>
+      <c r="D311" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E311" s="83"/>
+      <c r="F311" s="25"/>
+      <c r="G311" s="25"/>
+      <c r="H311" s="25"/>
+      <c r="I311" s="25"/>
+      <c r="J311" s="25"/>
+      <c r="K311" s="25"/>
+      <c r="L311" s="25"/>
+      <c r="M311" s="25"/>
       <c r="N311" s="21"/>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D312" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E312" s="35"/>
-      <c r="F312" s="21"/>
-      <c r="G312" s="21"/>
-      <c r="H312" s="21"/>
-      <c r="I312" s="21"/>
-      <c r="J312" s="21"/>
-      <c r="K312" s="21"/>
-      <c r="L312" s="21"/>
-      <c r="M312" s="21"/>
+      <c r="D312" s="13"/>
+      <c r="E312" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="F312" s="25"/>
+      <c r="G312" s="25"/>
+      <c r="H312" s="25"/>
+      <c r="I312" s="25"/>
+      <c r="J312" s="25"/>
+      <c r="K312" s="25"/>
+      <c r="L312" s="25"/>
+      <c r="M312" s="25"/>
       <c r="N312" s="21"/>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E313" s="35"/>
-      <c r="F313" s="21"/>
-      <c r="G313" s="21"/>
-      <c r="H313" s="21"/>
-      <c r="I313" s="21"/>
-      <c r="J313" s="21"/>
-      <c r="K313" s="21"/>
-      <c r="L313" s="21"/>
-      <c r="M313" s="21"/>
+      <c r="D313" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E313" s="83"/>
+      <c r="F313" s="25"/>
+      <c r="G313" s="25"/>
+      <c r="H313" s="25"/>
+      <c r="I313" s="25"/>
+      <c r="J313" s="25"/>
+      <c r="K313" s="25"/>
+      <c r="L313" s="25"/>
+      <c r="M313" s="25"/>
       <c r="N313" s="21"/>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C314" s="1" t="s">
+      <c r="D314" s="13"/>
+      <c r="E314" s="83"/>
+      <c r="F314" s="25"/>
+      <c r="G314" s="25"/>
+      <c r="H314" s="25"/>
+      <c r="I314" s="25"/>
+      <c r="J314" s="25"/>
+      <c r="K314" s="25"/>
+      <c r="L314" s="25"/>
+      <c r="M314" s="25"/>
+      <c r="N314" s="21"/>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C315" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E314" s="21"/>
-      <c r="F314" s="21"/>
-      <c r="G314" s="21"/>
-      <c r="H314" s="21"/>
-      <c r="I314" s="21"/>
-      <c r="J314" s="21"/>
-      <c r="K314" s="21"/>
-      <c r="L314" s="21"/>
-      <c r="M314" s="21"/>
-      <c r="N314" s="21"/>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D315" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E315" s="21"/>
+      <c r="D315" s="13"/>
+      <c r="E315" s="25"/>
+      <c r="F315" s="25"/>
+      <c r="G315" s="25"/>
+      <c r="H315" s="25"/>
+      <c r="I315" s="25"/>
+      <c r="J315" s="25"/>
+      <c r="K315" s="25"/>
+      <c r="L315" s="25"/>
+      <c r="M315" s="25"/>
+      <c r="N315" s="21"/>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D316" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="E316" s="21"/>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E317" s="21"/>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E318" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:AA1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A102 A144:A145 A149:A150 A253:A258 A105:A114 A190:A251 A260:A264 A152:A187 A116:A142 A268:A1048576">
+  <conditionalFormatting sqref="A1:A102 A144:A145 A150:A151 A254:A259 A105:A114 A191:A252 A261:A265 A153:A188 A116:A142 A269:A1048576">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -16041,32 +16320,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B2" s="35" t="s">
@@ -16106,7 +16385,7 @@
         <v>213</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
@@ -16127,7 +16406,7 @@
         <v>205</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16138,7 +16417,7 @@
         <v>215</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>216</v>
@@ -16150,7 +16429,7 @@
         <v>217</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -16171,7 +16450,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G13" s="44" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -16199,34 +16478,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
     </row>
     <row r="2" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
@@ -16276,7 +16555,7 @@
     </row>
     <row r="6" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -16294,7 +16573,7 @@
     </row>
     <row r="7" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -16445,7 +16724,7 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -16844,8 +17123,8 @@
     <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40" s="13"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="56" t="s">
-        <v>297</v>
+      <c r="D40" s="54" t="s">
+        <v>293</v>
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="2"/>
@@ -16865,7 +17144,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="38"/>
       <c r="E41" s="38" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -17316,12 +17595,12 @@
       <c r="E74" s="13"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="25" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K74" s="13"/>
     </row>
@@ -17410,7 +17689,7 @@
       <c r="D80" s="13"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -17835,7 +18114,7 @@
       <c r="D113" s="13"/>
       <c r="E113" s="21"/>
       <c r="F113" s="25" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K113" s="13"/>
       <c r="L113" s="13"/>
@@ -17851,7 +18130,7 @@
       <c r="D114" s="13"/>
       <c r="E114" s="21"/>
       <c r="F114" s="25" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K114" s="13"/>
       <c r="L114" s="13"/>
@@ -17885,7 +18164,7 @@
         <v>178</v>
       </c>
       <c r="G116" s="21" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
@@ -17999,7 +18278,7 @@
       <c r="D123" s="13"/>
       <c r="E123" s="13"/>
       <c r="F123" s="21" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G123" s="21"/>
       <c r="H123" s="21"/>
@@ -18070,7 +18349,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -18118,14 +18397,14 @@
       <c r="D2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="85" t="s">
-        <v>353</v>
+      <c r="E2" s="66" t="s">
+        <v>349</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>42</v>
@@ -18173,7 +18452,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>189</v>
@@ -18182,7 +18461,7 @@
         <v>152</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="28">
@@ -18197,54 +18476,54 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="B5" s="58" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59">
+        <v>1</v>
+      </c>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59">
+        <v>1</v>
+      </c>
+      <c r="K5" s="59"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>309</v>
       </c>
-      <c r="D5" s="62" t="s">
-        <v>314</v>
-      </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63">
+      <c r="E6" s="58"/>
+      <c r="F6" s="59">
         <v>1</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59">
         <v>1</v>
       </c>
-      <c r="K5" s="63"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>311</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>309</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63">
-        <v>1</v>
-      </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63">
-        <v>1</v>
-      </c>
-      <c r="K6" s="63"/>
+      <c r="K6" s="59"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="27"/>
@@ -18401,24 +18680,24 @@
     <col min="10" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="66" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64">
+    <row r="1" spans="1:13" s="62" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60">
         <v>42198</v>
       </c>
-      <c r="D2" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>327</v>
-      </c>
-      <c r="J2" s="65" t="s">
-        <v>326</v>
+      <c r="D2" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B3" s="35" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -18427,7 +18706,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="35" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
@@ -18436,7 +18715,7 @@
     </row>
     <row r="4" spans="1:13" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -18457,7 +18736,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D5" s="21">
         <v>1</v>
@@ -18477,7 +18756,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D6" s="21">
         <v>1</v>
@@ -18497,7 +18776,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D7" s="21">
         <v>1</v>
@@ -18517,7 +18796,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D8" s="21">
         <v>1.5</v>
@@ -18548,7 +18827,7 @@
     </row>
     <row r="10" spans="1:13" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B10" s="21" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -18567,7 +18846,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D11" s="21">
         <v>1</v>
@@ -18587,7 +18866,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D12" s="21">
         <v>1.5</v>
@@ -18598,7 +18877,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D13" s="21">
         <v>1</v>
@@ -18606,12 +18885,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15" s="35" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C16" s="21" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D16" s="21">
         <v>4</v>

--- a/gd/交互系统/邮箱系统设计.xlsx
+++ b/gd/交互系统/邮箱系统设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="195" windowWidth="20730" windowHeight="11070"/>
+    <workbookView xWindow="-30" yWindow="60" windowWidth="25545" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -16,19 +16,22 @@
     <sheet name="自用" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_2._已读邮件的定义">'逻辑+UI'!$C$315</definedName>
+    <definedName name="_2._已读邮件的定义">'逻辑+UI'!$C$319</definedName>
     <definedName name="_3、功能界面">#REF!</definedName>
     <definedName name="_4、录音模式">#REF!</definedName>
     <definedName name="_5_、功能按钮">#REF!</definedName>
     <definedName name="打开邮箱UI时_刷新邮件。UI开启的过程中_若有新邮件来_界面立即刷新。">'逻辑+UI'!$D$52</definedName>
+    <definedName name="第二个">'逻辑+UI'!$G$287:$J$287</definedName>
     <definedName name="二、聊天框玩家名称">美术需求!$B$27</definedName>
+    <definedName name="金币钻石达到上限的处理符合通用规则。">'逻辑+UI'!$F$190</definedName>
+    <definedName name="若当前邮箱已满_玩家正在读取最后一封邮件_此时有新邮件进入_则邮箱界面右侧保持玩家读取的邮件不变_左侧邮件列表刷新。">'逻辑+UI'!$E$148</definedName>
     <definedName name="若无邮件_则列表处为空着即可。">'逻辑+UI'!$F$140:$H$140</definedName>
-    <definedName name="若邮件不包含附件_则附件处空着即可。">'逻辑+UI'!$F$269</definedName>
+    <definedName name="若邮件不包含附件_则附件处空着即可。">'逻辑+UI'!$F$272</definedName>
     <definedName name="若邮箱已满_玩家打开邮箱_又收到x封新邮件_则邮箱界面时时刷新_新邮件会根据上面的规则定掉老邮件。">'逻辑+UI'!$E$147</definedName>
     <definedName name="三、走马灯">美术需求!$B$72</definedName>
     <definedName name="四、系统公告提示">美术需求!#REF!</definedName>
     <definedName name="五、提示信息">美术需求!#REF!</definedName>
-    <definedName name="系统邮件正文内容汉字数上限500">'逻辑+UI'!$F$255</definedName>
+    <definedName name="系统邮件正文内容汉字数上限500">'逻辑+UI'!$F$258</definedName>
     <definedName name="显示格式">#REF!</definedName>
     <definedName name="邮件标题采用文字缩放规则显示">'逻辑+UI'!$G$103:$I$103</definedName>
     <definedName name="长按才能录音_松手后直接发送录音内容。">#REF!</definedName>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="376">
   <si>
     <t>文档名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1493,10 +1496,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>若由于以上检测中途终止了收取操作，则终止操作发生的邮件之前的邮件收取成功，且收取成功的邮件从邮件列表中清除，清空邮件内容显示框。客户端会在收取完成后一次刷新邮件列表和邮件内容显示框。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1）玩家金币数量是否达到上限以及完整收取后金币是否会达到上限，若达到上限，则终止收取操作且弹出提示信息mail_record_003，若未达到，则进入下一步检测，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1621,10 +1620,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>打开邮箱UI时，刷新邮件。UI开启的过程中，若有新邮件来，界面立即刷新。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>邮箱开启过程中，有新邮件来，界面刷新</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1638,6 +1633,77 @@
   </si>
   <si>
     <t>邮箱开启时邮箱满且又收到新邮件的处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若当前邮箱已满，玩家正在读取最后一封邮件，此时有新邮件进入，则邮箱界面右侧保持玩家读取的邮件不变，左侧邮件列表刷新。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取邮件失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若最后一封邮件包含附件，则此时玩家进行收取操作，收取失败，弹出IM提示信息mail_record_005。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_record_005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件已过期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币钻石达到上限的处理符合通用规则。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若由于以上检测中途终止了收取操作，则终止操作发生的邮件之前的邮件收取成功，且</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收取成功的邮件从邮件列表中清除，清空邮件内容显示框。客户端会在收取完成后一次刷新邮件列表和邮件内容显示框。</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开邮箱UI时，刷新邮件。UI开启的过程中，若有新邮件来，界面立即刷新（邮箱界面右侧保持玩家读取的邮件不变，左侧邮件列表刷新）。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱满时的刷新逻辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币、钻石达到上限不终止邮箱收取操作</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1645,7 +1711,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1820,6 +1886,14 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2134,7 +2208,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2271,6 +2345,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2316,15 +2403,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2351,9 +2433,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FF1BDF4E"/>
       <color rgb="FF0099FF"/>
-      <color rgb="FFFF99CC"/>
       <color rgb="FFFF99FF"/>
       <color rgb="FF6699FF"/>
       <color rgb="FF3399FF"/>
@@ -5229,13 +5311,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5276,13 +5358,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5326,13 +5408,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>106363</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5376,13 +5458,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>87313</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5426,13 +5508,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>96838</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5476,13 +5558,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>115888</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5526,13 +5608,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5576,14 +5658,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>601871</xdr:colOff>
-      <xdr:row>263</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5766,13 +5848,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9223</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>133310</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6029,13 +6111,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6084,13 +6166,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>53423</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>94422</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>642969</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>152294</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6160,13 +6242,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6227,13 +6309,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6282,13 +6364,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>34373</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>75372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>623919</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>133244</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6358,13 +6440,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6419,13 +6501,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>124304</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6457,13 +6539,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>286</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>182415</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6495,13 +6577,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>66539</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6571,14 +6653,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180876</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>190409</xdr:rowOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>190410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6647,13 +6729,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>171392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6685,13 +6767,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>294</xdr:row>
+      <xdr:row>298</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>161867</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12831,10 +12913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L36"/>
+  <dimension ref="A2:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -12893,17 +12975,17 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74" t="s">
+      <c r="C12" s="80"/>
+      <c r="D12" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="82"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
@@ -12912,76 +12994,76 @@
       <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="78"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="76"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="69"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76"/>
     </row>
     <row r="19" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="71"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="78"/>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -13058,16 +13140,16 @@
       </c>
       <c r="E26" s="63"/>
       <c r="F26" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="K26" s="42" t="s">
         <v>342</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="K26" s="42" t="s">
-        <v>343</v>
-      </c>
       <c r="L26" s="42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -13077,10 +13159,10 @@
       </c>
       <c r="E27" s="67"/>
       <c r="F27" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>353</v>
       </c>
       <c r="K27" s="42"/>
       <c r="L27" s="42"/>
@@ -13089,7 +13171,7 @@
       <c r="B28" s="2"/>
       <c r="C28" s="11"/>
       <c r="G28" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -13097,81 +13179,108 @@
       <c r="C29" s="11">
         <v>42294</v>
       </c>
-      <c r="E29" s="84"/>
+      <c r="E29" s="69"/>
       <c r="F29" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="G29" s="86" t="s">
-        <v>357</v>
+        <v>354</v>
+      </c>
+      <c r="G29" s="71" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="C30" s="11"/>
-      <c r="E30" s="84"/>
-      <c r="G30" s="86" t="s">
-        <v>361</v>
+      <c r="E30" s="69"/>
+      <c r="G30" s="71" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
       <c r="C31" s="11"/>
-      <c r="E31" s="84"/>
-      <c r="G31" s="86" t="s">
-        <v>362</v>
+      <c r="E31" s="69"/>
+      <c r="G31" s="71" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="11"/>
-      <c r="E32" s="84"/>
-      <c r="G32" s="86" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E32" s="69"/>
+      <c r="G32" s="71" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
-      <c r="C33" s="11"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="C33" s="11">
+        <v>42298</v>
+      </c>
+      <c r="E33" s="50"/>
+      <c r="F33" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G33" s="71" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+      <c r="C34" s="11"/>
+      <c r="E34" s="50"/>
+      <c r="G34" s="71" t="s">
+        <v>375</v>
+      </c>
+      <c r="J34" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="K34" s="42" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+      <c r="C35" s="11"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="11">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="11">
         <v>42226</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13193,6 +13302,9 @@
     <hyperlink ref="G30" location="打开邮箱UI时_刷新邮件。UI开启的过程中_若有新邮件来_界面立即刷新。" display="邮箱开启过程中，有新邮件来，界面刷新"/>
     <hyperlink ref="G31" location="邮件标题采用文字缩放规则显示" display="邮件正文汉字上限回归"/>
     <hyperlink ref="G32" location="若邮箱已满_玩家打开邮箱_又收到x封新邮件_则邮箱界面时时刷新_新邮件会根据上面的规则定掉老邮件。" display="邮箱开启时邮箱满且又收到新邮件的处理"/>
+    <hyperlink ref="J34" location="金币钻石达到上限的处理符合通用规则。" display="位置1"/>
+    <hyperlink ref="K34" location="第二个" display="位置2"/>
+    <hyperlink ref="G33" location="若当前邮箱已满_玩家正在读取最后一封邮件_此时有新邮件进入_则邮箱界面右侧保持玩家读取的邮件不变_左侧邮件列表刷新。" display="邮箱满时的刷新逻辑"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13200,10 +13312,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA318"/>
+  <dimension ref="A1:AA322"/>
   <sheetViews>
-    <sheetView topLeftCell="B132" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView topLeftCell="B210" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F294" sqref="F294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -13213,34 +13325,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B2" s="31" t="s">
@@ -13420,7 +13532,7 @@
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.35">
       <c r="D49" s="54" t="s">
         <v>293</v>
       </c>
@@ -13428,7 +13540,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.35">
       <c r="D50" s="38"/>
       <c r="E50" s="38" t="s">
         <v>294</v>
@@ -13436,21 +13548,23 @@
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:15" x14ac:dyDescent="0.35">
       <c r="D52" s="25" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="E52" s="25"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="87"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
       <c r="K52" s="25"/>
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.35">
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
@@ -13460,7 +13574,7 @@
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C54" s="41" t="s">
         <v>223</v>
       </c>
@@ -13468,17 +13582,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.35">
       <c r="E55" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:15" x14ac:dyDescent="0.35">
       <c r="D56" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:15" x14ac:dyDescent="0.35">
       <c r="E57" s="22" t="s">
         <v>85</v>
       </c>
@@ -13488,7 +13602,7 @@
       <c r="I57" s="23"/>
       <c r="J57" s="23"/>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.35">
       <c r="E58" s="22"/>
       <c r="F58" s="23" t="s">
         <v>86</v>
@@ -13498,7 +13612,7 @@
       <c r="I58" s="23"/>
       <c r="J58" s="23"/>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.35">
       <c r="E59" s="22" t="s">
         <v>87</v>
       </c>
@@ -13508,7 +13622,7 @@
       <c r="I59" s="23"/>
       <c r="J59" s="23"/>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.35">
       <c r="E60" s="22"/>
       <c r="F60" s="23" t="s">
         <v>59</v>
@@ -13518,7 +13632,7 @@
       <c r="I60" s="23"/>
       <c r="J60" s="23"/>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.35">
       <c r="E61" s="22" t="s">
         <v>88</v>
       </c>
@@ -13528,7 +13642,7 @@
       <c r="I61" s="23"/>
       <c r="J61" s="23"/>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.35">
       <c r="E62" s="22"/>
       <c r="F62" s="23" t="s">
         <v>57</v>
@@ -13538,7 +13652,7 @@
       <c r="I62" s="23"/>
       <c r="J62" s="23"/>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.35">
       <c r="E63" s="22" t="s">
         <v>89</v>
       </c>
@@ -13548,7 +13662,7 @@
       <c r="I63" s="23"/>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:15" x14ac:dyDescent="0.35">
       <c r="E64" s="22"/>
       <c r="F64" s="23" t="s">
         <v>100</v>
@@ -13962,11 +14076,11 @@
       <c r="A103" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="G103" s="85" t="s">
-        <v>356</v>
-      </c>
-      <c r="H103" s="85"/>
-      <c r="I103" s="85"/>
+      <c r="G103" s="70" t="s">
+        <v>355</v>
+      </c>
+      <c r="H103" s="70"/>
+      <c r="I103" s="70"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
@@ -14342,7 +14456,7 @@
     <row r="140" spans="4:15" x14ac:dyDescent="0.35">
       <c r="E140" s="13"/>
       <c r="F140" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G140" s="13"/>
       <c r="H140" s="13"/>
@@ -14398,40 +14512,38 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A147" s="46"/>
-      <c r="E147" s="85" t="s">
-        <v>363</v>
-      </c>
-      <c r="F147" s="85"/>
-      <c r="G147" s="85"/>
-      <c r="H147" s="85"/>
-      <c r="I147" s="85"/>
-      <c r="J147" s="85"/>
-      <c r="K147" s="85"/>
-      <c r="L147" s="85"/>
-      <c r="M147" s="85"/>
-      <c r="N147" s="85"/>
+      <c r="E147" s="70" t="s">
+        <v>361</v>
+      </c>
+      <c r="F147" s="70"/>
+      <c r="G147" s="70"/>
+      <c r="H147" s="70"/>
+      <c r="I147" s="70"/>
+      <c r="J147" s="70"/>
+      <c r="K147" s="70"/>
+      <c r="L147" s="70"/>
+      <c r="M147" s="70"/>
+      <c r="N147" s="70"/>
       <c r="O147" s="13"/>
       <c r="P147" s="13"/>
       <c r="Q147" s="13"/>
       <c r="R147" s="13"/>
       <c r="S147" s="13"/>
     </row>
-    <row r="148" spans="1:19" ht="33" x14ac:dyDescent="0.35">
-      <c r="A148" s="46" t="s">
-        <v>265</v>
-      </c>
-      <c r="E148" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13"/>
-      <c r="H148" s="13"/>
-      <c r="I148" s="13"/>
-      <c r="J148" s="13"/>
-      <c r="K148" s="13"/>
-      <c r="L148" s="13"/>
-      <c r="M148" s="13"/>
-      <c r="N148" s="13"/>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A148" s="46"/>
+      <c r="E148" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="F148" s="48"/>
+      <c r="G148" s="48"/>
+      <c r="H148" s="48"/>
+      <c r="I148" s="48"/>
+      <c r="J148" s="48"/>
+      <c r="K148" s="48"/>
+      <c r="L148" s="48"/>
+      <c r="M148" s="48"/>
+      <c r="N148" s="48"/>
       <c r="O148" s="13"/>
       <c r="P148" s="13"/>
       <c r="Q148" s="13"/>
@@ -14439,94 +14551,118 @@
       <c r="S148" s="13"/>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A149" s="47" t="s">
+      <c r="A149" s="46"/>
+      <c r="E149" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="F149" s="48"/>
+      <c r="G149" s="48"/>
+      <c r="H149" s="48"/>
+      <c r="I149" s="48"/>
+      <c r="J149" s="48"/>
+      <c r="K149" s="48"/>
+      <c r="L149" s="48"/>
+      <c r="M149" s="48"/>
+      <c r="N149" s="48"/>
+      <c r="O149" s="13"/>
+      <c r="P149" s="13"/>
+      <c r="Q149" s="13"/>
+      <c r="R149" s="13"/>
+      <c r="S149" s="13"/>
+    </row>
+    <row r="150" spans="1:19" ht="33" x14ac:dyDescent="0.35">
+      <c r="A150" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="13"/>
+      <c r="K150" s="13"/>
+      <c r="L150" s="13"/>
+      <c r="M150" s="13"/>
+      <c r="N150" s="13"/>
+      <c r="O150" s="13"/>
+      <c r="P150" s="13"/>
+      <c r="Q150" s="13"/>
+      <c r="R150" s="13"/>
+      <c r="S150" s="13"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A151" s="47" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K150" s="2" t="s">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K152" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A152" s="46" t="s">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A154" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="J152" s="41" t="s">
+      <c r="J154" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="K152" s="2" t="s">
+      <c r="K154" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="N152" s="13"/>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K153" s="2" t="s">
+      <c r="N154" s="13"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K155" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K154" s="36" t="s">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K156" s="36" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="E158" s="2" t="s">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="E160" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K160" s="2" t="s">
+    <row r="162" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="K162" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="162" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="J162" s="41" t="s">
+    <row r="164" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="J164" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="K162" s="2" t="s">
+      <c r="K164" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="M162" s="13"/>
-      <c r="N162" s="13"/>
-    </row>
-    <row r="163" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="K163" s="2" t="s">
+      <c r="M164" s="13"/>
+      <c r="N164" s="13"/>
+    </row>
+    <row r="165" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="K165" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="164" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="K164" s="36" t="s">
+    <row r="166" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="K166" s="36" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="168" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D168" s="1" t="s">
+    <row r="170" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D170" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="169" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D169" s="1"/>
-      <c r="E169" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F169" s="23"/>
-      <c r="G169" s="23"/>
-      <c r="H169" s="23"/>
-    </row>
-    <row r="170" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D170" s="1"/>
-      <c r="E170" s="22"/>
-      <c r="F170" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G170" s="23"/>
-      <c r="H170" s="23"/>
     </row>
     <row r="171" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D171" s="1"/>
       <c r="E171" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F171" s="23"/>
       <c r="G171" s="23"/>
@@ -14536,7 +14672,7 @@
       <c r="D172" s="1"/>
       <c r="E172" s="22"/>
       <c r="F172" s="23" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G172" s="23"/>
       <c r="H172" s="23"/>
@@ -14544,7 +14680,7 @@
     <row r="173" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D173" s="1"/>
       <c r="E173" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F173" s="23"/>
       <c r="G173" s="23"/>
@@ -14553,18 +14689,16 @@
     <row r="174" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D174" s="1"/>
       <c r="E174" s="22"/>
-      <c r="F174" s="2" t="s">
-        <v>190</v>
+      <c r="F174" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="G174" s="23"/>
       <c r="H174" s="23"/>
     </row>
     <row r="175" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D175" s="41" t="s">
-        <v>223</v>
-      </c>
+      <c r="D175" s="1"/>
       <c r="E175" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F175" s="23"/>
       <c r="G175" s="23"/>
@@ -14573,56 +14707,42 @@
     <row r="176" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D176" s="1"/>
       <c r="E176" s="22"/>
-      <c r="F176" s="23" t="s">
-        <v>191</v>
+      <c r="F176" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="G176" s="23"/>
       <c r="H176" s="23"/>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D177" s="1"/>
+      <c r="D177" s="41" t="s">
+        <v>223</v>
+      </c>
       <c r="E177" s="22" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F177" s="23"/>
+      <c r="G177" s="23"/>
+      <c r="H177" s="23"/>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D178" s="1"/>
-      <c r="F178" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="G178" s="21"/>
-      <c r="H178" s="21"/>
-      <c r="I178" s="21"/>
-      <c r="J178" s="21"/>
-      <c r="K178" s="21"/>
-      <c r="L178" s="21"/>
-      <c r="M178" s="21"/>
-      <c r="N178" s="21"/>
-      <c r="O178" s="21"/>
-      <c r="P178" s="21"/>
-      <c r="Q178" s="21"/>
+      <c r="E178" s="22"/>
+      <c r="F178" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G178" s="23"/>
+      <c r="H178" s="23"/>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D179" s="1"/>
-      <c r="F179" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="G179" s="21"/>
-      <c r="H179" s="21"/>
-      <c r="I179" s="21"/>
-      <c r="J179" s="21"/>
-      <c r="K179" s="21"/>
-      <c r="L179" s="21"/>
-      <c r="M179" s="21"/>
-      <c r="N179" s="21"/>
-      <c r="O179" s="21"/>
-      <c r="P179" s="21"/>
-      <c r="Q179" s="21"/>
+      <c r="E179" s="22" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D180" s="1"/>
       <c r="F180" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G180" s="21"/>
       <c r="H180" s="21"/>
@@ -14639,11 +14759,12 @@
     <row r="181" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D181" s="1"/>
       <c r="F181" s="21" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="G181" s="21"/>
       <c r="H181" s="21"/>
       <c r="I181" s="21"/>
+      <c r="J181" s="21"/>
       <c r="K181" s="21"/>
       <c r="L181" s="21"/>
       <c r="M181" s="21"/>
@@ -14654,65 +14775,52 @@
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D182" s="1"/>
-      <c r="F182" s="21"/>
+      <c r="F182" s="21" t="s">
+        <v>153</v>
+      </c>
       <c r="G182" s="21"/>
       <c r="H182" s="21"/>
       <c r="I182" s="21"/>
+      <c r="J182" s="21"/>
       <c r="K182" s="21"/>
       <c r="L182" s="21"/>
       <c r="M182" s="21"/>
       <c r="N182" s="21"/>
+      <c r="O182" s="21"/>
+      <c r="P182" s="21"/>
+      <c r="Q182" s="21"/>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D183" s="1"/>
-      <c r="F183" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="G183" s="25"/>
-      <c r="H183" s="25"/>
-      <c r="I183" s="25"/>
-      <c r="J183" s="25"/>
-      <c r="K183" s="25"/>
-      <c r="L183" s="25"/>
-      <c r="M183" s="25"/>
-      <c r="N183" s="25"/>
-      <c r="O183" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="P183" s="13"/>
-      <c r="Q183" s="13"/>
-      <c r="R183" s="13"/>
-      <c r="S183" s="13"/>
+      <c r="F183" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G183" s="21"/>
+      <c r="H183" s="21"/>
+      <c r="I183" s="21"/>
+      <c r="K183" s="21"/>
+      <c r="L183" s="21"/>
+      <c r="M183" s="21"/>
+      <c r="N183" s="21"/>
+      <c r="O183" s="21"/>
+      <c r="P183" s="21"/>
+      <c r="Q183" s="21"/>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D184" s="1"/>
-      <c r="E184" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="F184" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="G184" s="25"/>
-      <c r="H184" s="25"/>
-      <c r="I184" s="25"/>
-      <c r="J184" s="25"/>
-      <c r="K184" s="25"/>
-      <c r="L184" s="25"/>
-      <c r="M184" s="25"/>
-      <c r="N184" s="25"/>
-      <c r="O184" s="25"/>
-      <c r="P184" s="25"/>
-      <c r="Q184" s="25"/>
-      <c r="R184" s="13"/>
-      <c r="S184" s="13"/>
+      <c r="F184" s="21"/>
+      <c r="G184" s="21"/>
+      <c r="H184" s="21"/>
+      <c r="I184" s="21"/>
+      <c r="K184" s="21"/>
+      <c r="L184" s="21"/>
+      <c r="M184" s="21"/>
+      <c r="N184" s="21"/>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D185" s="1"/>
-      <c r="E185" s="41" t="s">
-        <v>223</v>
-      </c>
       <c r="F185" s="25" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G185" s="25"/>
       <c r="H185" s="25"/>
@@ -14722,53 +14830,63 @@
       <c r="L185" s="25"/>
       <c r="M185" s="25"/>
       <c r="N185" s="25"/>
-      <c r="O185" s="25"/>
-      <c r="P185" s="25"/>
-      <c r="Q185" s="25"/>
+      <c r="O185" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="P185" s="13"/>
+      <c r="Q185" s="13"/>
       <c r="R185" s="13"/>
       <c r="S185" s="13"/>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D186" s="1"/>
-      <c r="F186" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="G186" s="25"/>
-      <c r="H186" s="25"/>
-      <c r="I186" s="25"/>
-      <c r="J186" s="25"/>
-      <c r="K186" s="25"/>
-      <c r="L186" s="25"/>
-      <c r="M186" s="25"/>
-      <c r="N186" s="25"/>
-      <c r="O186" s="13"/>
-      <c r="P186" s="25"/>
-      <c r="Q186" s="25"/>
-      <c r="R186" s="13"/>
-      <c r="S186" s="13"/>
+      <c r="E186" s="91" t="s">
+        <v>223</v>
+      </c>
+      <c r="F186" s="90" t="s">
+        <v>328</v>
+      </c>
+      <c r="G186" s="90"/>
+      <c r="H186" s="90"/>
+      <c r="I186" s="90"/>
+      <c r="J186" s="90"/>
+      <c r="K186" s="90"/>
+      <c r="L186" s="90"/>
+      <c r="M186" s="90"/>
+      <c r="N186" s="90"/>
+      <c r="O186" s="90"/>
+      <c r="P186" s="90"/>
+      <c r="Q186" s="90"/>
+      <c r="R186" s="90"/>
+      <c r="S186" s="90"/>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D187" s="1"/>
-      <c r="F187" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="G187" s="25"/>
-      <c r="H187" s="25"/>
-      <c r="I187" s="25"/>
-      <c r="J187" s="25"/>
-      <c r="K187" s="25"/>
-      <c r="L187" s="25"/>
-      <c r="M187" s="25"/>
-      <c r="N187" s="25"/>
-      <c r="O187" s="13"/>
-      <c r="P187" s="25"/>
-      <c r="Q187" s="25"/>
-      <c r="R187" s="13"/>
-      <c r="S187" s="13"/>
+      <c r="E187" s="91" t="s">
+        <v>223</v>
+      </c>
+      <c r="F187" s="90" t="s">
+        <v>329</v>
+      </c>
+      <c r="G187" s="90"/>
+      <c r="H187" s="90"/>
+      <c r="I187" s="90"/>
+      <c r="J187" s="90"/>
+      <c r="K187" s="90"/>
+      <c r="L187" s="90"/>
+      <c r="M187" s="90"/>
+      <c r="N187" s="90"/>
+      <c r="O187" s="90"/>
+      <c r="P187" s="90"/>
+      <c r="Q187" s="90"/>
+      <c r="R187" s="90"/>
+      <c r="S187" s="90"/>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D188" s="1"/>
-      <c r="F188" s="25"/>
+      <c r="F188" s="25" t="s">
+        <v>319</v>
+      </c>
       <c r="G188" s="25"/>
       <c r="H188" s="25"/>
       <c r="I188" s="25"/>
@@ -14777,18 +14895,16 @@
       <c r="L188" s="25"/>
       <c r="M188" s="25"/>
       <c r="N188" s="25"/>
-      <c r="O188" s="25"/>
+      <c r="O188" s="13"/>
       <c r="P188" s="25"/>
       <c r="Q188" s="25"/>
       <c r="R188" s="13"/>
       <c r="S188" s="13"/>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A189" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="F189" s="25" t="s">
-        <v>340</v>
+      <c r="D189" s="1"/>
+      <c r="F189" s="13" t="s">
+        <v>311</v>
       </c>
       <c r="G189" s="25"/>
       <c r="H189" s="25"/>
@@ -14798,63 +14914,87 @@
       <c r="L189" s="25"/>
       <c r="M189" s="25"/>
       <c r="N189" s="25"/>
-      <c r="O189" s="25"/>
+      <c r="O189" s="13"/>
       <c r="P189" s="25"/>
       <c r="Q189" s="25"/>
       <c r="R189" s="13"/>
       <c r="S189" s="13"/>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A190" s="47" t="s">
+      <c r="D190" s="1"/>
+      <c r="F190" s="48" t="s">
+        <v>369</v>
+      </c>
+      <c r="G190" s="47"/>
+      <c r="H190" s="47"/>
+      <c r="I190" s="47"/>
+      <c r="J190" s="25"/>
+      <c r="K190" s="25"/>
+      <c r="L190" s="25"/>
+      <c r="M190" s="25"/>
+      <c r="N190" s="25"/>
+      <c r="O190" s="13"/>
+      <c r="P190" s="25"/>
+      <c r="Q190" s="25"/>
+      <c r="R190" s="13"/>
+      <c r="S190" s="13"/>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D191" s="1"/>
+      <c r="F191" s="25"/>
+      <c r="G191" s="25"/>
+      <c r="H191" s="25"/>
+      <c r="I191" s="25"/>
+      <c r="J191" s="25"/>
+      <c r="K191" s="25"/>
+      <c r="L191" s="25"/>
+      <c r="M191" s="25"/>
+      <c r="N191" s="25"/>
+      <c r="O191" s="25"/>
+      <c r="P191" s="25"/>
+      <c r="Q191" s="25"/>
+      <c r="R191" s="13"/>
+      <c r="S191" s="13"/>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A192" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="F192" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="G192" s="25"/>
+      <c r="H192" s="25"/>
+      <c r="I192" s="25"/>
+      <c r="J192" s="25"/>
+      <c r="K192" s="25"/>
+      <c r="L192" s="25"/>
+      <c r="M192" s="25"/>
+      <c r="N192" s="25"/>
+      <c r="O192" s="25"/>
+      <c r="P192" s="25"/>
+      <c r="Q192" s="25"/>
+      <c r="R192" s="13"/>
+      <c r="S192" s="13"/>
+    </row>
+    <row r="193" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A193" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="F190" s="21"/>
-      <c r="G190" s="21"/>
-      <c r="H190" s="21"/>
-      <c r="I190" s="21"/>
-      <c r="J190" s="21"/>
-      <c r="K190" s="21"/>
-      <c r="L190" s="21"/>
-      <c r="M190" s="21"/>
-      <c r="N190" s="21"/>
-      <c r="O190" s="21"/>
-      <c r="P190" s="21"/>
-      <c r="Q190" s="21"/>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="F191" s="21"/>
-      <c r="G191" s="21"/>
-      <c r="H191" s="21"/>
-      <c r="I191" s="21"/>
-      <c r="J191" s="21"/>
-      <c r="K191" s="21"/>
-      <c r="O191" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="F192" s="21"/>
-      <c r="G192" s="21"/>
-      <c r="H192" s="21"/>
-      <c r="I192" s="21"/>
-      <c r="J192" s="21"/>
-      <c r="K192" s="21"/>
-    </row>
-    <row r="193" spans="5:25" x14ac:dyDescent="0.35">
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
       <c r="H193" s="21"/>
       <c r="I193" s="21"/>
       <c r="J193" s="21"/>
       <c r="K193" s="21"/>
-      <c r="N193" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="O193" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="194" spans="5:25" x14ac:dyDescent="0.35">
+      <c r="L193" s="21"/>
+      <c r="M193" s="21"/>
+      <c r="N193" s="21"/>
+      <c r="O193" s="21"/>
+      <c r="P193" s="21"/>
+      <c r="Q193" s="21"/>
+    </row>
+    <row r="194" spans="1:25" x14ac:dyDescent="0.35">
       <c r="F194" s="21"/>
       <c r="G194" s="21"/>
       <c r="H194" s="21"/>
@@ -14862,63 +15002,54 @@
       <c r="J194" s="21"/>
       <c r="K194" s="21"/>
       <c r="O194" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="195" spans="5:25" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25" x14ac:dyDescent="0.35">
       <c r="F195" s="21"/>
       <c r="G195" s="21"/>
       <c r="H195" s="21"/>
       <c r="I195" s="21"/>
       <c r="J195" s="21"/>
       <c r="K195" s="21"/>
-      <c r="O195" s="36" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="196" spans="5:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="1:25" x14ac:dyDescent="0.35">
       <c r="F196" s="21"/>
       <c r="G196" s="21"/>
       <c r="H196" s="21"/>
       <c r="I196" s="21"/>
       <c r="J196" s="21"/>
       <c r="K196" s="21"/>
-      <c r="L196" s="21"/>
-      <c r="M196" s="21"/>
-      <c r="N196" s="21"/>
-      <c r="O196" s="21"/>
-      <c r="P196" s="21"/>
-      <c r="Q196" s="21"/>
-    </row>
-    <row r="197" spans="5:25" x14ac:dyDescent="0.35">
+      <c r="N196" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="O196" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25" x14ac:dyDescent="0.35">
       <c r="F197" s="21"/>
       <c r="G197" s="21"/>
       <c r="H197" s="21"/>
       <c r="I197" s="21"/>
       <c r="J197" s="21"/>
       <c r="K197" s="21"/>
-      <c r="L197" s="21"/>
-      <c r="M197" s="21"/>
-      <c r="N197" s="21"/>
-      <c r="O197" s="21"/>
-      <c r="P197" s="21"/>
-      <c r="Q197" s="21"/>
-    </row>
-    <row r="198" spans="5:25" x14ac:dyDescent="0.35">
+      <c r="O197" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25" x14ac:dyDescent="0.35">
       <c r="F198" s="21"/>
       <c r="G198" s="21"/>
       <c r="H198" s="21"/>
       <c r="I198" s="21"/>
       <c r="J198" s="21"/>
       <c r="K198" s="21"/>
-      <c r="L198" s="21"/>
-      <c r="M198" s="21"/>
-      <c r="N198" s="21"/>
-      <c r="O198" s="21"/>
-      <c r="P198" s="21"/>
-      <c r="Q198" s="21"/>
-    </row>
-    <row r="199" spans="5:25" x14ac:dyDescent="0.35">
+      <c r="O198" s="36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25" x14ac:dyDescent="0.35">
       <c r="F199" s="21"/>
       <c r="G199" s="21"/>
       <c r="H199" s="21"/>
@@ -14932,7 +15063,7 @@
       <c r="P199" s="21"/>
       <c r="Q199" s="21"/>
     </row>
-    <row r="200" spans="5:25" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.35">
       <c r="F200" s="21"/>
       <c r="G200" s="21"/>
       <c r="H200" s="21"/>
@@ -14946,7 +15077,7 @@
       <c r="P200" s="21"/>
       <c r="Q200" s="21"/>
     </row>
-    <row r="201" spans="5:25" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.35">
       <c r="F201" s="21"/>
       <c r="G201" s="21"/>
       <c r="H201" s="21"/>
@@ -14960,7 +15091,7 @@
       <c r="P201" s="21"/>
       <c r="Q201" s="21"/>
     </row>
-    <row r="202" spans="5:25" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.35">
       <c r="F202" s="21"/>
       <c r="G202" s="21"/>
       <c r="H202" s="21"/>
@@ -14974,7 +15105,7 @@
       <c r="P202" s="21"/>
       <c r="Q202" s="21"/>
     </row>
-    <row r="203" spans="5:25" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.35">
       <c r="F203" s="21"/>
       <c r="G203" s="21"/>
       <c r="H203" s="21"/>
@@ -14988,7 +15119,7 @@
       <c r="P203" s="21"/>
       <c r="Q203" s="21"/>
     </row>
-    <row r="204" spans="5:25" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.35">
       <c r="F204" s="21"/>
       <c r="G204" s="21"/>
       <c r="H204" s="21"/>
@@ -15002,31 +15133,21 @@
       <c r="P204" s="21"/>
       <c r="Q204" s="21"/>
     </row>
-    <row r="205" spans="5:25" x14ac:dyDescent="0.35">
-      <c r="F205" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="G205" s="25"/>
-      <c r="H205" s="25"/>
-      <c r="I205" s="25"/>
-      <c r="J205" s="25"/>
-      <c r="K205" s="25"/>
-      <c r="L205" s="25"/>
-      <c r="M205" s="25"/>
-      <c r="N205" s="25"/>
-      <c r="O205" s="25"/>
-      <c r="P205" s="25"/>
-      <c r="Q205" s="25"/>
-      <c r="R205" s="13"/>
-      <c r="S205" s="13"/>
-      <c r="T205" s="13"/>
-      <c r="U205" s="13"/>
-      <c r="V205" s="13"/>
-      <c r="W205" s="13"/>
-      <c r="X205" s="13"/>
-      <c r="Y205" s="13"/>
-    </row>
-    <row r="206" spans="5:25" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="F205" s="21"/>
+      <c r="G205" s="21"/>
+      <c r="H205" s="21"/>
+      <c r="I205" s="21"/>
+      <c r="J205" s="21"/>
+      <c r="K205" s="21"/>
+      <c r="L205" s="21"/>
+      <c r="M205" s="21"/>
+      <c r="N205" s="21"/>
+      <c r="O205" s="21"/>
+      <c r="P205" s="21"/>
+      <c r="Q205" s="21"/>
+    </row>
+    <row r="206" spans="1:25" x14ac:dyDescent="0.35">
       <c r="F206" s="21"/>
       <c r="G206" s="21"/>
       <c r="H206" s="21"/>
@@ -15040,202 +15161,220 @@
       <c r="P206" s="21"/>
       <c r="Q206" s="21"/>
     </row>
-    <row r="207" spans="5:25" x14ac:dyDescent="0.35">
-      <c r="E207" s="41" t="s">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="F207" s="21"/>
+      <c r="G207" s="21"/>
+      <c r="H207" s="21"/>
+      <c r="I207" s="21"/>
+      <c r="J207" s="21"/>
+      <c r="K207" s="21"/>
+      <c r="L207" s="21"/>
+      <c r="M207" s="21"/>
+      <c r="N207" s="21"/>
+      <c r="O207" s="21"/>
+      <c r="P207" s="21"/>
+      <c r="Q207" s="21"/>
+    </row>
+    <row r="208" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="F208" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="G208" s="25"/>
+      <c r="H208" s="25"/>
+      <c r="I208" s="25"/>
+      <c r="J208" s="25"/>
+      <c r="K208" s="25"/>
+      <c r="L208" s="25"/>
+      <c r="M208" s="25"/>
+      <c r="N208" s="25"/>
+      <c r="O208" s="25"/>
+      <c r="P208" s="25"/>
+      <c r="Q208" s="25"/>
+      <c r="R208" s="13"/>
+      <c r="S208" s="13"/>
+      <c r="T208" s="13"/>
+      <c r="U208" s="13"/>
+      <c r="V208" s="13"/>
+      <c r="W208" s="13"/>
+      <c r="X208" s="13"/>
+      <c r="Y208" s="13"/>
+    </row>
+    <row r="209" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="F209" s="21"/>
+      <c r="G209" s="21"/>
+      <c r="H209" s="21"/>
+      <c r="I209" s="21"/>
+      <c r="J209" s="21"/>
+      <c r="K209" s="21"/>
+      <c r="L209" s="21"/>
+      <c r="M209" s="21"/>
+      <c r="N209" s="21"/>
+      <c r="O209" s="21"/>
+      <c r="P209" s="21"/>
+      <c r="Q209" s="21"/>
+    </row>
+    <row r="210" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="E210" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="F207" s="2" t="s">
+      <c r="F210" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="209" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="E209" s="22" t="s">
+    <row r="212" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="E212" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F209" s="23"/>
-      <c r="G209" s="23"/>
-    </row>
-    <row r="210" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="E210" s="22"/>
-      <c r="F210" s="23" t="s">
+      <c r="F212" s="23"/>
+      <c r="G212" s="23"/>
+    </row>
+    <row r="213" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="E213" s="22"/>
+      <c r="F213" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G210" s="29" t="s">
+      <c r="G213" s="29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="211" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="E211" s="22"/>
-      <c r="F211" s="23" t="s">
+    <row r="214" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="E214" s="22"/>
+      <c r="F214" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="G211" s="29" t="s">
+      <c r="G214" s="29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="212" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="E212" s="22"/>
-      <c r="F212" s="23" t="s">
+    <row r="215" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="E215" s="22"/>
+      <c r="F215" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="G212" s="29" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="213" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="E213" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="F213" s="23"/>
-      <c r="G213" s="23"/>
-    </row>
-    <row r="214" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="E214" s="21"/>
-      <c r="F214" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G214" s="23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="215" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="E215" s="21"/>
-      <c r="F215" s="23" t="s">
-        <v>187</v>
       </c>
       <c r="G215" s="29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="216" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="E216" s="21"/>
+    <row r="216" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="E216" s="22" t="s">
+        <v>184</v>
+      </c>
       <c r="F216" s="23"/>
-      <c r="G216" s="25"/>
-    </row>
-    <row r="217" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D217" s="1" t="s">
+      <c r="G216" s="23"/>
+    </row>
+    <row r="217" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="E217" s="21"/>
+      <c r="F217" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G217" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="218" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="E218" s="21"/>
+      <c r="F218" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G218" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="219" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="E219" s="21"/>
+      <c r="F219" s="23"/>
+      <c r="G219" s="25"/>
+    </row>
+    <row r="220" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D220" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="219" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="K219" s="2" t="s">
+    <row r="222" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="K222" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="220" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D220" s="2" t="s">
+    <row r="223" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D223" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K220" s="2" t="s">
+      <c r="K223" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="223" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D223" s="2" t="s">
+    <row r="226" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D226" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="227" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="K227" s="2" t="s">
+    <row r="230" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="K230" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="232" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="H232" s="2" t="s">
+    <row r="235" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="H235" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="234" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="E234" s="2" t="s">
+    <row r="237" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E237" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="235" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="E235" s="2" t="s">
+    <row r="238" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E238" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="236" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D236" s="41" t="s">
+    <row r="239" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D239" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="E236" s="1" t="s">
+      <c r="E239" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="237" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="F237" s="2" t="s">
+    <row r="240" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F240" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="238" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="F238" s="25" t="s">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F241" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="G238" s="25" t="s">
+      <c r="G241" s="25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="239" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="F239" s="25" t="s">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F242" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="G239" s="29" t="s">
+      <c r="G242" s="29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="240" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D240" s="41" t="s">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D243" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="E240" s="35" t="s">
+      <c r="E243" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="F240" s="21"/>
-      <c r="G240" s="21"/>
-      <c r="H240" s="21"/>
-      <c r="I240" s="21"/>
-      <c r="J240" s="21"/>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E241" s="21"/>
-      <c r="F241" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G241" s="21"/>
-      <c r="H241" s="21"/>
-      <c r="I241" s="21"/>
-      <c r="J241" s="21"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E242" s="21"/>
-      <c r="F242" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="G242" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="H242" s="21"/>
-      <c r="I242" s="21"/>
-      <c r="J242" s="21"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E243" s="21"/>
-      <c r="F243" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G243" s="29" t="s">
-        <v>169</v>
-      </c>
+      <c r="F243" s="21"/>
+      <c r="G243" s="21"/>
       <c r="H243" s="21"/>
       <c r="I243" s="21"/>
       <c r="J243" s="21"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E244" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="F244" s="21"/>
+      <c r="E244" s="21"/>
+      <c r="F244" s="21" t="s">
+        <v>164</v>
+      </c>
       <c r="G244" s="21"/>
       <c r="H244" s="21"/>
       <c r="I244" s="21"/>
@@ -15243,10 +15382,12 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E245" s="21"/>
-      <c r="F245" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="G245" s="21"/>
+      <c r="F245" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="G245" s="25" t="s">
+        <v>167</v>
+      </c>
       <c r="H245" s="21"/>
       <c r="I245" s="21"/>
       <c r="J245" s="21"/>
@@ -15254,176 +15395,153 @@
     <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E246" s="21"/>
       <c r="F246" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="G246" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="G246" s="29" t="s">
+        <v>169</v>
       </c>
       <c r="H246" s="21"/>
       <c r="I246" s="21"/>
       <c r="J246" s="21"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E247" s="21"/>
-      <c r="F247" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G247" s="25" t="s">
-        <v>171</v>
-      </c>
+      <c r="E247" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="F247" s="21"/>
+      <c r="G247" s="21"/>
       <c r="H247" s="21"/>
       <c r="I247" s="21"/>
       <c r="J247" s="21"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D248" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="E248" s="21"/>
+      <c r="F248" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G248" s="21"/>
+      <c r="H248" s="21"/>
+      <c r="I248" s="21"/>
+      <c r="J248" s="21"/>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F249" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G249" s="21"/>
+      <c r="E249" s="21"/>
+      <c r="F249" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="G249" s="25" t="s">
+        <v>167</v>
+      </c>
       <c r="H249" s="21"/>
       <c r="I249" s="21"/>
       <c r="J249" s="21"/>
-      <c r="K249" s="21"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F250" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="G250" s="21"/>
+      <c r="E250" s="21"/>
+      <c r="F250" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G250" s="25" t="s">
+        <v>171</v>
+      </c>
       <c r="H250" s="21"/>
       <c r="I250" s="21"/>
       <c r="J250" s="21"/>
-      <c r="K250" s="21"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F251" s="21" t="s">
+      <c r="D251" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F252" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G252" s="21"/>
+      <c r="H252" s="21"/>
+      <c r="I252" s="21"/>
+      <c r="J252" s="21"/>
+      <c r="K252" s="21"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F253" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="G253" s="21"/>
+      <c r="H253" s="21"/>
+      <c r="I253" s="21"/>
+      <c r="J253" s="21"/>
+      <c r="K253" s="21"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F254" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="G251" s="21"/>
-      <c r="H251" s="21"/>
-      <c r="I251" s="43"/>
-      <c r="J251" s="25"/>
-      <c r="K251" s="43"/>
-      <c r="L251" s="13"/>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A252" s="2" t="s">
+      <c r="G254" s="21"/>
+      <c r="H254" s="21"/>
+      <c r="I254" s="43"/>
+      <c r="J254" s="25"/>
+      <c r="K254" s="43"/>
+      <c r="L254" s="13"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A255" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F252" s="13" t="s">
+      <c r="F255" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="G252" s="13"/>
-      <c r="H252" s="13"/>
-      <c r="I252" s="13"/>
-      <c r="J252" s="13"/>
-      <c r="K252" s="13"/>
-      <c r="L252" s="13"/>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F253" s="25" t="s">
+      <c r="G255" s="13"/>
+      <c r="H255" s="13"/>
+      <c r="I255" s="13"/>
+      <c r="J255" s="13"/>
+      <c r="K255" s="13"/>
+      <c r="L255" s="13"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F256" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="G253" s="25" t="s">
+      <c r="G256" s="25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F254" s="25" t="s">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F257" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="G254" s="29" t="s">
+      <c r="G257" s="29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F255" s="85" t="s">
-        <v>358</v>
-      </c>
-      <c r="G255" s="85"/>
-      <c r="H255" s="85"/>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D256" s="41" t="s">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F258" s="70" t="s">
+        <v>357</v>
+      </c>
+      <c r="G258" s="70"/>
+      <c r="H258" s="70"/>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D259" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="E256" s="35" t="s">
+      <c r="E259" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="F256" s="21"/>
-      <c r="G256" s="21"/>
-      <c r="H256" s="21"/>
-      <c r="I256" s="21"/>
-      <c r="J256" s="21"/>
-    </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E257" s="25"/>
-      <c r="F257" s="25" t="s">
+      <c r="F259" s="21"/>
+      <c r="G259" s="21"/>
+      <c r="H259" s="21"/>
+      <c r="I259" s="21"/>
+      <c r="J259" s="21"/>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E260" s="25"/>
+      <c r="F260" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="G257" s="25"/>
-      <c r="H257" s="25"/>
-      <c r="I257" s="25"/>
-      <c r="J257" s="25"/>
-      <c r="K257" s="13"/>
-      <c r="L257" s="13"/>
-      <c r="M257" s="13"/>
-      <c r="N257" s="13"/>
-      <c r="O257" s="13"/>
-      <c r="P257" s="13"/>
-      <c r="Q257" s="13"/>
-    </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E258" s="25"/>
-      <c r="F258" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="G258" s="25"/>
-      <c r="H258" s="25"/>
-      <c r="I258" s="25"/>
-      <c r="J258" s="25"/>
-      <c r="K258" s="13"/>
-      <c r="L258" s="13"/>
-      <c r="M258" s="13"/>
-      <c r="N258" s="13"/>
-      <c r="O258" s="13"/>
-      <c r="P258" s="13"/>
-      <c r="Q258" s="13"/>
-    </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A259" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E259" s="25"/>
-      <c r="F259" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="G259" s="25"/>
-      <c r="H259" s="25"/>
-      <c r="I259" s="25"/>
-      <c r="J259" s="25"/>
-      <c r="K259" s="13"/>
-      <c r="L259" s="13"/>
-      <c r="M259" s="13"/>
-      <c r="N259" s="13"/>
-      <c r="O259" s="13"/>
-      <c r="P259" s="13"/>
-      <c r="Q259" s="13"/>
-    </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A260" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="E260" s="25"/>
-      <c r="F260" s="25"/>
       <c r="G260" s="25"/>
       <c r="H260" s="25"/>
       <c r="I260" s="25"/>
@@ -15439,11 +15557,9 @@
     <row r="261" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E261" s="25"/>
       <c r="F261" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="G261" s="25" t="s">
-        <v>301</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="G261" s="25"/>
       <c r="H261" s="25"/>
       <c r="I261" s="25"/>
       <c r="J261" s="25"/>
@@ -15457,16 +15573,16 @@
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E262" s="13"/>
-      <c r="F262" s="13"/>
-      <c r="G262" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="H262" s="13"/>
-      <c r="I262" s="13"/>
-      <c r="J262" s="13"/>
+        <v>263</v>
+      </c>
+      <c r="E262" s="25"/>
+      <c r="F262" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="G262" s="25"/>
+      <c r="H262" s="25"/>
+      <c r="I262" s="25"/>
+      <c r="J262" s="25"/>
       <c r="K262" s="13"/>
       <c r="L262" s="13"/>
       <c r="M262" s="13"/>
@@ -15476,12 +15592,15 @@
       <c r="Q262" s="13"/>
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E263" s="13"/>
-      <c r="F263" s="13"/>
-      <c r="G263" s="13"/>
-      <c r="H263" s="13"/>
-      <c r="I263" s="13"/>
-      <c r="J263" s="13"/>
+      <c r="A263" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="E263" s="25"/>
+      <c r="F263" s="25"/>
+      <c r="G263" s="25"/>
+      <c r="H263" s="25"/>
+      <c r="I263" s="25"/>
+      <c r="J263" s="25"/>
       <c r="K263" s="13"/>
       <c r="L263" s="13"/>
       <c r="M263" s="13"/>
@@ -15491,12 +15610,16 @@
       <c r="Q263" s="13"/>
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E264" s="13"/>
-      <c r="F264" s="13"/>
-      <c r="G264" s="13"/>
-      <c r="H264" s="13"/>
-      <c r="I264" s="13"/>
-      <c r="J264" s="13"/>
+      <c r="E264" s="25"/>
+      <c r="F264" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="G264" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="H264" s="25"/>
+      <c r="I264" s="25"/>
+      <c r="J264" s="25"/>
       <c r="K264" s="13"/>
       <c r="L264" s="13"/>
       <c r="M264" s="13"/>
@@ -15506,9 +15629,14 @@
       <c r="Q264" s="13"/>
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A265" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="E265" s="13"/>
       <c r="F265" s="13"/>
-      <c r="G265" s="13"/>
+      <c r="G265" s="13" t="s">
+        <v>176</v>
+      </c>
       <c r="H265" s="13"/>
       <c r="I265" s="13"/>
       <c r="J265" s="13"/>
@@ -15521,113 +15649,122 @@
       <c r="Q265" s="13"/>
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A266" s="45" t="s">
-        <v>260</v>
-      </c>
       <c r="E266" s="13"/>
-      <c r="F266" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G266" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="H266" s="25"/>
-      <c r="I266" s="25"/>
-      <c r="J266" s="25"/>
-      <c r="K266" s="25"/>
-      <c r="L266" s="25"/>
-      <c r="M266" s="25"/>
-      <c r="N266" s="25"/>
+      <c r="F266" s="13"/>
+      <c r="G266" s="13"/>
+      <c r="H266" s="13"/>
+      <c r="I266" s="13"/>
+      <c r="J266" s="13"/>
+      <c r="K266" s="13"/>
+      <c r="L266" s="13"/>
+      <c r="M266" s="13"/>
+      <c r="N266" s="13"/>
       <c r="O266" s="13"/>
       <c r="P266" s="13"/>
       <c r="Q266" s="13"/>
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A267" s="45" t="s">
+      <c r="E267" s="13"/>
+      <c r="F267" s="13"/>
+      <c r="G267" s="13"/>
+      <c r="H267" s="13"/>
+      <c r="I267" s="13"/>
+      <c r="J267" s="13"/>
+      <c r="K267" s="13"/>
+      <c r="L267" s="13"/>
+      <c r="M267" s="13"/>
+      <c r="N267" s="13"/>
+      <c r="O267" s="13"/>
+      <c r="P267" s="13"/>
+      <c r="Q267" s="13"/>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E268" s="13"/>
+      <c r="F268" s="13"/>
+      <c r="G268" s="13"/>
+      <c r="H268" s="13"/>
+      <c r="I268" s="13"/>
+      <c r="J268" s="13"/>
+      <c r="K268" s="13"/>
+      <c r="L268" s="13"/>
+      <c r="M268" s="13"/>
+      <c r="N268" s="13"/>
+      <c r="O268" s="13"/>
+      <c r="P268" s="13"/>
+      <c r="Q268" s="13"/>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A269" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="E269" s="13"/>
+      <c r="F269" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G269" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="H269" s="25"/>
+      <c r="I269" s="25"/>
+      <c r="J269" s="25"/>
+      <c r="K269" s="25"/>
+      <c r="L269" s="25"/>
+      <c r="M269" s="25"/>
+      <c r="N269" s="25"/>
+      <c r="O269" s="13"/>
+      <c r="P269" s="13"/>
+      <c r="Q269" s="13"/>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A270" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="G267" s="21" t="s">
+      <c r="G270" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="H267" s="21"/>
-      <c r="I267" s="21"/>
-      <c r="J267" s="21"/>
-      <c r="K267" s="21"/>
-    </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A268" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="G268" s="21"/>
-      <c r="H268" s="21"/>
-      <c r="I268" s="21"/>
-      <c r="J268" s="21"/>
-      <c r="K268" s="21"/>
-    </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F269" s="65" t="s">
-        <v>345</v>
-      </c>
-      <c r="G269" s="65"/>
-      <c r="H269" s="65"/>
-      <c r="I269" s="64"/>
-    </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E270" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="F270" s="21"/>
-      <c r="G270" s="21"/>
       <c r="H270" s="21"/>
       <c r="I270" s="21"/>
       <c r="J270" s="21"/>
       <c r="K270" s="21"/>
-      <c r="L270" s="21"/>
-      <c r="M270" s="21"/>
-      <c r="N270" s="21"/>
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E271" s="35"/>
-      <c r="F271" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G271" s="23"/>
-      <c r="H271" s="23"/>
-      <c r="I271" s="23"/>
-      <c r="J271" s="23"/>
-      <c r="K271" s="23"/>
-      <c r="N271" s="21"/>
+      <c r="A271" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="G271" s="21"/>
+      <c r="H271" s="21"/>
+      <c r="I271" s="21"/>
+      <c r="J271" s="21"/>
+      <c r="K271" s="21"/>
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E272" s="35"/>
-      <c r="F272" s="22"/>
-      <c r="G272" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H272" s="23"/>
-      <c r="I272" s="23"/>
-      <c r="J272" s="23"/>
-      <c r="K272" s="23"/>
-      <c r="N272" s="21"/>
+      <c r="F272" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="G272" s="65"/>
+      <c r="H272" s="65"/>
+      <c r="I272" s="64"/>
     </row>
     <row r="273" spans="5:22" x14ac:dyDescent="0.35">
-      <c r="E273" s="35"/>
-      <c r="F273" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G273" s="23"/>
-      <c r="H273" s="23"/>
-      <c r="I273" s="23"/>
-      <c r="J273" s="23"/>
-      <c r="K273" s="23"/>
+      <c r="E273" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="F273" s="21"/>
+      <c r="G273" s="21"/>
+      <c r="H273" s="21"/>
+      <c r="I273" s="21"/>
+      <c r="J273" s="21"/>
+      <c r="K273" s="21"/>
+      <c r="L273" s="21"/>
+      <c r="M273" s="21"/>
       <c r="N273" s="21"/>
     </row>
     <row r="274" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E274" s="35"/>
-      <c r="F274" s="22"/>
-      <c r="G274" s="23" t="s">
-        <v>58</v>
-      </c>
+      <c r="F274" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G274" s="23"/>
       <c r="H274" s="23"/>
       <c r="I274" s="23"/>
       <c r="J274" s="23"/>
@@ -15636,10 +15773,10 @@
     </row>
     <row r="275" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E275" s="35"/>
-      <c r="F275" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G275" s="23"/>
+      <c r="F275" s="22"/>
+      <c r="G275" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="H275" s="23"/>
       <c r="I275" s="23"/>
       <c r="J275" s="23"/>
@@ -15648,10 +15785,10 @@
     </row>
     <row r="276" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E276" s="35"/>
-      <c r="F276" s="22"/>
-      <c r="G276" s="21" t="s">
-        <v>240</v>
-      </c>
+      <c r="F276" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G276" s="23"/>
       <c r="H276" s="23"/>
       <c r="I276" s="23"/>
       <c r="J276" s="23"/>
@@ -15661,8 +15798,8 @@
     <row r="277" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E277" s="35"/>
       <c r="F277" s="22"/>
-      <c r="G277" s="21" t="s">
-        <v>241</v>
+      <c r="G277" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="H277" s="23"/>
       <c r="I277" s="23"/>
@@ -15671,11 +15808,9 @@
       <c r="N277" s="21"/>
     </row>
     <row r="278" spans="5:22" x14ac:dyDescent="0.35">
-      <c r="E278" s="41" t="s">
-        <v>223</v>
-      </c>
+      <c r="E278" s="35"/>
       <c r="F278" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G278" s="23"/>
       <c r="H278" s="23"/>
@@ -15688,7 +15823,7 @@
       <c r="E279" s="35"/>
       <c r="F279" s="22"/>
       <c r="G279" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H279" s="23"/>
       <c r="I279" s="23"/>
@@ -15698,10 +15833,10 @@
     </row>
     <row r="280" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E280" s="35"/>
-      <c r="F280" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G280" s="23"/>
+      <c r="F280" s="22"/>
+      <c r="G280" s="21" t="s">
+        <v>241</v>
+      </c>
       <c r="H280" s="23"/>
       <c r="I280" s="23"/>
       <c r="J280" s="23"/>
@@ -15709,84 +15844,50 @@
       <c r="N280" s="21"/>
     </row>
     <row r="281" spans="5:22" x14ac:dyDescent="0.35">
-      <c r="E281" s="35"/>
-      <c r="F281" s="41" t="s">
+      <c r="E281" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="G281" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="H281" s="25"/>
-      <c r="I281" s="25"/>
-      <c r="J281" s="25"/>
-      <c r="K281" s="25"/>
-      <c r="L281" s="25"/>
-      <c r="M281" s="25"/>
-      <c r="N281" s="25"/>
-      <c r="O281" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="P281" s="13"/>
-      <c r="Q281" s="13"/>
-      <c r="R281" s="13"/>
-      <c r="S281" s="13"/>
-      <c r="T281" s="13"/>
-      <c r="U281" s="13"/>
-      <c r="V281" s="13"/>
+      <c r="F281" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G281" s="23"/>
+      <c r="H281" s="23"/>
+      <c r="I281" s="23"/>
+      <c r="J281" s="23"/>
+      <c r="K281" s="23"/>
+      <c r="N281" s="21"/>
     </row>
     <row r="282" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E282" s="35"/>
-      <c r="F282" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="G282" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="H282" s="25"/>
-      <c r="I282" s="25"/>
-      <c r="J282" s="25"/>
-      <c r="K282" s="25"/>
-      <c r="L282" s="25"/>
-      <c r="M282" s="25"/>
-      <c r="N282" s="25"/>
-      <c r="O282" s="25"/>
-      <c r="P282" s="13"/>
-      <c r="Q282" s="13"/>
-      <c r="R282" s="13"/>
-      <c r="S282" s="13"/>
-      <c r="T282" s="13"/>
-      <c r="U282" s="13"/>
-      <c r="V282" s="13"/>
+      <c r="F282" s="22"/>
+      <c r="G282" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="H282" s="23"/>
+      <c r="I282" s="23"/>
+      <c r="J282" s="23"/>
+      <c r="K282" s="23"/>
+      <c r="N282" s="21"/>
     </row>
     <row r="283" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E283" s="35"/>
-      <c r="F283" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="G283" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="H283" s="25"/>
-      <c r="I283" s="25"/>
-      <c r="J283" s="25"/>
-      <c r="K283" s="25"/>
-      <c r="L283" s="25"/>
-      <c r="M283" s="25"/>
-      <c r="N283" s="25"/>
-      <c r="O283" s="25"/>
-      <c r="P283" s="13"/>
-      <c r="Q283" s="13"/>
-      <c r="R283" s="13"/>
-      <c r="S283" s="13"/>
-      <c r="T283" s="13"/>
-      <c r="U283" s="13"/>
-      <c r="V283" s="13"/>
+      <c r="F283" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G283" s="23"/>
+      <c r="H283" s="23"/>
+      <c r="I283" s="23"/>
+      <c r="J283" s="23"/>
+      <c r="K283" s="23"/>
+      <c r="N283" s="21"/>
     </row>
     <row r="284" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E284" s="35"/>
-      <c r="F284" s="57"/>
+      <c r="F284" s="41" t="s">
+        <v>223</v>
+      </c>
       <c r="G284" s="25" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="H284" s="25"/>
       <c r="I284" s="25"/>
@@ -15795,7 +15896,9 @@
       <c r="L284" s="25"/>
       <c r="M284" s="25"/>
       <c r="N284" s="25"/>
-      <c r="O284" s="25"/>
+      <c r="O284" s="25" t="s">
+        <v>316</v>
+      </c>
       <c r="P284" s="13"/>
       <c r="Q284" s="13"/>
       <c r="R284" s="13"/>
@@ -15806,123 +15909,163 @@
     </row>
     <row r="285" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E285" s="35"/>
-      <c r="F285" s="57"/>
-      <c r="G285" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="H285" s="25"/>
-      <c r="I285" s="25"/>
-      <c r="J285" s="25"/>
-      <c r="K285" s="25"/>
-      <c r="L285" s="25"/>
-      <c r="M285" s="25"/>
-      <c r="N285" s="25"/>
-      <c r="O285" s="25"/>
-      <c r="P285" s="13"/>
-      <c r="Q285" s="13"/>
-      <c r="R285" s="13"/>
-      <c r="S285" s="13"/>
-      <c r="T285" s="13"/>
+      <c r="F285" s="92" t="s">
+        <v>223</v>
+      </c>
+      <c r="G285" s="90" t="s">
+        <v>317</v>
+      </c>
+      <c r="H285" s="90"/>
+      <c r="I285" s="90"/>
+      <c r="J285" s="90"/>
+      <c r="K285" s="90"/>
+      <c r="L285" s="90"/>
+      <c r="M285" s="90"/>
+      <c r="N285" s="90"/>
+      <c r="O285" s="90"/>
+      <c r="P285" s="90"/>
+      <c r="Q285" s="90"/>
+      <c r="R285" s="90"/>
+      <c r="S285" s="90"/>
+      <c r="T285" s="90"/>
       <c r="U285" s="13"/>
       <c r="V285" s="13"/>
     </row>
     <row r="286" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E286" s="35"/>
-      <c r="F286" s="57"/>
-      <c r="G286" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="H286" s="25"/>
-      <c r="I286" s="25"/>
-      <c r="J286" s="25"/>
-      <c r="K286" s="25"/>
-      <c r="L286" s="25"/>
-      <c r="M286" s="25"/>
-      <c r="N286" s="25"/>
-      <c r="O286" s="25"/>
-      <c r="P286" s="13"/>
-      <c r="Q286" s="13"/>
-      <c r="R286" s="13"/>
-      <c r="S286" s="13"/>
-      <c r="T286" s="13"/>
+      <c r="F286" s="92" t="s">
+        <v>223</v>
+      </c>
+      <c r="G286" s="90" t="s">
+        <v>318</v>
+      </c>
+      <c r="H286" s="90"/>
+      <c r="I286" s="90"/>
+      <c r="J286" s="90"/>
+      <c r="K286" s="90"/>
+      <c r="L286" s="90"/>
+      <c r="M286" s="90"/>
+      <c r="N286" s="90"/>
+      <c r="O286" s="90"/>
+      <c r="P286" s="90"/>
+      <c r="Q286" s="90"/>
+      <c r="R286" s="90"/>
+      <c r="S286" s="90"/>
+      <c r="T286" s="90"/>
       <c r="U286" s="13"/>
       <c r="V286" s="13"/>
     </row>
     <row r="287" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E287" s="35"/>
-      <c r="F287" s="21"/>
-      <c r="G287" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="H287" s="25"/>
-      <c r="I287" s="25"/>
-      <c r="J287" s="25"/>
-      <c r="K287" s="25"/>
-      <c r="L287" s="25"/>
-      <c r="M287" s="25"/>
-      <c r="N287" s="25"/>
-      <c r="O287" s="25"/>
-      <c r="P287" s="13"/>
-      <c r="Q287" s="13"/>
-      <c r="R287" s="13"/>
-      <c r="S287" s="13"/>
-      <c r="T287" s="13"/>
+      <c r="F287" s="93"/>
+      <c r="G287" s="48" t="s">
+        <v>369</v>
+      </c>
+      <c r="H287" s="47"/>
+      <c r="I287" s="47"/>
+      <c r="J287" s="47"/>
+      <c r="K287" s="20"/>
+      <c r="L287" s="20"/>
+      <c r="M287" s="20"/>
+      <c r="N287" s="20"/>
+      <c r="O287" s="20"/>
+      <c r="P287" s="20"/>
+      <c r="Q287" s="20"/>
+      <c r="R287" s="20"/>
+      <c r="S287" s="20"/>
+      <c r="T287" s="20"/>
       <c r="U287" s="13"/>
       <c r="V287" s="13"/>
     </row>
     <row r="288" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E288" s="35"/>
-      <c r="F288" s="21"/>
-      <c r="G288" s="21"/>
-      <c r="H288" s="21"/>
-      <c r="I288" s="21"/>
-      <c r="J288" s="21"/>
-      <c r="K288" s="21"/>
-      <c r="L288" s="21"/>
-      <c r="M288" s="21"/>
-      <c r="N288" s="21"/>
-      <c r="O288" s="21"/>
-    </row>
-    <row r="289" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="F288" s="57"/>
+      <c r="G288" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="H288" s="25"/>
+      <c r="I288" s="25"/>
+      <c r="J288" s="25"/>
+      <c r="K288" s="25"/>
+      <c r="L288" s="25"/>
+      <c r="M288" s="25"/>
+      <c r="N288" s="25"/>
+      <c r="O288" s="25"/>
+      <c r="P288" s="13"/>
+      <c r="Q288" s="13"/>
+      <c r="R288" s="13"/>
+      <c r="S288" s="13"/>
+      <c r="T288" s="13"/>
+      <c r="U288" s="13"/>
+      <c r="V288" s="13"/>
+    </row>
+    <row r="289" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E289" s="35"/>
-      <c r="F289" s="21"/>
-      <c r="G289" s="21"/>
-      <c r="H289" s="21"/>
-      <c r="I289" s="21"/>
-      <c r="J289" s="21"/>
-      <c r="K289" s="21"/>
-      <c r="L289" s="21"/>
-      <c r="M289" s="21"/>
-      <c r="N289" s="21"/>
-      <c r="O289" s="21"/>
-    </row>
-    <row r="290" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="F289" s="57"/>
+      <c r="G289" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="H289" s="25"/>
+      <c r="I289" s="25"/>
+      <c r="J289" s="25"/>
+      <c r="K289" s="25"/>
+      <c r="L289" s="25"/>
+      <c r="M289" s="25"/>
+      <c r="N289" s="25"/>
+      <c r="O289" s="25"/>
+      <c r="P289" s="13"/>
+      <c r="Q289" s="13"/>
+      <c r="R289" s="13"/>
+      <c r="S289" s="13"/>
+      <c r="T289" s="13"/>
+      <c r="U289" s="13"/>
+      <c r="V289" s="13"/>
+    </row>
+    <row r="290" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E290" s="35"/>
-      <c r="F290" s="21"/>
-      <c r="G290" s="21"/>
-      <c r="H290" s="21"/>
-      <c r="I290" s="21"/>
-      <c r="J290" s="21"/>
-      <c r="K290" s="21"/>
-      <c r="L290" s="21"/>
-      <c r="M290" s="21"/>
-      <c r="N290" s="21"/>
-      <c r="O290" s="21"/>
-    </row>
-    <row r="291" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="F290" s="57"/>
+      <c r="G290" s="90" t="s">
+        <v>312</v>
+      </c>
+      <c r="H290" s="90"/>
+      <c r="I290" s="90"/>
+      <c r="J290" s="90"/>
+      <c r="K290" s="90"/>
+      <c r="L290" s="90"/>
+      <c r="M290" s="90"/>
+      <c r="N290" s="90"/>
+      <c r="O290" s="25"/>
+      <c r="P290" s="13"/>
+      <c r="Q290" s="13"/>
+      <c r="R290" s="13"/>
+      <c r="S290" s="13"/>
+      <c r="T290" s="13"/>
+      <c r="U290" s="13"/>
+      <c r="V290" s="13"/>
+    </row>
+    <row r="291" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E291" s="35"/>
       <c r="F291" s="21"/>
-      <c r="G291" s="21"/>
-      <c r="H291" s="21"/>
-      <c r="I291" s="21"/>
-      <c r="J291" s="21"/>
-      <c r="K291" s="21"/>
-      <c r="L291" s="21"/>
-      <c r="M291" s="21"/>
-      <c r="N291" s="21"/>
-      <c r="O291" s="21"/>
-    </row>
-    <row r="292" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="G291" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="H291" s="25"/>
+      <c r="I291" s="25"/>
+      <c r="J291" s="25"/>
+      <c r="K291" s="25"/>
+      <c r="L291" s="25"/>
+      <c r="M291" s="25"/>
+      <c r="N291" s="25"/>
+      <c r="O291" s="25"/>
+      <c r="P291" s="13"/>
+      <c r="Q291" s="13"/>
+      <c r="R291" s="13"/>
+      <c r="S291" s="13"/>
+      <c r="T291" s="13"/>
+      <c r="U291" s="13"/>
+      <c r="V291" s="13"/>
+    </row>
+    <row r="292" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E292" s="35"/>
       <c r="F292" s="21"/>
       <c r="G292" s="21"/>
@@ -15935,7 +16078,7 @@
       <c r="N292" s="21"/>
       <c r="O292" s="21"/>
     </row>
-    <row r="293" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="293" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E293" s="35"/>
       <c r="F293" s="21"/>
       <c r="G293" s="21"/>
@@ -15948,7 +16091,7 @@
       <c r="N293" s="21"/>
       <c r="O293" s="21"/>
     </row>
-    <row r="294" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="294" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E294" s="35"/>
       <c r="F294" s="21"/>
       <c r="G294" s="21"/>
@@ -15961,7 +16104,7 @@
       <c r="N294" s="21"/>
       <c r="O294" s="21"/>
     </row>
-    <row r="295" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="295" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E295" s="35"/>
       <c r="F295" s="21"/>
       <c r="G295" s="21"/>
@@ -15974,7 +16117,7 @@
       <c r="N295" s="21"/>
       <c r="O295" s="21"/>
     </row>
-    <row r="296" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="296" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E296" s="35"/>
       <c r="F296" s="21"/>
       <c r="G296" s="21"/>
@@ -15987,7 +16130,7 @@
       <c r="N296" s="21"/>
       <c r="O296" s="21"/>
     </row>
-    <row r="297" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="297" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E297" s="35"/>
       <c r="F297" s="21"/>
       <c r="G297" s="21"/>
@@ -16000,7 +16143,7 @@
       <c r="N297" s="21"/>
       <c r="O297" s="21"/>
     </row>
-    <row r="298" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="298" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E298" s="35"/>
       <c r="F298" s="21"/>
       <c r="G298" s="21"/>
@@ -16013,7 +16156,7 @@
       <c r="N298" s="21"/>
       <c r="O298" s="21"/>
     </row>
-    <row r="299" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="299" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E299" s="35"/>
       <c r="F299" s="21"/>
       <c r="G299" s="21"/>
@@ -16026,72 +16169,62 @@
       <c r="N299" s="21"/>
       <c r="O299" s="21"/>
     </row>
-    <row r="300" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="300" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E300" s="35"/>
-      <c r="F300" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G300" s="23"/>
-      <c r="H300" s="23"/>
+      <c r="F300" s="21"/>
+      <c r="G300" s="21"/>
+      <c r="H300" s="21"/>
       <c r="I300" s="21"/>
       <c r="J300" s="21"/>
       <c r="K300" s="21"/>
       <c r="L300" s="21"/>
       <c r="M300" s="21"/>
       <c r="N300" s="21"/>
-    </row>
-    <row r="301" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="O300" s="21"/>
+    </row>
+    <row r="301" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E301" s="35"/>
-      <c r="F301" s="22"/>
-      <c r="G301" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="H301" s="29" t="s">
-        <v>169</v>
-      </c>
+      <c r="F301" s="21"/>
+      <c r="G301" s="21"/>
+      <c r="H301" s="21"/>
       <c r="I301" s="21"/>
       <c r="J301" s="21"/>
       <c r="K301" s="21"/>
       <c r="L301" s="21"/>
       <c r="M301" s="21"/>
       <c r="N301" s="21"/>
-    </row>
-    <row r="302" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="O301" s="21"/>
+    </row>
+    <row r="302" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E302" s="35"/>
-      <c r="F302" s="22"/>
-      <c r="G302" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="H302" s="29" t="s">
-        <v>169</v>
-      </c>
+      <c r="F302" s="21"/>
+      <c r="G302" s="21"/>
+      <c r="H302" s="21"/>
       <c r="I302" s="21"/>
       <c r="J302" s="21"/>
       <c r="K302" s="21"/>
       <c r="L302" s="21"/>
       <c r="M302" s="21"/>
       <c r="N302" s="21"/>
-    </row>
-    <row r="303" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="O302" s="21"/>
+    </row>
+    <row r="303" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E303" s="35"/>
-      <c r="F303" s="22"/>
-      <c r="G303" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="H303" s="29" t="s">
-        <v>169</v>
-      </c>
+      <c r="F303" s="21"/>
+      <c r="G303" s="21"/>
+      <c r="H303" s="21"/>
       <c r="I303" s="21"/>
       <c r="J303" s="21"/>
       <c r="K303" s="21"/>
       <c r="L303" s="21"/>
       <c r="M303" s="21"/>
       <c r="N303" s="21"/>
-    </row>
-    <row r="304" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="O303" s="21"/>
+    </row>
+    <row r="304" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E304" s="35"/>
       <c r="F304" s="22" t="s">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="G304" s="23"/>
       <c r="H304" s="23"/>
@@ -16104,12 +16237,12 @@
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E305" s="35"/>
-      <c r="F305" s="21"/>
+      <c r="F305" s="22"/>
       <c r="G305" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H305" s="23" t="s">
-        <v>186</v>
+        <v>181</v>
+      </c>
+      <c r="H305" s="29" t="s">
+        <v>169</v>
       </c>
       <c r="I305" s="21"/>
       <c r="J305" s="21"/>
@@ -16120,9 +16253,9 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E306" s="35"/>
-      <c r="F306" s="21"/>
+      <c r="F306" s="22"/>
       <c r="G306" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H306" s="29" t="s">
         <v>169</v>
@@ -16136,9 +16269,13 @@
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E307" s="35"/>
-      <c r="F307" s="21"/>
-      <c r="G307" s="21"/>
-      <c r="H307" s="21"/>
+      <c r="F307" s="22"/>
+      <c r="G307" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="H307" s="29" t="s">
+        <v>169</v>
+      </c>
       <c r="I307" s="21"/>
       <c r="J307" s="21"/>
       <c r="K307" s="21"/>
@@ -16147,13 +16284,12 @@
       <c r="N307" s="21"/>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B308" s="31" t="s">
-        <v>195</v>
-      </c>
       <c r="E308" s="35"/>
-      <c r="F308" s="21"/>
-      <c r="G308" s="21"/>
-      <c r="H308" s="21"/>
+      <c r="F308" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G308" s="23"/>
+      <c r="H308" s="23"/>
       <c r="I308" s="21"/>
       <c r="J308" s="21"/>
       <c r="K308" s="21"/>
@@ -16162,13 +16298,14 @@
       <c r="N308" s="21"/>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C309" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="E309" s="35"/>
       <c r="F309" s="21"/>
-      <c r="G309" s="21"/>
-      <c r="H309" s="21"/>
+      <c r="G309" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="H309" s="23" t="s">
+        <v>186</v>
+      </c>
       <c r="I309" s="21"/>
       <c r="J309" s="21"/>
       <c r="K309" s="21"/>
@@ -16177,71 +16314,71 @@
       <c r="N309" s="21"/>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A310" s="2" t="s">
+      <c r="E310" s="35"/>
+      <c r="F310" s="21"/>
+      <c r="G310" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H310" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I310" s="21"/>
+      <c r="J310" s="21"/>
+      <c r="K310" s="21"/>
+      <c r="L310" s="21"/>
+      <c r="M310" s="21"/>
+      <c r="N310" s="21"/>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E311" s="35"/>
+      <c r="F311" s="21"/>
+      <c r="G311" s="21"/>
+      <c r="H311" s="21"/>
+      <c r="I311" s="21"/>
+      <c r="J311" s="21"/>
+      <c r="K311" s="21"/>
+      <c r="L311" s="21"/>
+      <c r="M311" s="21"/>
+      <c r="N311" s="21"/>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B312" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="E312" s="35"/>
+      <c r="F312" s="21"/>
+      <c r="G312" s="21"/>
+      <c r="H312" s="21"/>
+      <c r="I312" s="21"/>
+      <c r="J312" s="21"/>
+      <c r="K312" s="21"/>
+      <c r="L312" s="21"/>
+      <c r="M312" s="21"/>
+      <c r="N312" s="21"/>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C313" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E313" s="35"/>
+      <c r="F313" s="21"/>
+      <c r="G313" s="21"/>
+      <c r="H313" s="21"/>
+      <c r="I313" s="21"/>
+      <c r="J313" s="21"/>
+      <c r="K313" s="21"/>
+      <c r="L313" s="21"/>
+      <c r="M313" s="21"/>
+      <c r="N313" s="21"/>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A314" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D310" s="13" t="s">
+      <c r="D314" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E310" s="83"/>
-      <c r="F310" s="25"/>
-      <c r="G310" s="25"/>
-      <c r="H310" s="25"/>
-      <c r="I310" s="25"/>
-      <c r="J310" s="25"/>
-      <c r="K310" s="25"/>
-      <c r="L310" s="25"/>
-      <c r="M310" s="25"/>
-      <c r="N310" s="21"/>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D311" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E311" s="83"/>
-      <c r="F311" s="25"/>
-      <c r="G311" s="25"/>
-      <c r="H311" s="25"/>
-      <c r="I311" s="25"/>
-      <c r="J311" s="25"/>
-      <c r="K311" s="25"/>
-      <c r="L311" s="25"/>
-      <c r="M311" s="25"/>
-      <c r="N311" s="21"/>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D312" s="13"/>
-      <c r="E312" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="F312" s="25"/>
-      <c r="G312" s="25"/>
-      <c r="H312" s="25"/>
-      <c r="I312" s="25"/>
-      <c r="J312" s="25"/>
-      <c r="K312" s="25"/>
-      <c r="L312" s="25"/>
-      <c r="M312" s="25"/>
-      <c r="N312" s="21"/>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D313" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E313" s="83"/>
-      <c r="F313" s="25"/>
-      <c r="G313" s="25"/>
-      <c r="H313" s="25"/>
-      <c r="I313" s="25"/>
-      <c r="J313" s="25"/>
-      <c r="K313" s="25"/>
-      <c r="L313" s="25"/>
-      <c r="M313" s="25"/>
-      <c r="N313" s="21"/>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D314" s="13"/>
-      <c r="E314" s="83"/>
+      <c r="E314" s="68"/>
       <c r="F314" s="25"/>
       <c r="G314" s="25"/>
       <c r="H314" s="25"/>
@@ -16253,11 +16390,10 @@
       <c r="N314" s="21"/>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C315" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D315" s="13"/>
-      <c r="E315" s="25"/>
+      <c r="D315" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E315" s="68"/>
       <c r="F315" s="25"/>
       <c r="G315" s="25"/>
       <c r="H315" s="25"/>
@@ -16269,23 +16405,82 @@
       <c r="N315" s="21"/>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D316" s="2" t="s">
+      <c r="D316" s="13"/>
+      <c r="E316" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="F316" s="25"/>
+      <c r="G316" s="25"/>
+      <c r="H316" s="25"/>
+      <c r="I316" s="25"/>
+      <c r="J316" s="25"/>
+      <c r="K316" s="25"/>
+      <c r="L316" s="25"/>
+      <c r="M316" s="25"/>
+      <c r="N316" s="21"/>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D317" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E317" s="68"/>
+      <c r="F317" s="25"/>
+      <c r="G317" s="25"/>
+      <c r="H317" s="25"/>
+      <c r="I317" s="25"/>
+      <c r="J317" s="25"/>
+      <c r="K317" s="25"/>
+      <c r="L317" s="25"/>
+      <c r="M317" s="25"/>
+      <c r="N317" s="21"/>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D318" s="13"/>
+      <c r="E318" s="68"/>
+      <c r="F318" s="25"/>
+      <c r="G318" s="25"/>
+      <c r="H318" s="25"/>
+      <c r="I318" s="25"/>
+      <c r="J318" s="25"/>
+      <c r="K318" s="25"/>
+      <c r="L318" s="25"/>
+      <c r="M318" s="25"/>
+      <c r="N318" s="21"/>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C319" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D319" s="13"/>
+      <c r="E319" s="25"/>
+      <c r="F319" s="25"/>
+      <c r="G319" s="25"/>
+      <c r="H319" s="25"/>
+      <c r="I319" s="25"/>
+      <c r="J319" s="25"/>
+      <c r="K319" s="25"/>
+      <c r="L319" s="25"/>
+      <c r="M319" s="25"/>
+      <c r="N319" s="21"/>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D320" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E316" s="21"/>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E317" s="21"/>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E318" s="21"/>
+      <c r="E320" s="21"/>
+    </row>
+    <row r="321" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E321" s="21"/>
+    </row>
+    <row r="322" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E322" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:AA1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A102 A144:A145 A150:A151 A254:A259 A105:A114 A191:A252 A261:A265 A153:A188 A116:A142 A269:A1048576">
+  <conditionalFormatting sqref="A144:A145 A152:A153 A257:A262 A105:A114 A194:A255 A264:A268 A155:A191 A116:A142 A272:A1048576 A1:A102">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -16320,32 +16515,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B2" s="35" t="s">
@@ -16478,34 +16673,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
     </row>
     <row r="2" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
@@ -17689,7 +17884,7 @@
       <c r="D80" s="13"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -18278,7 +18473,7 @@
       <c r="D123" s="13"/>
       <c r="E123" s="13"/>
       <c r="F123" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G123" s="21"/>
       <c r="H123" s="21"/>
@@ -18349,7 +18544,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -18398,13 +18593,13 @@
         <v>34</v>
       </c>
       <c r="E2" s="66" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>349</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>350</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>42</v>
@@ -18525,18 +18720,28 @@
       </c>
       <c r="K6" s="59"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
+    <row r="7" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="73" t="s">
+        <v>367</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>368</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74">
+        <v>1</v>
+      </c>
+      <c r="K7" s="74"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="27"/>
@@ -18715,7 +18920,7 @@
     </row>
     <row r="4" spans="1:13" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -18736,7 +18941,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D5" s="21">
         <v>1</v>
@@ -18756,7 +18961,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D6" s="21">
         <v>1</v>
@@ -18776,7 +18981,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D7" s="21">
         <v>1</v>
@@ -18796,7 +19001,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D8" s="21">
         <v>1.5</v>
@@ -18827,7 +19032,7 @@
     </row>
     <row r="10" spans="1:13" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B10" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -18846,7 +19051,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D11" s="21">
         <v>1</v>
@@ -18866,7 +19071,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D12" s="21">
         <v>1.5</v>
@@ -18877,7 +19082,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D13" s="21">
         <v>1</v>

--- a/gd/交互系统/邮箱系统设计.xlsx
+++ b/gd/交互系统/邮箱系统设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="60" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-30" yWindow="60" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -16,885 +16,886 @@
     <sheet name="自用" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_2._已读邮件的定义">'逻辑+UI'!$C$306</definedName>
+    <definedName name="_2._已读邮件的定义">'逻辑+UI'!$C$305</definedName>
     <definedName name="_3、功能界面">#REF!</definedName>
     <definedName name="_4、录音模式">#REF!</definedName>
     <definedName name="_5_、功能按钮">#REF!</definedName>
     <definedName name="打开邮箱UI时_刷新邮件。UI开启的过程中_若有新邮件来_界面立即刷新。">'逻辑+UI'!$D$53</definedName>
-    <definedName name="第二个">'逻辑+UI'!$G$285:$J$285</definedName>
+    <definedName name="第二个">'逻辑+UI'!$G$275:$J$275</definedName>
     <definedName name="二、聊天框玩家名称">美术需求!$B$27</definedName>
     <definedName name="金币钻石达到上限的处理符合通用规则。">'逻辑+UI'!$F$196</definedName>
     <definedName name="若当前邮箱已满_玩家正在读取最后一封邮件_此时有新邮件进入_则邮箱界面右侧保持玩家读取的邮件不变_左侧邮件列表刷新。">'逻辑+UI'!$E$142</definedName>
     <definedName name="若无邮件_则列表处为空着即可。">'逻辑+UI'!$F$133:$H$133</definedName>
-    <definedName name="若邮件不包含附件_则附件处空着即可。">'逻辑+UI'!$F$270</definedName>
+    <definedName name="若邮件不包含附件_则附件处空着即可。">'逻辑+UI'!$F$261</definedName>
     <definedName name="若邮箱已满_玩家打开邮箱_又收到x封新邮件_则邮箱界面时时刷新_新邮件会根据上面的规则定掉老邮件。">'逻辑+UI'!$E$141</definedName>
     <definedName name="三、走马灯">美术需求!$B$72</definedName>
     <definedName name="四、系统公告提示">美术需求!#REF!</definedName>
     <definedName name="五、提示信息">美术需求!#REF!</definedName>
-    <definedName name="系统邮件正文内容汉字数上限500">'逻辑+UI'!$F$256</definedName>
+    <definedName name="系统邮件正文内容汉字数上限500">'逻辑+UI'!$F$247</definedName>
     <definedName name="显示格式">#REF!</definedName>
     <definedName name="邮件标题采用文字缩放规则显示">'逻辑+UI'!#REF!</definedName>
     <definedName name="长按才能录音_松手后直接发送录音内容。">#REF!</definedName>
+    <definedName name="自动删除动画_被删除的邮件直接消失_下方邮件自动向上提">'逻辑+UI'!$E$301</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="363">
   <si>
     <t>文档名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档目的</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标读者</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档路径</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档状态</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>文档目的</t>
+    <t>待审核(策划)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改中（策划）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审核(QC)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改中(QC)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>待3方</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>已定案</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档历史</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布日期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>知会同事</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记颜色</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修订人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>有关会议</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议日期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与同事</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本概要</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示方式</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发条件</t>
+  </si>
+  <si>
+    <t>提示范围</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字内容</t>
+  </si>
+  <si>
+    <t>系统公告</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>我只想告诉你，注意用词：</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>目标读者</t>
+    <t>基础聊天框</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>所有</t>
+    <t>左侧聊天框</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>文档路径</t>
+    <t>聊天输入框</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>文档状态</t>
+    <t>循环提示信息——&gt;放在loading做提示比较合适</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>详细信息</t>
+    <t>系统频道的提示信息颜色可配置</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>编写中</t>
+    <t>走马灯</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础聊天显示框</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>√</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>待审核(策划)</t>
+    <t>左侧聊天显示框</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>修改中（策划）</t>
+    <t>左侧聊天频道按钮</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>待审核(QC)</t>
+    <t>基础聊天显示框隐藏按钮</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>修改中(QC)</t>
+    <t>控件类型</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>待3方</t>
+    <t>按钮</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>已定案</t>
+    <t>显示位置</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>文档历史</t>
+    <t>出现/隐藏规则</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>版本号</t>
+    <t>按钮文案</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>发布日期</t>
+    <t>按钮操作</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>知会同事</t>
+    <t>按钮样式</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>标记颜色</t>
+    <t>系统提示信息的关键字</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>创建人</t>
+    <t>则往平行线以上趋势的滑动都判定为向上，往平行线以下趋势的滑动都判定为向下，</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>修订人</t>
+    <t>见示意图</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Ver 0.1</t>
+    <t>道具</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
+    <t>系统提示（非警示）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统提示（警示）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>雪</t>
+    <t>邮箱系统设计</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱系统相关逻辑说明</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>svn://10.21.2.47/gd/交互系统/邮箱系统设计.xlsx</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>有关会议</t>
+    <t>一、邮箱系统概述</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、进入邮箱系统</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱系统</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过游戏主功能界面的邮箱UI进入邮箱。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱UI</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击邮箱UI，打开邮箱界面。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术需求</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>版本号</t>
+    <t>效果示意</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>会议日期</t>
+    <t>1. 主界面邮箱UI</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>参与同事</t>
+    <t xml:space="preserve">      邮箱UI</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、邮箱界面</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面标题</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件列表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面标题</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>基本概要</t>
+    <t>按下</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>提示方式</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <t>2.邮箱界面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件列表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新邮件提示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似效果</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入邮箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家邮箱中不包含未读取邮件时，红点才会消失。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>当玩家邮箱中包含未读取邮件时，邮箱UI处会有提示，表现为按钮右上方标示一红点。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>未读取邮件提示，UI右上方标示一红点。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件样式</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件类型图标</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标类似效果</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>（不要右下角的那个字）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）包含附件的邮件</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件标题</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体内容根据邮件配置显示。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>发件人</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示  “来自：XXXX”，XXX根据邮件配置显示。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>发件人最多支持显示6个汉字及对应的字符</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示邮件标题</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>发件日期</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示邮件发送日期</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件状态提示图标</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似效果</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件排列</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>信件按照两个层级的顺序排列。优先第一层级排列，再按照第二层级排列。</t>
+  </si>
+  <si>
+    <t>1.优先显示“未读信件”，再显示“已读信件”</t>
+  </si>
+  <si>
+    <t>多于1页时，可通过拖动显示其他邮件。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖动操作</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上、向下滑动的定义</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>取一条与手机屏幕平行的线，且穿过手指落点，</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指落点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指滑到一个点停留后，该点成为新的判定落点。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖动时，已有信息立刻变化，信息状态会停留在手指离开屏幕时的状态（即此时显示半字，也不进行适配）。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指按下的落点若在邮件列表范围内，判定为针对邮件列表内容操作。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指向上滑动，则信息向上滚动；手指向下滑动，则信息向下滚动。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件标题最多支持显示10个汉字及对应的字符（遵循敏感字与屏蔽字统一规则）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有邮件的情况</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件数量/最大邮件数量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键领取按钮</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件内容显示框</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取顺序：按照邮件排列顺序，由上到下逐封收取</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取操作只会对当前选中的切页的邮件有效。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）纯文字邮件（不包含附件的邮件）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_record_001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家自己</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动收取含有附件的邮件，包括未读和已读；纯文字邮件也进行收取操作。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有可收取的邮件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件标题</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>发件日期</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>发件人</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件正文</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件列表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取按钮</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开邮箱界面时，默认邮件内容显示框不显示任何邮件内容，空着。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>发件人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则同邮件列表的发件人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发件日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则同邮件列表的发件日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示邮件正文</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每行最大显示19个汉字或者对应字符，每页最多显示5行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示邮件中的附件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考效果</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示道具图标，若数量大于1，则在图标上标示数量，若为1个，则不标示数量，只显示图标</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验/金币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击道具，会出现对应的tips，遵循道具的tips规则</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取按钮</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效资源</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击按钮</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取附件成功</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱界面显示时显示，其余时间不显示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键领取</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者注意：寄送物品如果填数量，数量需要小于等于物品规定的堆叠上限。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱系统配置结构</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统邮件没有发送数量上限。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>四、其他逻辑</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 邮件的自动删除</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 已读邮件的定义</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>每收取一封邮件时，不会在邮件内容显示框显示对应内容。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有可操作的邮件哦！</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件数量每封邮件不能超过5个。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发条件</t>
-  </si>
-  <si>
-    <t>提示范围</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>文字内容</t>
-  </si>
-  <si>
-    <t>系统公告</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>我只想告诉你，注意用词：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础聊天框</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>左侧聊天框</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天输入框</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>循环提示信息——&gt;放在loading做提示比较合适</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统频道的提示信息颜色可配置</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>走马灯</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础聊天显示框</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>左侧聊天显示框</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>左侧聊天频道按钮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础聊天显示框隐藏按钮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示位置</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现/隐藏规则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮文案</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮操作</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮样式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统提示信息的关键字</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>则往平行线以上趋势的滑动都判定为向上，往平行线以下趋势的滑动都判定为向下，</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>见示意图</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统提示（非警示）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统提示（警示）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱系统设计</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>发信原因</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>发信人</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>信件内容</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>邮箱系统相关逻辑说明</t>
+    <t>TEXT</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>svn://10.21.2.47/gd/交互系统/邮箱系统设计.xlsx</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>一、邮箱系统概述</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>二、进入邮箱系统</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱系统</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过游戏主功能界面的邮箱UI进入邮箱。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱UI</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击邮箱UI，打开邮箱界面。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术需求</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果示意</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 主界面邮箱UI</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      邮箱UI</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>三、邮箱界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面标题</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件列表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面标题</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>按下</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.邮箱界面</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件列表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>新邮件提示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似效果</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入邮箱</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家邮箱中不包含未读取邮件时，红点才会消失。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>当玩家邮箱中包含未读取邮件时，邮箱UI处会有提示，表现为按钮右上方标示一红点。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>未读取邮件提示，UI右上方标示一红点。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件样式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件类型图标</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标类似效果</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>（不要右下角的那个字）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）包含附件的邮件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件标题</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体内容根据邮件配置显示。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>发件人</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示  “来自：XXXX”，XXX根据邮件配置显示。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>发件人最多支持显示6个汉字及对应的字符</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示邮件标题</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>发件日期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示邮件发送日期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件状态提示图标</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似效果</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件排列</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>信件按照两个层级的顺序排列。优先第一层级排列，再按照第二层级排列。</t>
-  </si>
-  <si>
-    <t>1.优先显示“未读信件”，再显示“已读信件”</t>
-  </si>
-  <si>
-    <t>多于1页时，可通过拖动显示其他邮件。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖动操作</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>向上、向下滑动的定义</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>取一条与手机屏幕平行的线，且穿过手指落点，</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>手指落点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>手指滑到一个点停留后，该点成为新的判定落点。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖动时，已有信息立刻变化，信息状态会停留在手指离开屏幕时的状态（即此时显示半字，也不进行适配）。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>手指按下的落点若在邮件列表范围内，判定为针对邮件列表内容操作。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>手指向上滑动，则信息向上滚动；手指向下滑动，则信息向下滚动。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件标题最多支持显示10个汉字及对应的字符（遵循敏感字与屏蔽字统一规则）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有邮件的情况</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件数量/最大邮件数量</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>一键领取按钮</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件内容显示框</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取顺序：按照邮件排列顺序，由上到下逐封收取</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取操作只会对当前选中的切页的邮件有效。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）纯文字邮件（不包含附件的邮件）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail_record_001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家自己</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动收取含有附件的邮件，包括未读和已读；纯文字邮件也进行收取操作。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有可收取的邮件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件标题</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>发件日期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>发件人</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件正文</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件列表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取按钮</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开邮箱界面时，默认邮件内容显示框不显示任何邮件内容，空着。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>发件人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则同邮件列表的发件人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>发件日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则同邮件列表的发件日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示邮件正文</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>每行最大显示19个汉字或者对应字符，每页最多显示5行</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示邮件中的附件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考效果</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示道具图标，若数量大于1，则在图标上标示数量，若为1个，则不标示数量，只显示图标</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验/金币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击道具，会出现对应的tips，遵循道具的tips规则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取按钮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>按下</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效资源</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击按钮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取附件成功</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱界面显示时显示，其余时间不显示</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>一键领取</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者注意：寄送物品如果填数量，数量需要小于等于物品规定的堆叠上限。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱系统配置结构</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统邮件没有发送数量上限。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>四、其他逻辑</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 邮件的自动删除</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 已读邮件的定义</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每收取一封邮件时，不会在邮件内容显示框显示对应内容。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有可操作的邮件哦！</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件数量每封邮件不能超过5个。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>发信原因</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>发信人</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>信件内容</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>NUM</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>reasonMail</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>sender</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>subject</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>content</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>标识邮件内容
 命名规则：mail_系统名_001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>可配置文案
 默认为：系统</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>可配置文案，支持换行、变色
 默认为空</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>当邮件玩家未操作时，显示图标，玩家点击邮件后，图标消失。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>邮箱系统只提供接收系统邮件的功能，主要用于系统为玩家发送奖励等。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>当玩家未对邮件操作时，显示图标，玩家点击邮件后，图标消失。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>沿平行线滑动手指，不滚动。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>显示选中邮件的标题，居中显示</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>已有邮件数量/最大邮件数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>每删除1个邮件，已有邮件数量减1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>邮件数量/最大邮件数量</t>
   </si>
   <si>
     <t>最大邮件数量暂定为300</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>采用通用UI的提示窗口</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>当邮箱邮件数量大于等于280时，玩家每次打开邮箱，都会弹出提示框如下：</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>当邮箱邮件数量大于等于300时，玩家每次打开邮箱，都会弹出提示框如下：</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>mail_record_002</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>若没有，则点击按钮不进行领取操作，同时弹出提示信息mail_record_001。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>收取成功！</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>玩家在邮件列表点击一次后，即算已读状态。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>日期格式建议修改，与老外的习惯相符合</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>一键领取了带有附件的新邮件，这个图标消失么？</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>滚动条这个跟其他系统统一风格吧，不要沿用战音的设计了</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>数值程序字？</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>不能是已读就删吧，还要判断有没有收取附件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>这块配置格式问下程序是不是用副本结算的配置格式吧</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>这个是不是等主界面的时候做？</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>一些重要的文字邮件也不留么，比如“大返利，充1送100”</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>这块全用道具系统的显示方式就行</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>金币和经验不知道道具有没有显示方式</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>前面说系统邮件没有发送数量上限，如果发送的系统邮件超过300如何？</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>5个的限制将来如果出了玩家间邮件也限制5个？</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>另外邮件是否有过期时间？如果有，过期和上线限制一个就行吧</t>
@@ -943,7 +944,7 @@
     <rPh sb="27" eb="28">
       <t>b</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>没有删除功能，这个提示不太好吧</t>
@@ -971,7 +972,7 @@
     <rPh sb="14" eb="15">
       <t>b</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>这期间收到的邮件是消失了还是系统暂存了？顶替旧的比较好吧</t>
@@ -993,113 +994,109 @@
     <rPh sb="7" eb="8">
       <t>b</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>删了</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>一键领取之后，邮件都消失啦</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2.按接收邮件的时间从后到前顺序排列，最前显示最新接收的信件。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>当邮箱邮件数量达到300时，若有新邮件，则新邮件会顶替掉旧邮件，超出几封则顶掉几封，按接收时间顺序从后到前顺序顶掉，即最早接收的最先被顶掉。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>提示信息内容：邮箱即将爆仓，请及时收取邮件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>没有过期时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>提示信息内容：邮箱已经爆仓，快快收取邮件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>多于1页时，通过拖动操作可查看超过的内容。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>是的</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>显示格式为  “XX-XX-XXXX“</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>代表XX月XX日XXXX年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>显示道具图标，符合道具系统的显示规则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>经验和金币采用右图规则即可</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         若玩家未收取附件，则点击列表其他邮件时，不会自动删除。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>需求都是要提的呀~</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>测试反馈回归</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>rewardID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>附件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>配置reward的ID。
 具体的发放道具、经验、金币都配在reward表中。
 默认为空</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>窗口类型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>一级窗口</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>MT、辛炜、珍珍、木木、兔桑、雷神、帆爷、小珍、小龙、雪</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>讨论邮箱系统逻辑，回归会议问题</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>回归三方问题</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1116,472 +1113,489 @@
       </rPr>
       <t>需求设计规范附件不能超过5个，且不会直接赠送宠物，可通过赠送宠物碎片达到赠送宠物的设计目的</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>显示经验/金币/钻石图标，图标右下方标示经验/金币/钻石数值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>附件可以为道具、金币、钻石、经验，均以图标形式显示，调取道具图标即可，数字采用程序字即可。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>收取时，玩家已经满级（经验已达最大值），不影响收取，多余的经验作废。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>显示经验/金币/钻石图标，图标右下角标示经验/金币/钻石数值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>由于什么原因，需要调用到系统邮件功能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>经验/金币/钻石</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>该邮件中对应道具进包，增长对应经验以及金币、钻石。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>对应工时（单位：d）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面所有内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面基本布局</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>邮件列表部分</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>邮件内容及附件部分</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>邮件限制，收取，删除功能（包括一键领取）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>数据结构+初始化+配置表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>看信+收取+全部收取</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>发信</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>位置1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>若邮件不包含附件，则附件处空着即可。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>位置2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>若邮件不包含附件，则附件处空着即可</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>去掉界面空着时的提示图和提示文字显示需求</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>对应英文</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>公会频道</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>世界频道</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>去掉邮件附件位置显示的”附件“两个字</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>按照标准格式回归”提示信息“切页</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>邮件标题采用文字缩放规则显示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>系统邮件正文内容汉字数上限500</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>文字支持变色、换行功能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>邮箱开启过程中，有新邮件来，界面刷新</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>邮件正文汉字上限回归</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>若邮箱已满，玩家打开邮箱，又收到x封新邮件，则邮箱界面时时刷新，新邮件会根据上面的规则定掉老邮件。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>邮箱开启时邮箱满且又收到新邮件的处理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>若当前邮箱已满，玩家正在读取最后一封邮件，此时有新邮件进入，则邮箱界面右侧保持玩家读取的邮件不变，左侧邮件列表刷新。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>收取邮件失败</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>若最后一封邮件包含附件，则此时玩家进行收取操作，收取失败，弹出IM提示信息mail_record_005。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>mail_record_005</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>邮件已过期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>金币钻石达到上限的处理符合通用规则。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>位置1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>位置2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>打开邮箱UI时，刷新邮件。UI开启的过程中，若有新邮件来，界面立即刷新（邮箱界面右侧保持玩家读取的邮件不变，左侧邮件列表刷新）。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>邮箱满时的刷新逻辑</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>金币、钻石达到上限不终止邮箱收取操作</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>多语言id</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>mail_title</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>每页最多显示邮件数量以美术图为准，最后一封半个显示。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>mail_laizi</t>
   </si>
   <si>
     <t>mail_youxiangjiangman</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>mail_youxiangyiman</t>
   </si>
   <si>
     <t>mail_yijianlingqu</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>确认收取所有邮件吗？</t>
   </si>
   <si>
     <t>提示信息内容</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>mail_shouquall</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>mail_coinmanle</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>点击”取消“，关闭二级，操作取消；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮，判断是否有邮件，若有，则弹出二级提示框：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>点击”确定“，进行每封的收取操作：</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>邮箱改版内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>若全部邮件收取成功，则清空邮件列表以及邮件内容显示框，同时展示玩家收取得到的内容，效果如下：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>区别</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collected all!</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>收取成功的邮件从邮件列表中清除，清空邮件内容显示框。客户端会在收取完成后一次刷新邮件列表和邮件内容显示框。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>每行最大显示字符数和每页最多显示行数根据美术效果图定</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>邮件样式需要有整体选中状态</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>在左侧邮件列表点击邮件，邮件变为选中状态且右侧即显示对应邮件内容。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1）当邮件包含附件时，按钮文案为”收取“</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>mail_shouqu</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2）当邮件不包含附件时，按钮文案为”删除“</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail_shanchu</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件内容显示时按钮显示</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>当按钮文案为”收取“时，点击按钮，收取附件且弹出提示信息mail_record_002；</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则与扫荡结果的展示相同，区别在于上方英文提示信息不同</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应道具进包，增长对应经验以及金币、钻石，邮件删除，列表选中的邮件跳到当前已收取邮件的下一封，且右侧显示选中邮件内容。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含附件的邮件：已读取的邮件，会在玩家收取附件后，自动从列表中清除。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>不包含附件的邮件：已读取的邮件，会在玩家点击”删除“按钮时，自动从列表中清除。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>当按钮文案为”删除“时，点击按钮，邮件删除，列表选中的邮件跳到当前已收取邮件的下一封，且右侧显示选中邮件内容。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>返回按钮</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>提示信息</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>返回按钮</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面显示时显示</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮，关闭邮箱界面，返回到主界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>显示  ”邮件将在领取附件后自动删除“</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>mail_zidongshantips</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>list_empty</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>效果同装备列表即可。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>*若金币/钻石达到上限，收取将无法继续获得</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>若无邮件，则列表处显示提示信息“别找了，啥都没有…”</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>对比之前的在字体和行间距方面应做的修改（根据集体测试反馈的问题）：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2）改小右侧邮件标题的字号，和左边的列表邮件标题协调一致</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1）减小邮件正文内容的行间距</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>现在是右边的邮件标题字号比左侧列表邮件标题字号大太多了</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）金币、经验显示不同于扫荡的显示形式，都统一用icon显示，右下角显示堆叠数字</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">    钻石也采用icon显示</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）界面标题为”收取成功“的对应英文</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>玩家拥有金币、钻石</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>逻辑同主界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>若全部邮件收取成功，则清空邮件列表以及邮件内容显示框，同时弹出提示框如下：客户端会在收取完成后一次刷新邮件列表和邮件内容显示框。</t>
+  </si>
+  <si>
+    <t>采用通用UI的提示窗口</t>
+  </si>
+  <si>
+    <t>提示信息内容：全部收取成功！</t>
+  </si>
+  <si>
+    <t>多语言id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_CollectedAll</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取</t>
+  </si>
+  <si>
+    <t>1）当邮件包含附件且附件未收取时，按钮出现，否则按钮不可见</t>
+  </si>
+  <si>
+    <t>2）提取附件后，按钮消失</t>
+  </si>
+  <si>
+    <t>对应道具进包，增长对应经验以及金币、钻石，提取按钮消失，所有附件框右上角出现”对勾“图标（代表已收取）。</t>
+  </si>
+  <si>
+    <t>收取时，玩家已经满级（经验已达最大值），不影响收取，多余的经验作废。</t>
+  </si>
+  <si>
+    <t>金币钻石达到上限的处理符合通用规则。</t>
+  </si>
+  <si>
+    <t>点击按钮，收取附件且弹出提示信息mail_record_002。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取后的效果示意</t>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 全部收取不展示获得内容，保留原方案</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 收取邮件逻辑保留原方案</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不包含附件的邮件：已读取的邮件，会在玩家点击邮件列表其他邮件时，自动从列表中清除。</t>
+  </si>
+  <si>
+    <t>包含附件的邮件：已读取的邮件，会在玩家收取附件后，点击邮件列表其他邮件时，自动从列表中清除。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         若玩家未收取附件，则点击列表其他邮件时，不会自动删除。</t>
+  </si>
+  <si>
+    <t>最后一封邮件时，会在关闭邮箱，再次打开会刷没。</t>
+  </si>
+  <si>
+    <t>自动删除动画：被删除的邮件直接消失，下方邮件自动向上提</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 增加邮件自动删除时的动画</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱界面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>做删除动画</t>
+  </si>
+  <si>
+    <t xml:space="preserve">添加选中/提示/重摆UI  </t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2094,212 +2108,265 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2326,11 +2393,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF0099FF"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF99FFCC"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FF1BDF4E"/>
-      <color rgb="FF0099FF"/>
       <color rgb="FFFF99FF"/>
       <color rgb="FF6699FF"/>
       <color rgb="FF3399FF"/>
@@ -4146,13 +4213,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4193,13 +4260,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4243,13 +4310,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>106363</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4293,13 +4360,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>87313</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4343,13 +4410,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>96838</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4393,13 +4460,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>115888</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4443,13 +4510,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4493,13 +4560,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>601871</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4531,14 +4598,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9223</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>133311</xdr:rowOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>133310</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5009,13 +5076,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>66540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5047,13 +5114,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>171392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5178,44 +5245,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>213</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="图片 59"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2628900" y="41567100"/>
-          <a:ext cx="4819650" cy="3213100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -5264,6 +5293,196 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>140806</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>425446</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>152644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2758110" y="41545565"/>
+          <a:ext cx="2247619" cy="1361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>621195</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>337224</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>39289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5201478" y="8183218"/>
+          <a:ext cx="2333333" cy="428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>258312</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>194606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5963478" y="8688457"/>
+          <a:ext cx="838095" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>149088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>173267</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>106386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4033631" y="9135718"/>
+          <a:ext cx="2028571" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236144</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="图片 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4580283" y="57870587"/>
+          <a:ext cx="2199122" cy="2078935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10242,10 +10461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L39"/>
+  <dimension ref="A2:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -10304,17 +10523,17 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1">
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85" t="s">
+      <c r="C12" s="119"/>
+      <c r="D12" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="86"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="6" t="s">
@@ -10323,76 +10542,76 @@
       <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="80"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="89"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="80"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="115"/>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="80"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="115"/>
     </row>
     <row r="19" spans="1:12" ht="17.25" thickBot="1">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="82"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="117"/>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickTop="1"/>
     <row r="21" spans="1:12">
@@ -10443,10 +10662,10 @@
       </c>
       <c r="E24" s="45"/>
       <c r="F24" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -10456,10 +10675,10 @@
       </c>
       <c r="E25" s="46"/>
       <c r="F25" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -10469,16 +10688,16 @@
       </c>
       <c r="E26" s="52"/>
       <c r="F26" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K26" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="K26" s="38" t="s">
-        <v>267</v>
-      </c>
       <c r="L26" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -10488,10 +10707,10 @@
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
@@ -10500,7 +10719,7 @@
       <c r="B28" s="2"/>
       <c r="C28" s="11"/>
       <c r="G28" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -10510,10 +10729,10 @@
       </c>
       <c r="E29" s="56"/>
       <c r="F29" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G29" s="57" t="s">
         <v>278</v>
-      </c>
-      <c r="G29" s="57" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -10521,7 +10740,7 @@
       <c r="C30" s="11"/>
       <c r="E30" s="56"/>
       <c r="G30" s="57" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -10529,7 +10748,7 @@
       <c r="C31" s="11"/>
       <c r="E31" s="56"/>
       <c r="G31" s="57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -10537,7 +10756,7 @@
       <c r="C32" s="11"/>
       <c r="E32" s="56"/>
       <c r="G32" s="57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -10547,10 +10766,10 @@
       </c>
       <c r="E33" s="45"/>
       <c r="F33" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G33" s="57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -10558,13 +10777,13 @@
       <c r="C34" s="11"/>
       <c r="E34" s="45"/>
       <c r="G34" s="57" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J34" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="K34" s="38" t="s">
         <v>293</v>
-      </c>
-      <c r="K34" s="38" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -10574,55 +10793,93 @@
       </c>
       <c r="E35" s="59"/>
       <c r="F35" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="B36" s="2"/>
-      <c r="C36" s="11"/>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1" t="s">
+      <c r="C36" s="95">
+        <v>42341</v>
+      </c>
+      <c r="E36" s="100"/>
+      <c r="F36" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="92" customFormat="1">
+      <c r="A37" s="91"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="94" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="92" customFormat="1">
+      <c r="A38" s="91"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="94" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="102" customFormat="1">
+      <c r="A39" s="101"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="110" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="11">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="11">
         <v>42226</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="G42" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10636,7 +10893,7 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K26" location="若无邮件_则列表处为空着即可。" display="位置1"/>
     <hyperlink ref="L26" location="若邮件不包含附件_则附件处空着即可。" display="位置2"/>
@@ -10647,6 +10904,7 @@
     <hyperlink ref="J34" location="金币钻石达到上限的处理符合通用规则。" display="位置1"/>
     <hyperlink ref="K34" location="第二个" display="位置2"/>
     <hyperlink ref="G33" location="若当前邮箱已满_玩家正在读取最后一封邮件_此时有新邮件进入_则邮箱界面右侧保持玩家读取的邮件不变_左侧邮件列表刷新。" display="邮箱满时的刷新逻辑"/>
+    <hyperlink ref="G39" location="自动删除动画_被删除的邮件直接消失_下方邮件自动向上提" display="3. 增加邮件自动删除时的动画"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10654,10 +10912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA309"/>
+  <dimension ref="A1:AA308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView topLeftCell="B61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J295" sqref="J295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -10667,34 +10925,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" s="21" customFormat="1" ht="22.5">
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="128"/>
     </row>
     <row r="2" spans="2:27">
       <c r="B2" s="30" t="s">
@@ -10832,7 +11090,7 @@
         <v>74</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -10877,7 +11135,7 @@
     </row>
     <row r="26" spans="2:17">
       <c r="C26" s="69" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="D26" s="69"/>
       <c r="E26" s="69"/>
@@ -11263,7 +11521,7 @@
       <c r="G48" s="69"/>
       <c r="H48" s="69"/>
       <c r="I48" s="69" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="J48" s="69"/>
       <c r="K48" s="69"/>
@@ -11282,7 +11540,7 @@
     </row>
     <row r="50" spans="4:15">
       <c r="D50" s="47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E50" s="34"/>
       <c r="F50" s="13"/>
@@ -11291,14 +11549,14 @@
     <row r="51" spans="4:15">
       <c r="D51" s="34"/>
       <c r="E51" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
     <row r="53" spans="4:15">
       <c r="D53" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
@@ -11334,15 +11592,15 @@
     </row>
     <row r="57" spans="4:15">
       <c r="E57" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="58" spans="4:15">
       <c r="D58" s="14" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="E58" s="48"/>
       <c r="F58" s="13"/>
@@ -11396,7 +11654,7 @@
       <c r="D64" s="14"/>
       <c r="E64" s="22"/>
       <c r="F64" s="2" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="G64" s="23"/>
       <c r="H64" s="23"/>
@@ -11414,7 +11672,7 @@
       <c r="D66" s="14"/>
       <c r="E66" s="22"/>
       <c r="F66" s="66" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
@@ -11430,7 +11688,7 @@
       <c r="D68" s="14"/>
       <c r="E68" s="48"/>
       <c r="F68" s="13" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="4:15">
@@ -11487,7 +11745,7 @@
     </row>
     <row r="75" spans="4:15">
       <c r="D75" s="72" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="E75" s="68"/>
       <c r="F75" s="71"/>
@@ -11495,8 +11753,8 @@
     </row>
     <row r="76" spans="4:15">
       <c r="D76" s="69"/>
-      <c r="E76" s="94" t="s">
-        <v>354</v>
+      <c r="E76" s="77" t="s">
+        <v>337</v>
       </c>
       <c r="F76" s="71"/>
       <c r="G76" s="24"/>
@@ -11721,10 +11979,10 @@
     </row>
     <row r="100" spans="1:13">
       <c r="G100" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -11789,7 +12047,7 @@
     </row>
     <row r="108" spans="1:13">
       <c r="F108" s="69" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G108" s="69"/>
       <c r="H108" s="69"/>
@@ -11847,7 +12105,7 @@
     </row>
     <row r="115" spans="6:15">
       <c r="F115" s="63" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G115" s="24"/>
       <c r="H115" s="24"/>
@@ -12068,23 +12326,23 @@
     <row r="133" spans="1:19">
       <c r="E133" s="13"/>
       <c r="F133" s="69" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="G133" s="69"/>
       <c r="H133" s="69"/>
       <c r="I133" s="69"/>
       <c r="J133" s="69"/>
       <c r="L133" s="75" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M133" s="66" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="134" spans="1:19">
       <c r="E134" s="13"/>
       <c r="F134" s="69" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="G134" s="69"/>
       <c r="H134" s="69"/>
@@ -12143,7 +12401,7 @@
       <c r="A141" s="42"/>
       <c r="D141" s="13"/>
       <c r="E141" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F141" s="13"/>
       <c r="G141" s="13"/>
@@ -12164,7 +12422,7 @@
       <c r="A142" s="42"/>
       <c r="D142" s="13"/>
       <c r="E142" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F142" s="13"/>
       <c r="G142" s="13"/>
@@ -12185,7 +12443,7 @@
       <c r="A143" s="42"/>
       <c r="D143" s="13"/>
       <c r="E143" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F143" s="13"/>
       <c r="G143" s="13"/>
@@ -12246,10 +12504,10 @@
     </row>
     <row r="149" spans="1:14">
       <c r="K149" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L149" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -12283,10 +12541,10 @@
     </row>
     <row r="159" spans="1:14">
       <c r="K159" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -12378,10 +12636,10 @@
       <c r="D173" s="1"/>
       <c r="E173" s="22"/>
       <c r="F173" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G173" s="66" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H173" s="23"/>
     </row>
@@ -12471,7 +12729,7 @@
     <row r="180" spans="4:19">
       <c r="D180" s="1"/>
       <c r="F180" s="67" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G180" s="68"/>
       <c r="H180" s="68"/>
@@ -12548,7 +12806,7 @@
       <c r="I184" s="68"/>
       <c r="J184" s="68"/>
       <c r="K184" s="69" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L184" s="69"/>
       <c r="M184" s="69"/>
@@ -12565,16 +12823,16 @@
       <c r="J185" s="68"/>
       <c r="K185" s="69"/>
       <c r="L185" s="68" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M185" s="69"/>
       <c r="N185" s="69"/>
       <c r="O185" s="68"/>
       <c r="P185" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q185" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="186" spans="4:19">
@@ -12586,14 +12844,14 @@
       <c r="J186" s="68"/>
       <c r="K186" s="68"/>
       <c r="L186" s="67" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="M186" s="68"/>
       <c r="N186" s="68"/>
       <c r="O186" s="68"/>
       <c r="P186" s="13"/>
       <c r="Q186" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="R186" s="13"/>
     </row>
@@ -12685,7 +12943,7 @@
     <row r="192" spans="4:19">
       <c r="D192" s="1"/>
       <c r="F192" s="67" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G192" s="68"/>
       <c r="H192" s="68"/>
@@ -12701,10 +12959,10 @@
       <c r="R192" s="13"/>
       <c r="S192" s="13"/>
     </row>
-    <row r="193" spans="1:22">
+    <row r="193" spans="1:25">
       <c r="D193" s="1"/>
       <c r="F193" s="67" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G193" s="68"/>
       <c r="H193" s="68"/>
@@ -12720,10 +12978,10 @@
       <c r="R193" s="13"/>
       <c r="S193" s="13"/>
     </row>
-    <row r="194" spans="1:22">
+    <row r="194" spans="1:25">
       <c r="D194" s="1"/>
       <c r="F194" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G194" s="24"/>
       <c r="H194" s="24"/>
@@ -12739,10 +12997,10 @@
       <c r="R194" s="13"/>
       <c r="S194" s="13"/>
     </row>
-    <row r="195" spans="1:22">
+    <row r="195" spans="1:25">
       <c r="D195" s="1"/>
       <c r="F195" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G195" s="24"/>
       <c r="H195" s="24"/>
@@ -12758,11 +13016,11 @@
       <c r="R195" s="13"/>
       <c r="S195" s="13"/>
     </row>
-    <row r="196" spans="1:22">
+    <row r="196" spans="1:25">
       <c r="D196" s="1"/>
       <c r="E196" s="13"/>
       <c r="F196" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G196" s="24"/>
       <c r="H196" s="24"/>
@@ -12778,7 +13036,7 @@
       <c r="R196" s="13"/>
       <c r="S196" s="13"/>
     </row>
-    <row r="197" spans="1:22">
+    <row r="197" spans="1:25">
       <c r="D197" s="1"/>
       <c r="F197" s="24"/>
       <c r="G197" s="24"/>
@@ -12795,124 +13053,120 @@
       <c r="R197" s="13"/>
       <c r="S197" s="13"/>
     </row>
-    <row r="198" spans="1:22">
+    <row r="198" spans="1:25">
       <c r="A198" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="F198" s="67" t="s">
-        <v>315</v>
-      </c>
-      <c r="G198" s="68"/>
-      <c r="H198" s="68"/>
-      <c r="I198" s="68"/>
-      <c r="J198" s="68"/>
-      <c r="K198" s="68"/>
-      <c r="L198" s="68"/>
-      <c r="M198" s="68"/>
-      <c r="N198" s="68"/>
-      <c r="O198" s="68"/>
-      <c r="P198" s="68"/>
-      <c r="Q198" s="68"/>
-      <c r="R198" s="69"/>
+      <c r="F198" s="108" t="s">
+        <v>338</v>
+      </c>
+      <c r="G198" s="111"/>
+      <c r="H198" s="111"/>
+      <c r="I198" s="111"/>
+      <c r="J198" s="111"/>
+      <c r="K198" s="111"/>
+      <c r="L198" s="111"/>
+      <c r="M198" s="111"/>
+      <c r="N198" s="111"/>
+      <c r="O198" s="111"/>
+      <c r="P198" s="111"/>
+      <c r="Q198" s="111"/>
+      <c r="R198" s="78"/>
       <c r="S198" s="13"/>
     </row>
-    <row r="199" spans="1:22">
+    <row r="199" spans="1:25">
       <c r="A199" s="41"/>
-      <c r="F199" s="67"/>
-      <c r="G199" s="68"/>
-      <c r="H199" s="68"/>
-      <c r="I199" s="68"/>
-      <c r="J199" s="68"/>
-      <c r="K199" s="68"/>
-      <c r="L199" s="68"/>
-      <c r="M199" s="68"/>
-      <c r="N199" s="68"/>
-      <c r="O199" s="68"/>
-      <c r="P199" s="68"/>
-      <c r="Q199" s="68"/>
-      <c r="R199" s="69"/>
+      <c r="F199" s="112"/>
+      <c r="G199" s="111"/>
+      <c r="H199" s="111"/>
+      <c r="I199" s="111"/>
+      <c r="J199" s="111"/>
+      <c r="K199" s="111"/>
+      <c r="L199" s="111"/>
+      <c r="M199" s="111"/>
+      <c r="N199" s="111"/>
+      <c r="O199" s="111"/>
+      <c r="P199" s="111"/>
+      <c r="Q199" s="111"/>
+      <c r="R199" s="78"/>
       <c r="S199" s="13"/>
     </row>
-    <row r="200" spans="1:22">
+    <row r="200" spans="1:25">
       <c r="A200" s="41"/>
-      <c r="F200" s="68"/>
-      <c r="G200" s="68"/>
-      <c r="H200" s="68"/>
-      <c r="I200" s="68"/>
-      <c r="J200" s="68"/>
-      <c r="K200" s="68"/>
-      <c r="L200" s="68"/>
-      <c r="M200" s="68"/>
-      <c r="N200" s="68"/>
-      <c r="O200" s="68"/>
-      <c r="P200" s="68"/>
-      <c r="Q200" s="68"/>
-      <c r="R200" s="69"/>
+      <c r="F200" s="112"/>
+      <c r="G200" s="111"/>
+      <c r="H200" s="111"/>
+      <c r="I200" s="111"/>
+      <c r="J200" s="111"/>
+      <c r="K200" s="107" t="s">
+        <v>339</v>
+      </c>
+      <c r="L200" s="113"/>
+      <c r="M200" s="113"/>
+      <c r="N200" s="111"/>
+      <c r="O200" s="111"/>
+      <c r="P200" s="111"/>
+      <c r="Q200" s="111"/>
+      <c r="R200" s="78"/>
       <c r="S200" s="13"/>
     </row>
-    <row r="201" spans="1:22">
+    <row r="201" spans="1:25">
       <c r="A201" s="41"/>
-      <c r="F201" s="68"/>
-      <c r="G201" s="67" t="s">
-        <v>306</v>
-      </c>
-      <c r="H201" s="68"/>
-      <c r="I201" s="68"/>
-      <c r="J201" s="68"/>
-      <c r="K201" s="68"/>
-      <c r="L201" s="68"/>
-      <c r="M201" s="68"/>
-      <c r="N201" s="76" t="s">
-        <v>329</v>
-      </c>
-      <c r="O201" s="68"/>
-      <c r="P201" s="68"/>
-      <c r="Q201" s="68"/>
-      <c r="R201" s="69"/>
+      <c r="F201" s="112"/>
+      <c r="G201" s="111"/>
+      <c r="H201" s="111"/>
+      <c r="I201" s="111"/>
+      <c r="J201" s="111"/>
+      <c r="K201" s="113"/>
+      <c r="L201" s="113"/>
+      <c r="M201" s="113"/>
+      <c r="N201" s="111"/>
+      <c r="O201" s="111"/>
+      <c r="P201" s="111"/>
+      <c r="Q201" s="111"/>
+      <c r="R201" s="78"/>
       <c r="S201" s="13"/>
     </row>
-    <row r="202" spans="1:22">
+    <row r="202" spans="1:25">
       <c r="A202" s="41"/>
-      <c r="F202" s="24"/>
-      <c r="G202" s="24"/>
-      <c r="H202" s="24"/>
-      <c r="I202" s="24"/>
-      <c r="J202" s="24"/>
-      <c r="K202" s="24"/>
-      <c r="L202" s="24"/>
-      <c r="M202" s="24"/>
-      <c r="N202" s="67" t="s">
-        <v>316</v>
-      </c>
-      <c r="O202" s="78" t="s">
-        <v>352</v>
-      </c>
-      <c r="P202" s="78"/>
-      <c r="Q202" s="78"/>
-      <c r="R202" s="69"/>
+      <c r="F202" s="111"/>
+      <c r="G202" s="107"/>
+      <c r="H202" s="111"/>
+      <c r="I202" s="111"/>
+      <c r="J202" s="111"/>
+      <c r="K202" s="107" t="s">
+        <v>340</v>
+      </c>
+      <c r="L202" s="113"/>
+      <c r="M202" s="113"/>
+      <c r="N202" s="111"/>
+      <c r="O202" s="111"/>
+      <c r="P202" s="111"/>
+      <c r="Q202" s="111"/>
+      <c r="R202" s="13"/>
       <c r="S202" s="13"/>
     </row>
-    <row r="203" spans="1:22">
+    <row r="203" spans="1:25">
       <c r="A203" s="41"/>
       <c r="F203" s="24"/>
       <c r="H203" s="24"/>
       <c r="I203" s="24"/>
       <c r="J203" s="24"/>
-      <c r="K203" s="24"/>
-      <c r="L203" s="24"/>
+      <c r="K203" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="L203" s="79" t="s">
+        <v>342</v>
+      </c>
       <c r="M203" s="24"/>
       <c r="N203" s="24"/>
-      <c r="O203" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="P203" s="24" t="s">
-        <v>318</v>
-      </c>
+      <c r="O203" s="24"/>
+      <c r="P203" s="24"/>
       <c r="Q203" s="24"/>
       <c r="R203" s="13"/>
       <c r="S203" s="13"/>
     </row>
-    <row r="204" spans="1:22">
+    <row r="204" spans="1:25">
       <c r="A204" s="41"/>
       <c r="F204" s="24"/>
       <c r="H204" s="24"/>
@@ -12922,18 +13176,13 @@
       <c r="L204" s="24"/>
       <c r="M204" s="24"/>
       <c r="N204" s="24"/>
-      <c r="O204" s="78" t="s">
-        <v>350</v>
-      </c>
-      <c r="P204" s="78"/>
-      <c r="Q204" s="78"/>
-      <c r="R204" s="69"/>
-      <c r="S204" s="69"/>
-      <c r="T204" s="69"/>
-      <c r="U204" s="69"/>
-      <c r="V204" s="69"/>
-    </row>
-    <row r="205" spans="1:22">
+      <c r="O204" s="24"/>
+      <c r="P204" s="24"/>
+      <c r="Q204" s="24"/>
+      <c r="R204" s="13"/>
+      <c r="S204" s="13"/>
+    </row>
+    <row r="205" spans="1:25">
       <c r="A205" s="41"/>
       <c r="F205" s="24"/>
       <c r="H205" s="24"/>
@@ -12943,20 +13192,17 @@
       <c r="L205" s="24"/>
       <c r="M205" s="24"/>
       <c r="N205" s="24"/>
-      <c r="O205" s="78" t="s">
-        <v>351</v>
-      </c>
-      <c r="P205" s="78"/>
-      <c r="Q205" s="78"/>
-      <c r="R205" s="69"/>
-      <c r="S205" s="69"/>
-      <c r="T205" s="69"/>
-      <c r="U205" s="69"/>
-      <c r="V205" s="69"/>
-    </row>
-    <row r="206" spans="1:22">
-      <c r="A206" s="41"/>
-      <c r="F206" s="24"/>
+      <c r="O205" s="24"/>
+      <c r="P205" s="24"/>
+      <c r="Q205" s="24"/>
+      <c r="R205" s="13"/>
+      <c r="S205" s="13"/>
+    </row>
+    <row r="206" spans="1:25">
+      <c r="F206" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="G206" s="24"/>
       <c r="H206" s="24"/>
       <c r="I206" s="24"/>
       <c r="J206" s="24"/>
@@ -12969,635 +13215,594 @@
       <c r="Q206" s="24"/>
       <c r="R206" s="13"/>
       <c r="S206" s="13"/>
-    </row>
-    <row r="207" spans="1:22">
-      <c r="A207" s="41"/>
-      <c r="F207" s="24"/>
-      <c r="H207" s="24"/>
-      <c r="I207" s="24"/>
-      <c r="J207" s="24"/>
-      <c r="K207" s="24"/>
-      <c r="L207" s="24"/>
-      <c r="M207" s="24"/>
-      <c r="N207" s="24"/>
-      <c r="O207" s="24"/>
-      <c r="P207" s="24"/>
-      <c r="Q207" s="24"/>
-      <c r="R207" s="13"/>
-      <c r="S207" s="13"/>
-    </row>
-    <row r="208" spans="1:22">
-      <c r="A208" s="41"/>
-      <c r="F208" s="24"/>
-      <c r="H208" s="24"/>
-      <c r="I208" s="24"/>
-      <c r="J208" s="24"/>
-      <c r="K208" s="24"/>
-      <c r="L208" s="24"/>
-      <c r="M208" s="24"/>
-      <c r="N208" s="24"/>
-      <c r="O208" s="24"/>
-      <c r="P208" s="24"/>
-      <c r="Q208" s="24"/>
-      <c r="R208" s="13"/>
-      <c r="S208" s="13"/>
-    </row>
-    <row r="209" spans="1:25">
-      <c r="A209" s="41"/>
-      <c r="F209" s="24"/>
-      <c r="H209" s="24"/>
-      <c r="I209" s="24"/>
-      <c r="J209" s="24"/>
-      <c r="K209" s="24"/>
-      <c r="L209" s="24"/>
-      <c r="M209" s="24"/>
-      <c r="N209" s="24"/>
-      <c r="O209" s="24"/>
-      <c r="P209" s="24"/>
-      <c r="Q209" s="24"/>
-      <c r="R209" s="13"/>
-      <c r="S209" s="13"/>
-    </row>
-    <row r="210" spans="1:25">
-      <c r="A210" s="41"/>
-      <c r="F210" s="24"/>
-      <c r="H210" s="24"/>
-      <c r="I210" s="24"/>
-      <c r="J210" s="24"/>
-      <c r="K210" s="24"/>
-      <c r="L210" s="24"/>
-      <c r="M210" s="24"/>
-      <c r="N210" s="24"/>
-      <c r="O210" s="24"/>
-      <c r="P210" s="24"/>
-      <c r="Q210" s="24"/>
-      <c r="R210" s="13"/>
-      <c r="S210" s="13"/>
-    </row>
-    <row r="211" spans="1:25">
-      <c r="A211" s="41"/>
-      <c r="F211" s="24"/>
-      <c r="H211" s="24"/>
-      <c r="I211" s="24"/>
-      <c r="J211" s="24"/>
-      <c r="K211" s="24"/>
-      <c r="L211" s="24"/>
-      <c r="M211" s="24"/>
-      <c r="N211" s="24"/>
-      <c r="O211" s="24"/>
-      <c r="P211" s="24"/>
-      <c r="Q211" s="24"/>
-      <c r="R211" s="13"/>
-      <c r="S211" s="13"/>
-    </row>
-    <row r="212" spans="1:25">
-      <c r="A212" s="41"/>
-      <c r="F212" s="24"/>
+      <c r="T206" s="13"/>
+      <c r="U206" s="13"/>
+      <c r="V206" s="13"/>
+      <c r="W206" s="13"/>
+      <c r="X206" s="13"/>
+      <c r="Y206" s="13"/>
+    </row>
+    <row r="207" spans="1:25">
+      <c r="F207" s="21"/>
+      <c r="G207" s="21"/>
+      <c r="H207" s="21"/>
+      <c r="I207" s="21"/>
+      <c r="J207" s="21"/>
+      <c r="K207" s="21"/>
+      <c r="L207" s="21"/>
+      <c r="M207" s="21"/>
+      <c r="N207" s="21"/>
+      <c r="O207" s="21"/>
+      <c r="P207" s="21"/>
+      <c r="Q207" s="21"/>
+    </row>
+    <row r="208" spans="1:25">
+      <c r="E208" s="48"/>
+      <c r="F208" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="210" spans="4:11">
+      <c r="E210" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F210" s="23"/>
+      <c r="G210" s="23"/>
+    </row>
+    <row r="211" spans="4:11">
+      <c r="E211" s="22"/>
+      <c r="F211" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G211" s="24"/>
+    </row>
+    <row r="212" spans="4:11">
+      <c r="E212" s="22"/>
+      <c r="F212" s="23" t="s">
+        <v>150</v>
+      </c>
       <c r="G212" s="24"/>
-      <c r="H212" s="24"/>
-      <c r="I212" s="24"/>
-      <c r="J212" s="24"/>
-      <c r="K212" s="24"/>
-      <c r="L212" s="24"/>
-      <c r="M212" s="24"/>
-      <c r="N212" s="24"/>
-      <c r="O212" s="24"/>
-      <c r="P212" s="24"/>
-      <c r="Q212" s="24"/>
-      <c r="R212" s="13"/>
-      <c r="S212" s="13"/>
-    </row>
-    <row r="213" spans="1:25">
-      <c r="A213" s="41"/>
-      <c r="F213" s="24"/>
-      <c r="G213" s="24"/>
-      <c r="H213" s="24"/>
-      <c r="I213" s="24"/>
-      <c r="J213" s="24"/>
-      <c r="K213" s="24"/>
-      <c r="L213" s="24"/>
-      <c r="M213" s="24"/>
-      <c r="N213" s="24"/>
-      <c r="O213" s="24"/>
-      <c r="P213" s="24"/>
-      <c r="Q213" s="24"/>
-      <c r="R213" s="13"/>
-      <c r="S213" s="13"/>
-    </row>
-    <row r="214" spans="1:25">
-      <c r="A214" s="41"/>
-      <c r="F214" s="24"/>
-      <c r="G214" s="24"/>
-      <c r="H214" s="24"/>
-      <c r="I214" s="24"/>
-      <c r="J214" s="24"/>
-      <c r="K214" s="24"/>
-      <c r="L214" s="24"/>
-      <c r="M214" s="24"/>
-      <c r="N214" s="24"/>
-      <c r="O214" s="24"/>
-      <c r="P214" s="24"/>
-      <c r="Q214" s="24"/>
-      <c r="R214" s="13"/>
-      <c r="S214" s="13"/>
-    </row>
-    <row r="215" spans="1:25">
-      <c r="F215" s="63" t="s">
-        <v>319</v>
-      </c>
-      <c r="G215" s="24"/>
-      <c r="H215" s="24"/>
-      <c r="I215" s="24"/>
-      <c r="J215" s="24"/>
-      <c r="K215" s="24"/>
-      <c r="L215" s="24"/>
-      <c r="M215" s="24"/>
-      <c r="N215" s="24"/>
-      <c r="O215" s="24"/>
-      <c r="P215" s="24"/>
-      <c r="Q215" s="24"/>
-      <c r="R215" s="13"/>
-      <c r="S215" s="13"/>
-      <c r="T215" s="13"/>
-      <c r="U215" s="13"/>
-      <c r="V215" s="13"/>
-      <c r="W215" s="13"/>
-      <c r="X215" s="13"/>
-      <c r="Y215" s="13"/>
-    </row>
-    <row r="216" spans="1:25">
-      <c r="F216" s="21"/>
-      <c r="G216" s="21"/>
-      <c r="H216" s="21"/>
-      <c r="I216" s="21"/>
-      <c r="J216" s="21"/>
-      <c r="K216" s="21"/>
-      <c r="L216" s="21"/>
-      <c r="M216" s="21"/>
-      <c r="N216" s="21"/>
-      <c r="O216" s="21"/>
-      <c r="P216" s="21"/>
-      <c r="Q216" s="21"/>
-    </row>
-    <row r="217" spans="1:25">
-      <c r="E217" s="48"/>
-      <c r="F217" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="219" spans="1:25">
-      <c r="E219" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F219" s="23"/>
-      <c r="G219" s="23"/>
-    </row>
-    <row r="220" spans="1:25">
-      <c r="E220" s="22"/>
-      <c r="F220" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="G220" s="24"/>
-    </row>
-    <row r="221" spans="1:25">
-      <c r="E221" s="22"/>
-      <c r="F221" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="G221" s="24"/>
-    </row>
-    <row r="222" spans="1:25">
-      <c r="E222" s="22" t="s">
+    </row>
+    <row r="213" spans="4:11">
+      <c r="E213" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="F222" s="23"/>
-      <c r="G222" s="23"/>
-    </row>
-    <row r="223" spans="1:25">
-      <c r="E223" s="21"/>
-      <c r="F223" s="23" t="s">
+      <c r="F213" s="23"/>
+      <c r="G213" s="23"/>
+    </row>
+    <row r="214" spans="4:11">
+      <c r="E214" s="21"/>
+      <c r="F214" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="G223" s="23" t="s">
+      <c r="G214" s="23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="224" spans="1:25">
-      <c r="E224" s="21"/>
-      <c r="F224" s="23" t="s">
+    <row r="215" spans="4:11">
+      <c r="E215" s="21"/>
+      <c r="F215" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="G224" s="28" t="s">
+      <c r="G215" s="28" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="225" spans="4:11">
-      <c r="E225" s="21"/>
-      <c r="F225" s="23"/>
-      <c r="G225" s="24"/>
-    </row>
-    <row r="226" spans="4:11">
-      <c r="D226" s="1" t="s">
+    <row r="216" spans="4:11">
+      <c r="E216" s="21"/>
+      <c r="F216" s="23"/>
+      <c r="G216" s="24"/>
+    </row>
+    <row r="217" spans="4:11">
+      <c r="D217" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="228" spans="4:11">
-      <c r="K228" s="2" t="s">
+    <row r="219" spans="4:11">
+      <c r="K219" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="229" spans="4:11">
-      <c r="D229" s="2" t="s">
+    <row r="220" spans="4:11">
+      <c r="D220" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K229" s="2" t="s">
+      <c r="K220" s="2" t="s">
         <v>129</v>
       </c>
     </row>
+    <row r="223" spans="4:11">
+      <c r="D223" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="227" spans="4:11">
+      <c r="K227" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
     <row r="232" spans="4:11">
-      <c r="D232" s="2" t="s">
+      <c r="H232" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="234" spans="4:11">
+      <c r="E234" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G234" s="69"/>
+      <c r="H234" s="69"/>
+    </row>
+    <row r="235" spans="4:11">
+      <c r="E235" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="236" spans="4:11">
+      <c r="D236" s="48"/>
+      <c r="E236" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="237" spans="4:11">
+      <c r="D237" s="13"/>
+      <c r="F237" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="238" spans="4:11">
+      <c r="D238" s="48"/>
+      <c r="E238" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="F238" s="21"/>
+      <c r="G238" s="21"/>
+      <c r="H238" s="21"/>
+      <c r="I238" s="21"/>
+      <c r="J238" s="21"/>
+    </row>
+    <row r="239" spans="4:11">
+      <c r="D239" s="13"/>
+      <c r="E239" s="21"/>
+      <c r="F239" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G239" s="21"/>
+      <c r="H239" s="21"/>
+      <c r="I239" s="21"/>
+      <c r="J239" s="21"/>
+    </row>
+    <row r="240" spans="4:11">
+      <c r="D240" s="13"/>
+      <c r="E240" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="F240" s="21"/>
+      <c r="G240" s="21"/>
+      <c r="H240" s="21"/>
+      <c r="I240" s="21"/>
+      <c r="J240" s="21"/>
+    </row>
+    <row r="241" spans="1:17">
+      <c r="D241" s="13"/>
+      <c r="E241" s="21"/>
+      <c r="F241" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G241" s="21"/>
+      <c r="H241" s="21"/>
+      <c r="I241" s="21"/>
+      <c r="J241" s="21"/>
+    </row>
+    <row r="242" spans="1:17">
+      <c r="D242" s="48"/>
+      <c r="E242" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="236" spans="4:11">
-      <c r="K236" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="241" spans="1:12">
-      <c r="H241" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="243" spans="1:12">
-      <c r="E243" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G243" s="69"/>
-      <c r="H243" s="69"/>
-    </row>
-    <row r="244" spans="1:12">
-      <c r="E244" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="245" spans="1:12">
-      <c r="D245" s="48"/>
-      <c r="E245" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12">
-      <c r="D246" s="13"/>
-      <c r="F246" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="247" spans="1:12">
-      <c r="D247" s="48"/>
-      <c r="E247" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="F247" s="21"/>
-      <c r="G247" s="21"/>
-      <c r="H247" s="21"/>
-      <c r="I247" s="21"/>
-      <c r="J247" s="21"/>
-    </row>
-    <row r="248" spans="1:12">
-      <c r="D248" s="13"/>
-      <c r="E248" s="21"/>
-      <c r="F248" s="21" t="s">
-        <v>136</v>
-      </c>
+    <row r="243" spans="1:17">
+      <c r="D243" s="13"/>
+      <c r="F243" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G243" s="21"/>
+      <c r="H243" s="21"/>
+      <c r="I243" s="21"/>
+      <c r="J243" s="21"/>
+      <c r="K243" s="21"/>
+    </row>
+    <row r="244" spans="1:17">
+      <c r="F244" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G244" s="21"/>
+      <c r="H244" s="21"/>
+      <c r="I244" s="21"/>
+      <c r="J244" s="21"/>
+      <c r="K244" s="21"/>
+    </row>
+    <row r="245" spans="1:17">
+      <c r="F245" s="70" t="s">
+        <v>314</v>
+      </c>
+      <c r="G245" s="21"/>
+      <c r="H245" s="21"/>
+      <c r="I245" s="39"/>
+      <c r="J245" s="24"/>
+      <c r="K245" s="39"/>
+      <c r="L245" s="13"/>
+    </row>
+    <row r="246" spans="1:17">
+      <c r="A246" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F246" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G246" s="13"/>
+      <c r="H246" s="13"/>
+      <c r="I246" s="13"/>
+      <c r="J246" s="13"/>
+      <c r="K246" s="13"/>
+      <c r="L246" s="13"/>
+    </row>
+    <row r="247" spans="1:17">
+      <c r="E247" s="13"/>
+      <c r="F247" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="G247" s="13"/>
+      <c r="H247" s="13"/>
+      <c r="I247" s="13"/>
+    </row>
+    <row r="248" spans="1:17">
+      <c r="D248" s="48"/>
+      <c r="E248" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F248" s="21"/>
       <c r="G248" s="21"/>
       <c r="H248" s="21"/>
       <c r="I248" s="21"/>
       <c r="J248" s="21"/>
     </row>
-    <row r="249" spans="1:12">
-      <c r="D249" s="13"/>
-      <c r="E249" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="F249" s="21"/>
-      <c r="G249" s="21"/>
-      <c r="H249" s="21"/>
-      <c r="I249" s="21"/>
-      <c r="J249" s="21"/>
-    </row>
-    <row r="250" spans="1:12">
-      <c r="D250" s="13"/>
-      <c r="E250" s="21"/>
-      <c r="F250" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G250" s="21"/>
-      <c r="H250" s="21"/>
-      <c r="I250" s="21"/>
-      <c r="J250" s="21"/>
-    </row>
-    <row r="251" spans="1:12">
-      <c r="D251" s="48"/>
-      <c r="E251" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="252" spans="1:12">
-      <c r="D252" s="13"/>
-      <c r="F252" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="G252" s="21"/>
-      <c r="H252" s="21"/>
-      <c r="I252" s="21"/>
-      <c r="J252" s="21"/>
-      <c r="K252" s="21"/>
-    </row>
-    <row r="253" spans="1:12">
-      <c r="F253" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="G253" s="21"/>
-      <c r="H253" s="21"/>
-      <c r="I253" s="21"/>
-      <c r="J253" s="21"/>
-      <c r="K253" s="21"/>
-    </row>
-    <row r="254" spans="1:12">
-      <c r="F254" s="70" t="s">
-        <v>320</v>
-      </c>
-      <c r="G254" s="21"/>
-      <c r="H254" s="21"/>
-      <c r="I254" s="39"/>
-      <c r="J254" s="24"/>
-      <c r="K254" s="39"/>
+    <row r="249" spans="1:17">
+      <c r="E249" s="24"/>
+      <c r="F249" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G249" s="24"/>
+      <c r="H249" s="24"/>
+      <c r="I249" s="24"/>
+      <c r="J249" s="24"/>
+      <c r="K249" s="13"/>
+      <c r="L249" s="13"/>
+      <c r="M249" s="13"/>
+      <c r="N249" s="13"/>
+      <c r="O249" s="13"/>
+      <c r="P249" s="13"/>
+      <c r="Q249" s="13"/>
+    </row>
+    <row r="250" spans="1:17">
+      <c r="E250" s="24"/>
+      <c r="F250" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="G250" s="24"/>
+      <c r="H250" s="24"/>
+      <c r="I250" s="24"/>
+      <c r="J250" s="24"/>
+      <c r="K250" s="13"/>
+      <c r="L250" s="13"/>
+      <c r="M250" s="13"/>
+      <c r="N250" s="13"/>
+      <c r="O250" s="13"/>
+      <c r="P250" s="13"/>
+      <c r="Q250" s="13"/>
+    </row>
+    <row r="251" spans="1:17">
+      <c r="A251" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E251" s="24"/>
+      <c r="F251" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="G251" s="24"/>
+      <c r="H251" s="24"/>
+      <c r="I251" s="24"/>
+      <c r="J251" s="24"/>
+      <c r="K251" s="13"/>
+      <c r="L251" s="13"/>
+      <c r="M251" s="13"/>
+      <c r="N251" s="13"/>
+      <c r="O251" s="13"/>
+      <c r="P251" s="13"/>
+      <c r="Q251" s="13"/>
+    </row>
+    <row r="252" spans="1:17">
+      <c r="A252" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="E252" s="24"/>
+      <c r="F252" s="24"/>
+      <c r="G252" s="24"/>
+      <c r="H252" s="24"/>
+      <c r="I252" s="24"/>
+      <c r="J252" s="24"/>
+      <c r="K252" s="13"/>
+      <c r="L252" s="13"/>
+      <c r="M252" s="13"/>
+      <c r="N252" s="13"/>
+      <c r="O252" s="13"/>
+      <c r="P252" s="13"/>
+      <c r="Q252" s="13"/>
+    </row>
+    <row r="253" spans="1:17">
+      <c r="E253" s="24"/>
+      <c r="F253" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="G253" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="H253" s="24"/>
+      <c r="I253" s="24"/>
+      <c r="J253" s="24"/>
+      <c r="K253" s="13"/>
+      <c r="L253" s="13"/>
+      <c r="M253" s="13"/>
+      <c r="N253" s="13"/>
+      <c r="O253" s="13"/>
+      <c r="P253" s="13"/>
+      <c r="Q253" s="13"/>
+    </row>
+    <row r="254" spans="1:17">
+      <c r="A254" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E254" s="13"/>
+      <c r="F254" s="13"/>
+      <c r="G254" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H254" s="13"/>
+      <c r="I254" s="13"/>
+      <c r="J254" s="13"/>
+      <c r="K254" s="13"/>
       <c r="L254" s="13"/>
-    </row>
-    <row r="255" spans="1:12">
-      <c r="A255" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F255" s="13" t="s">
-        <v>224</v>
-      </c>
+      <c r="M254" s="13"/>
+      <c r="N254" s="13"/>
+      <c r="O254" s="13"/>
+      <c r="P254" s="13"/>
+      <c r="Q254" s="13"/>
+    </row>
+    <row r="255" spans="1:17">
+      <c r="E255" s="13"/>
+      <c r="F255" s="13"/>
       <c r="G255" s="13"/>
       <c r="H255" s="13"/>
       <c r="I255" s="13"/>
       <c r="J255" s="13"/>
       <c r="K255" s="13"/>
       <c r="L255" s="13"/>
-    </row>
-    <row r="256" spans="1:12">
+      <c r="M255" s="13"/>
+      <c r="N255" s="13"/>
+      <c r="O255" s="13"/>
+      <c r="P255" s="13"/>
+      <c r="Q255" s="13"/>
+    </row>
+    <row r="256" spans="1:17">
       <c r="E256" s="13"/>
-      <c r="F256" s="13" t="s">
-        <v>280</v>
-      </c>
+      <c r="F256" s="13"/>
       <c r="G256" s="13"/>
       <c r="H256" s="13"/>
       <c r="I256" s="13"/>
+      <c r="J256" s="13"/>
+      <c r="K256" s="13"/>
+      <c r="L256" s="13"/>
+      <c r="M256" s="13"/>
+      <c r="N256" s="13"/>
+      <c r="O256" s="13"/>
+      <c r="P256" s="13"/>
+      <c r="Q256" s="13"/>
     </row>
     <row r="257" spans="1:17">
-      <c r="D257" s="48"/>
-      <c r="E257" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="F257" s="21"/>
-      <c r="G257" s="21"/>
-      <c r="H257" s="21"/>
-      <c r="I257" s="21"/>
-      <c r="J257" s="21"/>
+      <c r="E257" s="13"/>
+      <c r="F257" s="13"/>
+      <c r="G257" s="13"/>
+      <c r="H257" s="13"/>
+      <c r="I257" s="13"/>
+      <c r="J257" s="13"/>
+      <c r="K257" s="13"/>
+      <c r="L257" s="13"/>
+      <c r="M257" s="13"/>
+      <c r="N257" s="13"/>
+      <c r="O257" s="13"/>
+      <c r="P257" s="13"/>
+      <c r="Q257" s="13"/>
     </row>
     <row r="258" spans="1:17">
-      <c r="E258" s="24"/>
+      <c r="A258" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E258" s="13"/>
       <c r="F258" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G258" s="24"/>
+        <v>57</v>
+      </c>
+      <c r="G258" s="24" t="s">
+        <v>228</v>
+      </c>
       <c r="H258" s="24"/>
       <c r="I258" s="24"/>
       <c r="J258" s="24"/>
-      <c r="K258" s="13"/>
-      <c r="L258" s="13"/>
-      <c r="M258" s="13"/>
-      <c r="N258" s="13"/>
+      <c r="K258" s="24"/>
+      <c r="L258" s="24"/>
+      <c r="M258" s="24"/>
+      <c r="N258" s="24"/>
       <c r="O258" s="13"/>
       <c r="P258" s="13"/>
       <c r="Q258" s="13"/>
     </row>
     <row r="259" spans="1:17">
-      <c r="E259" s="24"/>
-      <c r="F259" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="G259" s="24"/>
-      <c r="H259" s="24"/>
-      <c r="I259" s="24"/>
-      <c r="J259" s="24"/>
-      <c r="K259" s="13"/>
-      <c r="L259" s="13"/>
-      <c r="M259" s="13"/>
-      <c r="N259" s="13"/>
-      <c r="O259" s="13"/>
-      <c r="P259" s="13"/>
-      <c r="Q259" s="13"/>
+      <c r="A259" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="G259" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H259" s="21"/>
+      <c r="I259" s="21"/>
+      <c r="J259" s="21"/>
+      <c r="K259" s="21"/>
     </row>
     <row r="260" spans="1:17">
-      <c r="A260" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E260" s="24"/>
-      <c r="F260" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G260" s="24"/>
-      <c r="H260" s="24"/>
-      <c r="I260" s="24"/>
-      <c r="J260" s="24"/>
-      <c r="K260" s="13"/>
-      <c r="L260" s="13"/>
-      <c r="M260" s="13"/>
-      <c r="N260" s="13"/>
-      <c r="O260" s="13"/>
-      <c r="P260" s="13"/>
-      <c r="Q260" s="13"/>
+      <c r="A260" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="G260" s="21"/>
+      <c r="H260" s="21"/>
+      <c r="I260" s="21"/>
+      <c r="J260" s="21"/>
+      <c r="K260" s="21"/>
     </row>
     <row r="261" spans="1:17">
-      <c r="A261" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="E261" s="24"/>
-      <c r="F261" s="24"/>
+      <c r="F261" s="24" t="s">
+        <v>267</v>
+      </c>
       <c r="G261" s="24"/>
       <c r="H261" s="24"/>
-      <c r="I261" s="24"/>
-      <c r="J261" s="24"/>
-      <c r="K261" s="13"/>
-      <c r="L261" s="13"/>
-      <c r="M261" s="13"/>
-      <c r="N261" s="13"/>
-      <c r="O261" s="13"/>
-      <c r="P261" s="13"/>
-      <c r="Q261" s="13"/>
+      <c r="I261" s="13"/>
     </row>
     <row r="262" spans="1:17">
-      <c r="E262" s="24"/>
-      <c r="F262" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="G262" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="H262" s="24"/>
-      <c r="I262" s="24"/>
-      <c r="J262" s="24"/>
-      <c r="K262" s="13"/>
-      <c r="L262" s="13"/>
-      <c r="M262" s="13"/>
-      <c r="N262" s="13"/>
-      <c r="O262" s="13"/>
-      <c r="P262" s="13"/>
-      <c r="Q262" s="13"/>
+      <c r="E262" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F262" s="21"/>
+      <c r="G262" s="21"/>
+      <c r="H262" s="21"/>
+      <c r="I262" s="21"/>
+      <c r="J262" s="21"/>
+      <c r="K262" s="21"/>
+      <c r="L262" s="21"/>
+      <c r="M262" s="21"/>
+      <c r="N262" s="21"/>
     </row>
     <row r="263" spans="1:17">
-      <c r="A263" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E263" s="13"/>
-      <c r="F263" s="13"/>
-      <c r="G263" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="H263" s="13"/>
-      <c r="I263" s="13"/>
-      <c r="J263" s="13"/>
-      <c r="K263" s="13"/>
-      <c r="L263" s="13"/>
-      <c r="M263" s="13"/>
-      <c r="N263" s="13"/>
-      <c r="O263" s="13"/>
-      <c r="P263" s="13"/>
-      <c r="Q263" s="13"/>
+      <c r="E263" s="32"/>
+      <c r="F263" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G263" s="23"/>
+      <c r="H263" s="23"/>
+      <c r="I263" s="23"/>
+      <c r="J263" s="23"/>
     </row>
     <row r="264" spans="1:17">
-      <c r="E264" s="13"/>
-      <c r="F264" s="13"/>
-      <c r="G264" s="13"/>
-      <c r="H264" s="13"/>
-      <c r="I264" s="13"/>
-      <c r="J264" s="13"/>
-      <c r="K264" s="13"/>
-      <c r="L264" s="13"/>
-      <c r="M264" s="13"/>
-      <c r="N264" s="13"/>
-      <c r="O264" s="13"/>
-      <c r="P264" s="13"/>
-      <c r="Q264" s="13"/>
+      <c r="E264" s="32"/>
+      <c r="F264" s="22"/>
+      <c r="G264" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H264" s="23"/>
+      <c r="I264" s="23"/>
+      <c r="J264" s="23"/>
     </row>
     <row r="265" spans="1:17">
-      <c r="E265" s="13"/>
-      <c r="F265" s="13"/>
-      <c r="G265" s="13"/>
-      <c r="H265" s="13"/>
-      <c r="I265" s="13"/>
-      <c r="J265" s="13"/>
-      <c r="K265" s="13"/>
-      <c r="L265" s="13"/>
-      <c r="M265" s="13"/>
-      <c r="N265" s="13"/>
-      <c r="O265" s="13"/>
-      <c r="P265" s="13"/>
-      <c r="Q265" s="13"/>
+      <c r="E265" s="32"/>
+      <c r="F265" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G265" s="23"/>
+      <c r="H265" s="23"/>
+      <c r="I265" s="23"/>
+      <c r="J265" s="23"/>
+      <c r="K265" s="23"/>
+      <c r="N265" s="21"/>
     </row>
     <row r="266" spans="1:17">
-      <c r="E266" s="13"/>
-      <c r="F266" s="13"/>
-      <c r="G266" s="13"/>
-      <c r="H266" s="13"/>
-      <c r="I266" s="13"/>
-      <c r="J266" s="13"/>
-      <c r="K266" s="13"/>
-      <c r="L266" s="13"/>
-      <c r="M266" s="13"/>
-      <c r="N266" s="13"/>
-      <c r="O266" s="13"/>
-      <c r="P266" s="13"/>
-      <c r="Q266" s="13"/>
+      <c r="E266" s="32"/>
+      <c r="F266" s="22"/>
+      <c r="G266" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H266" s="23"/>
+      <c r="I266" s="23"/>
+      <c r="J266" s="23"/>
+      <c r="K266" s="23"/>
+      <c r="N266" s="21"/>
     </row>
     <row r="267" spans="1:17">
-      <c r="A267" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="E267" s="13"/>
-      <c r="F267" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G267" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="H267" s="24"/>
-      <c r="I267" s="24"/>
-      <c r="J267" s="24"/>
-      <c r="K267" s="24"/>
-      <c r="L267" s="24"/>
-      <c r="M267" s="24"/>
-      <c r="N267" s="24"/>
-      <c r="O267" s="13"/>
-      <c r="P267" s="13"/>
-      <c r="Q267" s="13"/>
+      <c r="E267" s="32"/>
+      <c r="F267" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G267" s="23"/>
+      <c r="H267" s="23"/>
+      <c r="I267" s="23"/>
+      <c r="J267" s="23"/>
+      <c r="K267" s="23"/>
+      <c r="N267" s="21"/>
     </row>
     <row r="268" spans="1:17">
-      <c r="A268" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="G268" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="H268" s="21"/>
-      <c r="I268" s="21"/>
-      <c r="J268" s="21"/>
-      <c r="K268" s="21"/>
-    </row>
-    <row r="269" spans="1:17">
-      <c r="A269" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="G269" s="21"/>
-      <c r="H269" s="21"/>
-      <c r="I269" s="21"/>
-      <c r="J269" s="21"/>
-      <c r="K269" s="21"/>
+      <c r="E268" s="32"/>
+      <c r="F268" s="22"/>
+      <c r="G268" s="87" t="s">
+        <v>344</v>
+      </c>
+      <c r="H268" s="89"/>
+      <c r="I268" s="89"/>
+      <c r="J268" s="89"/>
+      <c r="K268" s="89"/>
+      <c r="L268" s="85"/>
+      <c r="N268" s="21"/>
+    </row>
+    <row r="269" spans="1:17" s="86" customFormat="1">
+      <c r="E269" s="90"/>
+      <c r="F269" s="88"/>
+      <c r="G269" s="87" t="s">
+        <v>345</v>
+      </c>
+      <c r="H269" s="89"/>
+      <c r="I269" s="89"/>
+      <c r="J269" s="89"/>
+      <c r="K269" s="89"/>
+      <c r="L269" s="85"/>
+      <c r="N269" s="21"/>
     </row>
     <row r="270" spans="1:17">
-      <c r="F270" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="G270" s="24"/>
-      <c r="H270" s="24"/>
-      <c r="I270" s="13"/>
+      <c r="F270" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G270" s="23"/>
+      <c r="H270" s="23"/>
+      <c r="I270" s="23"/>
+      <c r="J270" s="23"/>
+      <c r="K270" s="23"/>
+      <c r="N270" s="21"/>
     </row>
     <row r="271" spans="1:17">
-      <c r="E271" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="F271" s="21"/>
-      <c r="G271" s="21"/>
-      <c r="H271" s="21"/>
-      <c r="I271" s="21"/>
-      <c r="J271" s="21"/>
-      <c r="K271" s="21"/>
-      <c r="L271" s="21"/>
-      <c r="M271" s="21"/>
+      <c r="E271" s="32"/>
+      <c r="F271" s="22"/>
+      <c r="G271" s="83" t="s">
+        <v>343</v>
+      </c>
+      <c r="H271" s="81"/>
+      <c r="I271" s="81"/>
+      <c r="J271" s="81"/>
+      <c r="K271" s="81"/>
+      <c r="L271" s="82"/>
       <c r="N271" s="21"/>
     </row>
     <row r="272" spans="1:17">
       <c r="E272" s="32"/>
-      <c r="F272" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G272" s="23"/>
-      <c r="H272" s="23"/>
+      <c r="F272" s="22"/>
+      <c r="G272" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="H272" s="66" t="s">
+        <v>318</v>
+      </c>
       <c r="I272" s="23"/>
       <c r="J272" s="23"/>
       <c r="K272" s="23"/>
@@ -13605,10 +13810,10 @@
     </row>
     <row r="273" spans="5:22">
       <c r="E273" s="32"/>
-      <c r="F273" s="22"/>
-      <c r="G273" s="23" t="s">
-        <v>48</v>
-      </c>
+      <c r="F273" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G273" s="23"/>
       <c r="H273" s="23"/>
       <c r="I273" s="23"/>
       <c r="J273" s="23"/>
@@ -13617,264 +13822,329 @@
     </row>
     <row r="274" spans="5:22">
       <c r="E274" s="32"/>
-      <c r="F274" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G274" s="23"/>
-      <c r="H274" s="23"/>
-      <c r="I274" s="23"/>
-      <c r="J274" s="23"/>
-      <c r="K274" s="23"/>
-      <c r="N274" s="21"/>
+      <c r="F274" s="14"/>
+      <c r="G274" s="97" t="s">
+        <v>349</v>
+      </c>
+      <c r="H274" s="97"/>
+      <c r="I274" s="97"/>
+      <c r="J274" s="97"/>
+      <c r="K274" s="97"/>
+      <c r="L274" s="97"/>
+      <c r="M274" s="97"/>
+      <c r="N274" s="97"/>
+      <c r="O274" s="97"/>
+      <c r="P274" s="96"/>
+      <c r="Q274" s="96"/>
+      <c r="R274" s="84"/>
+      <c r="S274" s="84"/>
+      <c r="T274" s="84"/>
+      <c r="U274" s="13"/>
+      <c r="V274" s="13"/>
     </row>
     <row r="275" spans="5:22">
       <c r="E275" s="32"/>
-      <c r="F275" s="22"/>
-      <c r="G275" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H275" s="23"/>
-      <c r="I275" s="23"/>
-      <c r="J275" s="23"/>
-      <c r="K275" s="23"/>
-      <c r="N275" s="21"/>
+      <c r="F275" s="58"/>
+      <c r="G275" s="97" t="s">
+        <v>348</v>
+      </c>
+      <c r="H275" s="97"/>
+      <c r="I275" s="97"/>
+      <c r="J275" s="97"/>
+      <c r="K275" s="97"/>
+      <c r="L275" s="97"/>
+      <c r="M275" s="97"/>
+      <c r="N275" s="97"/>
+      <c r="O275" s="97"/>
+      <c r="P275" s="96"/>
+      <c r="Q275" s="96"/>
+      <c r="R275" s="96"/>
+      <c r="S275" s="96"/>
+      <c r="T275" s="96"/>
+      <c r="U275" s="13"/>
+      <c r="V275" s="13"/>
     </row>
     <row r="276" spans="5:22">
       <c r="E276" s="32"/>
-      <c r="F276" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G276" s="23"/>
-      <c r="H276" s="23"/>
-      <c r="I276" s="23"/>
-      <c r="J276" s="23"/>
-      <c r="K276" s="23"/>
-      <c r="N276" s="21"/>
+      <c r="F276" s="48"/>
+      <c r="G276" s="97" t="s">
+        <v>346</v>
+      </c>
+      <c r="H276" s="97"/>
+      <c r="I276" s="97"/>
+      <c r="J276" s="97"/>
+      <c r="K276" s="97"/>
+      <c r="L276" s="97"/>
+      <c r="M276" s="97"/>
+      <c r="N276" s="97"/>
+      <c r="O276" s="97"/>
+      <c r="P276" s="84"/>
+      <c r="Q276" s="84"/>
+      <c r="R276" s="84"/>
+      <c r="S276" s="84"/>
+      <c r="T276" s="84"/>
+      <c r="U276" s="13"/>
+      <c r="V276" s="13"/>
     </row>
     <row r="277" spans="5:22">
       <c r="E277" s="32"/>
-      <c r="F277" s="22"/>
-      <c r="G277" s="69" t="s">
-        <v>327</v>
-      </c>
-      <c r="H277" s="71"/>
-      <c r="I277" s="71"/>
-      <c r="J277" s="71"/>
-      <c r="K277" s="23"/>
-      <c r="N277" s="21"/>
+      <c r="F277" s="48"/>
+      <c r="G277" s="96" t="s">
+        <v>347</v>
+      </c>
+      <c r="H277" s="97"/>
+      <c r="I277" s="97"/>
+      <c r="J277" s="97"/>
+      <c r="K277" s="97"/>
+      <c r="L277" s="97"/>
+      <c r="M277" s="97"/>
+      <c r="N277" s="97"/>
+      <c r="O277" s="97"/>
+      <c r="P277" s="84"/>
+      <c r="Q277" s="84"/>
+      <c r="R277" s="84"/>
+      <c r="S277" s="84"/>
+      <c r="T277" s="84"/>
+      <c r="U277" s="13"/>
+      <c r="V277" s="13"/>
     </row>
     <row r="278" spans="5:22">
-      <c r="F278" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G278" s="23"/>
-      <c r="H278" s="23"/>
-      <c r="I278" s="23"/>
-      <c r="J278" s="23"/>
-      <c r="K278" s="23"/>
-      <c r="N278" s="21"/>
-    </row>
-    <row r="279" spans="5:22">
-      <c r="E279" s="32"/>
-      <c r="F279" s="22"/>
-      <c r="G279" s="67" t="s">
-        <v>323</v>
-      </c>
-      <c r="H279" s="71"/>
-      <c r="I279" s="71"/>
-      <c r="J279" s="71"/>
-      <c r="K279" s="23"/>
-      <c r="N279" s="21"/>
-    </row>
-    <row r="280" spans="5:22">
-      <c r="E280" s="32"/>
-      <c r="F280" s="22"/>
-      <c r="G280" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="H280" s="66" t="s">
-        <v>324</v>
-      </c>
-      <c r="I280" s="23"/>
-      <c r="J280" s="23"/>
-      <c r="K280" s="23"/>
-      <c r="N280" s="21"/>
-    </row>
-    <row r="281" spans="5:22">
-      <c r="E281" s="32"/>
-      <c r="F281" s="22"/>
-      <c r="G281" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="H281" s="71"/>
-      <c r="I281" s="71"/>
-      <c r="J281" s="71"/>
-      <c r="K281" s="23"/>
-      <c r="N281" s="21"/>
-    </row>
-    <row r="282" spans="5:22">
-      <c r="E282" s="32"/>
-      <c r="F282" s="22"/>
-      <c r="G282" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="H282" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="I282" s="23"/>
-      <c r="J282" s="23"/>
-      <c r="K282" s="23"/>
-      <c r="N282" s="21"/>
-    </row>
-    <row r="283" spans="5:22">
-      <c r="E283" s="32"/>
-      <c r="F283" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G283" s="23"/>
-      <c r="H283" s="23"/>
-      <c r="I283" s="23"/>
-      <c r="J283" s="23"/>
-      <c r="K283" s="23"/>
-      <c r="N283" s="21"/>
-    </row>
-    <row r="284" spans="5:22">
-      <c r="E284" s="32"/>
-      <c r="F284" s="14"/>
-      <c r="G284" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="H284" s="24"/>
-      <c r="I284" s="24"/>
-      <c r="J284" s="24"/>
-      <c r="K284" s="24"/>
-      <c r="L284" s="24"/>
-      <c r="M284" s="24"/>
-      <c r="N284" s="24"/>
-      <c r="O284" s="24"/>
-      <c r="P284" s="13"/>
-      <c r="Q284" s="13"/>
-      <c r="R284" s="13"/>
-      <c r="S284" s="13"/>
-      <c r="T284" s="13"/>
-      <c r="U284" s="13"/>
-      <c r="V284" s="13"/>
-    </row>
-    <row r="285" spans="5:22">
-      <c r="E285" s="32"/>
-      <c r="F285" s="58"/>
-      <c r="G285" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="H285" s="24"/>
-      <c r="I285" s="24"/>
-      <c r="J285" s="24"/>
-      <c r="K285" s="20"/>
-      <c r="L285" s="20"/>
-      <c r="M285" s="20"/>
-      <c r="N285" s="20"/>
-      <c r="O285" s="20"/>
-      <c r="P285" s="20"/>
-      <c r="Q285" s="20"/>
-      <c r="R285" s="20"/>
-      <c r="S285" s="20"/>
-      <c r="T285" s="20"/>
-      <c r="U285" s="13"/>
-      <c r="V285" s="13"/>
-    </row>
-    <row r="286" spans="5:22">
-      <c r="E286" s="32"/>
-      <c r="F286" s="48"/>
-      <c r="G286" s="63" t="s">
-        <v>330</v>
-      </c>
-      <c r="H286" s="24"/>
-      <c r="I286" s="24"/>
-      <c r="J286" s="24"/>
-      <c r="K286" s="68"/>
-      <c r="L286" s="68"/>
-      <c r="M286" s="68"/>
-      <c r="N286" s="68"/>
-      <c r="O286" s="68"/>
-      <c r="P286" s="69"/>
-      <c r="Q286" s="69"/>
-      <c r="R286" s="69"/>
-      <c r="S286" s="13"/>
-      <c r="T286" s="13"/>
-      <c r="U286" s="13"/>
-      <c r="V286" s="13"/>
-    </row>
-    <row r="287" spans="5:22">
-      <c r="E287" s="32"/>
-      <c r="F287" s="48"/>
-      <c r="G287" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="H287" s="24"/>
-      <c r="I287" s="24"/>
-      <c r="J287" s="24"/>
-      <c r="K287" s="24"/>
-      <c r="L287" s="24"/>
-      <c r="M287" s="24"/>
-      <c r="N287" s="24"/>
-      <c r="O287" s="24"/>
-      <c r="P287" s="13"/>
-      <c r="Q287" s="13"/>
-      <c r="R287" s="13"/>
-      <c r="S287" s="13"/>
-      <c r="T287" s="13"/>
-      <c r="U287" s="13"/>
-      <c r="V287" s="13"/>
+      <c r="E278" s="32"/>
+      <c r="F278" s="48"/>
+      <c r="G278" s="96" t="s">
+        <v>350</v>
+      </c>
+      <c r="H278" s="97"/>
+      <c r="I278" s="97"/>
+      <c r="J278" s="97"/>
+      <c r="K278" s="97"/>
+      <c r="L278" s="97"/>
+      <c r="M278" s="97"/>
+      <c r="N278" s="97"/>
+      <c r="O278" s="97"/>
+      <c r="P278" s="84"/>
+      <c r="Q278" s="84"/>
+      <c r="R278" s="84"/>
+      <c r="S278" s="84"/>
+      <c r="T278" s="84"/>
+      <c r="U278" s="13"/>
+      <c r="V278" s="13"/>
+    </row>
+    <row r="279" spans="5:22" s="92" customFormat="1">
+      <c r="E279" s="98"/>
+      <c r="F279" s="99"/>
+      <c r="G279" s="96"/>
+      <c r="H279" s="97"/>
+      <c r="I279" s="97"/>
+      <c r="J279" s="97"/>
+      <c r="K279" s="97"/>
+      <c r="L279" s="97"/>
+      <c r="M279" s="97"/>
+      <c r="N279" s="97"/>
+      <c r="O279" s="97"/>
+      <c r="P279" s="84"/>
+      <c r="Q279" s="84"/>
+      <c r="R279" s="84"/>
+      <c r="S279" s="84"/>
+      <c r="T279" s="84"/>
+      <c r="U279" s="96"/>
+      <c r="V279" s="96"/>
+    </row>
+    <row r="280" spans="5:22" s="92" customFormat="1">
+      <c r="E280" s="98"/>
+      <c r="F280" s="99"/>
+      <c r="G280" s="96"/>
+      <c r="H280" s="97"/>
+      <c r="I280" s="97"/>
+      <c r="J280" s="97"/>
+      <c r="K280" s="97"/>
+      <c r="L280" s="97"/>
+      <c r="M280" s="97"/>
+      <c r="N280" s="97"/>
+      <c r="O280" s="97"/>
+      <c r="P280" s="84"/>
+      <c r="Q280" s="84"/>
+      <c r="R280" s="84"/>
+      <c r="S280" s="84"/>
+      <c r="T280" s="84"/>
+      <c r="U280" s="96"/>
+      <c r="V280" s="96"/>
+    </row>
+    <row r="281" spans="5:22" s="92" customFormat="1">
+      <c r="E281" s="98"/>
+      <c r="F281" s="99"/>
+      <c r="G281" s="96"/>
+      <c r="H281" s="97"/>
+      <c r="I281" s="97"/>
+      <c r="J281" s="97"/>
+      <c r="K281" s="97"/>
+      <c r="L281" s="97"/>
+      <c r="M281" s="97"/>
+      <c r="N281" s="97"/>
+      <c r="O281" s="97"/>
+      <c r="P281" s="84"/>
+      <c r="Q281" s="84"/>
+      <c r="R281" s="84"/>
+      <c r="S281" s="84"/>
+      <c r="T281" s="84"/>
+      <c r="U281" s="96"/>
+      <c r="V281" s="96"/>
+    </row>
+    <row r="282" spans="5:22" s="92" customFormat="1">
+      <c r="E282" s="98"/>
+      <c r="F282" s="99"/>
+      <c r="G282" s="96"/>
+      <c r="H282" s="97"/>
+      <c r="I282" s="97"/>
+      <c r="J282" s="97"/>
+      <c r="K282" s="97"/>
+      <c r="L282" s="97"/>
+      <c r="M282" s="97"/>
+      <c r="N282" s="97"/>
+      <c r="O282" s="97"/>
+      <c r="P282" s="84"/>
+      <c r="Q282" s="84"/>
+      <c r="R282" s="84"/>
+      <c r="S282" s="84"/>
+      <c r="T282" s="84"/>
+      <c r="U282" s="96"/>
+      <c r="V282" s="96"/>
+    </row>
+    <row r="283" spans="5:22" s="92" customFormat="1">
+      <c r="E283" s="98"/>
+      <c r="F283" s="99"/>
+      <c r="G283" s="96"/>
+      <c r="H283" s="97"/>
+      <c r="I283" s="97"/>
+      <c r="J283" s="97"/>
+      <c r="K283" s="97"/>
+      <c r="L283" s="97"/>
+      <c r="M283" s="97"/>
+      <c r="N283" s="97"/>
+      <c r="O283" s="97"/>
+      <c r="P283" s="84"/>
+      <c r="Q283" s="84"/>
+      <c r="R283" s="84"/>
+      <c r="S283" s="84"/>
+      <c r="T283" s="84"/>
+      <c r="U283" s="96"/>
+      <c r="V283" s="96"/>
+    </row>
+    <row r="284" spans="5:22" s="92" customFormat="1">
+      <c r="E284" s="98"/>
+      <c r="F284" s="99"/>
+      <c r="G284" s="96"/>
+      <c r="H284" s="97"/>
+      <c r="I284" s="97"/>
+      <c r="J284" s="97"/>
+      <c r="K284" s="97"/>
+      <c r="L284" s="97"/>
+      <c r="M284" s="97"/>
+      <c r="N284" s="97"/>
+      <c r="O284" s="97"/>
+      <c r="P284" s="84"/>
+      <c r="Q284" s="84"/>
+      <c r="R284" s="84"/>
+      <c r="S284" s="84"/>
+      <c r="T284" s="84"/>
+      <c r="U284" s="96"/>
+      <c r="V284" s="96"/>
+    </row>
+    <row r="285" spans="5:22" s="92" customFormat="1">
+      <c r="E285" s="98"/>
+      <c r="F285" s="99"/>
+      <c r="G285" s="96"/>
+      <c r="H285" s="97"/>
+      <c r="I285" s="97"/>
+      <c r="J285" s="97"/>
+      <c r="K285" s="97"/>
+      <c r="L285" s="97"/>
+      <c r="M285" s="97"/>
+      <c r="N285" s="97"/>
+      <c r="O285" s="97"/>
+      <c r="P285" s="84"/>
+      <c r="Q285" s="84"/>
+      <c r="R285" s="84"/>
+      <c r="S285" s="84"/>
+      <c r="T285" s="84"/>
+      <c r="U285" s="96"/>
+      <c r="V285" s="96"/>
+    </row>
+    <row r="286" spans="5:22" s="92" customFormat="1">
+      <c r="E286" s="98"/>
+      <c r="F286" s="99"/>
+      <c r="G286" s="96"/>
+      <c r="H286" s="97"/>
+      <c r="I286" s="97"/>
+      <c r="J286" s="97"/>
+      <c r="K286" s="97"/>
+      <c r="L286" s="97"/>
+      <c r="M286" s="97"/>
+      <c r="N286" s="97"/>
+      <c r="O286" s="97"/>
+      <c r="P286" s="84"/>
+      <c r="Q286" s="84"/>
+      <c r="R286" s="84"/>
+      <c r="S286" s="84"/>
+      <c r="T286" s="84"/>
+      <c r="U286" s="96"/>
+      <c r="V286" s="96"/>
+    </row>
+    <row r="287" spans="5:22" s="92" customFormat="1">
+      <c r="E287" s="98"/>
+      <c r="F287" s="99"/>
+      <c r="G287" s="96"/>
+      <c r="H287" s="97"/>
+      <c r="I287" s="97"/>
+      <c r="J287" s="97"/>
+      <c r="K287" s="97"/>
+      <c r="L287" s="97"/>
+      <c r="M287" s="97"/>
+      <c r="N287" s="97"/>
+      <c r="O287" s="97"/>
+      <c r="P287" s="84"/>
+      <c r="Q287" s="84"/>
+      <c r="R287" s="84"/>
+      <c r="S287" s="84"/>
+      <c r="T287" s="84"/>
+      <c r="U287" s="96"/>
+      <c r="V287" s="96"/>
     </row>
     <row r="288" spans="5:22">
       <c r="E288" s="32"/>
-      <c r="F288" s="48"/>
-      <c r="G288" s="13"/>
-      <c r="H288" s="24"/>
-      <c r="I288" s="24"/>
-      <c r="J288" s="24"/>
-      <c r="K288" s="24"/>
-      <c r="L288" s="24"/>
-      <c r="M288" s="24"/>
-      <c r="N288" s="24"/>
-      <c r="O288" s="24"/>
-      <c r="P288" s="13"/>
-      <c r="Q288" s="13"/>
-      <c r="R288" s="13"/>
-      <c r="S288" s="13"/>
-      <c r="T288" s="13"/>
-      <c r="U288" s="13"/>
-      <c r="V288" s="13"/>
-    </row>
-    <row r="289" spans="1:22">
+      <c r="F288" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G288" s="23"/>
+      <c r="H288" s="23"/>
+      <c r="I288" s="21"/>
+      <c r="J288" s="21"/>
+      <c r="K288" s="21"/>
+      <c r="L288" s="21"/>
+      <c r="M288" s="21"/>
+      <c r="N288" s="21"/>
+    </row>
+    <row r="289" spans="1:14">
       <c r="E289" s="32"/>
-      <c r="F289" s="48"/>
-      <c r="G289" s="63" t="s">
-        <v>333</v>
+      <c r="F289" s="22"/>
+      <c r="G289" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="H289" s="24"/>
-      <c r="I289" s="24"/>
-      <c r="J289" s="24"/>
-      <c r="K289" s="24"/>
-      <c r="L289" s="24"/>
-      <c r="M289" s="24"/>
-      <c r="N289" s="24"/>
-      <c r="O289" s="24"/>
-      <c r="P289" s="13"/>
-      <c r="Q289" s="13"/>
-      <c r="R289" s="13"/>
-      <c r="S289" s="13"/>
-      <c r="T289" s="13"/>
-      <c r="U289" s="13"/>
-      <c r="V289" s="13"/>
-    </row>
-    <row r="290" spans="1:22">
+      <c r="I289" s="21"/>
+      <c r="J289" s="21"/>
+      <c r="K289" s="21"/>
+      <c r="L289" s="21"/>
+      <c r="M289" s="21"/>
+      <c r="N289" s="21"/>
+    </row>
+    <row r="290" spans="1:14">
       <c r="E290" s="32"/>
-      <c r="F290" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G290" s="23"/>
-      <c r="H290" s="23"/>
+      <c r="F290" s="22"/>
+      <c r="G290" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="H290" s="24"/>
       <c r="I290" s="21"/>
       <c r="J290" s="21"/>
       <c r="K290" s="21"/>
@@ -13882,13 +14152,13 @@
       <c r="M290" s="21"/>
       <c r="N290" s="21"/>
     </row>
-    <row r="291" spans="1:22">
+    <row r="291" spans="1:14">
       <c r="E291" s="32"/>
-      <c r="F291" s="22"/>
-      <c r="G291" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="H291" s="24"/>
+      <c r="F291" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G291" s="23"/>
+      <c r="H291" s="23"/>
       <c r="I291" s="21"/>
       <c r="J291" s="21"/>
       <c r="K291" s="21"/>
@@ -13896,13 +14166,15 @@
       <c r="M291" s="21"/>
       <c r="N291" s="21"/>
     </row>
-    <row r="292" spans="1:22">
+    <row r="292" spans="1:14">
       <c r="E292" s="32"/>
-      <c r="F292" s="22"/>
+      <c r="F292" s="21"/>
       <c r="G292" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="H292" s="24"/>
+        <v>152</v>
+      </c>
+      <c r="H292" s="23" t="s">
+        <v>153</v>
+      </c>
       <c r="I292" s="21"/>
       <c r="J292" s="21"/>
       <c r="K292" s="21"/>
@@ -13910,13 +14182,15 @@
       <c r="M292" s="21"/>
       <c r="N292" s="21"/>
     </row>
-    <row r="293" spans="1:22">
+    <row r="293" spans="1:14">
       <c r="E293" s="32"/>
-      <c r="F293" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="G293" s="23"/>
-      <c r="H293" s="23"/>
+      <c r="F293" s="21"/>
+      <c r="G293" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="H293" s="28" t="s">
+        <v>138</v>
+      </c>
       <c r="I293" s="21"/>
       <c r="J293" s="21"/>
       <c r="K293" s="21"/>
@@ -13924,15 +14198,14 @@
       <c r="M293" s="21"/>
       <c r="N293" s="21"/>
     </row>
-    <row r="294" spans="1:22">
-      <c r="E294" s="32"/>
-      <c r="F294" s="21"/>
-      <c r="G294" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="H294" s="23" t="s">
-        <v>153</v>
-      </c>
+    <row r="294" spans="1:14">
+      <c r="D294" s="72" t="s">
+        <v>321</v>
+      </c>
+      <c r="E294" s="73"/>
+      <c r="F294" s="68"/>
+      <c r="G294" s="68"/>
+      <c r="H294" s="68"/>
       <c r="I294" s="21"/>
       <c r="J294" s="21"/>
       <c r="K294" s="21"/>
@@ -13940,15 +14213,14 @@
       <c r="M294" s="21"/>
       <c r="N294" s="21"/>
     </row>
-    <row r="295" spans="1:22">
-      <c r="E295" s="32"/>
-      <c r="F295" s="21"/>
-      <c r="G295" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H295" s="28" t="s">
-        <v>138</v>
-      </c>
+    <row r="295" spans="1:14">
+      <c r="D295" s="69"/>
+      <c r="E295" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="F295" s="68"/>
+      <c r="G295" s="68"/>
+      <c r="H295" s="68"/>
       <c r="I295" s="21"/>
       <c r="J295" s="21"/>
       <c r="K295" s="21"/>
@@ -13956,14 +14228,15 @@
       <c r="M295" s="21"/>
       <c r="N295" s="21"/>
     </row>
-    <row r="296" spans="1:22">
-      <c r="D296" s="72" t="s">
-        <v>335</v>
-      </c>
-      <c r="E296" s="73"/>
-      <c r="F296" s="68"/>
-      <c r="G296" s="68"/>
-      <c r="H296" s="68"/>
+    <row r="296" spans="1:14">
+      <c r="E296" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="F296" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="G296" s="21"/>
+      <c r="H296" s="21"/>
       <c r="I296" s="21"/>
       <c r="J296" s="21"/>
       <c r="K296" s="21"/>
@@ -13971,14 +14244,11 @@
       <c r="M296" s="21"/>
       <c r="N296" s="21"/>
     </row>
-    <row r="297" spans="1:22">
-      <c r="D297" s="69"/>
-      <c r="E297" s="67" t="s">
-        <v>340</v>
-      </c>
-      <c r="F297" s="68"/>
-      <c r="G297" s="68"/>
-      <c r="H297" s="68"/>
+    <row r="297" spans="1:14">
+      <c r="E297" s="32"/>
+      <c r="F297" s="21"/>
+      <c r="G297" s="21"/>
+      <c r="H297" s="21"/>
       <c r="I297" s="21"/>
       <c r="J297" s="21"/>
       <c r="K297" s="21"/>
@@ -13986,13 +14256,12 @@
       <c r="M297" s="21"/>
       <c r="N297" s="21"/>
     </row>
-    <row r="298" spans="1:22">
-      <c r="E298" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="F298" s="66" t="s">
-        <v>341</v>
-      </c>
+    <row r="298" spans="1:14">
+      <c r="B298" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E298" s="32"/>
+      <c r="F298" s="21"/>
       <c r="G298" s="21"/>
       <c r="H298" s="21"/>
       <c r="I298" s="21"/>
@@ -14002,7 +14271,10 @@
       <c r="M298" s="21"/>
       <c r="N298" s="21"/>
     </row>
-    <row r="299" spans="1:22">
+    <row r="299" spans="1:14">
+      <c r="C299" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="E299" s="32"/>
       <c r="F299" s="21"/>
       <c r="G299" s="21"/>
@@ -14014,87 +14286,90 @@
       <c r="M299" s="21"/>
       <c r="N299" s="21"/>
     </row>
-    <row r="300" spans="1:22">
-      <c r="B300" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E300" s="32"/>
-      <c r="F300" s="21"/>
-      <c r="G300" s="21"/>
-      <c r="H300" s="21"/>
-      <c r="I300" s="21"/>
-      <c r="J300" s="21"/>
-      <c r="K300" s="21"/>
-      <c r="L300" s="21"/>
-      <c r="M300" s="21"/>
+    <row r="300" spans="1:14">
+      <c r="A300" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D300" s="96" t="s">
+        <v>354</v>
+      </c>
+      <c r="E300" s="55"/>
+      <c r="F300" s="24"/>
+      <c r="G300" s="24"/>
+      <c r="H300" s="24"/>
+      <c r="I300" s="24"/>
+      <c r="J300" s="24"/>
+      <c r="K300" s="24"/>
+      <c r="L300" s="24"/>
+      <c r="M300" s="24"/>
       <c r="N300" s="21"/>
     </row>
-    <row r="301" spans="1:22">
-      <c r="C301" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E301" s="32"/>
-      <c r="F301" s="21"/>
-      <c r="G301" s="21"/>
-      <c r="H301" s="21"/>
-      <c r="I301" s="21"/>
-      <c r="J301" s="21"/>
-      <c r="K301" s="21"/>
-      <c r="L301" s="21"/>
-      <c r="M301" s="21"/>
+    <row r="301" spans="1:14" s="102" customFormat="1">
+      <c r="D301" s="105"/>
+      <c r="E301" s="108" t="s">
+        <v>358</v>
+      </c>
+      <c r="F301" s="108"/>
+      <c r="G301" s="108"/>
+      <c r="H301" s="108"/>
+      <c r="I301" s="108"/>
+      <c r="J301" s="108"/>
+      <c r="K301" s="24"/>
+      <c r="L301" s="24"/>
+      <c r="M301" s="24"/>
       <c r="N301" s="21"/>
     </row>
-    <row r="302" spans="1:22">
-      <c r="A302" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D302" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="E302" s="55"/>
-      <c r="F302" s="24"/>
-      <c r="G302" s="68"/>
-      <c r="H302" s="68"/>
-      <c r="I302" s="68"/>
-      <c r="J302" s="24"/>
-      <c r="K302" s="24"/>
-      <c r="L302" s="24"/>
+    <row r="302" spans="1:14">
+      <c r="D302" s="105" t="s">
+        <v>355</v>
+      </c>
+      <c r="E302" s="109"/>
+      <c r="F302" s="106"/>
+      <c r="G302" s="106"/>
+      <c r="H302" s="106"/>
+      <c r="I302" s="106"/>
+      <c r="J302" s="106"/>
+      <c r="K302" s="106"/>
+      <c r="L302" s="106"/>
       <c r="M302" s="24"/>
       <c r="N302" s="21"/>
     </row>
-    <row r="303" spans="1:22">
-      <c r="D303" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="E303" s="55"/>
-      <c r="F303" s="24"/>
-      <c r="G303" s="24"/>
-      <c r="H303" s="68"/>
-      <c r="I303" s="68"/>
-      <c r="J303" s="68"/>
-      <c r="K303" s="24"/>
-      <c r="L303" s="24"/>
+    <row r="303" spans="1:14">
+      <c r="D303" s="105"/>
+      <c r="E303" s="106" t="s">
+        <v>356</v>
+      </c>
+      <c r="F303" s="106"/>
+      <c r="G303" s="106"/>
+      <c r="H303" s="106"/>
+      <c r="I303" s="106"/>
+      <c r="J303" s="106"/>
+      <c r="K303" s="106"/>
+      <c r="L303" s="106"/>
       <c r="M303" s="24"/>
       <c r="N303" s="21"/>
     </row>
-    <row r="304" spans="1:22">
-      <c r="D304" s="13"/>
-      <c r="E304" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="F304" s="24"/>
-      <c r="G304" s="24"/>
-      <c r="H304" s="24"/>
-      <c r="I304" s="24"/>
-      <c r="J304" s="24"/>
-      <c r="K304" s="24"/>
-      <c r="L304" s="24"/>
+    <row r="304" spans="1:14">
+      <c r="D304" s="105" t="s">
+        <v>357</v>
+      </c>
+      <c r="E304" s="109"/>
+      <c r="F304" s="106"/>
+      <c r="G304" s="106"/>
+      <c r="H304" s="106"/>
+      <c r="I304" s="106"/>
+      <c r="J304" s="106"/>
+      <c r="K304" s="106"/>
+      <c r="L304" s="106"/>
       <c r="M304" s="24"/>
       <c r="N304" s="21"/>
     </row>
     <row r="305" spans="3:14">
+      <c r="C305" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="D305" s="13"/>
-      <c r="E305" s="55"/>
+      <c r="E305" s="24"/>
       <c r="F305" s="24"/>
       <c r="G305" s="24"/>
       <c r="H305" s="24"/>
@@ -14106,39 +14381,23 @@
       <c r="N305" s="21"/>
     </row>
     <row r="306" spans="3:14">
-      <c r="C306" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D306" s="13"/>
-      <c r="E306" s="24"/>
-      <c r="F306" s="24"/>
-      <c r="G306" s="24"/>
-      <c r="H306" s="24"/>
-      <c r="I306" s="24"/>
-      <c r="J306" s="24"/>
-      <c r="K306" s="24"/>
-      <c r="L306" s="24"/>
-      <c r="M306" s="24"/>
-      <c r="N306" s="21"/>
+      <c r="D306" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E306" s="21"/>
     </row>
     <row r="307" spans="3:14">
-      <c r="D307" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="E307" s="21"/>
     </row>
     <row r="308" spans="3:14">
       <c r="E308" s="21"/>
-    </row>
-    <row r="309" spans="3:14">
-      <c r="E309" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:AA1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="A138:A139 A146:A147 A262:A266 A149:A197 A215:A260 A270:A1048576 A107:A136 A97:A105 A1:A95">
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="A138:A139 A146:A147 A253:A257 A149:A197 A206:A251 A107:A136 A97:A105 A1:A95 A261:A1048576">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -14170,32 +14429,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="22.5">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
     </row>
     <row r="2" spans="1:24">
       <c r="B2" s="32" t="s">
@@ -14236,7 +14495,7 @@
         <v>179</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H3" s="24"/>
     </row>
@@ -14258,7 +14517,7 @@
         <v>171</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H4" s="24"/>
     </row>
@@ -14270,7 +14529,7 @@
         <v>181</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>182</v>
@@ -14282,7 +14541,7 @@
         <v>183</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H5" s="24"/>
     </row>
@@ -14311,7 +14570,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:X1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14321,8 +14580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA134"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView topLeftCell="B19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -14332,34 +14591,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="21" customFormat="1" ht="22.5">
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="128"/>
     </row>
     <row r="2" spans="1:27" s="14" customFormat="1">
       <c r="B2" s="14" t="s">
@@ -14424,7 +14683,7 @@
     </row>
     <row r="7" spans="1:27" s="13" customFormat="1">
       <c r="A7" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -14603,7 +14862,7 @@
     </row>
     <row r="18" spans="2:16" s="13" customFormat="1">
       <c r="C18" s="2" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -14978,7 +15237,7 @@
       <c r="G40" s="13"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -15016,7 +15275,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -15035,13 +15294,13 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="77" t="s">
-        <v>348</v>
-      </c>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
-      <c r="P43" s="77"/>
+      <c r="L43" s="76" t="s">
+        <v>334</v>
+      </c>
+      <c r="M43" s="76"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="76"/>
+      <c r="P43" s="76"/>
     </row>
     <row r="44" spans="2:16" ht="18">
       <c r="B44" s="13"/>
@@ -15054,13 +15313,13 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="77" t="s">
-        <v>347</v>
-      </c>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="77"/>
-      <c r="P44" s="77"/>
+      <c r="L44" s="76" t="s">
+        <v>333</v>
+      </c>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
     </row>
     <row r="45" spans="2:16" ht="18">
       <c r="B45" s="13"/>
@@ -15073,13 +15332,13 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="77" t="s">
-        <v>349</v>
-      </c>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="77"/>
-      <c r="P45" s="77"/>
+      <c r="L45" s="76" t="s">
+        <v>335</v>
+      </c>
+      <c r="M45" s="76"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="76"/>
+      <c r="P45" s="76"/>
     </row>
     <row r="46" spans="2:16">
       <c r="B46" s="13"/>
@@ -15565,7 +15824,7 @@
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="74" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G79" s="74"/>
       <c r="H79" s="74"/>
@@ -15604,7 +15863,7 @@
       <c r="D82" s="13"/>
       <c r="E82" s="2"/>
       <c r="F82" s="13" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
@@ -15617,7 +15876,7 @@
       <c r="D83" s="13"/>
       <c r="E83" s="2"/>
       <c r="F83" s="13" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
@@ -15931,7 +16190,7 @@
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -16030,7 +16289,7 @@
       <c r="D115" s="13"/>
       <c r="E115" s="21"/>
       <c r="F115" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K115" s="13"/>
       <c r="L115" s="13"/>
@@ -16046,7 +16305,7 @@
       <c r="D116" s="13"/>
       <c r="E116" s="21"/>
       <c r="F116" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K116" s="13"/>
       <c r="L116" s="13"/>
@@ -16080,7 +16339,7 @@
         <v>146</v>
       </c>
       <c r="G118" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
@@ -16194,7 +16453,7 @@
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
       <c r="F125" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G125" s="21"/>
       <c r="H125" s="21"/>
@@ -16217,13 +16476,13 @@
     <row r="128" spans="2:17">
       <c r="F128" s="22"/>
       <c r="G128" s="63" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="129" spans="5:8">
       <c r="F129" s="22"/>
       <c r="G129" s="63" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="130" spans="5:8">
@@ -16247,21 +16506,21 @@
     </row>
     <row r="133" spans="5:8">
       <c r="E133" s="14" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="F133" s="55"/>
     </row>
     <row r="134" spans="5:8">
       <c r="E134" s="13"/>
       <c r="F134" s="63" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:AA1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:A6 A8:A1048576">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -16326,13 +16585,13 @@
         <v>34</v>
       </c>
       <c r="E2" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>272</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>273</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>42</v>
@@ -16405,16 +16664,16 @@
     </row>
     <row r="5" spans="1:18" s="24" customFormat="1">
       <c r="A5" s="64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C5" s="64" t="s">
         <v>125</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E5" s="64"/>
       <c r="F5" s="65"/>
@@ -16544,7 +16803,7 @@
       <c r="K14" s="26"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16552,10 +16811,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16574,18 +16833,18 @@
         <v>42198</v>
       </c>
       <c r="D2" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="E2" s="50" t="s">
-        <v>252</v>
-      </c>
       <c r="J2" s="50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="12" customFormat="1" ht="17.25">
       <c r="B3" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -16594,7 +16853,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
@@ -16603,7 +16862,7 @@
     </row>
     <row r="4" spans="1:13" s="12" customFormat="1" ht="17.25">
       <c r="B4" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -16624,7 +16883,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" s="21">
         <v>1</v>
@@ -16644,7 +16903,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D6" s="21">
         <v>1</v>
@@ -16664,7 +16923,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D7" s="21">
         <v>1</v>
@@ -16684,7 +16943,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D8" s="21">
         <v>1.5</v>
@@ -16715,7 +16974,7 @@
     </row>
     <row r="10" spans="1:13" s="12" customFormat="1" ht="17.25">
       <c r="B10" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -16734,7 +16993,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D11" s="21">
         <v>1</v>
@@ -16754,7 +17013,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D12" s="21">
         <v>1.5</v>
@@ -16765,7 +17024,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D13" s="21">
         <v>1</v>
@@ -16773,19 +17032,84 @@
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="C16" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D16" s="21">
         <v>4</v>
       </c>
     </row>
+    <row r="18" spans="1:10" s="50" customFormat="1">
+      <c r="A18" s="49">
+        <v>42341</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="J18" s="50" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" s="98" t="s">
+        <v>252</v>
+      </c>
+      <c r="I19" s="98" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="C20" s="129" t="s">
+        <v>360</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="98" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="21">
+        <v>1</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="D23" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="21">
+        <v>2</v>
+      </c>
+      <c r="C24" s="129" t="s">
+        <v>362</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17161,7 +17485,7 @@
       <c r="M50" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gd/交互系统/邮箱系统设计.xlsx
+++ b/gd/交互系统/邮箱系统设计.xlsx
@@ -13,453 +13,457 @@
     <sheet name="美术需求" sheetId="7" r:id="rId4"/>
     <sheet name="提示信息" sheetId="5" r:id="rId5"/>
     <sheet name="任务拆分" sheetId="9" r:id="rId6"/>
-    <sheet name="自用" sheetId="3" r:id="rId7"/>
+    <sheet name="策划验收" sheetId="10" r:id="rId7"/>
+    <sheet name="自用" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_2._已读邮件的定义">'逻辑+UI'!$C$305</definedName>
+    <definedName name="_2._已读邮件的定义">'逻辑+UI'!$C$307</definedName>
     <definedName name="_3、功能界面">#REF!</definedName>
     <definedName name="_4、录音模式">#REF!</definedName>
     <definedName name="_5_、功能按钮">#REF!</definedName>
     <definedName name="打开邮箱UI时_刷新邮件。UI开启的过程中_若有新邮件来_界面立即刷新。">'逻辑+UI'!$D$53</definedName>
-    <definedName name="第二个">'逻辑+UI'!$G$275:$J$275</definedName>
+    <definedName name="第二个">'逻辑+UI'!$G$276:$J$276</definedName>
+    <definedName name="对应道具进包_增长对应经验以及金币、钻石、活力值_提取按钮消失_所有附件框右上角出现”对勾“图标_代表已收取_。">'逻辑+UI'!$G$278</definedName>
     <definedName name="二、聊天框玩家名称">美术需求!$B$27</definedName>
+    <definedName name="附件可以为道具、金币、钻石、经验、活力值_均以图标形式显示_调取道具图标即可_数字采用程序字即可。">'逻辑+UI'!$F$251</definedName>
+    <definedName name="活力值达到上限仍然收取成功_多于上限的活力值作废。">'逻辑+UI'!$F$197</definedName>
     <definedName name="金币钻石达到上限的处理符合通用规则。">'逻辑+UI'!$F$196</definedName>
     <definedName name="若当前邮箱已满_玩家正在读取最后一封邮件_此时有新邮件进入_则邮箱界面右侧保持玩家读取的邮件不变_左侧邮件列表刷新。">'逻辑+UI'!$E$142</definedName>
     <definedName name="若无邮件_则列表处为空着即可。">'逻辑+UI'!$F$133:$H$133</definedName>
-    <definedName name="若邮件不包含附件_则附件处空着即可。">'逻辑+UI'!$F$261</definedName>
+    <definedName name="若邮件不包含附件_则附件处空着即可。">'逻辑+UI'!$F$262</definedName>
     <definedName name="若邮箱已满_玩家打开邮箱_又收到x封新邮件_则邮箱界面时时刷新_新邮件会根据上面的规则定掉老邮件。">'逻辑+UI'!$E$141</definedName>
     <definedName name="三、走马灯">美术需求!$B$72</definedName>
     <definedName name="四、系统公告提示">美术需求!#REF!</definedName>
     <definedName name="五、提示信息">美术需求!#REF!</definedName>
-    <definedName name="系统邮件正文内容汉字数上限500">'逻辑+UI'!$F$247</definedName>
+    <definedName name="系统邮件正文内容汉字数上限500">'逻辑+UI'!$F$248</definedName>
     <definedName name="显示格式">#REF!</definedName>
     <definedName name="邮件标题采用文字缩放规则显示">'逻辑+UI'!#REF!</definedName>
     <definedName name="长按才能录音_松手后直接发送录音内容。">#REF!</definedName>
-    <definedName name="自动删除动画_被删除的邮件直接消失_下方邮件自动向上提">'逻辑+UI'!$E$301</definedName>
+    <definedName name="自动删除动画_被删除的邮件直接消失_下方邮件自动向上提">'逻辑+UI'!$E$303</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="388">
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>提示方式</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>触发条件</t>
   </si>
   <si>
     <t>提示范围</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>文字内容</t>
   </si>
   <si>
     <t>系统公告</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>我只想告诉你，注意用词：</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>基础聊天框</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>左侧聊天框</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>聊天输入框</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>循环提示信息——&gt;放在loading做提示比较合适</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>系统频道的提示信息颜色可配置</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>走马灯</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>基础聊天显示框</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>左侧聊天显示框</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>左侧聊天频道按钮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>基础聊天显示框隐藏按钮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>控件类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>按钮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示位置</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>出现/隐藏规则</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>按钮文案</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>按钮操作</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>按钮样式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>系统提示信息的关键字</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>则往平行线以上趋势的滑动都判定为向上，往平行线以下趋势的滑动都判定为向下，</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>见示意图</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（非警示）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（警示）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮箱系统设计</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮箱系统相关逻辑说明</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>svn://10.21.2.47/gd/交互系统/邮箱系统设计.xlsx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>一、邮箱系统概述</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>二、进入邮箱系统</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮箱系统</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>通过游戏主功能界面的邮箱UI进入邮箱。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮箱UI</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击邮箱UI，打开邮箱界面。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>美术需求</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>项目</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>效果示意</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1. 主界面邮箱UI</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">      邮箱UI</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>三、邮箱界面</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>界面标题</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮件列表</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>界面标题</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>按下</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2.邮箱界面</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮件列表</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新邮件提示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>类似效果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>进入邮箱</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>玩家邮箱中不包含未读取邮件时，红点才会消失。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>当玩家邮箱中包含未读取邮件时，邮箱UI处会有提示，表现为按钮右上方标示一红点。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>未读取邮件提示，UI右上方标示一红点。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮件样式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮件类型图标</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>图标类似效果</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>（不要右下角的那个字）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>2）包含附件的邮件</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮件标题</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>具体内容根据邮件配置显示。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>发件人</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示  “来自：XXXX”，XXX根据邮件配置显示。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>发件人最多支持显示6个汉字及对应的字符</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示邮件标题</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>发件日期</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示邮件发送日期</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮件状态提示图标</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>类似效果</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮件排列</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>信件按照两个层级的顺序排列。优先第一层级排列，再按照第二层级排列。</t>
@@ -469,433 +473,433 @@
   </si>
   <si>
     <t>多于1页时，可通过拖动显示其他邮件。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>拖动操作</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>向上、向下滑动的定义</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>取一条与手机屏幕平行的线，且穿过手指落点，</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>手指落点</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>手指滑到一个点停留后，该点成为新的判定落点。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>拖动时，已有信息立刻变化，信息状态会停留在手指离开屏幕时的状态（即此时显示半字，也不进行适配）。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>手指按下的落点若在邮件列表范围内，判定为针对邮件列表内容操作。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>手指向上滑动，则信息向上滚动；手指向下滑动，则信息向下滚动。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮件标题最多支持显示10个汉字及对应的字符（遵循敏感字与屏蔽字统一规则）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>没有邮件的情况</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮件数量/最大邮件数量</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>一键领取按钮</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮件内容显示框</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>收取顺序：按照邮件排列顺序，由上到下逐封收取</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>收取操作只会对当前选中的切页的邮件有效。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1）纯文字邮件（不包含附件的邮件）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>mail_record_001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>玩家自己</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>自动收取含有附件的邮件，包括未读和已读；纯文字邮件也进行收取操作。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>没有可收取的邮件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮件标题</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>发件日期</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>发件人</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮件正文</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>附件列表</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>收取按钮</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>打开邮箱界面时，默认邮件内容显示框不显示任何邮件内容，空着。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>发件人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>规则同邮件列表的发件人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>发件日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>待定</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>规则同邮件列表的发件日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示邮件正文</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每行最大显示19个汉字或者对应字符，每页最多显示5行</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示邮件中的附件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>附件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>参考效果</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示道具图标，若数量大于1，则在图标上标示数量，若为1个，则不标示数量，只显示图标</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>经验/金币</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点击道具，会出现对应的tips，遵循道具的tips规则</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>收取按钮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>按下</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>事件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>音效资源</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>收取附件成功</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面显示时显示，其余时间不显示</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>一键领取</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>使用者注意：寄送物品如果填数量，数量需要小于等于物品规定的堆叠上限。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮箱系统配置结构</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>系统邮件没有发送数量上限。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>四、其他逻辑</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1. 邮件的自动删除</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>2. 已读邮件的定义</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>每收取一封邮件时，不会在邮件内容显示框显示对应内容。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>没有可操作的邮件哦！</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>附件数量每封邮件不能超过5个。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>发信原因</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>发信人</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>主题</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>信件内容</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>TEXT</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>TEXT</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>NUM</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>reasonMail</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>sender</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>subject</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>content</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>标识邮件内容
 命名规则：mail_系统名_001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>可配置文案
 默认为：系统</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>可配置文案，支持换行、变色
 默认为空</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>当邮件玩家未操作时，显示图标，玩家点击邮件后，图标消失。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮箱系统只提供接收系统邮件的功能，主要用于系统为玩家发送奖励等。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>当玩家未对邮件操作时，显示图标，玩家点击邮件后，图标消失。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>沿平行线滑动手指，不滚动。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示选中邮件的标题，居中显示</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>已有邮件数量/最大邮件数量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每删除1个邮件，已有邮件数量减1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮件数量/最大邮件数量</t>
   </si>
   <si>
     <t>最大邮件数量暂定为300</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>采用通用UI的提示窗口</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当邮箱邮件数量大于等于280时，玩家每次打开邮箱，都会弹出提示框如下：</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当邮箱邮件数量大于等于300时，玩家每次打开邮箱，都会弹出提示框如下：</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>mail_record_002</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>若没有，则点击按钮不进行领取操作，同时弹出提示信息mail_record_001。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>收取成功！</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>玩家在邮件列表点击一次后，即算已读状态。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>日期格式建议修改，与老外的习惯相符合</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>一键领取了带有附件的新邮件，这个图标消失么？</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>滚动条这个跟其他系统统一风格吧，不要沿用战音的设计了</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>数值程序字？</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>不能是已读就删吧，还要判断有没有收取附件</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>这块配置格式问下程序是不是用副本结算的配置格式吧</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>这个是不是等主界面的时候做？</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>一些重要的文字邮件也不留么，比如“大返利，充1送100”</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>这块全用道具系统的显示方式就行</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>金币和经验不知道道具有没有显示方式</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>前面说系统邮件没有发送数量上限，如果发送的系统邮件超过300如何？</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>5个的限制将来如果出了玩家间邮件也限制5个？</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>另外邮件是否有过期时间？如果有，过期和上线限制一个就行吧</t>
@@ -944,7 +948,7 @@
     <rPh sb="27" eb="28">
       <t>b</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>没有删除功能，这个提示不太好吧</t>
@@ -972,7 +976,7 @@
     <rPh sb="14" eb="15">
       <t>b</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>这期间收到的邮件是消失了还是系统暂存了？顶替旧的比较好吧</t>
@@ -994,109 +998,109 @@
     <rPh sb="7" eb="8">
       <t>b</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>删了</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>一键领取之后，邮件都消失啦</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>2.按接收邮件的时间从后到前顺序排列，最前显示最新接收的信件。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当邮箱邮件数量达到300时，若有新邮件，则新邮件会顶替掉旧邮件，超出几封则顶掉几封，按接收时间顺序从后到前顺序顶掉，即最早接收的最先被顶掉。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>提示信息内容：邮箱即将爆仓，请及时收取邮件</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>没有过期时间</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>提示信息内容：邮箱已经爆仓，快快收取邮件</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>多于1页时，通过拖动操作可查看超过的内容。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>是的</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示格式为  “XX-XX-XXXX“</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>代表XX月XX日XXXX年</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示道具图标，符合道具系统的显示规则</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>经验和金币采用右图规则即可</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>需求都是要提的呀~</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>测试反馈回归</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>rewardID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>附件</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>配置reward的ID。
 具体的发放道具、经验、金币都配在reward表中。
 默认为空</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>窗口类型</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>一级窗口</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>MT、辛炜、珍珍、木木、兔桑、雷神、帆爷、小珍、小龙、雪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>讨论邮箱系统逻辑，回归会议问题</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>回归三方问题</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1113,482 +1117,651 @@
       </rPr>
       <t>需求设计规范附件不能超过5个，且不会直接赠送宠物，可通过赠送宠物碎片达到赠送宠物的设计目的</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示经验/金币/钻石图标，图标右下方标示经验/金币/钻石数值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>附件可以为道具、金币、钻石、经验，均以图标形式显示，调取道具图标即可，数字采用程序字即可。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>收取时，玩家已经满级（经验已达最大值），不影响收取，多余的经验作废。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示经验/金币/钻石图标，图标右下角标示经验/金币/钻石数值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>由于什么原因，需要调用到系统邮件功能</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验/金币/钻石</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>该邮件中对应道具进包，增长对应经验以及金币、钻石。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>对应工时（单位：d）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面所有内容</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面基本布局</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮件列表部分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮件内容及附件部分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮件限制，收取，删除功能（包括一键领取）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>数据结构+初始化+配置表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>看信+收取+全部收取</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>发信</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>位置1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>若邮件不包含附件，则附件处空着即可。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>位置2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>若邮件不包含附件，则附件处空着即可</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>去掉界面空着时的提示图和提示文字显示需求</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>对应英文</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>公会频道</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>世界频道</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>去掉邮件附件位置显示的”附件“两个字</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>按照标准格式回归”提示信息“切页</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮件标题采用文字缩放规则显示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>系统邮件正文内容汉字数上限500</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>文字支持变色、换行功能</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮箱开启过程中，有新邮件来，界面刷新</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮件正文汉字上限回归</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>若邮箱已满，玩家打开邮箱，又收到x封新邮件，则邮箱界面时时刷新，新邮件会根据上面的规则定掉老邮件。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮箱开启时邮箱满且又收到新邮件的处理</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>若当前邮箱已满，玩家正在读取最后一封邮件，此时有新邮件进入，则邮箱界面右侧保持玩家读取的邮件不变，左侧邮件列表刷新。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>收取邮件失败</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>若最后一封邮件包含附件，则此时玩家进行收取操作，收取失败，弹出IM提示信息mail_record_005。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>mail_record_005</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮件已过期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开邮箱UI时，刷新邮件。UI开启的过程中，若有新邮件来，界面立即刷新（邮箱界面右侧保持玩家读取的邮件不变，左侧邮件列表刷新）。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱满时的刷新逻辑</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币、钻石达到上限不终止邮箱收取操作</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言id</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_title</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>每页最多显示邮件数量以美术图为准，最后一封半个显示。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_laizi</t>
+  </si>
+  <si>
+    <t>mail_youxiangjiangman</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_youxiangyiman</t>
+  </si>
+  <si>
+    <t>mail_yijianlingqu</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认收取所有邮件吗？</t>
+  </si>
+  <si>
+    <t>提示信息内容</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_shouquall</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_coinmanle</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击”取消“，关闭二级，操作取消；</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击按钮，判断是否有邮件，若有，则弹出二级提示框：</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击”确定“，进行每封的收取操作：</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱改版内容</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取成功的邮件从邮件列表中清除，清空邮件内容显示框。客户端会在收取完成后一次刷新邮件列表和邮件内容显示框。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>每行最大显示字符数和每页最多显示行数根据美术效果图定</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件样式需要有整体选中状态</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>在左侧邮件列表点击邮件，邮件变为选中状态且右侧即显示对应邮件内容。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）当邮件包含附件时，按钮文案为”收取“</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_shouqu</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）当邮件不包含附件时，按钮文案为”删除“</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回按钮</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回按钮</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱界面显示时显示</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击按钮，关闭邮箱界面，返回到主界面</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示  ”邮件将在领取附件后自动删除“</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_zidongshantips</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_empty</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果同装备列表即可。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>若无邮件，则列表处显示提示信息“别找了，啥都没有…”</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比之前的在字体和行间距方面应做的修改（根据集体测试反馈的问题）：</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）改小右侧邮件标题的字号，和左边的列表邮件标题协调一致</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）减小邮件正文内容的行间距</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在是右边的邮件标题字号比左侧列表邮件标题字号大太多了</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家拥有金币、钻石</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑同主界面</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>若全部邮件收取成功，则清空邮件列表以及邮件内容显示框，同时弹出提示框如下：客户端会在收取完成后一次刷新邮件列表和邮件内容显示框。</t>
+  </si>
+  <si>
+    <t>采用通用UI的提示窗口</t>
+  </si>
+  <si>
+    <t>提示信息内容：全部收取成功！</t>
+  </si>
+  <si>
+    <t>多语言id</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_CollectedAll</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取</t>
+  </si>
+  <si>
+    <t>1）当邮件包含附件且附件未收取时，按钮出现，否则按钮不可见</t>
+  </si>
+  <si>
+    <t>2）提取附件后，按钮消失</t>
+  </si>
+  <si>
+    <t>收取时，玩家已经满级（经验已达最大值），不影响收取，多余的经验作废。</t>
   </si>
   <si>
     <t>金币钻石达到上限的处理符合通用规则。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开邮箱UI时，刷新邮件。UI开启的过程中，若有新邮件来，界面立即刷新（邮箱界面右侧保持玩家读取的邮件不变，左侧邮件列表刷新）。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱满时的刷新逻辑</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币、钻石达到上限不终止邮箱收取操作</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击按钮，收取附件且弹出提示信息mail_record_002。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取后的效果示意</t>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言id</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail_title</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>每页最多显示邮件数量以美术图为准，最后一封半个显示。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail_laizi</t>
-  </si>
-  <si>
-    <t>mail_youxiangjiangman</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail_youxiangyiman</t>
-  </si>
-  <si>
-    <t>mail_yijianlingqu</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认收取所有邮件吗？</t>
-  </si>
-  <si>
-    <t>提示信息内容</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail_shouquall</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail_coinmanle</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击”取消“，关闭二级，操作取消；</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击按钮，判断是否有邮件，若有，则弹出二级提示框：</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击”确定“，进行每封的收取操作：</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 全部收取不展示获得内容，保留原方案</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 收取邮件逻辑保留原方案</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不包含附件的邮件：已读取的邮件，会在玩家点击邮件列表其他邮件时，自动从列表中清除。</t>
+  </si>
+  <si>
+    <t>包含附件的邮件：已读取的邮件，会在玩家收取附件后，点击邮件列表其他邮件时，自动从列表中清除。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         若玩家未收取附件，则点击列表其他邮件时，不会自动删除。</t>
+  </si>
+  <si>
+    <t>最后一封邮件时，会在关闭邮箱，再次打开会刷没。</t>
+  </si>
+  <si>
+    <t>自动删除动画：被删除的邮件直接消失，下方邮件自动向上提</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 增加邮件自动删除时的动画</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>做删除动画</t>
+  </si>
+  <si>
+    <t xml:space="preserve">添加选中/提示/重摆UI  </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次验收内容</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体内容</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收结果</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12.9</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮箱改版内容</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取成功的邮件从邮件列表中清除，清空邮件内容显示框。客户端会在收取完成后一次刷新邮件列表和邮件内容显示框。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>每行最大显示字符数和每页最多显示行数根据美术效果图定</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家拥有金币、钻石</t>
+  </si>
+  <si>
+    <t>√</t>
   </si>
   <si>
     <t>邮件样式需要有整体选中状态</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>在左侧邮件列表点击邮件，邮件变为选中状态且右侧即显示对应邮件内容。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）当邮件包含附件时，按钮文案为”收取“</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail_shouqu</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）当邮件不包含附件时，按钮文案为”删除“</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回按钮</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有邮件的情况</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有邮件的情况</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键收取</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键收取前没有弹出二级确认框，直接进行了收取操作</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>提示信息</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回按钮</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱界面显示时显示</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击按钮，关闭邮箱界面，返回到主界面</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示  ”邮件将在领取附件后自动删除“</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail_zidongshantips</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_empty</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果同装备列表即可。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>*若金币/钻石达到上限，收取将无法继续获得</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>若无邮件，则列表处显示提示信息“别找了，啥都没有…”</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>对比之前的在字体和行间距方面应做的修改（根据集体测试反馈的问题）：</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）改小右侧邮件标题的字号，和左边的列表邮件标题协调一致</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）减小邮件正文内容的行间距</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在是右边的邮件标题字号比左侧列表邮件标题字号大太多了</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家拥有金币、钻石</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑同主界面</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>若全部邮件收取成功，则清空邮件列表以及邮件内容显示框，同时弹出提示框如下：客户端会在收取完成后一次刷新邮件列表和邮件内容显示框。</t>
-  </si>
-  <si>
-    <t>采用通用UI的提示窗口</t>
-  </si>
-  <si>
-    <t>提示信息内容：全部收取成功！</t>
-  </si>
-  <si>
-    <t>多语言id</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail_CollectedAll</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取</t>
-  </si>
-  <si>
-    <t>1）当邮件包含附件且附件未收取时，按钮出现，否则按钮不可见</t>
-  </si>
-  <si>
-    <t>2）提取附件后，按钮消失</t>
-  </si>
-  <si>
-    <t>对应道具进包，增长对应经验以及金币、钻石，提取按钮消失，所有附件框右上角出现”对勾“图标（代表已收取）。</t>
-  </si>
-  <si>
-    <t>收取时，玩家已经满级（经验已达最大值），不影响收取，多余的经验作废。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中一封带附件的邮件不收取，关闭邮箱，再打开邮箱，该邮件仍显示选中</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充的新需求</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱能够发送活力值</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件可以为道具、金币、钻石、经验、活力值，均以图标形式显示，调取道具图标即可，数字采用程序字即可。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>经验/金币/钻石</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/活力值</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>显示经验/金币/钻石</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/活力值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图标，图标右下方标示经验/金币/钻石数值</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱补充能够赠送活力值的需求</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加策划验收切页</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*若金币/钻石</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/活力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>达到上限，收取将无法继续获得</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>金币钻石达到上限的处理符合通用规则。</t>
-  </si>
-  <si>
-    <t>点击按钮，收取附件且弹出提示信息mail_record_002。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取后的效果示意</t>
-  </si>
-  <si>
-    <t>雪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 全部收取不展示获得内容，保留原方案</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 收取邮件逻辑保留原方案</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>不包含附件的邮件：已读取的邮件，会在玩家点击邮件列表其他邮件时，自动从列表中清除。</t>
-  </si>
-  <si>
-    <t>包含附件的邮件：已读取的邮件，会在玩家收取附件后，点击邮件列表其他邮件时，自动从列表中清除。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         若玩家未收取附件，则点击列表其他邮件时，不会自动删除。</t>
-  </si>
-  <si>
-    <t>最后一封邮件时，会在关闭邮箱，再次打开会刷没。</t>
-  </si>
-  <si>
-    <t>自动删除动画：被删除的邮件直接消失，下方邮件自动向上提</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 增加邮件自动删除时的动画</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱界面</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>做删除动画</t>
-  </si>
-  <si>
-    <t xml:space="preserve">添加选中/提示/重摆UI  </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值达到上限仍然收取成功，多于上限的活力值作废。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应道具进包，增长对应经验以及金币、钻石、活力值，提取按钮消失，所有附件框右上角出现”对勾“图标（代表已收取）。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>该邮件中对应道具进包，增长对应经验以及金币、钻石、活力值。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1798,8 +1971,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1875,6 +2055,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2106,270 +2292,288 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="4"/>
     <cellStyle name="常规 2 2" xfId="1"/>
     <cellStyle name="常规 4" xfId="2"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -4213,13 +4417,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4260,13 +4464,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4310,13 +4514,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>106363</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4360,13 +4564,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>87313</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4410,13 +4614,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>96838</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4460,13 +4664,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>115888</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4510,13 +4714,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4560,13 +4764,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>601871</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4598,14 +4802,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9223</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>133310</xdr:rowOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>133311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5076,13 +5280,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>66540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5114,13 +5318,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>171392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5299,13 +5503,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>140806</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>425446</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>152644</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5451,14 +5655,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>236144</xdr:colOff>
-      <xdr:row>287</xdr:row>
-      <xdr:rowOff>8283</xdr:rowOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7512,6 +7716,49 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>49697</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>339588</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1546744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9823175" y="687456"/>
+          <a:ext cx="3039717" cy="1480484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10461,10 +10708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L42"/>
+  <dimension ref="A2:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -10523,17 +10770,17 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1">
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120" t="s">
+      <c r="C12" s="125"/>
+      <c r="D12" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="127"/>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="6" t="s">
@@ -10542,76 +10789,76 @@
       <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="115"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="130"/>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="133"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="115"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="115"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="121"/>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="115"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="121"/>
     </row>
     <row r="19" spans="1:12" ht="17.25" thickBot="1">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="117"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="123"/>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickTop="1"/>
     <row r="21" spans="1:12">
@@ -10688,16 +10935,16 @@
       </c>
       <c r="E26" s="52"/>
       <c r="F26" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="L26" s="38" t="s">
         <v>265</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K26" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="L26" s="38" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -10707,10 +10954,10 @@
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
@@ -10719,7 +10966,7 @@
       <c r="B28" s="2"/>
       <c r="C28" s="11"/>
       <c r="G28" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -10729,10 +10976,10 @@
       </c>
       <c r="E29" s="56"/>
       <c r="F29" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G29" s="57" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -10740,7 +10987,7 @@
       <c r="C30" s="11"/>
       <c r="E30" s="56"/>
       <c r="G30" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -10748,7 +10995,7 @@
       <c r="C31" s="11"/>
       <c r="E31" s="56"/>
       <c r="G31" s="57" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -10756,7 +11003,7 @@
       <c r="C32" s="11"/>
       <c r="E32" s="56"/>
       <c r="G32" s="57" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -10766,10 +11013,10 @@
       </c>
       <c r="E33" s="45"/>
       <c r="F33" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G33" s="57" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -10777,13 +11024,13 @@
       <c r="C34" s="11"/>
       <c r="E34" s="45"/>
       <c r="G34" s="57" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J34" s="38" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K34" s="38" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -10793,10 +11040,10 @@
       </c>
       <c r="E35" s="59"/>
       <c r="F35" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -10806,7 +11053,7 @@
       </c>
       <c r="E36" s="100"/>
       <c r="F36" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>241</v>
@@ -10819,7 +11066,7 @@
       <c r="E37" s="93"/>
       <c r="F37" s="93"/>
       <c r="G37" s="94" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="92" customFormat="1">
@@ -10829,7 +11076,7 @@
       <c r="E38" s="93"/>
       <c r="F38" s="93"/>
       <c r="G38" s="94" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="102" customFormat="1">
@@ -10839,47 +11086,77 @@
       <c r="E39" s="103"/>
       <c r="F39" s="103"/>
       <c r="G39" s="110" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="102" customFormat="1">
+      <c r="A40" s="101"/>
+      <c r="C40" s="104">
+        <v>42347</v>
+      </c>
+      <c r="D40" s="103"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="103" t="s">
+        <v>379</v>
+      </c>
+      <c r="G40" s="110" t="s">
+        <v>380</v>
+      </c>
+      <c r="J40" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="K40" s="38" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="102" customFormat="1">
+      <c r="A41" s="101"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="110" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="11">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="11">
         <v>42226</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="G44" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10893,7 +11170,7 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K26" location="若无邮件_则列表处为空着即可。" display="位置1"/>
     <hyperlink ref="L26" location="若邮件不包含附件_则附件处空着即可。" display="位置2"/>
@@ -10905,6 +11182,9 @@
     <hyperlink ref="K34" location="第二个" display="位置2"/>
     <hyperlink ref="G33" location="若当前邮箱已满_玩家正在读取最后一封邮件_此时有新邮件进入_则邮箱界面右侧保持玩家读取的邮件不变_左侧邮件列表刷新。" display="邮箱满时的刷新逻辑"/>
     <hyperlink ref="G39" location="自动删除动画_被删除的邮件直接消失_下方邮件自动向上提" display="3. 增加邮件自动删除时的动画"/>
+    <hyperlink ref="G40" location="附件可以为道具、金币、钻石、经验、活力值_均以图标形式显示_调取道具图标即可_数字采用程序字即可。" display="邮箱补充能够赠送活力值的需求"/>
+    <hyperlink ref="J40" location="活力值达到上限仍然收取成功_多于上限的活力值作废。" display="位置2"/>
+    <hyperlink ref="K40" location="对应道具进包_增长对应经验以及金币、钻石、活力值_提取按钮消失_所有附件框右上角出现”对勾“图标_代表已收取_。" display="位置3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10912,10 +11192,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA308"/>
+  <dimension ref="A1:AA310"/>
   <sheetViews>
-    <sheetView topLeftCell="B61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J295" sqref="J295"/>
+    <sheetView topLeftCell="B265" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G278" sqref="G278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -10925,34 +11205,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" s="21" customFormat="1" ht="22.5">
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="128"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="134"/>
     </row>
     <row r="2" spans="2:27">
       <c r="B2" s="30" t="s">
@@ -11090,7 +11370,7 @@
         <v>74</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -11135,7 +11415,7 @@
     </row>
     <row r="26" spans="2:17">
       <c r="C26" s="69" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D26" s="69"/>
       <c r="E26" s="69"/>
@@ -11521,7 +11801,7 @@
       <c r="G48" s="69"/>
       <c r="H48" s="69"/>
       <c r="I48" s="69" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J48" s="69"/>
       <c r="K48" s="69"/>
@@ -11556,7 +11836,7 @@
     </row>
     <row r="53" spans="4:15">
       <c r="D53" s="24" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
@@ -11592,15 +11872,15 @@
     </row>
     <row r="57" spans="4:15">
       <c r="E57" s="37" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="4:15">
       <c r="D58" s="14" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E58" s="48"/>
       <c r="F58" s="13"/>
@@ -11654,7 +11934,7 @@
       <c r="D64" s="14"/>
       <c r="E64" s="22"/>
       <c r="F64" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G64" s="23"/>
       <c r="H64" s="23"/>
@@ -11672,7 +11952,7 @@
       <c r="D66" s="14"/>
       <c r="E66" s="22"/>
       <c r="F66" s="66" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
@@ -11688,7 +11968,7 @@
       <c r="D68" s="14"/>
       <c r="E68" s="48"/>
       <c r="F68" s="13" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="4:15">
@@ -11745,7 +12025,7 @@
     </row>
     <row r="75" spans="4:15">
       <c r="D75" s="72" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E75" s="68"/>
       <c r="F75" s="71"/>
@@ -11754,7 +12034,7 @@
     <row r="76" spans="4:15">
       <c r="D76" s="69"/>
       <c r="E76" s="77" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F76" s="71"/>
       <c r="G76" s="24"/>
@@ -11979,10 +12259,10 @@
     </row>
     <row r="100" spans="1:13">
       <c r="G100" s="37" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -12047,7 +12327,7 @@
     </row>
     <row r="108" spans="1:13">
       <c r="F108" s="69" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G108" s="69"/>
       <c r="H108" s="69"/>
@@ -12105,7 +12385,7 @@
     </row>
     <row r="115" spans="6:15">
       <c r="F115" s="63" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G115" s="24"/>
       <c r="H115" s="24"/>
@@ -12320,29 +12600,29 @@
     </row>
     <row r="132" spans="1:19">
       <c r="E132" s="1" t="s">
-        <v>117</v>
+        <v>368</v>
       </c>
     </row>
     <row r="133" spans="1:19">
       <c r="E133" s="13"/>
       <c r="F133" s="69" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G133" s="69"/>
       <c r="H133" s="69"/>
       <c r="I133" s="69"/>
       <c r="J133" s="69"/>
       <c r="L133" s="75" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M133" s="66" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="134" spans="1:19">
       <c r="E134" s="13"/>
       <c r="F134" s="69" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G134" s="69"/>
       <c r="H134" s="69"/>
@@ -12401,7 +12681,7 @@
       <c r="A141" s="42"/>
       <c r="D141" s="13"/>
       <c r="E141" s="13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F141" s="13"/>
       <c r="G141" s="13"/>
@@ -12422,7 +12702,7 @@
       <c r="A142" s="42"/>
       <c r="D142" s="13"/>
       <c r="E142" s="13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F142" s="13"/>
       <c r="G142" s="13"/>
@@ -12443,7 +12723,7 @@
       <c r="A143" s="42"/>
       <c r="D143" s="13"/>
       <c r="E143" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F143" s="13"/>
       <c r="G143" s="13"/>
@@ -12504,10 +12784,10 @@
     </row>
     <row r="149" spans="1:14">
       <c r="K149" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="L149" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="L149" s="13" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -12541,10 +12821,10 @@
     </row>
     <row r="159" spans="1:14">
       <c r="K159" s="37" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -12636,10 +12916,10 @@
       <c r="D173" s="1"/>
       <c r="E173" s="22"/>
       <c r="F173" s="37" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G173" s="66" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H173" s="23"/>
     </row>
@@ -12729,7 +13009,7 @@
     <row r="180" spans="4:19">
       <c r="D180" s="1"/>
       <c r="F180" s="67" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G180" s="68"/>
       <c r="H180" s="68"/>
@@ -12806,7 +13086,7 @@
       <c r="I184" s="68"/>
       <c r="J184" s="68"/>
       <c r="K184" s="69" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L184" s="69"/>
       <c r="M184" s="69"/>
@@ -12823,16 +13103,16 @@
       <c r="J185" s="68"/>
       <c r="K185" s="69"/>
       <c r="L185" s="68" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M185" s="69"/>
       <c r="N185" s="69"/>
       <c r="O185" s="68"/>
       <c r="P185" s="37" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q185" s="13" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="186" spans="4:19">
@@ -12843,15 +13123,15 @@
       <c r="I186" s="68"/>
       <c r="J186" s="68"/>
       <c r="K186" s="68"/>
-      <c r="L186" s="67" t="s">
-        <v>330</v>
-      </c>
-      <c r="M186" s="68"/>
+      <c r="L186" s="135" t="s">
+        <v>382</v>
+      </c>
+      <c r="M186" s="136"/>
       <c r="N186" s="68"/>
       <c r="O186" s="68"/>
       <c r="P186" s="13"/>
       <c r="Q186" s="13" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="R186" s="13"/>
     </row>
@@ -12943,7 +13223,7 @@
     <row r="192" spans="4:19">
       <c r="D192" s="1"/>
       <c r="F192" s="67" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G192" s="68"/>
       <c r="H192" s="68"/>
@@ -12962,7 +13242,7 @@
     <row r="193" spans="1:25">
       <c r="D193" s="1"/>
       <c r="F193" s="67" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G193" s="68"/>
       <c r="H193" s="68"/>
@@ -12980,14 +13260,14 @@
     </row>
     <row r="194" spans="1:25">
       <c r="D194" s="1"/>
-      <c r="F194" s="24" t="s">
-        <v>249</v>
+      <c r="F194" s="138" t="s">
+        <v>387</v>
       </c>
       <c r="G194" s="24"/>
       <c r="H194" s="24"/>
       <c r="I194" s="24"/>
-      <c r="J194" s="24"/>
-      <c r="K194" s="24"/>
+      <c r="J194" s="136"/>
+      <c r="K194" s="136"/>
       <c r="L194" s="24"/>
       <c r="M194" s="24"/>
       <c r="N194" s="24"/>
@@ -13000,7 +13280,7 @@
     <row r="195" spans="1:25">
       <c r="D195" s="1"/>
       <c r="F195" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G195" s="24"/>
       <c r="H195" s="24"/>
@@ -13020,7 +13300,7 @@
       <c r="D196" s="1"/>
       <c r="E196" s="13"/>
       <c r="F196" s="13" t="s">
-        <v>291</v>
+        <v>383</v>
       </c>
       <c r="G196" s="24"/>
       <c r="H196" s="24"/>
@@ -13036,47 +13316,49 @@
       <c r="R196" s="13"/>
       <c r="S196" s="13"/>
     </row>
-    <row r="197" spans="1:25">
-      <c r="D197" s="1"/>
-      <c r="F197" s="24"/>
-      <c r="G197" s="24"/>
-      <c r="H197" s="24"/>
-      <c r="I197" s="24"/>
-      <c r="J197" s="24"/>
+    <row r="197" spans="1:25" s="102" customFormat="1">
+      <c r="D197" s="101"/>
+      <c r="F197" s="137" t="s">
+        <v>384</v>
+      </c>
+      <c r="G197" s="137"/>
+      <c r="H197" s="136"/>
+      <c r="I197" s="136"/>
+      <c r="J197" s="136"/>
       <c r="K197" s="24"/>
       <c r="L197" s="24"/>
       <c r="M197" s="24"/>
       <c r="N197" s="24"/>
-      <c r="O197" s="24"/>
+      <c r="O197" s="105"/>
       <c r="P197" s="24"/>
       <c r="Q197" s="24"/>
-      <c r="R197" s="13"/>
-      <c r="S197" s="13"/>
+      <c r="R197" s="105"/>
+      <c r="S197" s="105"/>
     </row>
     <row r="198" spans="1:25">
-      <c r="A198" s="41" t="s">
+      <c r="D198" s="1"/>
+      <c r="F198" s="24"/>
+      <c r="G198" s="24"/>
+      <c r="H198" s="24"/>
+      <c r="I198" s="24"/>
+      <c r="J198" s="24"/>
+      <c r="K198" s="24"/>
+      <c r="L198" s="24"/>
+      <c r="M198" s="24"/>
+      <c r="N198" s="24"/>
+      <c r="O198" s="24"/>
+      <c r="P198" s="24"/>
+      <c r="Q198" s="24"/>
+      <c r="R198" s="13"/>
+      <c r="S198" s="13"/>
+    </row>
+    <row r="199" spans="1:25">
+      <c r="A199" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="F198" s="108" t="s">
-        <v>338</v>
-      </c>
-      <c r="G198" s="111"/>
-      <c r="H198" s="111"/>
-      <c r="I198" s="111"/>
-      <c r="J198" s="111"/>
-      <c r="K198" s="111"/>
-      <c r="L198" s="111"/>
-      <c r="M198" s="111"/>
-      <c r="N198" s="111"/>
-      <c r="O198" s="111"/>
-      <c r="P198" s="111"/>
-      <c r="Q198" s="111"/>
-      <c r="R198" s="78"/>
-      <c r="S198" s="13"/>
-    </row>
-    <row r="199" spans="1:25">
-      <c r="A199" s="41"/>
-      <c r="F199" s="112"/>
+      <c r="F199" s="108" t="s">
+        <v>333</v>
+      </c>
       <c r="G199" s="111"/>
       <c r="H199" s="111"/>
       <c r="I199" s="111"/>
@@ -13098,11 +13380,9 @@
       <c r="H200" s="111"/>
       <c r="I200" s="111"/>
       <c r="J200" s="111"/>
-      <c r="K200" s="107" t="s">
-        <v>339</v>
-      </c>
-      <c r="L200" s="113"/>
-      <c r="M200" s="113"/>
+      <c r="K200" s="111"/>
+      <c r="L200" s="111"/>
+      <c r="M200" s="111"/>
       <c r="N200" s="111"/>
       <c r="O200" s="111"/>
       <c r="P200" s="111"/>
@@ -13117,7 +13397,9 @@
       <c r="H201" s="111"/>
       <c r="I201" s="111"/>
       <c r="J201" s="111"/>
-      <c r="K201" s="113"/>
+      <c r="K201" s="107" t="s">
+        <v>334</v>
+      </c>
       <c r="L201" s="113"/>
       <c r="M201" s="113"/>
       <c r="N201" s="111"/>
@@ -13129,40 +13411,37 @@
     </row>
     <row r="202" spans="1:25">
       <c r="A202" s="41"/>
-      <c r="F202" s="111"/>
-      <c r="G202" s="107"/>
+      <c r="F202" s="112"/>
+      <c r="G202" s="111"/>
       <c r="H202" s="111"/>
       <c r="I202" s="111"/>
       <c r="J202" s="111"/>
-      <c r="K202" s="107" t="s">
-        <v>340</v>
-      </c>
+      <c r="K202" s="113"/>
       <c r="L202" s="113"/>
       <c r="M202" s="113"/>
       <c r="N202" s="111"/>
       <c r="O202" s="111"/>
       <c r="P202" s="111"/>
       <c r="Q202" s="111"/>
-      <c r="R202" s="13"/>
+      <c r="R202" s="78"/>
       <c r="S202" s="13"/>
     </row>
     <row r="203" spans="1:25">
       <c r="A203" s="41"/>
-      <c r="F203" s="24"/>
-      <c r="H203" s="24"/>
-      <c r="I203" s="24"/>
-      <c r="J203" s="24"/>
-      <c r="K203" s="80" t="s">
-        <v>341</v>
-      </c>
-      <c r="L203" s="79" t="s">
-        <v>342</v>
-      </c>
-      <c r="M203" s="24"/>
-      <c r="N203" s="24"/>
-      <c r="O203" s="24"/>
-      <c r="P203" s="24"/>
-      <c r="Q203" s="24"/>
+      <c r="F203" s="111"/>
+      <c r="G203" s="107"/>
+      <c r="H203" s="111"/>
+      <c r="I203" s="111"/>
+      <c r="J203" s="111"/>
+      <c r="K203" s="107" t="s">
+        <v>335</v>
+      </c>
+      <c r="L203" s="113"/>
+      <c r="M203" s="113"/>
+      <c r="N203" s="111"/>
+      <c r="O203" s="111"/>
+      <c r="P203" s="111"/>
+      <c r="Q203" s="111"/>
       <c r="R203" s="13"/>
       <c r="S203" s="13"/>
     </row>
@@ -13172,8 +13451,12 @@
       <c r="H204" s="24"/>
       <c r="I204" s="24"/>
       <c r="J204" s="24"/>
-      <c r="K204" s="24"/>
-      <c r="L204" s="24"/>
+      <c r="K204" s="80" t="s">
+        <v>336</v>
+      </c>
+      <c r="L204" s="79" t="s">
+        <v>337</v>
+      </c>
       <c r="M204" s="24"/>
       <c r="N204" s="24"/>
       <c r="O204" s="24"/>
@@ -13199,10 +13482,8 @@
       <c r="S205" s="13"/>
     </row>
     <row r="206" spans="1:25">
-      <c r="F206" s="63" t="s">
-        <v>313</v>
-      </c>
-      <c r="G206" s="24"/>
+      <c r="A206" s="41"/>
+      <c r="F206" s="24"/>
       <c r="H206" s="24"/>
       <c r="I206" s="24"/>
       <c r="J206" s="24"/>
@@ -13215,158 +13496,165 @@
       <c r="Q206" s="24"/>
       <c r="R206" s="13"/>
       <c r="S206" s="13"/>
-      <c r="T206" s="13"/>
-      <c r="U206" s="13"/>
-      <c r="V206" s="13"/>
-      <c r="W206" s="13"/>
-      <c r="X206" s="13"/>
-      <c r="Y206" s="13"/>
     </row>
     <row r="207" spans="1:25">
-      <c r="F207" s="21"/>
-      <c r="G207" s="21"/>
-      <c r="H207" s="21"/>
-      <c r="I207" s="21"/>
-      <c r="J207" s="21"/>
-      <c r="K207" s="21"/>
-      <c r="L207" s="21"/>
-      <c r="M207" s="21"/>
-      <c r="N207" s="21"/>
-      <c r="O207" s="21"/>
-      <c r="P207" s="21"/>
-      <c r="Q207" s="21"/>
+      <c r="F207" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="G207" s="24"/>
+      <c r="H207" s="24"/>
+      <c r="I207" s="24"/>
+      <c r="J207" s="24"/>
+      <c r="K207" s="24"/>
+      <c r="L207" s="24"/>
+      <c r="M207" s="24"/>
+      <c r="N207" s="24"/>
+      <c r="O207" s="24"/>
+      <c r="P207" s="24"/>
+      <c r="Q207" s="24"/>
+      <c r="R207" s="13"/>
+      <c r="S207" s="13"/>
+      <c r="T207" s="13"/>
+      <c r="U207" s="13"/>
+      <c r="V207" s="13"/>
+      <c r="W207" s="13"/>
+      <c r="X207" s="13"/>
+      <c r="Y207" s="13"/>
     </row>
     <row r="208" spans="1:25">
-      <c r="E208" s="48"/>
-      <c r="F208" s="2" t="s">
+      <c r="F208" s="21"/>
+      <c r="G208" s="21"/>
+      <c r="H208" s="21"/>
+      <c r="I208" s="21"/>
+      <c r="J208" s="21"/>
+      <c r="K208" s="21"/>
+      <c r="L208" s="21"/>
+      <c r="M208" s="21"/>
+      <c r="N208" s="21"/>
+      <c r="O208" s="21"/>
+      <c r="P208" s="21"/>
+      <c r="Q208" s="21"/>
+    </row>
+    <row r="209" spans="4:11">
+      <c r="E209" s="48"/>
+      <c r="F209" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="210" spans="4:11">
-      <c r="E210" s="22" t="s">
+    <row r="211" spans="4:11">
+      <c r="E211" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F210" s="23"/>
-      <c r="G210" s="23"/>
-    </row>
-    <row r="211" spans="4:11">
-      <c r="E211" s="22"/>
-      <c r="F211" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="G211" s="24"/>
+      <c r="F211" s="23"/>
+      <c r="G211" s="23"/>
     </row>
     <row r="212" spans="4:11">
       <c r="E212" s="22"/>
       <c r="F212" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G212" s="24"/>
+    </row>
+    <row r="213" spans="4:11">
+      <c r="E213" s="22"/>
+      <c r="F213" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="G212" s="24"/>
-    </row>
-    <row r="213" spans="4:11">
-      <c r="E213" s="22" t="s">
+      <c r="G213" s="24"/>
+    </row>
+    <row r="214" spans="4:11">
+      <c r="E214" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="F213" s="23"/>
-      <c r="G213" s="23"/>
-    </row>
-    <row r="214" spans="4:11">
-      <c r="E214" s="21"/>
-      <c r="F214" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="G214" s="23" t="s">
-        <v>153</v>
-      </c>
+      <c r="F214" s="23"/>
+      <c r="G214" s="23"/>
     </row>
     <row r="215" spans="4:11">
       <c r="E215" s="21"/>
       <c r="F215" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="G215" s="28" t="s">
-        <v>138</v>
+        <v>152</v>
+      </c>
+      <c r="G215" s="23" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="216" spans="4:11">
       <c r="E216" s="21"/>
-      <c r="F216" s="23"/>
-      <c r="G216" s="24"/>
+      <c r="F216" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G216" s="28" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="217" spans="4:11">
-      <c r="D217" s="1" t="s">
+      <c r="E217" s="21"/>
+      <c r="F217" s="23"/>
+      <c r="G217" s="24"/>
+    </row>
+    <row r="218" spans="4:11">
+      <c r="D218" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="219" spans="4:11">
-      <c r="K219" s="2" t="s">
+    <row r="220" spans="4:11">
+      <c r="K220" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="220" spans="4:11">
-      <c r="D220" s="2" t="s">
+    <row r="221" spans="4:11">
+      <c r="D221" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K220" s="2" t="s">
+      <c r="K221" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="223" spans="4:11">
-      <c r="D223" s="2" t="s">
+    <row r="224" spans="4:11">
+      <c r="D224" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="227" spans="4:11">
-      <c r="K227" s="2" t="s">
+    <row r="228" spans="4:11">
+      <c r="K228" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="232" spans="4:11">
-      <c r="H232" s="2" t="s">
+    <row r="233" spans="4:11">
+      <c r="H233" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="234" spans="4:11">
-      <c r="E234" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G234" s="69"/>
-      <c r="H234" s="69"/>
     </row>
     <row r="235" spans="4:11">
       <c r="E235" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G235" s="69"/>
+      <c r="H235" s="69"/>
+    </row>
+    <row r="236" spans="4:11">
+      <c r="E236" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="236" spans="4:11">
-      <c r="D236" s="48"/>
-      <c r="E236" s="1" t="s">
+    <row r="237" spans="4:11">
+      <c r="D237" s="48"/>
+      <c r="E237" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="237" spans="4:11">
-      <c r="D237" s="13"/>
-      <c r="F237" s="2" t="s">
+    <row r="238" spans="4:11">
+      <c r="D238" s="13"/>
+      <c r="F238" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="238" spans="4:11">
-      <c r="D238" s="48"/>
-      <c r="E238" s="32" t="s">
+    <row r="239" spans="4:11">
+      <c r="D239" s="48"/>
+      <c r="E239" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="F238" s="21"/>
-      <c r="G238" s="21"/>
-      <c r="H238" s="21"/>
-      <c r="I238" s="21"/>
-      <c r="J238" s="21"/>
-    </row>
-    <row r="239" spans="4:11">
-      <c r="D239" s="13"/>
-      <c r="E239" s="21"/>
-      <c r="F239" s="21" t="s">
-        <v>136</v>
-      </c>
+      <c r="F239" s="21"/>
       <c r="G239" s="21"/>
       <c r="H239" s="21"/>
       <c r="I239" s="21"/>
@@ -13374,10 +13662,10 @@
     </row>
     <row r="240" spans="4:11">
       <c r="D240" s="13"/>
-      <c r="E240" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="F240" s="21"/>
+      <c r="E240" s="21"/>
+      <c r="F240" s="21" t="s">
+        <v>136</v>
+      </c>
       <c r="G240" s="21"/>
       <c r="H240" s="21"/>
       <c r="I240" s="21"/>
@@ -13385,35 +13673,36 @@
     </row>
     <row r="241" spans="1:17">
       <c r="D241" s="13"/>
-      <c r="E241" s="21"/>
-      <c r="F241" s="21" t="s">
-        <v>139</v>
-      </c>
+      <c r="E241" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="F241" s="21"/>
       <c r="G241" s="21"/>
       <c r="H241" s="21"/>
       <c r="I241" s="21"/>
       <c r="J241" s="21"/>
     </row>
     <row r="242" spans="1:17">
-      <c r="D242" s="48"/>
-      <c r="E242" s="1" t="s">
+      <c r="D242" s="13"/>
+      <c r="E242" s="21"/>
+      <c r="F242" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G242" s="21"/>
+      <c r="H242" s="21"/>
+      <c r="I242" s="21"/>
+      <c r="J242" s="21"/>
+    </row>
+    <row r="243" spans="1:17">
+      <c r="D243" s="48"/>
+      <c r="E243" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
-      <c r="D243" s="13"/>
-      <c r="F243" s="21" t="s">
+    <row r="244" spans="1:17">
+      <c r="D244" s="13"/>
+      <c r="F244" s="21" t="s">
         <v>140</v>
-      </c>
-      <c r="G243" s="21"/>
-      <c r="H243" s="21"/>
-      <c r="I243" s="21"/>
-      <c r="J243" s="21"/>
-      <c r="K243" s="21"/>
-    </row>
-    <row r="244" spans="1:17">
-      <c r="F244" s="21" t="s">
-        <v>280</v>
       </c>
       <c r="G244" s="21"/>
       <c r="H244" s="21"/>
@@ -13422,71 +13711,64 @@
       <c r="K244" s="21"/>
     </row>
     <row r="245" spans="1:17">
-      <c r="F245" s="70" t="s">
-        <v>314</v>
+      <c r="F245" s="21" t="s">
+        <v>277</v>
       </c>
       <c r="G245" s="21"/>
       <c r="H245" s="21"/>
-      <c r="I245" s="39"/>
-      <c r="J245" s="24"/>
-      <c r="K245" s="39"/>
-      <c r="L245" s="13"/>
+      <c r="I245" s="21"/>
+      <c r="J245" s="21"/>
+      <c r="K245" s="21"/>
     </row>
     <row r="246" spans="1:17">
-      <c r="A246" s="2" t="s">
+      <c r="F246" s="70" t="s">
+        <v>310</v>
+      </c>
+      <c r="G246" s="21"/>
+      <c r="H246" s="21"/>
+      <c r="I246" s="39"/>
+      <c r="J246" s="24"/>
+      <c r="K246" s="39"/>
+      <c r="L246" s="13"/>
+    </row>
+    <row r="247" spans="1:17">
+      <c r="A247" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F246" s="13" t="s">
+      <c r="F247" s="13" t="s">
         <v>224</v>
-      </c>
-      <c r="G246" s="13"/>
-      <c r="H246" s="13"/>
-      <c r="I246" s="13"/>
-      <c r="J246" s="13"/>
-      <c r="K246" s="13"/>
-      <c r="L246" s="13"/>
-    </row>
-    <row r="247" spans="1:17">
-      <c r="E247" s="13"/>
-      <c r="F247" s="13" t="s">
-        <v>279</v>
       </c>
       <c r="G247" s="13"/>
       <c r="H247" s="13"/>
       <c r="I247" s="13"/>
+      <c r="J247" s="13"/>
+      <c r="K247" s="13"/>
+      <c r="L247" s="13"/>
     </row>
     <row r="248" spans="1:17">
-      <c r="D248" s="48"/>
-      <c r="E248" s="32" t="s">
+      <c r="E248" s="13"/>
+      <c r="F248" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="G248" s="13"/>
+      <c r="H248" s="13"/>
+      <c r="I248" s="13"/>
+    </row>
+    <row r="249" spans="1:17">
+      <c r="D249" s="48"/>
+      <c r="E249" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="F248" s="21"/>
-      <c r="G248" s="21"/>
-      <c r="H248" s="21"/>
-      <c r="I248" s="21"/>
-      <c r="J248" s="21"/>
-    </row>
-    <row r="249" spans="1:17">
-      <c r="E249" s="24"/>
-      <c r="F249" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G249" s="24"/>
-      <c r="H249" s="24"/>
-      <c r="I249" s="24"/>
-      <c r="J249" s="24"/>
-      <c r="K249" s="13"/>
-      <c r="L249" s="13"/>
-      <c r="M249" s="13"/>
-      <c r="N249" s="13"/>
-      <c r="O249" s="13"/>
-      <c r="P249" s="13"/>
-      <c r="Q249" s="13"/>
+      <c r="F249" s="21"/>
+      <c r="G249" s="21"/>
+      <c r="H249" s="21"/>
+      <c r="I249" s="21"/>
+      <c r="J249" s="21"/>
     </row>
     <row r="250" spans="1:17">
       <c r="E250" s="24"/>
       <c r="F250" s="24" t="s">
-        <v>244</v>
+        <v>142</v>
       </c>
       <c r="G250" s="24"/>
       <c r="H250" s="24"/>
@@ -13501,16 +13783,13 @@
       <c r="Q250" s="13"/>
     </row>
     <row r="251" spans="1:17">
-      <c r="A251" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="E251" s="24"/>
-      <c r="F251" s="24" t="s">
-        <v>242</v>
+      <c r="F251" s="119" t="s">
+        <v>376</v>
       </c>
       <c r="G251" s="24"/>
       <c r="H251" s="24"/>
-      <c r="I251" s="24"/>
+      <c r="I251" s="136"/>
       <c r="J251" s="24"/>
       <c r="K251" s="13"/>
       <c r="L251" s="13"/>
@@ -13521,11 +13800,13 @@
       <c r="Q251" s="13"/>
     </row>
     <row r="252" spans="1:17">
-      <c r="A252" s="44" t="s">
-        <v>225</v>
+      <c r="A252" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="E252" s="24"/>
-      <c r="F252" s="24"/>
+      <c r="F252" s="24" t="s">
+        <v>242</v>
+      </c>
       <c r="G252" s="24"/>
       <c r="H252" s="24"/>
       <c r="I252" s="24"/>
@@ -13539,13 +13820,12 @@
       <c r="Q252" s="13"/>
     </row>
     <row r="253" spans="1:17">
+      <c r="A253" s="44" t="s">
+        <v>225</v>
+      </c>
       <c r="E253" s="24"/>
-      <c r="F253" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="G253" s="24" t="s">
-        <v>243</v>
-      </c>
+      <c r="F253" s="24"/>
+      <c r="G253" s="24"/>
       <c r="H253" s="24"/>
       <c r="I253" s="24"/>
       <c r="J253" s="24"/>
@@ -13558,17 +13838,16 @@
       <c r="Q253" s="13"/>
     </row>
     <row r="254" spans="1:17">
-      <c r="A254" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E254" s="13"/>
-      <c r="F254" s="13"/>
-      <c r="G254" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="H254" s="13"/>
-      <c r="I254" s="13"/>
-      <c r="J254" s="13"/>
+      <c r="E254" s="24"/>
+      <c r="F254" s="119" t="s">
+        <v>377</v>
+      </c>
+      <c r="G254" s="119" t="s">
+        <v>378</v>
+      </c>
+      <c r="H254" s="136"/>
+      <c r="I254" s="136"/>
+      <c r="J254" s="24"/>
       <c r="K254" s="13"/>
       <c r="L254" s="13"/>
       <c r="M254" s="13"/>
@@ -13578,9 +13857,14 @@
       <c r="Q254" s="13"/>
     </row>
     <row r="255" spans="1:17">
+      <c r="A255" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="E255" s="13"/>
       <c r="F255" s="13"/>
-      <c r="G255" s="13"/>
+      <c r="G255" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="H255" s="13"/>
       <c r="I255" s="13"/>
       <c r="J255" s="13"/>
@@ -13623,109 +13907,112 @@
       <c r="Q257" s="13"/>
     </row>
     <row r="258" spans="1:17">
-      <c r="A258" s="41" t="s">
-        <v>210</v>
-      </c>
       <c r="E258" s="13"/>
-      <c r="F258" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G258" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="H258" s="24"/>
-      <c r="I258" s="24"/>
-      <c r="J258" s="24"/>
-      <c r="K258" s="24"/>
-      <c r="L258" s="24"/>
-      <c r="M258" s="24"/>
-      <c r="N258" s="24"/>
+      <c r="F258" s="13"/>
+      <c r="G258" s="13"/>
+      <c r="H258" s="13"/>
+      <c r="I258" s="13"/>
+      <c r="J258" s="13"/>
+      <c r="K258" s="13"/>
+      <c r="L258" s="13"/>
+      <c r="M258" s="13"/>
+      <c r="N258" s="13"/>
       <c r="O258" s="13"/>
       <c r="P258" s="13"/>
       <c r="Q258" s="13"/>
     </row>
     <row r="259" spans="1:17">
       <c r="A259" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E259" s="13"/>
+      <c r="F259" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G259" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="H259" s="24"/>
+      <c r="I259" s="24"/>
+      <c r="J259" s="24"/>
+      <c r="K259" s="24"/>
+      <c r="L259" s="24"/>
+      <c r="M259" s="24"/>
+      <c r="N259" s="24"/>
+      <c r="O259" s="13"/>
+      <c r="P259" s="13"/>
+      <c r="Q259" s="13"/>
+    </row>
+    <row r="260" spans="1:17">
+      <c r="A260" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="G259" s="21" t="s">
+      <c r="G260" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H259" s="21"/>
-      <c r="I259" s="21"/>
-      <c r="J259" s="21"/>
-      <c r="K259" s="21"/>
-    </row>
-    <row r="260" spans="1:17">
-      <c r="A260" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="G260" s="21"/>
       <c r="H260" s="21"/>
       <c r="I260" s="21"/>
       <c r="J260" s="21"/>
       <c r="K260" s="21"/>
     </row>
     <row r="261" spans="1:17">
-      <c r="F261" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="G261" s="24"/>
-      <c r="H261" s="24"/>
-      <c r="I261" s="13"/>
+      <c r="A261" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="G261" s="21"/>
+      <c r="H261" s="21"/>
+      <c r="I261" s="21"/>
+      <c r="J261" s="21"/>
+      <c r="K261" s="21"/>
     </row>
     <row r="262" spans="1:17">
-      <c r="E262" s="32" t="s">
+      <c r="F262" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="G262" s="24"/>
+      <c r="H262" s="24"/>
+      <c r="I262" s="13"/>
+    </row>
+    <row r="263" spans="1:17">
+      <c r="E263" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="F262" s="21"/>
-      <c r="G262" s="21"/>
-      <c r="H262" s="21"/>
-      <c r="I262" s="21"/>
-      <c r="J262" s="21"/>
-      <c r="K262" s="21"/>
-      <c r="L262" s="21"/>
-      <c r="M262" s="21"/>
-      <c r="N262" s="21"/>
-    </row>
-    <row r="263" spans="1:17">
-      <c r="E263" s="32"/>
-      <c r="F263" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G263" s="23"/>
-      <c r="H263" s="23"/>
-      <c r="I263" s="23"/>
-      <c r="J263" s="23"/>
+      <c r="F263" s="21"/>
+      <c r="G263" s="21"/>
+      <c r="H263" s="21"/>
+      <c r="I263" s="21"/>
+      <c r="J263" s="21"/>
+      <c r="K263" s="21"/>
+      <c r="L263" s="21"/>
+      <c r="M263" s="21"/>
+      <c r="N263" s="21"/>
     </row>
     <row r="264" spans="1:17">
       <c r="E264" s="32"/>
-      <c r="F264" s="22"/>
-      <c r="G264" s="23" t="s">
-        <v>48</v>
-      </c>
+      <c r="F264" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G264" s="23"/>
       <c r="H264" s="23"/>
       <c r="I264" s="23"/>
       <c r="J264" s="23"/>
     </row>
     <row r="265" spans="1:17">
       <c r="E265" s="32"/>
-      <c r="F265" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G265" s="23"/>
+      <c r="F265" s="22"/>
+      <c r="G265" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="H265" s="23"/>
       <c r="I265" s="23"/>
       <c r="J265" s="23"/>
-      <c r="K265" s="23"/>
-      <c r="N265" s="21"/>
     </row>
     <row r="266" spans="1:17">
       <c r="E266" s="32"/>
-      <c r="F266" s="22"/>
-      <c r="G266" s="23" t="s">
-        <v>56</v>
-      </c>
+      <c r="F266" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G266" s="23"/>
       <c r="H266" s="23"/>
       <c r="I266" s="23"/>
       <c r="J266" s="23"/>
@@ -13734,10 +14021,10 @@
     </row>
     <row r="267" spans="1:17">
       <c r="E267" s="32"/>
-      <c r="F267" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G267" s="23"/>
+      <c r="F267" s="22"/>
+      <c r="G267" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="H267" s="23"/>
       <c r="I267" s="23"/>
       <c r="J267" s="23"/>
@@ -13746,22 +14033,21 @@
     </row>
     <row r="268" spans="1:17">
       <c r="E268" s="32"/>
-      <c r="F268" s="22"/>
-      <c r="G268" s="87" t="s">
-        <v>344</v>
-      </c>
-      <c r="H268" s="89"/>
-      <c r="I268" s="89"/>
-      <c r="J268" s="89"/>
-      <c r="K268" s="89"/>
-      <c r="L268" s="85"/>
+      <c r="F268" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G268" s="23"/>
+      <c r="H268" s="23"/>
+      <c r="I268" s="23"/>
+      <c r="J268" s="23"/>
+      <c r="K268" s="23"/>
       <c r="N268" s="21"/>
     </row>
-    <row r="269" spans="1:17" s="86" customFormat="1">
-      <c r="E269" s="90"/>
-      <c r="F269" s="88"/>
+    <row r="269" spans="1:17">
+      <c r="E269" s="32"/>
+      <c r="F269" s="22"/>
       <c r="G269" s="87" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H269" s="89"/>
       <c r="I269" s="89"/>
@@ -13770,51 +14056,52 @@
       <c r="L269" s="85"/>
       <c r="N269" s="21"/>
     </row>
-    <row r="270" spans="1:17">
-      <c r="F270" s="22" t="s">
+    <row r="270" spans="1:17" s="86" customFormat="1">
+      <c r="E270" s="90"/>
+      <c r="F270" s="88"/>
+      <c r="G270" s="87" t="s">
+        <v>340</v>
+      </c>
+      <c r="H270" s="89"/>
+      <c r="I270" s="89"/>
+      <c r="J270" s="89"/>
+      <c r="K270" s="89"/>
+      <c r="L270" s="85"/>
+      <c r="N270" s="21"/>
+    </row>
+    <row r="271" spans="1:17">
+      <c r="F271" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G270" s="23"/>
-      <c r="H270" s="23"/>
-      <c r="I270" s="23"/>
-      <c r="J270" s="23"/>
-      <c r="K270" s="23"/>
-      <c r="N270" s="21"/>
-    </row>
-    <row r="271" spans="1:17">
-      <c r="E271" s="32"/>
-      <c r="F271" s="22"/>
-      <c r="G271" s="83" t="s">
-        <v>343</v>
-      </c>
-      <c r="H271" s="81"/>
-      <c r="I271" s="81"/>
-      <c r="J271" s="81"/>
-      <c r="K271" s="81"/>
-      <c r="L271" s="82"/>
+      <c r="G271" s="23"/>
+      <c r="H271" s="23"/>
+      <c r="I271" s="23"/>
+      <c r="J271" s="23"/>
+      <c r="K271" s="23"/>
       <c r="N271" s="21"/>
     </row>
     <row r="272" spans="1:17">
       <c r="E272" s="32"/>
       <c r="F272" s="22"/>
-      <c r="G272" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="H272" s="66" t="s">
-        <v>318</v>
-      </c>
-      <c r="I272" s="23"/>
-      <c r="J272" s="23"/>
-      <c r="K272" s="23"/>
+      <c r="G272" s="83" t="s">
+        <v>338</v>
+      </c>
+      <c r="H272" s="81"/>
+      <c r="I272" s="81"/>
+      <c r="J272" s="81"/>
+      <c r="K272" s="81"/>
+      <c r="L272" s="82"/>
       <c r="N272" s="21"/>
     </row>
     <row r="273" spans="5:22">
       <c r="E273" s="32"/>
-      <c r="F273" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G273" s="23"/>
-      <c r="H273" s="23"/>
+      <c r="F273" s="22"/>
+      <c r="G273" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="H273" s="66" t="s">
+        <v>314</v>
+      </c>
       <c r="I273" s="23"/>
       <c r="J273" s="23"/>
       <c r="K273" s="23"/>
@@ -13822,31 +14109,21 @@
     </row>
     <row r="274" spans="5:22">
       <c r="E274" s="32"/>
-      <c r="F274" s="14"/>
-      <c r="G274" s="97" t="s">
-        <v>349</v>
-      </c>
-      <c r="H274" s="97"/>
-      <c r="I274" s="97"/>
-      <c r="J274" s="97"/>
-      <c r="K274" s="97"/>
-      <c r="L274" s="97"/>
-      <c r="M274" s="97"/>
-      <c r="N274" s="97"/>
-      <c r="O274" s="97"/>
-      <c r="P274" s="96"/>
-      <c r="Q274" s="96"/>
-      <c r="R274" s="84"/>
-      <c r="S274" s="84"/>
-      <c r="T274" s="84"/>
-      <c r="U274" s="13"/>
-      <c r="V274" s="13"/>
+      <c r="F274" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G274" s="23"/>
+      <c r="H274" s="23"/>
+      <c r="I274" s="23"/>
+      <c r="J274" s="23"/>
+      <c r="K274" s="23"/>
+      <c r="N274" s="21"/>
     </row>
     <row r="275" spans="5:22">
       <c r="E275" s="32"/>
-      <c r="F275" s="58"/>
+      <c r="F275" s="14"/>
       <c r="G275" s="97" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H275" s="97"/>
       <c r="I275" s="97"/>
@@ -13858,17 +14135,17 @@
       <c r="O275" s="97"/>
       <c r="P275" s="96"/>
       <c r="Q275" s="96"/>
-      <c r="R275" s="96"/>
-      <c r="S275" s="96"/>
-      <c r="T275" s="96"/>
+      <c r="R275" s="84"/>
+      <c r="S275" s="84"/>
+      <c r="T275" s="84"/>
       <c r="U275" s="13"/>
       <c r="V275" s="13"/>
     </row>
     <row r="276" spans="5:22">
       <c r="E276" s="32"/>
-      <c r="F276" s="48"/>
+      <c r="F276" s="58"/>
       <c r="G276" s="97" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H276" s="97"/>
       <c r="I276" s="97"/>
@@ -13878,46 +14155,46 @@
       <c r="M276" s="97"/>
       <c r="N276" s="97"/>
       <c r="O276" s="97"/>
-      <c r="P276" s="84"/>
-      <c r="Q276" s="84"/>
-      <c r="R276" s="84"/>
-      <c r="S276" s="84"/>
-      <c r="T276" s="84"/>
+      <c r="P276" s="96"/>
+      <c r="Q276" s="96"/>
+      <c r="R276" s="96"/>
+      <c r="S276" s="96"/>
+      <c r="T276" s="96"/>
       <c r="U276" s="13"/>
       <c r="V276" s="13"/>
     </row>
-    <row r="277" spans="5:22">
-      <c r="E277" s="32"/>
-      <c r="F277" s="48"/>
-      <c r="G277" s="96" t="s">
-        <v>347</v>
-      </c>
-      <c r="H277" s="97"/>
-      <c r="I277" s="97"/>
-      <c r="J277" s="97"/>
-      <c r="K277" s="97"/>
-      <c r="L277" s="97"/>
-      <c r="M277" s="97"/>
-      <c r="N277" s="97"/>
-      <c r="O277" s="97"/>
-      <c r="P277" s="84"/>
-      <c r="Q277" s="84"/>
-      <c r="R277" s="84"/>
-      <c r="S277" s="84"/>
-      <c r="T277" s="84"/>
-      <c r="U277" s="13"/>
-      <c r="V277" s="13"/>
+    <row r="277" spans="5:22" s="102" customFormat="1">
+      <c r="E277" s="98"/>
+      <c r="F277" s="58"/>
+      <c r="G277" s="137" t="s">
+        <v>384</v>
+      </c>
+      <c r="H277" s="137"/>
+      <c r="I277" s="136"/>
+      <c r="J277" s="136"/>
+      <c r="K277" s="136"/>
+      <c r="L277" s="106"/>
+      <c r="M277" s="106"/>
+      <c r="N277" s="106"/>
+      <c r="O277" s="106"/>
+      <c r="P277" s="105"/>
+      <c r="Q277" s="105"/>
+      <c r="R277" s="105"/>
+      <c r="S277" s="105"/>
+      <c r="T277" s="105"/>
+      <c r="U277" s="105"/>
+      <c r="V277" s="105"/>
     </row>
     <row r="278" spans="5:22">
       <c r="E278" s="32"/>
       <c r="F278" s="48"/>
-      <c r="G278" s="96" t="s">
-        <v>350</v>
+      <c r="G278" s="138" t="s">
+        <v>385</v>
       </c>
       <c r="H278" s="97"/>
       <c r="I278" s="97"/>
       <c r="J278" s="97"/>
-      <c r="K278" s="97"/>
+      <c r="K278" s="139"/>
       <c r="L278" s="97"/>
       <c r="M278" s="97"/>
       <c r="N278" s="97"/>
@@ -13930,10 +14207,12 @@
       <c r="U278" s="13"/>
       <c r="V278" s="13"/>
     </row>
-    <row r="279" spans="5:22" s="92" customFormat="1">
-      <c r="E279" s="98"/>
-      <c r="F279" s="99"/>
-      <c r="G279" s="96"/>
+    <row r="279" spans="5:22">
+      <c r="E279" s="32"/>
+      <c r="F279" s="48"/>
+      <c r="G279" s="96" t="s">
+        <v>341</v>
+      </c>
       <c r="H279" s="97"/>
       <c r="I279" s="97"/>
       <c r="J279" s="97"/>
@@ -13947,13 +14226,15 @@
       <c r="R279" s="84"/>
       <c r="S279" s="84"/>
       <c r="T279" s="84"/>
-      <c r="U279" s="96"/>
-      <c r="V279" s="96"/>
-    </row>
-    <row r="280" spans="5:22" s="92" customFormat="1">
-      <c r="E280" s="98"/>
-      <c r="F280" s="99"/>
-      <c r="G280" s="96"/>
+      <c r="U279" s="13"/>
+      <c r="V279" s="13"/>
+    </row>
+    <row r="280" spans="5:22">
+      <c r="E280" s="32"/>
+      <c r="F280" s="48"/>
+      <c r="G280" s="96" t="s">
+        <v>344</v>
+      </c>
       <c r="H280" s="97"/>
       <c r="I280" s="97"/>
       <c r="J280" s="97"/>
@@ -13967,8 +14248,8 @@
       <c r="R280" s="84"/>
       <c r="S280" s="84"/>
       <c r="T280" s="84"/>
-      <c r="U280" s="96"/>
-      <c r="V280" s="96"/>
+      <c r="U280" s="13"/>
+      <c r="V280" s="13"/>
     </row>
     <row r="281" spans="5:22" s="92" customFormat="1">
       <c r="E281" s="98"/>
@@ -14110,41 +14391,53 @@
       <c r="U287" s="96"/>
       <c r="V287" s="96"/>
     </row>
-    <row r="288" spans="5:22">
-      <c r="E288" s="32"/>
-      <c r="F288" s="22" t="s">
+    <row r="288" spans="5:22" s="92" customFormat="1">
+      <c r="E288" s="98"/>
+      <c r="F288" s="99"/>
+      <c r="G288" s="96"/>
+      <c r="H288" s="97"/>
+      <c r="I288" s="97"/>
+      <c r="J288" s="97"/>
+      <c r="K288" s="97"/>
+      <c r="L288" s="97"/>
+      <c r="M288" s="97"/>
+      <c r="N288" s="97"/>
+      <c r="O288" s="97"/>
+      <c r="P288" s="84"/>
+      <c r="Q288" s="84"/>
+      <c r="R288" s="84"/>
+      <c r="S288" s="84"/>
+      <c r="T288" s="84"/>
+      <c r="U288" s="96"/>
+      <c r="V288" s="96"/>
+    </row>
+    <row r="289" spans="1:22" s="92" customFormat="1">
+      <c r="E289" s="98"/>
+      <c r="F289" s="99"/>
+      <c r="G289" s="96"/>
+      <c r="H289" s="97"/>
+      <c r="I289" s="97"/>
+      <c r="J289" s="97"/>
+      <c r="K289" s="97"/>
+      <c r="L289" s="97"/>
+      <c r="M289" s="97"/>
+      <c r="N289" s="97"/>
+      <c r="O289" s="97"/>
+      <c r="P289" s="84"/>
+      <c r="Q289" s="84"/>
+      <c r="R289" s="84"/>
+      <c r="S289" s="84"/>
+      <c r="T289" s="84"/>
+      <c r="U289" s="96"/>
+      <c r="V289" s="96"/>
+    </row>
+    <row r="290" spans="1:22">
+      <c r="E290" s="32"/>
+      <c r="F290" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G288" s="23"/>
-      <c r="H288" s="23"/>
-      <c r="I288" s="21"/>
-      <c r="J288" s="21"/>
-      <c r="K288" s="21"/>
-      <c r="L288" s="21"/>
-      <c r="M288" s="21"/>
-      <c r="N288" s="21"/>
-    </row>
-    <row r="289" spans="1:14">
-      <c r="E289" s="32"/>
-      <c r="F289" s="22"/>
-      <c r="G289" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="H289" s="24"/>
-      <c r="I289" s="21"/>
-      <c r="J289" s="21"/>
-      <c r="K289" s="21"/>
-      <c r="L289" s="21"/>
-      <c r="M289" s="21"/>
-      <c r="N289" s="21"/>
-    </row>
-    <row r="290" spans="1:14">
-      <c r="E290" s="32"/>
-      <c r="F290" s="22"/>
-      <c r="G290" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="H290" s="24"/>
+      <c r="G290" s="23"/>
+      <c r="H290" s="23"/>
       <c r="I290" s="21"/>
       <c r="J290" s="21"/>
       <c r="K290" s="21"/>
@@ -14152,13 +14445,13 @@
       <c r="M290" s="21"/>
       <c r="N290" s="21"/>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:22">
       <c r="E291" s="32"/>
-      <c r="F291" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="G291" s="23"/>
-      <c r="H291" s="23"/>
+      <c r="F291" s="22"/>
+      <c r="G291" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="H291" s="24"/>
       <c r="I291" s="21"/>
       <c r="J291" s="21"/>
       <c r="K291" s="21"/>
@@ -14166,15 +14459,13 @@
       <c r="M291" s="21"/>
       <c r="N291" s="21"/>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:22">
       <c r="E292" s="32"/>
-      <c r="F292" s="21"/>
+      <c r="F292" s="22"/>
       <c r="G292" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="H292" s="23" t="s">
-        <v>153</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="H292" s="24"/>
       <c r="I292" s="21"/>
       <c r="J292" s="21"/>
       <c r="K292" s="21"/>
@@ -14182,15 +14473,13 @@
       <c r="M292" s="21"/>
       <c r="N292" s="21"/>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:22">
       <c r="E293" s="32"/>
-      <c r="F293" s="21"/>
-      <c r="G293" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H293" s="28" t="s">
-        <v>138</v>
-      </c>
+      <c r="F293" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G293" s="23"/>
+      <c r="H293" s="23"/>
       <c r="I293" s="21"/>
       <c r="J293" s="21"/>
       <c r="K293" s="21"/>
@@ -14198,14 +14487,15 @@
       <c r="M293" s="21"/>
       <c r="N293" s="21"/>
     </row>
-    <row r="294" spans="1:14">
-      <c r="D294" s="72" t="s">
-        <v>321</v>
-      </c>
-      <c r="E294" s="73"/>
-      <c r="F294" s="68"/>
-      <c r="G294" s="68"/>
-      <c r="H294" s="68"/>
+    <row r="294" spans="1:22">
+      <c r="E294" s="32"/>
+      <c r="F294" s="21"/>
+      <c r="G294" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="H294" s="23" t="s">
+        <v>153</v>
+      </c>
       <c r="I294" s="21"/>
       <c r="J294" s="21"/>
       <c r="K294" s="21"/>
@@ -14213,14 +14503,15 @@
       <c r="M294" s="21"/>
       <c r="N294" s="21"/>
     </row>
-    <row r="295" spans="1:14">
-      <c r="D295" s="69"/>
-      <c r="E295" s="67" t="s">
-        <v>326</v>
-      </c>
-      <c r="F295" s="68"/>
-      <c r="G295" s="68"/>
-      <c r="H295" s="68"/>
+    <row r="295" spans="1:22">
+      <c r="E295" s="32"/>
+      <c r="F295" s="21"/>
+      <c r="G295" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="H295" s="28" t="s">
+        <v>138</v>
+      </c>
       <c r="I295" s="21"/>
       <c r="J295" s="21"/>
       <c r="K295" s="21"/>
@@ -14228,15 +14519,14 @@
       <c r="M295" s="21"/>
       <c r="N295" s="21"/>
     </row>
-    <row r="296" spans="1:14">
-      <c r="E296" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="F296" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="G296" s="21"/>
-      <c r="H296" s="21"/>
+    <row r="296" spans="1:22">
+      <c r="D296" s="72" t="s">
+        <v>317</v>
+      </c>
+      <c r="E296" s="73"/>
+      <c r="F296" s="68"/>
+      <c r="G296" s="68"/>
+      <c r="H296" s="68"/>
       <c r="I296" s="21"/>
       <c r="J296" s="21"/>
       <c r="K296" s="21"/>
@@ -14244,11 +14534,14 @@
       <c r="M296" s="21"/>
       <c r="N296" s="21"/>
     </row>
-    <row r="297" spans="1:14">
-      <c r="E297" s="32"/>
-      <c r="F297" s="21"/>
-      <c r="G297" s="21"/>
-      <c r="H297" s="21"/>
+    <row r="297" spans="1:22">
+      <c r="D297" s="69"/>
+      <c r="E297" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="F297" s="68"/>
+      <c r="G297" s="68"/>
+      <c r="H297" s="68"/>
       <c r="I297" s="21"/>
       <c r="J297" s="21"/>
       <c r="K297" s="21"/>
@@ -14256,12 +14549,13 @@
       <c r="M297" s="21"/>
       <c r="N297" s="21"/>
     </row>
-    <row r="298" spans="1:14">
-      <c r="B298" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E298" s="32"/>
-      <c r="F298" s="21"/>
+    <row r="298" spans="1:22">
+      <c r="E298" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F298" s="66" t="s">
+        <v>323</v>
+      </c>
       <c r="G298" s="21"/>
       <c r="H298" s="21"/>
       <c r="I298" s="21"/>
@@ -14271,10 +14565,7 @@
       <c r="M298" s="21"/>
       <c r="N298" s="21"/>
     </row>
-    <row r="299" spans="1:14">
-      <c r="C299" s="1" t="s">
-        <v>162</v>
-      </c>
+    <row r="299" spans="1:22">
       <c r="E299" s="32"/>
       <c r="F299" s="21"/>
       <c r="G299" s="21"/>
@@ -14286,72 +14577,72 @@
       <c r="M299" s="21"/>
       <c r="N299" s="21"/>
     </row>
-    <row r="300" spans="1:14">
-      <c r="A300" s="2" t="s">
+    <row r="300" spans="1:22">
+      <c r="B300" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E300" s="32"/>
+      <c r="F300" s="21"/>
+      <c r="G300" s="21"/>
+      <c r="H300" s="21"/>
+      <c r="I300" s="21"/>
+      <c r="J300" s="21"/>
+      <c r="K300" s="21"/>
+      <c r="L300" s="21"/>
+      <c r="M300" s="21"/>
+      <c r="N300" s="21"/>
+    </row>
+    <row r="301" spans="1:22">
+      <c r="C301" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E301" s="32"/>
+      <c r="F301" s="21"/>
+      <c r="G301" s="21"/>
+      <c r="H301" s="21"/>
+      <c r="I301" s="21"/>
+      <c r="J301" s="21"/>
+      <c r="K301" s="21"/>
+      <c r="L301" s="21"/>
+      <c r="M301" s="21"/>
+      <c r="N301" s="21"/>
+    </row>
+    <row r="302" spans="1:22">
+      <c r="A302" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D300" s="96" t="s">
-        <v>354</v>
-      </c>
-      <c r="E300" s="55"/>
-      <c r="F300" s="24"/>
-      <c r="G300" s="24"/>
-      <c r="H300" s="24"/>
-      <c r="I300" s="24"/>
-      <c r="J300" s="24"/>
-      <c r="K300" s="24"/>
-      <c r="L300" s="24"/>
-      <c r="M300" s="24"/>
-      <c r="N300" s="21"/>
-    </row>
-    <row r="301" spans="1:14" s="102" customFormat="1">
-      <c r="D301" s="105"/>
-      <c r="E301" s="108" t="s">
-        <v>358</v>
-      </c>
-      <c r="F301" s="108"/>
-      <c r="G301" s="108"/>
-      <c r="H301" s="108"/>
-      <c r="I301" s="108"/>
-      <c r="J301" s="108"/>
-      <c r="K301" s="24"/>
-      <c r="L301" s="24"/>
-      <c r="M301" s="24"/>
-      <c r="N301" s="21"/>
-    </row>
-    <row r="302" spans="1:14">
-      <c r="D302" s="105" t="s">
-        <v>355</v>
-      </c>
-      <c r="E302" s="109"/>
-      <c r="F302" s="106"/>
-      <c r="G302" s="106"/>
-      <c r="H302" s="106"/>
-      <c r="I302" s="106"/>
-      <c r="J302" s="106"/>
-      <c r="K302" s="106"/>
-      <c r="L302" s="106"/>
+      <c r="D302" s="96" t="s">
+        <v>348</v>
+      </c>
+      <c r="E302" s="55"/>
+      <c r="F302" s="24"/>
+      <c r="G302" s="24"/>
+      <c r="H302" s="24"/>
+      <c r="I302" s="24"/>
+      <c r="J302" s="24"/>
+      <c r="K302" s="24"/>
+      <c r="L302" s="24"/>
       <c r="M302" s="24"/>
       <c r="N302" s="21"/>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:22" s="102" customFormat="1">
       <c r="D303" s="105"/>
-      <c r="E303" s="106" t="s">
-        <v>356</v>
-      </c>
-      <c r="F303" s="106"/>
-      <c r="G303" s="106"/>
-      <c r="H303" s="106"/>
-      <c r="I303" s="106"/>
-      <c r="J303" s="106"/>
-      <c r="K303" s="106"/>
-      <c r="L303" s="106"/>
+      <c r="E303" s="108" t="s">
+        <v>352</v>
+      </c>
+      <c r="F303" s="108"/>
+      <c r="G303" s="108"/>
+      <c r="H303" s="108"/>
+      <c r="I303" s="108"/>
+      <c r="J303" s="108"/>
+      <c r="K303" s="24"/>
+      <c r="L303" s="24"/>
       <c r="M303" s="24"/>
       <c r="N303" s="21"/>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:22">
       <c r="D304" s="105" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E304" s="109"/>
       <c r="F304" s="106"/>
@@ -14365,39 +14656,69 @@
       <c r="N304" s="21"/>
     </row>
     <row r="305" spans="3:14">
-      <c r="C305" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D305" s="13"/>
-      <c r="E305" s="24"/>
-      <c r="F305" s="24"/>
-      <c r="G305" s="24"/>
-      <c r="H305" s="24"/>
-      <c r="I305" s="24"/>
-      <c r="J305" s="24"/>
-      <c r="K305" s="24"/>
-      <c r="L305" s="24"/>
+      <c r="D305" s="105"/>
+      <c r="E305" s="106" t="s">
+        <v>350</v>
+      </c>
+      <c r="F305" s="106"/>
+      <c r="G305" s="106"/>
+      <c r="H305" s="106"/>
+      <c r="I305" s="106"/>
+      <c r="J305" s="106"/>
+      <c r="K305" s="106"/>
+      <c r="L305" s="106"/>
       <c r="M305" s="24"/>
       <c r="N305" s="21"/>
     </row>
     <row r="306" spans="3:14">
-      <c r="D306" s="2" t="s">
+      <c r="D306" s="105" t="s">
+        <v>351</v>
+      </c>
+      <c r="E306" s="109"/>
+      <c r="F306" s="106"/>
+      <c r="G306" s="106"/>
+      <c r="H306" s="106"/>
+      <c r="I306" s="106"/>
+      <c r="J306" s="106"/>
+      <c r="K306" s="106"/>
+      <c r="L306" s="106"/>
+      <c r="M306" s="24"/>
+      <c r="N306" s="21"/>
+    </row>
+    <row r="307" spans="3:14">
+      <c r="C307" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D307" s="13"/>
+      <c r="E307" s="24"/>
+      <c r="F307" s="24"/>
+      <c r="G307" s="24"/>
+      <c r="H307" s="24"/>
+      <c r="I307" s="24"/>
+      <c r="J307" s="24"/>
+      <c r="K307" s="24"/>
+      <c r="L307" s="24"/>
+      <c r="M307" s="24"/>
+      <c r="N307" s="21"/>
+    </row>
+    <row r="308" spans="3:14">
+      <c r="D308" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E306" s="21"/>
-    </row>
-    <row r="307" spans="3:14">
-      <c r="E307" s="21"/>
-    </row>
-    <row r="308" spans="3:14">
       <c r="E308" s="21"/>
+    </row>
+    <row r="309" spans="3:14">
+      <c r="E309" s="21"/>
+    </row>
+    <row r="310" spans="3:14">
+      <c r="E310" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:AA1"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="A138:A139 A146:A147 A253:A257 A149:A197 A206:A251 A107:A136 A97:A105 A1:A95 A261:A1048576">
+  <phoneticPr fontId="14" type="noConversion"/>
+  <conditionalFormatting sqref="A138:A139 A146:A147 A254:A258 A149:A198 A207:A252 A107:A136 A97:A105 A1:A95 A262:A1048576">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -14429,32 +14750,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="22.5">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
     </row>
     <row r="2" spans="1:24">
       <c r="B2" s="32" t="s">
@@ -14529,7 +14850,7 @@
         <v>181</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>182</v>
@@ -14570,7 +14891,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:X1"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14580,8 +14901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA134"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView topLeftCell="B34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -14591,34 +14912,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="21" customFormat="1" ht="22.5">
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="128"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="134"/>
     </row>
     <row r="2" spans="1:27" s="14" customFormat="1">
       <c r="B2" s="14" t="s">
@@ -14862,7 +15183,7 @@
     </row>
     <row r="18" spans="2:16" s="13" customFormat="1">
       <c r="C18" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -15237,7 +15558,7 @@
       <c r="G40" s="13"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -15275,7 +15596,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -15295,7 +15616,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="76" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M43" s="76"/>
       <c r="N43" s="76"/>
@@ -15314,7 +15635,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="76" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M44" s="76"/>
       <c r="N44" s="76"/>
@@ -15333,7 +15654,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="76" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M45" s="76"/>
       <c r="N45" s="76"/>
@@ -15824,7 +16145,7 @@
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="74" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G79" s="74"/>
       <c r="H79" s="74"/>
@@ -15863,7 +16184,7 @@
       <c r="D82" s="13"/>
       <c r="E82" s="2"/>
       <c r="F82" s="13" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
@@ -15876,7 +16197,7 @@
       <c r="D83" s="13"/>
       <c r="E83" s="2"/>
       <c r="F83" s="13" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
@@ -16190,7 +16511,7 @@
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -16289,7 +16610,7 @@
       <c r="D115" s="13"/>
       <c r="E115" s="21"/>
       <c r="F115" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K115" s="13"/>
       <c r="L115" s="13"/>
@@ -16339,7 +16660,7 @@
         <v>146</v>
       </c>
       <c r="G118" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
@@ -16453,7 +16774,7 @@
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
       <c r="F125" s="21" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G125" s="21"/>
       <c r="H125" s="21"/>
@@ -16476,13 +16797,13 @@
     <row r="128" spans="2:17">
       <c r="F128" s="22"/>
       <c r="G128" s="63" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="129" spans="5:8">
       <c r="F129" s="22"/>
       <c r="G129" s="63" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="130" spans="5:8">
@@ -16506,21 +16827,21 @@
     </row>
     <row r="133" spans="5:8">
       <c r="E133" s="14" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F133" s="55"/>
     </row>
     <row r="134" spans="5:8">
       <c r="E134" s="13"/>
       <c r="F134" s="63" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:AA1"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A1:A6 A8:A1048576">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -16536,7 +16857,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16585,13 +16906,13 @@
         <v>34</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>42</v>
@@ -16664,16 +16985,16 @@
     </row>
     <row r="5" spans="1:18" s="24" customFormat="1">
       <c r="A5" s="64" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C5" s="64" t="s">
         <v>125</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E5" s="64"/>
       <c r="F5" s="65"/>
@@ -16803,7 +17124,7 @@
       <c r="K14" s="26"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16833,18 +17154,18 @@
         <v>42198</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J2" s="50" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="12" customFormat="1" ht="17.25">
       <c r="B3" s="32" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -16853,7 +17174,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="32" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
@@ -16862,7 +17183,7 @@
     </row>
     <row r="4" spans="1:13" s="12" customFormat="1" ht="17.25">
       <c r="B4" s="21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -16883,7 +17204,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D5" s="21">
         <v>1</v>
@@ -16903,7 +17224,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D6" s="21">
         <v>1</v>
@@ -16923,7 +17244,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D7" s="21">
         <v>1</v>
@@ -16943,7 +17264,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D8" s="21">
         <v>1.5</v>
@@ -16974,7 +17295,7 @@
     </row>
     <row r="10" spans="1:13" s="12" customFormat="1" ht="17.25">
       <c r="B10" s="21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -16993,7 +17314,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D11" s="21">
         <v>1</v>
@@ -17013,7 +17334,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D12" s="21">
         <v>1.5</v>
@@ -17024,7 +17345,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D13" s="21">
         <v>1</v>
@@ -17032,12 +17353,12 @@
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="32" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="C16" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D16" s="21">
         <v>4</v>
@@ -17048,26 +17369,26 @@
         <v>42341</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="B19" s="98" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I19" s="98" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="C20" s="129" t="s">
-        <v>360</v>
+      <c r="C20" s="114" t="s">
+        <v>354</v>
       </c>
       <c r="D20" s="21">
         <v>0.5</v>
@@ -17078,12 +17399,12 @@
     </row>
     <row r="21" spans="1:10">
       <c r="B21" s="98" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="B22" s="21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -17091,7 +17412,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D23" s="21">
         <v>1</v>
@@ -17101,20 +17422,141 @@
       <c r="B24" s="21">
         <v>2</v>
       </c>
-      <c r="C24" s="129" t="s">
-        <v>362</v>
+      <c r="C24" s="114" t="s">
+        <v>356</v>
       </c>
       <c r="D24" s="21">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.625" style="115" customWidth="1"/>
+    <col min="2" max="2" width="9" style="115"/>
+    <col min="3" max="3" width="23" style="115" customWidth="1"/>
+    <col min="4" max="4" width="31" style="115" customWidth="1"/>
+    <col min="5" max="5" width="51.625" style="115" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="115"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="116" customFormat="1">
+      <c r="A1" s="116" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="117" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" s="116" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" s="116" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="116" t="s">
+        <v>361</v>
+      </c>
+      <c r="F1" s="116" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="115" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" s="115" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="115">
+        <v>1</v>
+      </c>
+      <c r="C3" s="115" t="s">
+        <v>365</v>
+      </c>
+      <c r="E3" s="115" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="132" customHeight="1">
+      <c r="B4" s="115">
+        <v>2</v>
+      </c>
+      <c r="C4" s="115" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" s="118" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="115">
+        <v>3</v>
+      </c>
+      <c r="C5" s="115" t="s">
+        <v>369</v>
+      </c>
+      <c r="E5" s="115" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="115">
+        <v>4</v>
+      </c>
+      <c r="C6" s="115" t="s">
+        <v>370</v>
+      </c>
+      <c r="E6" s="115" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="115">
+        <v>5</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>372</v>
+      </c>
+      <c r="E7" s="115" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9" s="115" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="115">
+        <v>1</v>
+      </c>
+      <c r="C10" s="115" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
@@ -17485,7 +17927,7 @@
       <c r="M50" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gd/交互系统/邮箱系统设计.xlsx
+++ b/gd/交互系统/邮箱系统设计.xlsx
@@ -17,453 +17,454 @@
     <sheet name="自用" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_2._已读邮件的定义">'逻辑+UI'!$C$307</definedName>
+    <definedName name="_2._已读邮件的定义">'逻辑+UI'!$C$308</definedName>
     <definedName name="_3、功能界面">#REF!</definedName>
     <definedName name="_4、录音模式">#REF!</definedName>
     <definedName name="_5_、功能按钮">#REF!</definedName>
     <definedName name="打开邮箱UI时_刷新邮件。UI开启的过程中_若有新邮件来_界面立即刷新。">'逻辑+UI'!$D$53</definedName>
-    <definedName name="第二个">'逻辑+UI'!$G$276:$J$276</definedName>
-    <definedName name="对应道具进包_增长对应经验以及金币、钻石、活力值_提取按钮消失_所有附件框右上角出现”对勾“图标_代表已收取_。">'逻辑+UI'!$G$278</definedName>
+    <definedName name="第二个">'逻辑+UI'!$G$277:$J$277</definedName>
+    <definedName name="对应道具进包_增长对应经验以及金币、钻石、活力值_提取按钮消失_所有附件框右上角出现”对勾“图标_代表已收取_。">'逻辑+UI'!$G$279</definedName>
     <definedName name="二、聊天框玩家名称">美术需求!$B$27</definedName>
-    <definedName name="附件可以为道具、金币、钻石、经验、活力值_均以图标形式显示_调取道具图标即可_数字采用程序字即可。">'逻辑+UI'!$F$251</definedName>
-    <definedName name="活力值达到上限仍然收取成功_多于上限的活力值作废。">'逻辑+UI'!$F$197</definedName>
-    <definedName name="金币钻石达到上限的处理符合通用规则。">'逻辑+UI'!$F$196</definedName>
-    <definedName name="若当前邮箱已满_玩家正在读取最后一封邮件_此时有新邮件进入_则邮箱界面右侧保持玩家读取的邮件不变_左侧邮件列表刷新。">'逻辑+UI'!$E$142</definedName>
-    <definedName name="若无邮件_则列表处为空着即可。">'逻辑+UI'!$F$133:$H$133</definedName>
-    <definedName name="若邮件不包含附件_则附件处空着即可。">'逻辑+UI'!$F$262</definedName>
-    <definedName name="若邮箱已满_玩家打开邮箱_又收到x封新邮件_则邮箱界面时时刷新_新邮件会根据上面的规则定掉老邮件。">'逻辑+UI'!$E$141</definedName>
+    <definedName name="附件可以为道具、金币、钻石、经验、活力值_均以图标形式显示_调取道具图标即可_数字采用程序字即可。">'逻辑+UI'!$F$252</definedName>
+    <definedName name="活力值达到上限仍然收取成功_多于上限的活力值作废。">'逻辑+UI'!$F$198</definedName>
+    <definedName name="金币钻石达到上限的处理符合通用规则。">'逻辑+UI'!$F$197</definedName>
+    <definedName name="若当前邮箱已满_玩家正在读取最后一封邮件_此时有新邮件进入_则邮箱界面右侧保持玩家读取的邮件不变_左侧邮件列表刷新。">'逻辑+UI'!$E$143</definedName>
+    <definedName name="若当前右侧邮件存在附件没领取_则右侧界面保持不变_左侧邮件列表刷新_若没有附件或者附件已领取_则右侧邮件刷没_左侧列表刷新">'逻辑+UI'!$D$54</definedName>
+    <definedName name="若无邮件_则列表处为空着即可。">'逻辑+UI'!$F$134:$H$134</definedName>
+    <definedName name="若邮件不包含附件_则附件处空着即可。">'逻辑+UI'!$F$263</definedName>
+    <definedName name="若邮箱已满_玩家打开邮箱_又收到x封新邮件_则邮箱界面时时刷新_新邮件会根据上面的规则定掉老邮件。">'逻辑+UI'!$E$142</definedName>
     <definedName name="三、走马灯">美术需求!$B$72</definedName>
     <definedName name="四、系统公告提示">美术需求!#REF!</definedName>
     <definedName name="五、提示信息">美术需求!#REF!</definedName>
-    <definedName name="系统邮件正文内容汉字数上限500">'逻辑+UI'!$F$248</definedName>
+    <definedName name="系统邮件正文内容汉字数上限500">'逻辑+UI'!$F$249</definedName>
     <definedName name="显示格式">#REF!</definedName>
     <definedName name="邮件标题采用文字缩放规则显示">'逻辑+UI'!#REF!</definedName>
     <definedName name="长按才能录音_松手后直接发送录音内容。">#REF!</definedName>
-    <definedName name="自动删除动画_被删除的邮件直接消失_下方邮件自动向上提">'逻辑+UI'!$E$303</definedName>
+    <definedName name="自动删除动画_被删除的邮件直接消失_下方邮件自动向上提">'逻辑+UI'!$E$304</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="391">
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>提示方式</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>触发条件</t>
   </si>
   <si>
     <t>提示范围</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>文字内容</t>
   </si>
   <si>
     <t>系统公告</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>我只想告诉你，注意用词：</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>基础聊天框</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>左侧聊天框</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>聊天输入框</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>循环提示信息——&gt;放在loading做提示比较合适</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>系统频道的提示信息颜色可配置</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>走马灯</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>基础聊天显示框</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>左侧聊天显示框</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>左侧聊天频道按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>基础聊天显示框隐藏按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>控件类型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示位置</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>出现/隐藏规则</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>按钮文案</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>按钮操作</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>按钮样式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>系统提示信息的关键字</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>则往平行线以上趋势的滑动都判定为向上，往平行线以下趋势的滑动都判定为向下，</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>见示意图</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（非警示）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（警示）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮箱系统设计</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮箱系统相关逻辑说明</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>svn://10.21.2.47/gd/交互系统/邮箱系统设计.xlsx</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>一、邮箱系统概述</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>二、进入邮箱系统</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>邮箱系统</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>通过游戏主功能界面的邮箱UI进入邮箱。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>邮箱UI</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>点击邮箱UI，打开邮箱界面。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>美术需求</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>项目</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>效果示意</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1. 主界面邮箱UI</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">      邮箱UI</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>三、邮箱界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>界面标题</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>邮件列表</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>界面标题</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>按下</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2.邮箱界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮件列表</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>新邮件提示</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>类似效果</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>进入邮箱</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>玩家邮箱中不包含未读取邮件时，红点才会消失。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>当玩家邮箱中包含未读取邮件时，邮箱UI处会有提示，表现为按钮右上方标示一红点。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>未读取邮件提示，UI右上方标示一红点。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮件样式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮件类型图标</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>图标类似效果</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>（不要右下角的那个字）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>2）包含附件的邮件</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>邮件标题</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>具体内容根据邮件配置显示。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>发件人</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>显示  “来自：XXXX”，XXX根据邮件配置显示。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>发件人最多支持显示6个汉字及对应的字符</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>显示邮件标题</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>发件日期</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>显示邮件发送日期</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>邮件状态提示图标</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>类似效果</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>邮件排列</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>信件按照两个层级的顺序排列。优先第一层级排列，再按照第二层级排列。</t>
@@ -473,433 +474,433 @@
   </si>
   <si>
     <t>多于1页时，可通过拖动显示其他邮件。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>拖动操作</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>向上、向下滑动的定义</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>取一条与手机屏幕平行的线，且穿过手指落点，</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>手指落点</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>手指滑到一个点停留后，该点成为新的判定落点。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>拖动时，已有信息立刻变化，信息状态会停留在手指离开屏幕时的状态（即此时显示半字，也不进行适配）。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>手指按下的落点若在邮件列表范围内，判定为针对邮件列表内容操作。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>手指向上滑动，则信息向上滚动；手指向下滑动，则信息向下滚动。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮件标题最多支持显示10个汉字及对应的字符（遵循敏感字与屏蔽字统一规则）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>没有邮件的情况</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>邮件数量/最大邮件数量</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>一键领取按钮</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>邮件内容显示框</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>收取顺序：按照邮件排列顺序，由上到下逐封收取</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>收取操作只会对当前选中的切页的邮件有效。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1）纯文字邮件（不包含附件的邮件）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>mail_record_001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>玩家自己</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>自动收取含有附件的邮件，包括未读和已读；纯文字邮件也进行收取操作。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>没有可收取的邮件</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮件标题</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>发件日期</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>发件人</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>邮件正文</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>附件列表</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>收取按钮</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>打开邮箱界面时，默认邮件内容显示框不显示任何邮件内容，空着。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>发件人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>规则同邮件列表的发件人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>发件日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>待定</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>规则同邮件列表的发件日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示邮件正文</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>每行最大显示19个汉字或者对应字符，每页最多显示5行</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示邮件中的附件</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>附件</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>参考效果</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>显示道具图标，若数量大于1，则在图标上标示数量，若为1个，则不标示数量，只显示图标</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>经验/金币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>点击道具，会出现对应的tips，遵循道具的tips规则</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>收取按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>按下</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>事件</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>音效资源</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>收取附件成功</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面显示时显示，其余时间不显示</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>一键领取</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>使用者注意：寄送物品如果填数量，数量需要小于等于物品规定的堆叠上限。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮箱系统配置结构</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>系统邮件没有发送数量上限。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>四、其他逻辑</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>1. 邮件的自动删除</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>2. 已读邮件的定义</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>每收取一封邮件时，不会在邮件内容显示框显示对应内容。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>没有可操作的邮件哦！</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>附件数量每封邮件不能超过5个。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>发信原因</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>发信人</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>主题</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>信件内容</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>TEXT</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>TEXT</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>NUM</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>reasonMail</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>sender</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>subject</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>content</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>标识邮件内容
 命名规则：mail_系统名_001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>可配置文案
 默认为：系统</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>可配置文案，支持换行、变色
 默认为空</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>当邮件玩家未操作时，显示图标，玩家点击邮件后，图标消失。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>邮箱系统只提供接收系统邮件的功能，主要用于系统为玩家发送奖励等。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>当玩家未对邮件操作时，显示图标，玩家点击邮件后，图标消失。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>沿平行线滑动手指，不滚动。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示选中邮件的标题，居中显示</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>已有邮件数量/最大邮件数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>每删除1个邮件，已有邮件数量减1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮件数量/最大邮件数量</t>
   </si>
   <si>
     <t>最大邮件数量暂定为300</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>采用通用UI的提示窗口</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>当邮箱邮件数量大于等于280时，玩家每次打开邮箱，都会弹出提示框如下：</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>当邮箱邮件数量大于等于300时，玩家每次打开邮箱，都会弹出提示框如下：</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>mail_record_002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>若没有，则点击按钮不进行领取操作，同时弹出提示信息mail_record_001。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>收取成功！</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>玩家在邮件列表点击一次后，即算已读状态。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>日期格式建议修改，与老外的习惯相符合</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>一键领取了带有附件的新邮件，这个图标消失么？</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>滚动条这个跟其他系统统一风格吧，不要沿用战音的设计了</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>数值程序字？</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>不能是已读就删吧，还要判断有没有收取附件</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>这块配置格式问下程序是不是用副本结算的配置格式吧</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>这个是不是等主界面的时候做？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>一些重要的文字邮件也不留么，比如“大返利，充1送100”</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>这块全用道具系统的显示方式就行</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>金币和经验不知道道具有没有显示方式</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>前面说系统邮件没有发送数量上限，如果发送的系统邮件超过300如何？</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>5个的限制将来如果出了玩家间邮件也限制5个？</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>另外邮件是否有过期时间？如果有，过期和上线限制一个就行吧</t>
@@ -948,7 +949,7 @@
     <rPh sb="27" eb="28">
       <t>b</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>没有删除功能，这个提示不太好吧</t>
@@ -976,7 +977,7 @@
     <rPh sb="14" eb="15">
       <t>b</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>这期间收到的邮件是消失了还是系统暂存了？顶替旧的比较好吧</t>
@@ -998,109 +999,109 @@
     <rPh sb="7" eb="8">
       <t>b</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>删了</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>一键领取之后，邮件都消失啦</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>2.按接收邮件的时间从后到前顺序排列，最前显示最新接收的信件。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>当邮箱邮件数量达到300时，若有新邮件，则新邮件会顶替掉旧邮件，超出几封则顶掉几封，按接收时间顺序从后到前顺序顶掉，即最早接收的最先被顶掉。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>提示信息内容：邮箱即将爆仓，请及时收取邮件</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>没有过期时间</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>提示信息内容：邮箱已经爆仓，快快收取邮件</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>多于1页时，通过拖动操作可查看超过的内容。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>是的</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>显示格式为  “XX-XX-XXXX“</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>代表XX月XX日XXXX年</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示道具图标，符合道具系统的显示规则</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>经验和金币采用右图规则即可</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>需求都是要提的呀~</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>测试反馈回归</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>rewardID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>附件</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>配置reward的ID。
 具体的发放道具、经验、金币都配在reward表中。
 默认为空</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>窗口类型</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>一级窗口</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>MT、辛炜、珍珍、木木、兔桑、雷神、帆爷、小珍、小龙、雪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>讨论邮箱系统逻辑，回归会议问题</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>回归三方问题</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1117,364 +1118,360 @@
       </rPr>
       <t>需求设计规范附件不能超过5个，且不会直接赠送宠物，可通过赠送宠物碎片达到赠送宠物的设计目的</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>附件可以为道具、金币、钻石、经验，均以图标形式显示，调取道具图标即可，数字采用程序字即可。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>收取时，玩家已经满级（经验已达最大值），不影响收取，多余的经验作废。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>显示经验/金币/钻石图标，图标右下角标示经验/金币/钻石数值</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>由于什么原因，需要调用到系统邮件功能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>对应工时（单位：d）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面所有内容</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面基本布局</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮件列表部分</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮件内容及附件部分</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮件限制，收取，删除功能（包括一键领取）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>数据结构+初始化+配置表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>看信+收取+全部收取</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>发信</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>位置1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>若邮件不包含附件，则附件处空着即可。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>位置2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>若邮件不包含附件，则附件处空着即可</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>去掉界面空着时的提示图和提示文字显示需求</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>对应英文</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>公会频道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>世界频道</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>去掉邮件附件位置显示的”附件“两个字</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>按照标准格式回归”提示信息“切页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮件标题采用文字缩放规则显示</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>系统邮件正文内容汉字数上限500</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>文字支持变色、换行功能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮箱开启过程中，有新邮件来，界面刷新</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮件正文汉字上限回归</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>若邮箱已满，玩家打开邮箱，又收到x封新邮件，则邮箱界面时时刷新，新邮件会根据上面的规则定掉老邮件。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>邮箱开启时邮箱满且又收到新邮件的处理</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>若当前邮箱已满，玩家正在读取最后一封邮件，此时有新邮件进入，则邮箱界面右侧保持玩家读取的邮件不变，左侧邮件列表刷新。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>收取邮件失败</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>若最后一封邮件包含附件，则此时玩家进行收取操作，收取失败，弹出IM提示信息mail_record_005。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>mail_record_005</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮件已过期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>位置1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>位置2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开邮箱UI时，刷新邮件。UI开启的过程中，若有新邮件来，界面立即刷新（邮箱界面右侧保持玩家读取的邮件不变，左侧邮件列表刷新）。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮箱满时的刷新逻辑</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>金币、钻石达到上限不终止邮箱收取操作</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>多语言id</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>mail_title</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>每页最多显示邮件数量以美术图为准，最后一封半个显示。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>mail_laizi</t>
   </si>
   <si>
     <t>mail_youxiangjiangman</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>mail_youxiangyiman</t>
   </si>
   <si>
     <t>mail_yijianlingqu</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>确认收取所有邮件吗？</t>
   </si>
   <si>
     <t>提示信息内容</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>mail_shouquall</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>mail_coinmanle</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>点击”取消“，关闭二级，操作取消；</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮，判断是否有邮件，若有，则弹出二级提示框：</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>点击”确定“，进行每封的收取操作：</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>邮箱改版内容</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>收取成功的邮件从邮件列表中清除，清空邮件内容显示框。客户端会在收取完成后一次刷新邮件列表和邮件内容显示框。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>每行最大显示字符数和每页最多显示行数根据美术效果图定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮件样式需要有整体选中状态</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>在左侧邮件列表点击邮件，邮件变为选中状态且右侧即显示对应邮件内容。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>1）当邮件包含附件时，按钮文案为”收取“</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>mail_shouqu</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>2）当邮件不包含附件时，按钮文案为”删除“</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>返回按钮</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>提示信息</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>返回按钮</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面显示时显示</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮，关闭邮箱界面，返回到主界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>显示  ”邮件将在领取附件后自动删除“</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>mail_zidongshantips</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>list_empty</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>效果同装备列表即可。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>若无邮件，则列表处显示提示信息“别找了，啥都没有…”</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>对比之前的在字体和行间距方面应做的修改（根据集体测试反馈的问题）：</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2）改小右侧邮件标题的字号，和左边的列表邮件标题协调一致</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1）减小邮件正文内容的行间距</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>现在是右边的邮件标题字号比左侧列表邮件标题字号大太多了</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>玩家拥有金币、钻石</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>逻辑同主界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>若全部邮件收取成功，则清空邮件列表以及邮件内容显示框，同时弹出提示框如下：客户端会在收取完成后一次刷新邮件列表和邮件内容显示框。</t>
@@ -1487,11 +1484,11 @@
   </si>
   <si>
     <t>多语言id</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>mail_CollectedAll</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>收取</t>
@@ -1510,22 +1507,22 @@
   </si>
   <si>
     <t>点击按钮，收取附件且弹出提示信息mail_record_002。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>收取后的效果示意</t>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1. 全部收取不展示获得内容，保留原方案</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2. 收取邮件逻辑保留原方案</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>不包含附件的邮件：已读取的邮件，会在玩家点击邮件列表其他邮件时，自动从列表中清除。</t>
@@ -1541,54 +1538,54 @@
   </si>
   <si>
     <t>自动删除动画：被删除的邮件直接消失，下方邮件自动向上提</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>3. 增加邮件自动删除时的动画</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>做删除动画</t>
   </si>
   <si>
     <t xml:space="preserve">添加选中/提示/重摆UI  </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>本次验收内容</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>具体内容</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>验收结果</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2015.12.9</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮箱改版内容</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>玩家拥有金币、钻石</t>
@@ -1598,43 +1595,43 @@
   </si>
   <si>
     <t>邮件样式需要有整体选中状态</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>没有邮件的情况</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>没有邮件的情况</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>一键收取</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>一键收取前没有弹出二级确认框，直接进行了收取操作</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>提示信息</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>选中一封带附件的邮件不收取，关闭邮箱，再打开邮箱，该邮件仍显示选中</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>补充的新需求</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮箱能够发送活力值</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>附件可以为道具、金币、钻石、经验、活力值，均以图标形式显示，调取道具图标即可，数字采用程序字即可。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1650,7 +1647,7 @@
       </rPr>
       <t>/活力值</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1676,19 +1673,19 @@
       </rPr>
       <t>图标，图标右下方标示经验/金币/钻石数值</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮箱补充能够赠送活力值的需求</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>添加策划验收切页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1714,40 +1711,63 @@
       </rPr>
       <t>达到上限，收取将无法继续获得</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>金币钻石达到上限的处理符合通用规则。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>活力值达到上限仍然收取成功，多于上限的活力值作废。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>对应道具进包，增长对应经验以及金币、钻石、活力值，提取按钮消失，所有附件框右上角出现”对勾“图标（代表已收取）。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>位置3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>该邮件中对应道具进包，增长对应经验以及金币、钻石、活力值。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>若当前右侧邮件存在附件没领取，则右侧界面保持不变，左侧邮件列表刷新；若没有附件或者附件已领取，则右侧邮件刷没，左侧列表刷新</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开邮箱UI时，刷新邮件。UI开启的过程中，若有新邮件来，界面立即刷新。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充刷新特殊情况处理规则</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2294,282 +2314,284 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2597,10 +2619,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FF0099FF"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF99FFCC"/>
-      <color rgb="FFFF99CC"/>
       <color rgb="FF1BDF4E"/>
       <color rgb="FFFF99FF"/>
       <color rgb="FF6699FF"/>
@@ -2664,14 +2686,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3174</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>45910</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>45911</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3028,13 +3050,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3078,13 +3100,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3139,13 +3161,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3189,13 +3211,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3250,13 +3272,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3300,13 +3322,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3361,13 +3383,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3411,13 +3433,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3472,13 +3494,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3522,13 +3544,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3583,14 +3605,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>95896</xdr:rowOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>95897</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3621,13 +3643,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>380952</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>152355</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3659,13 +3681,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3697,13 +3719,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3735,13 +3757,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3789,13 +3811,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3843,13 +3865,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3890,13 +3912,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3934,13 +3956,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3983,13 +4005,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4030,13 +4052,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4077,13 +4099,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4124,13 +4146,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4173,13 +4195,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>388651</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>215807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4222,13 +4244,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4269,13 +4291,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>287624</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>108043</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4318,13 +4340,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>215807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>287624</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4417,13 +4439,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4464,13 +4486,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4514,13 +4536,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>106363</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4564,13 +4586,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>87313</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4614,13 +4636,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>96838</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4664,13 +4686,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>115888</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4714,13 +4736,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4764,14 +4786,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>601871</xdr:colOff>
-      <xdr:row>256</xdr:row>
-      <xdr:rowOff>180977</xdr:rowOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4802,13 +4824,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9223</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>133311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4890,13 +4912,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4945,13 +4967,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>53423</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>94422</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>642969</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>152294</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5021,13 +5043,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5088,13 +5110,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5143,13 +5165,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>34373</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>75372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>623919</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>133244</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5219,13 +5241,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5280,13 +5302,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>66540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5318,14 +5340,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>171392</xdr:rowOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>171391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5406,13 +5428,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>147079</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5503,14 +5525,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>140806</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>425446</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>152644</xdr:rowOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>152643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5655,14 +5677,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>236144</xdr:colOff>
-      <xdr:row>289</xdr:row>
-      <xdr:rowOff>8282</xdr:rowOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10708,10 +10730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L44"/>
+  <dimension ref="A2:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -10770,17 +10792,17 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1">
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="126" t="s">
+      <c r="C12" s="130"/>
+      <c r="D12" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="127"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="132"/>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="6" t="s">
@@ -10789,76 +10811,76 @@
       <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="130"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="135"/>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="133"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="138"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="121"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="126"/>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="121"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="126"/>
     </row>
     <row r="19" spans="1:12" ht="17.25" thickBot="1">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="123"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="128"/>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickTop="1"/>
     <row r="21" spans="1:12">
@@ -11016,7 +11038,7 @@
         <v>282</v>
       </c>
       <c r="G33" s="57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -11024,7 +11046,7 @@
       <c r="C34" s="11"/>
       <c r="E34" s="45"/>
       <c r="G34" s="57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J34" s="38" t="s">
         <v>288</v>
@@ -11040,10 +11062,10 @@
       </c>
       <c r="E35" s="59"/>
       <c r="F35" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -11053,7 +11075,7 @@
       </c>
       <c r="E36" s="100"/>
       <c r="F36" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>241</v>
@@ -11066,7 +11088,7 @@
       <c r="E37" s="93"/>
       <c r="F37" s="93"/>
       <c r="G37" s="94" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="92" customFormat="1">
@@ -11076,7 +11098,7 @@
       <c r="E38" s="93"/>
       <c r="F38" s="93"/>
       <c r="G38" s="94" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="102" customFormat="1">
@@ -11086,7 +11108,7 @@
       <c r="E39" s="103"/>
       <c r="F39" s="103"/>
       <c r="G39" s="110" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="102" customFormat="1">
@@ -11097,16 +11119,16 @@
       <c r="D40" s="103"/>
       <c r="E40" s="46"/>
       <c r="F40" s="103" t="s">
+        <v>378</v>
+      </c>
+      <c r="G40" s="110" t="s">
         <v>379</v>
-      </c>
-      <c r="G40" s="110" t="s">
-        <v>380</v>
       </c>
       <c r="J40" s="38" t="s">
         <v>265</v>
       </c>
       <c r="K40" s="38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="102" customFormat="1">
@@ -11116,47 +11138,61 @@
       <c r="E41" s="100"/>
       <c r="F41" s="103"/>
       <c r="G41" s="110" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="102" customFormat="1">
+      <c r="A42" s="101"/>
+      <c r="C42" s="104">
+        <v>42354</v>
+      </c>
+      <c r="D42" s="103"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="103" t="s">
+        <v>387</v>
+      </c>
+      <c r="G42" s="110" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="11">
-        <v>42226</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="C44" s="11">
+        <v>42226</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="G45" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11170,7 +11206,7 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K26" location="若无邮件_则列表处为空着即可。" display="位置1"/>
     <hyperlink ref="L26" location="若邮件不包含附件_则附件处空着即可。" display="位置2"/>
@@ -11185,6 +11221,7 @@
     <hyperlink ref="G40" location="附件可以为道具、金币、钻石、经验、活力值_均以图标形式显示_调取道具图标即可_数字采用程序字即可。" display="邮箱补充能够赠送活力值的需求"/>
     <hyperlink ref="J40" location="活力值达到上限仍然收取成功_多于上限的活力值作废。" display="位置2"/>
     <hyperlink ref="K40" location="对应道具进包_增长对应经验以及金币、钻石、活力值_提取按钮消失_所有附件框右上角出现”对勾“图标_代表已收取_。" display="位置3"/>
+    <hyperlink ref="G42" location="若当前右侧邮件存在附件没领取_则右侧界面保持不变_左侧邮件列表刷新_若没有附件或者附件已领取_则右侧邮件刷没_左侧列表刷新" display="补充刷新特殊情况处理规则"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11192,10 +11229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA310"/>
+  <dimension ref="A1:AA311"/>
   <sheetViews>
-    <sheetView topLeftCell="B265" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G278" sqref="G278"/>
+    <sheetView topLeftCell="B37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -11205,34 +11242,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" s="21" customFormat="1" ht="22.5">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="134"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="139"/>
     </row>
     <row r="2" spans="2:27">
       <c r="B2" s="30" t="s">
@@ -11370,7 +11407,7 @@
         <v>74</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -11415,7 +11452,7 @@
     </row>
     <row r="26" spans="2:17">
       <c r="C26" s="69" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D26" s="69"/>
       <c r="E26" s="69"/>
@@ -11801,7 +11838,7 @@
       <c r="G48" s="69"/>
       <c r="H48" s="69"/>
       <c r="I48" s="69" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J48" s="69"/>
       <c r="K48" s="69"/>
@@ -11835,8 +11872,8 @@
       <c r="G51" s="13"/>
     </row>
     <row r="53" spans="4:15">
-      <c r="D53" s="24" t="s">
-        <v>290</v>
+      <c r="D53" s="140" t="s">
+        <v>389</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
@@ -11851,216 +11888,219 @@
       <c r="O53" s="13"/>
     </row>
     <row r="54" spans="4:15">
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-    </row>
-    <row r="55" spans="4:15">
-      <c r="D55" s="1" t="s">
+      <c r="D54" s="141" t="s">
+        <v>388</v>
+      </c>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+    </row>
+    <row r="55" spans="4:15" s="102" customFormat="1">
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+    </row>
+    <row r="56" spans="4:15">
+      <c r="D56" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="4:15">
-      <c r="E56" s="2" t="s">
+    <row r="57" spans="4:15">
+      <c r="E57" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="4:15">
-      <c r="E57" s="37" t="s">
+    <row r="58" spans="4:15">
+      <c r="E58" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="58" spans="4:15">
-      <c r="D58" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="E58" s="48"/>
-      <c r="F58" s="13"/>
     </row>
     <row r="59" spans="4:15">
-      <c r="D59" s="14"/>
-      <c r="E59" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
+      <c r="D59" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E59" s="48"/>
+      <c r="F59" s="13"/>
     </row>
     <row r="60" spans="4:15">
       <c r="D60" s="14"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="23" t="s">
-        <v>48</v>
-      </c>
+      <c r="E60" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="23"/>
       <c r="G60" s="23"/>
       <c r="H60" s="23"/>
     </row>
     <row r="61" spans="4:15">
       <c r="D61" s="14"/>
-      <c r="E61" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F61" s="23"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
     </row>
     <row r="62" spans="4:15">
       <c r="D62" s="14"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="23" t="s">
-        <v>56</v>
-      </c>
+      <c r="E62" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" s="23"/>
       <c r="G62" s="23"/>
       <c r="H62" s="23"/>
     </row>
     <row r="63" spans="4:15">
       <c r="D63" s="14"/>
-      <c r="E63" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F63" s="23"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="G63" s="23"/>
       <c r="H63" s="23"/>
     </row>
     <row r="64" spans="4:15">
       <c r="D64" s="14"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="2" t="s">
-        <v>319</v>
-      </c>
+      <c r="E64" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" s="23"/>
       <c r="G64" s="23"/>
       <c r="H64" s="23"/>
     </row>
     <row r="65" spans="4:15">
       <c r="D65" s="14"/>
-      <c r="E65" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F65" s="23"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="G65" s="23"/>
       <c r="H65" s="23"/>
     </row>
     <row r="66" spans="4:15">
       <c r="D66" s="14"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="66" t="s">
-        <v>320</v>
-      </c>
+      <c r="E66" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F66" s="23"/>
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
     </row>
     <row r="67" spans="4:15">
       <c r="D67" s="14"/>
-      <c r="E67" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F67" s="13"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
     </row>
     <row r="68" spans="4:15">
       <c r="D68" s="14"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="13" t="s">
-        <v>321</v>
-      </c>
+      <c r="E68" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F68" s="13"/>
     </row>
     <row r="69" spans="4:15">
-      <c r="D69" s="13"/>
-      <c r="E69" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="13" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="70" spans="4:15">
       <c r="D70" s="13"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="G70" s="24"/>
+      <c r="E70" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
     </row>
     <row r="71" spans="4:15">
       <c r="D71" s="13"/>
       <c r="E71" s="22"/>
       <c r="F71" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G71" s="24"/>
     </row>
     <row r="72" spans="4:15">
       <c r="D72" s="13"/>
-      <c r="E72" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G72" s="24"/>
     </row>
     <row r="73" spans="4:15">
       <c r="D73" s="13"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="G73" s="23" t="s">
-        <v>153</v>
-      </c>
+      <c r="E73" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
     </row>
     <row r="74" spans="4:15">
       <c r="D74" s="13"/>
       <c r="E74" s="21"/>
       <c r="F74" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="4:15">
+      <c r="D75" s="13"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="G74" s="28" t="s">
+      <c r="G75" s="28" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="4:15">
-      <c r="D75" s="72" t="s">
-        <v>331</v>
-      </c>
-      <c r="E75" s="68"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="24"/>
-    </row>
     <row r="76" spans="4:15">
-      <c r="D76" s="69"/>
-      <c r="E76" s="77" t="s">
-        <v>332</v>
-      </c>
+      <c r="D76" s="72" t="s">
+        <v>330</v>
+      </c>
+      <c r="E76" s="68"/>
       <c r="F76" s="71"/>
       <c r="G76" s="24"/>
     </row>
     <row r="77" spans="4:15">
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="69"/>
+      <c r="E77" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="F77" s="71"/>
+      <c r="G77" s="24"/>
+    </row>
+    <row r="78" spans="4:15">
+      <c r="D78" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="4:15">
-      <c r="E78" s="32" t="s">
+    <row r="79" spans="4:15">
+      <c r="E79" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
-    </row>
-    <row r="79" spans="4:15">
-      <c r="E79" s="21"/>
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
       <c r="H79" s="21"/>
@@ -12068,6 +12108,8 @@
       <c r="J79" s="21"/>
       <c r="K79" s="21"/>
       <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
       <c r="O79" s="21"/>
     </row>
     <row r="80" spans="4:15">
@@ -12081,7 +12123,7 @@
       <c r="L80" s="21"/>
       <c r="O80" s="21"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="5:15">
       <c r="E81" s="21"/>
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
@@ -12092,7 +12134,7 @@
       <c r="L81" s="21"/>
       <c r="O81" s="21"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="5:15">
       <c r="E82" s="21"/>
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
@@ -12103,7 +12145,7 @@
       <c r="L82" s="21"/>
       <c r="O82" s="21"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="5:15">
       <c r="E83" s="21"/>
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
@@ -12114,7 +12156,7 @@
       <c r="L83" s="21"/>
       <c r="O83" s="21"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="5:15">
       <c r="E84" s="21"/>
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
@@ -12125,7 +12167,7 @@
       <c r="L84" s="21"/>
       <c r="O84" s="21"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="5:15">
       <c r="E85" s="21"/>
       <c r="F85" s="21"/>
       <c r="G85" s="21"/>
@@ -12136,27 +12178,23 @@
       <c r="L85" s="21"/>
       <c r="O85" s="21"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="5:15">
       <c r="E86" s="21"/>
-      <c r="F86" s="32" t="s">
-        <v>90</v>
-      </c>
+      <c r="F86" s="21"/>
       <c r="G86" s="21"/>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
       <c r="J86" s="21"/>
       <c r="K86" s="21"/>
       <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
       <c r="O86" s="21"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="5:15">
       <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21" t="s">
-        <v>123</v>
-      </c>
+      <c r="F87" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" s="21"/>
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
       <c r="J87" s="21"/>
@@ -12166,41 +12204,41 @@
       <c r="N87" s="21"/>
       <c r="O87" s="21"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="5:15">
       <c r="E88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21" t="s">
-        <v>91</v>
-      </c>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H88" s="21"/>
       <c r="I88" s="21"/>
       <c r="J88" s="21"/>
-      <c r="K88" s="21" t="s">
-        <v>92</v>
-      </c>
+      <c r="K88" s="21"/>
       <c r="L88" s="21"/>
       <c r="M88" s="21"/>
       <c r="N88" s="21"/>
       <c r="O88" s="21"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="5:15">
       <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
       <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
+      <c r="H89" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="I89" s="21"/>
       <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
+      <c r="K89" s="21" t="s">
+        <v>92</v>
+      </c>
       <c r="L89" s="21"/>
       <c r="M89" s="21"/>
       <c r="N89" s="21"/>
       <c r="O89" s="21"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="5:15">
       <c r="E90" s="21"/>
       <c r="F90" s="21"/>
-      <c r="G90" s="21" t="s">
-        <v>93</v>
-      </c>
+      <c r="G90" s="21"/>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
       <c r="J90" s="21"/>
@@ -12210,77 +12248,81 @@
       <c r="N90" s="21"/>
       <c r="O90" s="21"/>
     </row>
-    <row r="91" spans="1:15">
-      <c r="H91" s="21" t="s">
+    <row r="91" spans="5:15">
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="21"/>
+    </row>
+    <row r="92" spans="5:15">
+      <c r="H92" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="K91" s="21" t="s">
+      <c r="K92" s="21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
-      <c r="E94" s="48"/>
-      <c r="F94" s="1" t="s">
+    <row r="95" spans="5:15">
+      <c r="E95" s="48"/>
+      <c r="F95" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
-      <c r="E95" s="13"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="2" t="s">
+    <row r="96" spans="5:15">
+      <c r="E96" s="13"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
-      <c r="A96" s="43" t="s">
+    <row r="97" spans="1:13">
+      <c r="A97" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="E96" s="13"/>
-      <c r="G96" s="2" t="s">
+      <c r="E97" s="13"/>
+      <c r="G97" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
-      <c r="E97" s="48"/>
-      <c r="F97" s="1" t="s">
+    <row r="98" spans="1:13">
+      <c r="E98" s="48"/>
+      <c r="F98" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
-      <c r="E98" s="13"/>
-      <c r="G98" s="2" t="s">
+    <row r="99" spans="1:13">
+      <c r="E99" s="13"/>
+      <c r="G99" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
-      <c r="G99" s="2" t="s">
+    <row r="100" spans="1:13">
+      <c r="G100" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
-      <c r="G100" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
     <row r="101" spans="1:13">
-      <c r="F101" s="1" t="s">
+      <c r="G101" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="F102" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="G102" s="13" t="s">
-        <v>101</v>
-      </c>
+      <c r="G102" s="13"/>
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
@@ -12289,70 +12331,70 @@
       <c r="M102" s="13"/>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="G103" s="13" t="s">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
-      <c r="J103" s="24" t="s">
-        <v>227</v>
-      </c>
+      <c r="J103" s="13"/>
       <c r="K103" s="13"/>
       <c r="L103" s="13"/>
       <c r="M103" s="13"/>
     </row>
     <row r="104" spans="1:13">
-      <c r="F104" s="33" t="s">
+      <c r="A104" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="13"/>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="F105" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="2" t="s">
+    <row r="106" spans="1:13">
+      <c r="A106" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="G106" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
-      <c r="A106" s="43" t="s">
+    <row r="107" spans="1:13">
+      <c r="A107" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="G107" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
-      <c r="F108" s="69" t="s">
-        <v>311</v>
-      </c>
-      <c r="G108" s="69"/>
-      <c r="H108" s="69"/>
-    </row>
-    <row r="110" spans="1:13">
-      <c r="E110" s="32" t="s">
+    <row r="109" spans="1:13">
+      <c r="F109" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="G109" s="69"/>
+      <c r="H109" s="69"/>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="E111" s="32" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
-      <c r="F111" s="24" t="s">
+    <row r="112" spans="1:13">
+      <c r="F112" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="24"/>
-      <c r="M111" s="24"/>
-    </row>
-    <row r="112" spans="1:13">
-      <c r="G112" s="24" t="s">
-        <v>106</v>
-      </c>
+      <c r="G112" s="24"/>
       <c r="H112" s="24"/>
       <c r="I112" s="24"/>
       <c r="J112" s="24"/>
@@ -12362,7 +12404,7 @@
     </row>
     <row r="113" spans="6:15">
       <c r="G113" s="24" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="H113" s="24"/>
       <c r="I113" s="24"/>
@@ -12372,10 +12414,9 @@
       <c r="M113" s="24"/>
     </row>
     <row r="114" spans="6:15">
-      <c r="F114" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="G114" s="24"/>
+      <c r="G114" s="24" t="s">
+        <v>219</v>
+      </c>
       <c r="H114" s="24"/>
       <c r="I114" s="24"/>
       <c r="J114" s="24"/>
@@ -12384,8 +12425,8 @@
       <c r="M114" s="24"/>
     </row>
     <row r="115" spans="6:15">
-      <c r="F115" s="63" t="s">
-        <v>296</v>
+      <c r="F115" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="G115" s="24"/>
       <c r="H115" s="24"/>
@@ -12396,8 +12437,8 @@
       <c r="M115" s="24"/>
     </row>
     <row r="116" spans="6:15">
-      <c r="F116" s="24" t="s">
-        <v>107</v>
+      <c r="F116" s="63" t="s">
+        <v>295</v>
       </c>
       <c r="G116" s="24"/>
       <c r="H116" s="24"/>
@@ -12408,28 +12449,26 @@
       <c r="M116" s="24"/>
     </row>
     <row r="117" spans="6:15">
-      <c r="F117" s="2" t="s">
+      <c r="F117" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="24"/>
+      <c r="L117" s="24"/>
+      <c r="M117" s="24"/>
+    </row>
+    <row r="118" spans="6:15">
+      <c r="F118" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="118" spans="6:15">
-      <c r="F118" s="21"/>
-      <c r="G118" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H118" s="20"/>
-      <c r="I118" s="20"/>
-      <c r="J118" s="20"/>
-      <c r="K118" s="20"/>
-      <c r="L118" s="20"/>
-      <c r="M118" s="20"/>
-      <c r="N118" s="20"/>
-      <c r="O118" s="20"/>
     </row>
     <row r="119" spans="6:15">
       <c r="F119" s="21"/>
       <c r="G119" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
@@ -12443,7 +12482,7 @@
     <row r="120" spans="6:15">
       <c r="F120" s="21"/>
       <c r="G120" s="13" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H120" s="20"/>
       <c r="I120" s="20"/>
@@ -12456,23 +12495,23 @@
     </row>
     <row r="121" spans="6:15">
       <c r="F121" s="21"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I121" s="13"/>
-      <c r="J121" s="13"/>
-      <c r="K121" s="13"/>
-      <c r="L121" s="13"/>
-      <c r="M121" s="13"/>
-      <c r="N121" s="13"/>
-      <c r="O121" s="13"/>
+      <c r="G121" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="20"/>
+      <c r="K121" s="20"/>
+      <c r="L121" s="20"/>
+      <c r="M121" s="20"/>
+      <c r="N121" s="20"/>
+      <c r="O121" s="20"/>
     </row>
     <row r="122" spans="6:15">
       <c r="F122" s="21"/>
       <c r="G122" s="13"/>
       <c r="H122" s="13" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="I122" s="13"/>
       <c r="J122" s="13"/>
@@ -12486,7 +12525,7 @@
       <c r="F123" s="21"/>
       <c r="G123" s="13"/>
       <c r="H123" s="13" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="I123" s="13"/>
       <c r="J123" s="13"/>
@@ -12499,14 +12538,16 @@
     <row r="124" spans="6:15">
       <c r="F124" s="21"/>
       <c r="G124" s="13"/>
-      <c r="H124" s="20"/>
-      <c r="I124" s="20"/>
-      <c r="J124" s="20"/>
-      <c r="K124" s="20"/>
-      <c r="L124" s="20"/>
-      <c r="M124" s="20"/>
-      <c r="N124" s="20"/>
-      <c r="O124" s="20"/>
+      <c r="H124" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I124" s="13"/>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="13"/>
+      <c r="M124" s="13"/>
+      <c r="N124" s="13"/>
+      <c r="O124" s="13"/>
     </row>
     <row r="125" spans="6:15">
       <c r="F125" s="21"/>
@@ -12545,9 +12586,7 @@
       <c r="O127" s="20"/>
     </row>
     <row r="128" spans="6:15">
-      <c r="F128" s="13" t="s">
-        <v>111</v>
-      </c>
+      <c r="F128" s="21"/>
       <c r="G128" s="13"/>
       <c r="H128" s="20"/>
       <c r="I128" s="20"/>
@@ -12559,7 +12598,9 @@
       <c r="O128" s="20"/>
     </row>
     <row r="129" spans="1:19">
-      <c r="F129" s="21"/>
+      <c r="F129" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G129" s="13"/>
       <c r="H129" s="20"/>
       <c r="I129" s="20"/>
@@ -12573,50 +12614,46 @@
     <row r="130" spans="1:19">
       <c r="F130" s="21"/>
       <c r="G130" s="13"/>
-      <c r="H130" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I130" s="13"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="13"/>
-      <c r="L130" s="13"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="20"/>
+      <c r="K130" s="20"/>
+      <c r="L130" s="20"/>
       <c r="M130" s="20"/>
       <c r="N130" s="20"/>
       <c r="O130" s="20"/>
     </row>
     <row r="131" spans="1:19">
       <c r="F131" s="21"/>
-      <c r="G131" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H131" s="20"/>
-      <c r="I131" s="20"/>
-      <c r="J131" s="20"/>
-      <c r="K131" s="20"/>
-      <c r="L131" s="20"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I131" s="13"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="13"/>
+      <c r="L131" s="13"/>
       <c r="M131" s="20"/>
       <c r="N131" s="20"/>
       <c r="O131" s="20"/>
     </row>
     <row r="132" spans="1:19">
-      <c r="E132" s="1" t="s">
-        <v>368</v>
-      </c>
+      <c r="F132" s="21"/>
+      <c r="G132" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="20"/>
+      <c r="K132" s="20"/>
+      <c r="L132" s="20"/>
+      <c r="M132" s="20"/>
+      <c r="N132" s="20"/>
+      <c r="O132" s="20"/>
     </row>
     <row r="133" spans="1:19">
-      <c r="E133" s="13"/>
-      <c r="F133" s="69" t="s">
-        <v>326</v>
-      </c>
-      <c r="G133" s="69"/>
-      <c r="H133" s="69"/>
-      <c r="I133" s="69"/>
-      <c r="J133" s="69"/>
-      <c r="L133" s="75" t="s">
-        <v>294</v>
-      </c>
-      <c r="M133" s="66" t="s">
-        <v>324</v>
+      <c r="E133" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -12628,60 +12665,55 @@
       <c r="H134" s="69"/>
       <c r="I134" s="69"/>
       <c r="J134" s="69"/>
-    </row>
-    <row r="136" spans="1:19">
-      <c r="D136" s="1" t="s">
+      <c r="L134" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="M134" s="66" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
+      <c r="E135" s="13"/>
+      <c r="F135" s="69" t="s">
+        <v>324</v>
+      </c>
+      <c r="G135" s="69"/>
+      <c r="H135" s="69"/>
+      <c r="I135" s="69"/>
+      <c r="J135" s="69"/>
+    </row>
+    <row r="137" spans="1:19">
+      <c r="D137" s="1" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19">
-      <c r="E137" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="138" spans="1:19">
       <c r="E138" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19">
+      <c r="E139" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="139" spans="1:19">
-      <c r="A139" s="2" t="s">
+    <row r="140" spans="1:19">
+      <c r="A140" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E140" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="33">
-      <c r="A140" s="42" t="s">
+    <row r="141" spans="1:19" ht="33">
+      <c r="A141" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="E140" s="13" t="s">
+      <c r="E141" s="13" t="s">
         <v>220</v>
-      </c>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="13"/>
-      <c r="I140" s="13"/>
-      <c r="J140" s="13"/>
-      <c r="K140" s="13"/>
-      <c r="L140" s="13"/>
-      <c r="M140" s="13"/>
-      <c r="N140" s="13"/>
-      <c r="O140" s="13"/>
-      <c r="P140" s="13"/>
-      <c r="Q140" s="13"/>
-      <c r="R140" s="13"/>
-      <c r="S140" s="13"/>
-    </row>
-    <row r="141" spans="1:19">
-      <c r="A141" s="42"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13" t="s">
-        <v>280</v>
       </c>
       <c r="F141" s="13"/>
       <c r="G141" s="13"/>
@@ -12702,7 +12734,7 @@
       <c r="A142" s="42"/>
       <c r="D142" s="13"/>
       <c r="E142" s="13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F142" s="13"/>
       <c r="G142" s="13"/>
@@ -12723,7 +12755,7 @@
       <c r="A143" s="42"/>
       <c r="D143" s="13"/>
       <c r="E143" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F143" s="13"/>
       <c r="G143" s="13"/>
@@ -12740,13 +12772,11 @@
       <c r="R143" s="13"/>
       <c r="S143" s="13"/>
     </row>
-    <row r="144" spans="1:19" ht="33">
-      <c r="A144" s="42" t="s">
-        <v>214</v>
-      </c>
+    <row r="144" spans="1:19">
+      <c r="A144" s="42"/>
       <c r="D144" s="13"/>
       <c r="E144" s="13" t="s">
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
@@ -12763,72 +12793,92 @@
       <c r="R144" s="13"/>
       <c r="S144" s="13"/>
     </row>
-    <row r="145" spans="1:14">
-      <c r="A145" s="43" t="s">
+    <row r="145" spans="1:19" ht="33">
+      <c r="A145" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="13"/>
+      <c r="K145" s="13"/>
+      <c r="L145" s="13"/>
+      <c r="M145" s="13"/>
+      <c r="N145" s="13"/>
+      <c r="O145" s="13"/>
+      <c r="P145" s="13"/>
+      <c r="Q145" s="13"/>
+      <c r="R145" s="13"/>
+      <c r="S145" s="13"/>
+    </row>
+    <row r="146" spans="1:19">
+      <c r="A146" s="43" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
-      <c r="K146" s="2" t="s">
+    <row r="147" spans="1:19">
+      <c r="K147" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
-      <c r="A148" s="42" t="s">
+    <row r="149" spans="1:19">
+      <c r="A149" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="K148" s="2" t="s">
+      <c r="K149" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="N148" s="13"/>
-    </row>
-    <row r="149" spans="1:14">
-      <c r="K149" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="L149" s="13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
-      <c r="K150" s="13"/>
-      <c r="L150" s="13"/>
-    </row>
-    <row r="151" spans="1:14">
+      <c r="N149" s="13"/>
+    </row>
+    <row r="150" spans="1:19">
+      <c r="K150" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="L150" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19">
       <c r="K151" s="13"/>
       <c r="L151" s="13"/>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:19">
       <c r="K152" s="13"/>
       <c r="L152" s="13"/>
     </row>
-    <row r="154" spans="1:14">
-      <c r="E154" s="2" t="s">
+    <row r="153" spans="1:19">
+      <c r="K153" s="13"/>
+      <c r="L153" s="13"/>
+    </row>
+    <row r="155" spans="1:19">
+      <c r="E155" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
-      <c r="K156" s="2" t="s">
+    <row r="157" spans="1:19">
+      <c r="K157" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
-      <c r="K158" s="2" t="s">
+    <row r="159" spans="1:19">
+      <c r="K159" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="M158" s="13"/>
-      <c r="N158" s="13"/>
-    </row>
-    <row r="159" spans="1:14">
-      <c r="K159" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="L159" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
-      <c r="K160" s="13"/>
+      <c r="M159" s="13"/>
+      <c r="N159" s="13"/>
+    </row>
+    <row r="160" spans="1:19">
+      <c r="K160" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="L160" s="2" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="161" spans="4:17">
       <c r="K161" s="13"/>
@@ -12836,120 +12886,106 @@
     <row r="162" spans="4:17">
       <c r="K162" s="13"/>
     </row>
-    <row r="164" spans="4:17">
-      <c r="D164" s="1" t="s">
+    <row r="163" spans="4:17">
+      <c r="K163" s="13"/>
+    </row>
+    <row r="165" spans="4:17">
+      <c r="D165" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="165" spans="4:17">
-      <c r="D165" s="1"/>
-      <c r="E165" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F165" s="23"/>
-      <c r="G165" s="23"/>
-      <c r="H165" s="23"/>
     </row>
     <row r="166" spans="4:17">
       <c r="D166" s="1"/>
-      <c r="E166" s="22"/>
-      <c r="F166" s="23" t="s">
-        <v>48</v>
-      </c>
+      <c r="E166" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F166" s="23"/>
       <c r="G166" s="23"/>
       <c r="H166" s="23"/>
     </row>
     <row r="167" spans="4:17">
       <c r="D167" s="1"/>
-      <c r="E167" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F167" s="23"/>
+      <c r="E167" s="22"/>
+      <c r="F167" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="G167" s="23"/>
       <c r="H167" s="23"/>
     </row>
     <row r="168" spans="4:17">
       <c r="D168" s="1"/>
-      <c r="E168" s="22"/>
-      <c r="F168" s="23" t="s">
-        <v>56</v>
-      </c>
+      <c r="E168" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F168" s="23"/>
       <c r="G168" s="23"/>
       <c r="H168" s="23"/>
     </row>
     <row r="169" spans="4:17">
       <c r="D169" s="1"/>
-      <c r="E169" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F169" s="23"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="G169" s="23"/>
       <c r="H169" s="23"/>
     </row>
     <row r="170" spans="4:17">
       <c r="D170" s="1"/>
-      <c r="E170" s="22"/>
-      <c r="F170" s="2" t="s">
-        <v>156</v>
-      </c>
+      <c r="E170" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F170" s="23"/>
       <c r="G170" s="23"/>
       <c r="H170" s="23"/>
     </row>
     <row r="171" spans="4:17">
-      <c r="E171" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F171" s="23"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="G171" s="23"/>
       <c r="H171" s="23"/>
     </row>
     <row r="172" spans="4:17">
-      <c r="D172" s="1"/>
-      <c r="E172" s="22"/>
-      <c r="F172" s="23" t="s">
-        <v>157</v>
-      </c>
+      <c r="E172" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F172" s="23"/>
       <c r="G172" s="23"/>
       <c r="H172" s="23"/>
     </row>
     <row r="173" spans="4:17">
       <c r="D173" s="1"/>
       <c r="E173" s="22"/>
-      <c r="F173" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="G173" s="66" t="s">
-        <v>300</v>
-      </c>
+      <c r="F173" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G173" s="23"/>
       <c r="H173" s="23"/>
     </row>
     <row r="174" spans="4:17">
       <c r="D174" s="1"/>
-      <c r="E174" s="22" t="s">
-        <v>52</v>
-      </c>
+      <c r="E174" s="22"/>
+      <c r="F174" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="G174" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="H174" s="23"/>
     </row>
     <row r="175" spans="4:17">
       <c r="D175" s="1"/>
-      <c r="F175" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="G175" s="21"/>
-      <c r="H175" s="21"/>
-      <c r="I175" s="21"/>
-      <c r="J175" s="21"/>
-      <c r="K175" s="21"/>
-      <c r="L175" s="21"/>
-      <c r="M175" s="21"/>
-      <c r="N175" s="21"/>
-      <c r="O175" s="21"/>
-      <c r="P175" s="21"/>
-      <c r="Q175" s="21"/>
+      <c r="E175" s="22" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="176" spans="4:17">
       <c r="D176" s="1"/>
       <c r="F176" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G176" s="21"/>
       <c r="H176" s="21"/>
@@ -12966,7 +13002,7 @@
     <row r="177" spans="4:19">
       <c r="D177" s="1"/>
       <c r="F177" s="21" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G177" s="21"/>
       <c r="H177" s="21"/>
@@ -12983,21 +13019,25 @@
     <row r="178" spans="4:19">
       <c r="D178" s="1"/>
       <c r="F178" s="21" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="G178" s="21"/>
       <c r="H178" s="21"/>
       <c r="I178" s="21"/>
+      <c r="J178" s="21"/>
       <c r="K178" s="21"/>
       <c r="L178" s="21"/>
       <c r="M178" s="21"/>
       <c r="N178" s="21"/>
+      <c r="O178" s="21"/>
       <c r="P178" s="21"/>
       <c r="Q178" s="21"/>
     </row>
     <row r="179" spans="4:19">
       <c r="D179" s="1"/>
-      <c r="F179" s="21"/>
+      <c r="F179" s="21" t="s">
+        <v>164</v>
+      </c>
       <c r="G179" s="21"/>
       <c r="H179" s="21"/>
       <c r="I179" s="21"/>
@@ -13005,37 +13045,33 @@
       <c r="L179" s="21"/>
       <c r="M179" s="21"/>
       <c r="N179" s="21"/>
+      <c r="P179" s="21"/>
+      <c r="Q179" s="21"/>
     </row>
     <row r="180" spans="4:19">
       <c r="D180" s="1"/>
-      <c r="F180" s="67" t="s">
-        <v>306</v>
-      </c>
-      <c r="G180" s="68"/>
-      <c r="H180" s="68"/>
-      <c r="I180" s="68"/>
-      <c r="J180" s="68"/>
-      <c r="K180" s="68"/>
-      <c r="L180" s="68"/>
-      <c r="M180" s="68"/>
-      <c r="N180" s="68"/>
-      <c r="O180" s="68"/>
-      <c r="P180" s="13"/>
-      <c r="Q180" s="13"/>
-      <c r="R180" s="13"/>
-      <c r="S180" s="13"/>
+      <c r="F180" s="21"/>
+      <c r="G180" s="21"/>
+      <c r="H180" s="21"/>
+      <c r="I180" s="21"/>
+      <c r="K180" s="21"/>
+      <c r="L180" s="21"/>
+      <c r="M180" s="21"/>
+      <c r="N180" s="21"/>
     </row>
     <row r="181" spans="4:19">
       <c r="D181" s="1"/>
-      <c r="F181" s="67"/>
+      <c r="F181" s="67" t="s">
+        <v>305</v>
+      </c>
       <c r="G181" s="68"/>
       <c r="H181" s="68"/>
       <c r="I181" s="68"/>
       <c r="J181" s="68"/>
-      <c r="K181" s="69"/>
-      <c r="L181" s="69"/>
-      <c r="M181" s="69"/>
-      <c r="N181" s="69"/>
+      <c r="K181" s="68"/>
+      <c r="L181" s="68"/>
+      <c r="M181" s="68"/>
+      <c r="N181" s="68"/>
       <c r="O181" s="68"/>
       <c r="P181" s="13"/>
       <c r="Q181" s="13"/>
@@ -13049,9 +13085,7 @@
       <c r="H182" s="68"/>
       <c r="I182" s="68"/>
       <c r="J182" s="68"/>
-      <c r="K182" s="69" t="s">
-        <v>194</v>
-      </c>
+      <c r="K182" s="69"/>
       <c r="L182" s="69"/>
       <c r="M182" s="69"/>
       <c r="N182" s="69"/>
@@ -13068,7 +13102,9 @@
       <c r="H183" s="68"/>
       <c r="I183" s="68"/>
       <c r="J183" s="68"/>
-      <c r="K183" s="69"/>
+      <c r="K183" s="69" t="s">
+        <v>194</v>
+      </c>
       <c r="L183" s="69"/>
       <c r="M183" s="69"/>
       <c r="N183" s="69"/>
@@ -13085,14 +13121,15 @@
       <c r="H184" s="68"/>
       <c r="I184" s="68"/>
       <c r="J184" s="68"/>
-      <c r="K184" s="69" t="s">
-        <v>302</v>
-      </c>
+      <c r="K184" s="69"/>
       <c r="L184" s="69"/>
       <c r="M184" s="69"/>
       <c r="N184" s="69"/>
       <c r="O184" s="68"/>
       <c r="P184" s="13"/>
+      <c r="Q184" s="13"/>
+      <c r="R184" s="13"/>
+      <c r="S184" s="13"/>
     </row>
     <row r="185" spans="4:19">
       <c r="D185" s="1"/>
@@ -13101,19 +13138,14 @@
       <c r="H185" s="68"/>
       <c r="I185" s="68"/>
       <c r="J185" s="68"/>
-      <c r="K185" s="69"/>
-      <c r="L185" s="68" t="s">
+      <c r="K185" s="69" t="s">
         <v>301</v>
       </c>
+      <c r="L185" s="69"/>
       <c r="M185" s="69"/>
       <c r="N185" s="69"/>
       <c r="O185" s="68"/>
-      <c r="P185" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q185" s="13" t="s">
-        <v>303</v>
-      </c>
+      <c r="P185" s="13"/>
     </row>
     <row r="186" spans="4:19">
       <c r="D186" s="1"/>
@@ -13122,18 +13154,19 @@
       <c r="H186" s="68"/>
       <c r="I186" s="68"/>
       <c r="J186" s="68"/>
-      <c r="K186" s="68"/>
-      <c r="L186" s="135" t="s">
-        <v>382</v>
-      </c>
-      <c r="M186" s="136"/>
-      <c r="N186" s="68"/>
+      <c r="K186" s="69"/>
+      <c r="L186" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="M186" s="69"/>
+      <c r="N186" s="69"/>
       <c r="O186" s="68"/>
-      <c r="P186" s="13"/>
+      <c r="P186" s="37" t="s">
+        <v>293</v>
+      </c>
       <c r="Q186" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="R186" s="13"/>
+        <v>302</v>
+      </c>
     </row>
     <row r="187" spans="4:19">
       <c r="D187" s="1"/>
@@ -13143,14 +13176,17 @@
       <c r="I187" s="68"/>
       <c r="J187" s="68"/>
       <c r="K187" s="68"/>
-      <c r="L187" s="68"/>
-      <c r="M187" s="68"/>
+      <c r="L187" s="120" t="s">
+        <v>381</v>
+      </c>
+      <c r="M187" s="121"/>
       <c r="N187" s="68"/>
       <c r="O187" s="68"/>
       <c r="P187" s="13"/>
-      <c r="Q187" s="13"/>
+      <c r="Q187" s="13" t="s">
+        <v>303</v>
+      </c>
       <c r="R187" s="13"/>
-      <c r="S187" s="13"/>
     </row>
     <row r="188" spans="4:19">
       <c r="D188" s="1"/>
@@ -13222,9 +13258,7 @@
     </row>
     <row r="192" spans="4:19">
       <c r="D192" s="1"/>
-      <c r="F192" s="67" t="s">
-        <v>305</v>
-      </c>
+      <c r="F192" s="67"/>
       <c r="G192" s="68"/>
       <c r="H192" s="68"/>
       <c r="I192" s="68"/>
@@ -13242,7 +13276,7 @@
     <row r="193" spans="1:25">
       <c r="D193" s="1"/>
       <c r="F193" s="67" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G193" s="68"/>
       <c r="H193" s="68"/>
@@ -13260,33 +13294,33 @@
     </row>
     <row r="194" spans="1:25">
       <c r="D194" s="1"/>
-      <c r="F194" s="138" t="s">
-        <v>387</v>
-      </c>
-      <c r="G194" s="24"/>
-      <c r="H194" s="24"/>
-      <c r="I194" s="24"/>
-      <c r="J194" s="136"/>
-      <c r="K194" s="136"/>
-      <c r="L194" s="24"/>
-      <c r="M194" s="24"/>
-      <c r="N194" s="24"/>
-      <c r="O194" s="13"/>
-      <c r="P194" s="24"/>
-      <c r="Q194" s="24"/>
+      <c r="F194" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="G194" s="68"/>
+      <c r="H194" s="68"/>
+      <c r="I194" s="68"/>
+      <c r="J194" s="68"/>
+      <c r="K194" s="68"/>
+      <c r="L194" s="68"/>
+      <c r="M194" s="68"/>
+      <c r="N194" s="68"/>
+      <c r="O194" s="68"/>
+      <c r="P194" s="13"/>
+      <c r="Q194" s="13"/>
       <c r="R194" s="13"/>
       <c r="S194" s="13"/>
     </row>
     <row r="195" spans="1:25">
       <c r="D195" s="1"/>
-      <c r="F195" s="13" t="s">
-        <v>244</v>
+      <c r="F195" s="123" t="s">
+        <v>386</v>
       </c>
       <c r="G195" s="24"/>
       <c r="H195" s="24"/>
       <c r="I195" s="24"/>
-      <c r="J195" s="24"/>
-      <c r="K195" s="24"/>
+      <c r="J195" s="121"/>
+      <c r="K195" s="121"/>
       <c r="L195" s="24"/>
       <c r="M195" s="24"/>
       <c r="N195" s="24"/>
@@ -13298,9 +13332,8 @@
     </row>
     <row r="196" spans="1:25">
       <c r="D196" s="1"/>
-      <c r="E196" s="13"/>
       <c r="F196" s="13" t="s">
-        <v>383</v>
+        <v>244</v>
       </c>
       <c r="G196" s="24"/>
       <c r="H196" s="24"/>
@@ -13316,66 +13349,69 @@
       <c r="R196" s="13"/>
       <c r="S196" s="13"/>
     </row>
-    <row r="197" spans="1:25" s="102" customFormat="1">
-      <c r="D197" s="101"/>
-      <c r="F197" s="137" t="s">
-        <v>384</v>
-      </c>
-      <c r="G197" s="137"/>
-      <c r="H197" s="136"/>
-      <c r="I197" s="136"/>
-      <c r="J197" s="136"/>
+    <row r="197" spans="1:25">
+      <c r="D197" s="1"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="G197" s="24"/>
+      <c r="H197" s="24"/>
+      <c r="I197" s="24"/>
+      <c r="J197" s="24"/>
       <c r="K197" s="24"/>
       <c r="L197" s="24"/>
       <c r="M197" s="24"/>
       <c r="N197" s="24"/>
-      <c r="O197" s="105"/>
+      <c r="O197" s="13"/>
       <c r="P197" s="24"/>
       <c r="Q197" s="24"/>
-      <c r="R197" s="105"/>
-      <c r="S197" s="105"/>
-    </row>
-    <row r="198" spans="1:25">
-      <c r="D198" s="1"/>
-      <c r="F198" s="24"/>
-      <c r="G198" s="24"/>
-      <c r="H198" s="24"/>
-      <c r="I198" s="24"/>
-      <c r="J198" s="24"/>
+      <c r="R197" s="13"/>
+      <c r="S197" s="13"/>
+    </row>
+    <row r="198" spans="1:25" s="102" customFormat="1">
+      <c r="D198" s="101"/>
+      <c r="F198" s="122" t="s">
+        <v>383</v>
+      </c>
+      <c r="G198" s="122"/>
+      <c r="H198" s="121"/>
+      <c r="I198" s="121"/>
+      <c r="J198" s="121"/>
       <c r="K198" s="24"/>
       <c r="L198" s="24"/>
       <c r="M198" s="24"/>
       <c r="N198" s="24"/>
-      <c r="O198" s="24"/>
+      <c r="O198" s="105"/>
       <c r="P198" s="24"/>
       <c r="Q198" s="24"/>
-      <c r="R198" s="13"/>
-      <c r="S198" s="13"/>
+      <c r="R198" s="105"/>
+      <c r="S198" s="105"/>
     </row>
     <row r="199" spans="1:25">
-      <c r="A199" s="41" t="s">
+      <c r="D199" s="1"/>
+      <c r="F199" s="24"/>
+      <c r="G199" s="24"/>
+      <c r="H199" s="24"/>
+      <c r="I199" s="24"/>
+      <c r="J199" s="24"/>
+      <c r="K199" s="24"/>
+      <c r="L199" s="24"/>
+      <c r="M199" s="24"/>
+      <c r="N199" s="24"/>
+      <c r="O199" s="24"/>
+      <c r="P199" s="24"/>
+      <c r="Q199" s="24"/>
+      <c r="R199" s="13"/>
+      <c r="S199" s="13"/>
+    </row>
+    <row r="200" spans="1:25">
+      <c r="A200" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="F199" s="108" t="s">
-        <v>333</v>
-      </c>
-      <c r="G199" s="111"/>
-      <c r="H199" s="111"/>
-      <c r="I199" s="111"/>
-      <c r="J199" s="111"/>
-      <c r="K199" s="111"/>
-      <c r="L199" s="111"/>
-      <c r="M199" s="111"/>
-      <c r="N199" s="111"/>
-      <c r="O199" s="111"/>
-      <c r="P199" s="111"/>
-      <c r="Q199" s="111"/>
-      <c r="R199" s="78"/>
-      <c r="S199" s="13"/>
-    </row>
-    <row r="200" spans="1:25">
-      <c r="A200" s="41"/>
-      <c r="F200" s="112"/>
+      <c r="F200" s="108" t="s">
+        <v>332</v>
+      </c>
       <c r="G200" s="111"/>
       <c r="H200" s="111"/>
       <c r="I200" s="111"/>
@@ -13397,11 +13433,9 @@
       <c r="H201" s="111"/>
       <c r="I201" s="111"/>
       <c r="J201" s="111"/>
-      <c r="K201" s="107" t="s">
-        <v>334</v>
-      </c>
-      <c r="L201" s="113"/>
-      <c r="M201" s="113"/>
+      <c r="K201" s="111"/>
+      <c r="L201" s="111"/>
+      <c r="M201" s="111"/>
       <c r="N201" s="111"/>
       <c r="O201" s="111"/>
       <c r="P201" s="111"/>
@@ -13416,7 +13450,9 @@
       <c r="H202" s="111"/>
       <c r="I202" s="111"/>
       <c r="J202" s="111"/>
-      <c r="K202" s="113"/>
+      <c r="K202" s="107" t="s">
+        <v>333</v>
+      </c>
       <c r="L202" s="113"/>
       <c r="M202" s="113"/>
       <c r="N202" s="111"/>
@@ -13428,40 +13464,37 @@
     </row>
     <row r="203" spans="1:25">
       <c r="A203" s="41"/>
-      <c r="F203" s="111"/>
-      <c r="G203" s="107"/>
+      <c r="F203" s="112"/>
+      <c r="G203" s="111"/>
       <c r="H203" s="111"/>
       <c r="I203" s="111"/>
       <c r="J203" s="111"/>
-      <c r="K203" s="107" t="s">
-        <v>335</v>
-      </c>
+      <c r="K203" s="113"/>
       <c r="L203" s="113"/>
       <c r="M203" s="113"/>
       <c r="N203" s="111"/>
       <c r="O203" s="111"/>
       <c r="P203" s="111"/>
       <c r="Q203" s="111"/>
-      <c r="R203" s="13"/>
+      <c r="R203" s="78"/>
       <c r="S203" s="13"/>
     </row>
     <row r="204" spans="1:25">
       <c r="A204" s="41"/>
-      <c r="F204" s="24"/>
-      <c r="H204" s="24"/>
-      <c r="I204" s="24"/>
-      <c r="J204" s="24"/>
-      <c r="K204" s="80" t="s">
-        <v>336</v>
-      </c>
-      <c r="L204" s="79" t="s">
-        <v>337</v>
-      </c>
-      <c r="M204" s="24"/>
-      <c r="N204" s="24"/>
-      <c r="O204" s="24"/>
-      <c r="P204" s="24"/>
-      <c r="Q204" s="24"/>
+      <c r="F204" s="111"/>
+      <c r="G204" s="107"/>
+      <c r="H204" s="111"/>
+      <c r="I204" s="111"/>
+      <c r="J204" s="111"/>
+      <c r="K204" s="107" t="s">
+        <v>334</v>
+      </c>
+      <c r="L204" s="113"/>
+      <c r="M204" s="113"/>
+      <c r="N204" s="111"/>
+      <c r="O204" s="111"/>
+      <c r="P204" s="111"/>
+      <c r="Q204" s="111"/>
       <c r="R204" s="13"/>
       <c r="S204" s="13"/>
     </row>
@@ -13471,8 +13504,12 @@
       <c r="H205" s="24"/>
       <c r="I205" s="24"/>
       <c r="J205" s="24"/>
-      <c r="K205" s="24"/>
-      <c r="L205" s="24"/>
+      <c r="K205" s="80" t="s">
+        <v>335</v>
+      </c>
+      <c r="L205" s="79" t="s">
+        <v>336</v>
+      </c>
       <c r="M205" s="24"/>
       <c r="N205" s="24"/>
       <c r="O205" s="24"/>
@@ -13498,10 +13535,8 @@
       <c r="S206" s="13"/>
     </row>
     <row r="207" spans="1:25">
-      <c r="F207" s="63" t="s">
-        <v>309</v>
-      </c>
-      <c r="G207" s="24"/>
+      <c r="A207" s="41"/>
+      <c r="F207" s="24"/>
       <c r="H207" s="24"/>
       <c r="I207" s="24"/>
       <c r="J207" s="24"/>
@@ -13514,158 +13549,165 @@
       <c r="Q207" s="24"/>
       <c r="R207" s="13"/>
       <c r="S207" s="13"/>
-      <c r="T207" s="13"/>
-      <c r="U207" s="13"/>
-      <c r="V207" s="13"/>
-      <c r="W207" s="13"/>
-      <c r="X207" s="13"/>
-      <c r="Y207" s="13"/>
     </row>
     <row r="208" spans="1:25">
-      <c r="F208" s="21"/>
-      <c r="G208" s="21"/>
-      <c r="H208" s="21"/>
-      <c r="I208" s="21"/>
-      <c r="J208" s="21"/>
-      <c r="K208" s="21"/>
-      <c r="L208" s="21"/>
-      <c r="M208" s="21"/>
-      <c r="N208" s="21"/>
-      <c r="O208" s="21"/>
-      <c r="P208" s="21"/>
-      <c r="Q208" s="21"/>
-    </row>
-    <row r="209" spans="4:11">
-      <c r="E209" s="48"/>
-      <c r="F209" s="2" t="s">
+      <c r="F208" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="G208" s="24"/>
+      <c r="H208" s="24"/>
+      <c r="I208" s="24"/>
+      <c r="J208" s="24"/>
+      <c r="K208" s="24"/>
+      <c r="L208" s="24"/>
+      <c r="M208" s="24"/>
+      <c r="N208" s="24"/>
+      <c r="O208" s="24"/>
+      <c r="P208" s="24"/>
+      <c r="Q208" s="24"/>
+      <c r="R208" s="13"/>
+      <c r="S208" s="13"/>
+      <c r="T208" s="13"/>
+      <c r="U208" s="13"/>
+      <c r="V208" s="13"/>
+      <c r="W208" s="13"/>
+      <c r="X208" s="13"/>
+      <c r="Y208" s="13"/>
+    </row>
+    <row r="209" spans="4:17">
+      <c r="F209" s="21"/>
+      <c r="G209" s="21"/>
+      <c r="H209" s="21"/>
+      <c r="I209" s="21"/>
+      <c r="J209" s="21"/>
+      <c r="K209" s="21"/>
+      <c r="L209" s="21"/>
+      <c r="M209" s="21"/>
+      <c r="N209" s="21"/>
+      <c r="O209" s="21"/>
+      <c r="P209" s="21"/>
+      <c r="Q209" s="21"/>
+    </row>
+    <row r="210" spans="4:17">
+      <c r="E210" s="48"/>
+      <c r="F210" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="211" spans="4:11">
-      <c r="E211" s="22" t="s">
+    <row r="212" spans="4:17">
+      <c r="E212" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F211" s="23"/>
-      <c r="G211" s="23"/>
-    </row>
-    <row r="212" spans="4:11">
-      <c r="E212" s="22"/>
-      <c r="F212" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="G212" s="24"/>
-    </row>
-    <row r="213" spans="4:11">
+      <c r="F212" s="23"/>
+      <c r="G212" s="23"/>
+    </row>
+    <row r="213" spans="4:17">
       <c r="E213" s="22"/>
       <c r="F213" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G213" s="24"/>
+    </row>
+    <row r="214" spans="4:17">
+      <c r="E214" s="22"/>
+      <c r="F214" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="G213" s="24"/>
-    </row>
-    <row r="214" spans="4:11">
-      <c r="E214" s="22" t="s">
+      <c r="G214" s="24"/>
+    </row>
+    <row r="215" spans="4:17">
+      <c r="E215" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="F214" s="23"/>
-      <c r="G214" s="23"/>
-    </row>
-    <row r="215" spans="4:11">
-      <c r="E215" s="21"/>
-      <c r="F215" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="G215" s="23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="216" spans="4:11">
+      <c r="F215" s="23"/>
+      <c r="G215" s="23"/>
+    </row>
+    <row r="216" spans="4:17">
       <c r="E216" s="21"/>
       <c r="F216" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G216" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="217" spans="4:17">
+      <c r="E217" s="21"/>
+      <c r="F217" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="G216" s="28" t="s">
+      <c r="G217" s="28" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="217" spans="4:11">
-      <c r="E217" s="21"/>
-      <c r="F217" s="23"/>
-      <c r="G217" s="24"/>
-    </row>
-    <row r="218" spans="4:11">
-      <c r="D218" s="1" t="s">
+    <row r="218" spans="4:17">
+      <c r="E218" s="21"/>
+      <c r="F218" s="23"/>
+      <c r="G218" s="24"/>
+    </row>
+    <row r="219" spans="4:17">
+      <c r="D219" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="220" spans="4:11">
-      <c r="K220" s="2" t="s">
+    <row r="221" spans="4:17">
+      <c r="K221" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="221" spans="4:11">
-      <c r="D221" s="2" t="s">
+    <row r="222" spans="4:17">
+      <c r="D222" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K221" s="2" t="s">
+      <c r="K222" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="224" spans="4:11">
-      <c r="D224" s="2" t="s">
+    <row r="225" spans="4:11">
+      <c r="D225" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="228" spans="4:11">
-      <c r="K228" s="2" t="s">
+    <row r="229" spans="4:11">
+      <c r="K229" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="233" spans="4:11">
-      <c r="H233" s="2" t="s">
+    <row r="234" spans="4:11">
+      <c r="H234" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="235" spans="4:11">
-      <c r="E235" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G235" s="69"/>
-      <c r="H235" s="69"/>
     </row>
     <row r="236" spans="4:11">
       <c r="E236" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G236" s="69"/>
+      <c r="H236" s="69"/>
+    </row>
+    <row r="237" spans="4:11">
+      <c r="E237" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="237" spans="4:11">
-      <c r="D237" s="48"/>
-      <c r="E237" s="1" t="s">
+    <row r="238" spans="4:11">
+      <c r="D238" s="48"/>
+      <c r="E238" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="238" spans="4:11">
-      <c r="D238" s="13"/>
-      <c r="F238" s="2" t="s">
+    <row r="239" spans="4:11">
+      <c r="D239" s="13"/>
+      <c r="F239" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="239" spans="4:11">
-      <c r="D239" s="48"/>
-      <c r="E239" s="32" t="s">
+    <row r="240" spans="4:11">
+      <c r="D240" s="48"/>
+      <c r="E240" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="F239" s="21"/>
-      <c r="G239" s="21"/>
-      <c r="H239" s="21"/>
-      <c r="I239" s="21"/>
-      <c r="J239" s="21"/>
-    </row>
-    <row r="240" spans="4:11">
-      <c r="D240" s="13"/>
-      <c r="E240" s="21"/>
-      <c r="F240" s="21" t="s">
-        <v>136</v>
-      </c>
+      <c r="F240" s="21"/>
       <c r="G240" s="21"/>
       <c r="H240" s="21"/>
       <c r="I240" s="21"/>
@@ -13673,10 +13715,10 @@
     </row>
     <row r="241" spans="1:17">
       <c r="D241" s="13"/>
-      <c r="E241" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="F241" s="21"/>
+      <c r="E241" s="21"/>
+      <c r="F241" s="21" t="s">
+        <v>136</v>
+      </c>
       <c r="G241" s="21"/>
       <c r="H241" s="21"/>
       <c r="I241" s="21"/>
@@ -13684,35 +13726,36 @@
     </row>
     <row r="242" spans="1:17">
       <c r="D242" s="13"/>
-      <c r="E242" s="21"/>
-      <c r="F242" s="21" t="s">
-        <v>139</v>
-      </c>
+      <c r="E242" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="F242" s="21"/>
       <c r="G242" s="21"/>
       <c r="H242" s="21"/>
       <c r="I242" s="21"/>
       <c r="J242" s="21"/>
     </row>
     <row r="243" spans="1:17">
-      <c r="D243" s="48"/>
-      <c r="E243" s="1" t="s">
+      <c r="D243" s="13"/>
+      <c r="E243" s="21"/>
+      <c r="F243" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G243" s="21"/>
+      <c r="H243" s="21"/>
+      <c r="I243" s="21"/>
+      <c r="J243" s="21"/>
+    </row>
+    <row r="244" spans="1:17">
+      <c r="D244" s="48"/>
+      <c r="E244" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
-      <c r="D244" s="13"/>
-      <c r="F244" s="21" t="s">
+    <row r="245" spans="1:17">
+      <c r="D245" s="13"/>
+      <c r="F245" s="21" t="s">
         <v>140</v>
-      </c>
-      <c r="G244" s="21"/>
-      <c r="H244" s="21"/>
-      <c r="I244" s="21"/>
-      <c r="J244" s="21"/>
-      <c r="K244" s="21"/>
-    </row>
-    <row r="245" spans="1:17">
-      <c r="F245" s="21" t="s">
-        <v>277</v>
       </c>
       <c r="G245" s="21"/>
       <c r="H245" s="21"/>
@@ -13721,75 +13764,68 @@
       <c r="K245" s="21"/>
     </row>
     <row r="246" spans="1:17">
-      <c r="F246" s="70" t="s">
-        <v>310</v>
+      <c r="F246" s="21" t="s">
+        <v>277</v>
       </c>
       <c r="G246" s="21"/>
       <c r="H246" s="21"/>
-      <c r="I246" s="39"/>
-      <c r="J246" s="24"/>
-      <c r="K246" s="39"/>
-      <c r="L246" s="13"/>
+      <c r="I246" s="21"/>
+      <c r="J246" s="21"/>
+      <c r="K246" s="21"/>
     </row>
     <row r="247" spans="1:17">
-      <c r="A247" s="2" t="s">
+      <c r="F247" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="G247" s="21"/>
+      <c r="H247" s="21"/>
+      <c r="I247" s="39"/>
+      <c r="J247" s="24"/>
+      <c r="K247" s="39"/>
+      <c r="L247" s="13"/>
+    </row>
+    <row r="248" spans="1:17">
+      <c r="A248" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F247" s="13" t="s">
+      <c r="F248" s="13" t="s">
         <v>224</v>
-      </c>
-      <c r="G247" s="13"/>
-      <c r="H247" s="13"/>
-      <c r="I247" s="13"/>
-      <c r="J247" s="13"/>
-      <c r="K247" s="13"/>
-      <c r="L247" s="13"/>
-    </row>
-    <row r="248" spans="1:17">
-      <c r="E248" s="13"/>
-      <c r="F248" s="13" t="s">
-        <v>276</v>
       </c>
       <c r="G248" s="13"/>
       <c r="H248" s="13"/>
       <c r="I248" s="13"/>
+      <c r="J248" s="13"/>
+      <c r="K248" s="13"/>
+      <c r="L248" s="13"/>
     </row>
     <row r="249" spans="1:17">
-      <c r="D249" s="48"/>
-      <c r="E249" s="32" t="s">
+      <c r="E249" s="13"/>
+      <c r="F249" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="G249" s="13"/>
+      <c r="H249" s="13"/>
+      <c r="I249" s="13"/>
+    </row>
+    <row r="250" spans="1:17">
+      <c r="D250" s="48"/>
+      <c r="E250" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="F249" s="21"/>
-      <c r="G249" s="21"/>
-      <c r="H249" s="21"/>
-      <c r="I249" s="21"/>
-      <c r="J249" s="21"/>
-    </row>
-    <row r="250" spans="1:17">
-      <c r="E250" s="24"/>
-      <c r="F250" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G250" s="24"/>
-      <c r="H250" s="24"/>
-      <c r="I250" s="24"/>
-      <c r="J250" s="24"/>
-      <c r="K250" s="13"/>
-      <c r="L250" s="13"/>
-      <c r="M250" s="13"/>
-      <c r="N250" s="13"/>
-      <c r="O250" s="13"/>
-      <c r="P250" s="13"/>
-      <c r="Q250" s="13"/>
+      <c r="F250" s="21"/>
+      <c r="G250" s="21"/>
+      <c r="H250" s="21"/>
+      <c r="I250" s="21"/>
+      <c r="J250" s="21"/>
     </row>
     <row r="251" spans="1:17">
       <c r="E251" s="24"/>
-      <c r="F251" s="119" t="s">
-        <v>376</v>
+      <c r="F251" s="24" t="s">
+        <v>142</v>
       </c>
       <c r="G251" s="24"/>
       <c r="H251" s="24"/>
-      <c r="I251" s="136"/>
+      <c r="I251" s="24"/>
       <c r="J251" s="24"/>
       <c r="K251" s="13"/>
       <c r="L251" s="13"/>
@@ -13800,16 +13836,13 @@
       <c r="Q251" s="13"/>
     </row>
     <row r="252" spans="1:17">
-      <c r="A252" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="E252" s="24"/>
-      <c r="F252" s="24" t="s">
-        <v>242</v>
+      <c r="F252" s="119" t="s">
+        <v>375</v>
       </c>
       <c r="G252" s="24"/>
       <c r="H252" s="24"/>
-      <c r="I252" s="24"/>
+      <c r="I252" s="121"/>
       <c r="J252" s="24"/>
       <c r="K252" s="13"/>
       <c r="L252" s="13"/>
@@ -13820,11 +13853,13 @@
       <c r="Q252" s="13"/>
     </row>
     <row r="253" spans="1:17">
-      <c r="A253" s="44" t="s">
-        <v>225</v>
+      <c r="A253" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="E253" s="24"/>
-      <c r="F253" s="24"/>
+      <c r="F253" s="24" t="s">
+        <v>242</v>
+      </c>
       <c r="G253" s="24"/>
       <c r="H253" s="24"/>
       <c r="I253" s="24"/>
@@ -13838,15 +13873,14 @@
       <c r="Q253" s="13"/>
     </row>
     <row r="254" spans="1:17">
+      <c r="A254" s="44" t="s">
+        <v>225</v>
+      </c>
       <c r="E254" s="24"/>
-      <c r="F254" s="119" t="s">
-        <v>377</v>
-      </c>
-      <c r="G254" s="119" t="s">
-        <v>378</v>
-      </c>
-      <c r="H254" s="136"/>
-      <c r="I254" s="136"/>
+      <c r="F254" s="24"/>
+      <c r="G254" s="24"/>
+      <c r="H254" s="24"/>
+      <c r="I254" s="24"/>
       <c r="J254" s="24"/>
       <c r="K254" s="13"/>
       <c r="L254" s="13"/>
@@ -13857,17 +13891,16 @@
       <c r="Q254" s="13"/>
     </row>
     <row r="255" spans="1:17">
-      <c r="A255" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E255" s="13"/>
-      <c r="F255" s="13"/>
-      <c r="G255" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="H255" s="13"/>
-      <c r="I255" s="13"/>
-      <c r="J255" s="13"/>
+      <c r="E255" s="24"/>
+      <c r="F255" s="119" t="s">
+        <v>376</v>
+      </c>
+      <c r="G255" s="119" t="s">
+        <v>377</v>
+      </c>
+      <c r="H255" s="121"/>
+      <c r="I255" s="121"/>
+      <c r="J255" s="24"/>
       <c r="K255" s="13"/>
       <c r="L255" s="13"/>
       <c r="M255" s="13"/>
@@ -13877,9 +13910,14 @@
       <c r="Q255" s="13"/>
     </row>
     <row r="256" spans="1:17">
+      <c r="A256" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="E256" s="13"/>
       <c r="F256" s="13"/>
-      <c r="G256" s="13"/>
+      <c r="G256" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="H256" s="13"/>
       <c r="I256" s="13"/>
       <c r="J256" s="13"/>
@@ -13922,109 +13960,112 @@
       <c r="Q258" s="13"/>
     </row>
     <row r="259" spans="1:17">
-      <c r="A259" s="41" t="s">
-        <v>210</v>
-      </c>
       <c r="E259" s="13"/>
-      <c r="F259" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G259" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="H259" s="24"/>
-      <c r="I259" s="24"/>
-      <c r="J259" s="24"/>
-      <c r="K259" s="24"/>
-      <c r="L259" s="24"/>
-      <c r="M259" s="24"/>
-      <c r="N259" s="24"/>
+      <c r="F259" s="13"/>
+      <c r="G259" s="13"/>
+      <c r="H259" s="13"/>
+      <c r="I259" s="13"/>
+      <c r="J259" s="13"/>
+      <c r="K259" s="13"/>
+      <c r="L259" s="13"/>
+      <c r="M259" s="13"/>
+      <c r="N259" s="13"/>
       <c r="O259" s="13"/>
       <c r="P259" s="13"/>
       <c r="Q259" s="13"/>
     </row>
     <row r="260" spans="1:17">
       <c r="A260" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E260" s="13"/>
+      <c r="F260" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G260" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="H260" s="24"/>
+      <c r="I260" s="24"/>
+      <c r="J260" s="24"/>
+      <c r="K260" s="24"/>
+      <c r="L260" s="24"/>
+      <c r="M260" s="24"/>
+      <c r="N260" s="24"/>
+      <c r="O260" s="13"/>
+      <c r="P260" s="13"/>
+      <c r="Q260" s="13"/>
+    </row>
+    <row r="261" spans="1:17">
+      <c r="A261" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="G260" s="21" t="s">
+      <c r="G261" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H260" s="21"/>
-      <c r="I260" s="21"/>
-      <c r="J260" s="21"/>
-      <c r="K260" s="21"/>
-    </row>
-    <row r="261" spans="1:17">
-      <c r="A261" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="G261" s="21"/>
       <c r="H261" s="21"/>
       <c r="I261" s="21"/>
       <c r="J261" s="21"/>
       <c r="K261" s="21"/>
     </row>
     <row r="262" spans="1:17">
-      <c r="F262" s="24" t="s">
+      <c r="A262" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="G262" s="21"/>
+      <c r="H262" s="21"/>
+      <c r="I262" s="21"/>
+      <c r="J262" s="21"/>
+      <c r="K262" s="21"/>
+    </row>
+    <row r="263" spans="1:17">
+      <c r="F263" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="G262" s="24"/>
-      <c r="H262" s="24"/>
-      <c r="I262" s="13"/>
-    </row>
-    <row r="263" spans="1:17">
-      <c r="E263" s="32" t="s">
+      <c r="G263" s="24"/>
+      <c r="H263" s="24"/>
+      <c r="I263" s="13"/>
+    </row>
+    <row r="264" spans="1:17">
+      <c r="E264" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="F263" s="21"/>
-      <c r="G263" s="21"/>
-      <c r="H263" s="21"/>
-      <c r="I263" s="21"/>
-      <c r="J263" s="21"/>
-      <c r="K263" s="21"/>
-      <c r="L263" s="21"/>
-      <c r="M263" s="21"/>
-      <c r="N263" s="21"/>
-    </row>
-    <row r="264" spans="1:17">
-      <c r="E264" s="32"/>
-      <c r="F264" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G264" s="23"/>
-      <c r="H264" s="23"/>
-      <c r="I264" s="23"/>
-      <c r="J264" s="23"/>
+      <c r="F264" s="21"/>
+      <c r="G264" s="21"/>
+      <c r="H264" s="21"/>
+      <c r="I264" s="21"/>
+      <c r="J264" s="21"/>
+      <c r="K264" s="21"/>
+      <c r="L264" s="21"/>
+      <c r="M264" s="21"/>
+      <c r="N264" s="21"/>
     </row>
     <row r="265" spans="1:17">
       <c r="E265" s="32"/>
-      <c r="F265" s="22"/>
-      <c r="G265" s="23" t="s">
-        <v>48</v>
-      </c>
+      <c r="F265" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G265" s="23"/>
       <c r="H265" s="23"/>
       <c r="I265" s="23"/>
       <c r="J265" s="23"/>
     </row>
     <row r="266" spans="1:17">
       <c r="E266" s="32"/>
-      <c r="F266" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G266" s="23"/>
+      <c r="F266" s="22"/>
+      <c r="G266" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="H266" s="23"/>
       <c r="I266" s="23"/>
       <c r="J266" s="23"/>
-      <c r="K266" s="23"/>
-      <c r="N266" s="21"/>
     </row>
     <row r="267" spans="1:17">
       <c r="E267" s="32"/>
-      <c r="F267" s="22"/>
-      <c r="G267" s="23" t="s">
-        <v>56</v>
-      </c>
+      <c r="F267" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G267" s="23"/>
       <c r="H267" s="23"/>
       <c r="I267" s="23"/>
       <c r="J267" s="23"/>
@@ -14033,10 +14074,10 @@
     </row>
     <row r="268" spans="1:17">
       <c r="E268" s="32"/>
-      <c r="F268" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G268" s="23"/>
+      <c r="F268" s="22"/>
+      <c r="G268" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="H268" s="23"/>
       <c r="I268" s="23"/>
       <c r="J268" s="23"/>
@@ -14045,22 +14086,21 @@
     </row>
     <row r="269" spans="1:17">
       <c r="E269" s="32"/>
-      <c r="F269" s="22"/>
-      <c r="G269" s="87" t="s">
-        <v>339</v>
-      </c>
-      <c r="H269" s="89"/>
-      <c r="I269" s="89"/>
-      <c r="J269" s="89"/>
-      <c r="K269" s="89"/>
-      <c r="L269" s="85"/>
+      <c r="F269" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G269" s="23"/>
+      <c r="H269" s="23"/>
+      <c r="I269" s="23"/>
+      <c r="J269" s="23"/>
+      <c r="K269" s="23"/>
       <c r="N269" s="21"/>
     </row>
-    <row r="270" spans="1:17" s="86" customFormat="1">
-      <c r="E270" s="90"/>
-      <c r="F270" s="88"/>
+    <row r="270" spans="1:17">
+      <c r="E270" s="32"/>
+      <c r="F270" s="22"/>
       <c r="G270" s="87" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H270" s="89"/>
       <c r="I270" s="89"/>
@@ -14069,51 +14109,52 @@
       <c r="L270" s="85"/>
       <c r="N270" s="21"/>
     </row>
-    <row r="271" spans="1:17">
-      <c r="F271" s="22" t="s">
+    <row r="271" spans="1:17" s="86" customFormat="1">
+      <c r="E271" s="90"/>
+      <c r="F271" s="88"/>
+      <c r="G271" s="87" t="s">
+        <v>339</v>
+      </c>
+      <c r="H271" s="89"/>
+      <c r="I271" s="89"/>
+      <c r="J271" s="89"/>
+      <c r="K271" s="89"/>
+      <c r="L271" s="85"/>
+      <c r="N271" s="21"/>
+    </row>
+    <row r="272" spans="1:17">
+      <c r="F272" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G271" s="23"/>
-      <c r="H271" s="23"/>
-      <c r="I271" s="23"/>
-      <c r="J271" s="23"/>
-      <c r="K271" s="23"/>
-      <c r="N271" s="21"/>
-    </row>
-    <row r="272" spans="1:17">
-      <c r="E272" s="32"/>
-      <c r="F272" s="22"/>
-      <c r="G272" s="83" t="s">
-        <v>338</v>
-      </c>
-      <c r="H272" s="81"/>
-      <c r="I272" s="81"/>
-      <c r="J272" s="81"/>
-      <c r="K272" s="81"/>
-      <c r="L272" s="82"/>
+      <c r="G272" s="23"/>
+      <c r="H272" s="23"/>
+      <c r="I272" s="23"/>
+      <c r="J272" s="23"/>
+      <c r="K272" s="23"/>
       <c r="N272" s="21"/>
     </row>
     <row r="273" spans="5:22">
       <c r="E273" s="32"/>
       <c r="F273" s="22"/>
-      <c r="G273" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="H273" s="66" t="s">
-        <v>314</v>
-      </c>
-      <c r="I273" s="23"/>
-      <c r="J273" s="23"/>
-      <c r="K273" s="23"/>
+      <c r="G273" s="83" t="s">
+        <v>337</v>
+      </c>
+      <c r="H273" s="81"/>
+      <c r="I273" s="81"/>
+      <c r="J273" s="81"/>
+      <c r="K273" s="81"/>
+      <c r="L273" s="82"/>
       <c r="N273" s="21"/>
     </row>
     <row r="274" spans="5:22">
       <c r="E274" s="32"/>
-      <c r="F274" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G274" s="23"/>
-      <c r="H274" s="23"/>
+      <c r="F274" s="22"/>
+      <c r="G274" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="H274" s="66" t="s">
+        <v>313</v>
+      </c>
       <c r="I274" s="23"/>
       <c r="J274" s="23"/>
       <c r="K274" s="23"/>
@@ -14121,29 +14162,19 @@
     </row>
     <row r="275" spans="5:22">
       <c r="E275" s="32"/>
-      <c r="F275" s="14"/>
-      <c r="G275" s="97" t="s">
-        <v>343</v>
-      </c>
-      <c r="H275" s="97"/>
-      <c r="I275" s="97"/>
-      <c r="J275" s="97"/>
-      <c r="K275" s="97"/>
-      <c r="L275" s="97"/>
-      <c r="M275" s="97"/>
-      <c r="N275" s="97"/>
-      <c r="O275" s="97"/>
-      <c r="P275" s="96"/>
-      <c r="Q275" s="96"/>
-      <c r="R275" s="84"/>
-      <c r="S275" s="84"/>
-      <c r="T275" s="84"/>
-      <c r="U275" s="13"/>
-      <c r="V275" s="13"/>
+      <c r="F275" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G275" s="23"/>
+      <c r="H275" s="23"/>
+      <c r="I275" s="23"/>
+      <c r="J275" s="23"/>
+      <c r="K275" s="23"/>
+      <c r="N275" s="21"/>
     </row>
     <row r="276" spans="5:22">
       <c r="E276" s="32"/>
-      <c r="F276" s="58"/>
+      <c r="F276" s="14"/>
       <c r="G276" s="97" t="s">
         <v>342</v>
       </c>
@@ -14157,66 +14188,66 @@
       <c r="O276" s="97"/>
       <c r="P276" s="96"/>
       <c r="Q276" s="96"/>
-      <c r="R276" s="96"/>
-      <c r="S276" s="96"/>
-      <c r="T276" s="96"/>
+      <c r="R276" s="84"/>
+      <c r="S276" s="84"/>
+      <c r="T276" s="84"/>
       <c r="U276" s="13"/>
       <c r="V276" s="13"/>
     </row>
-    <row r="277" spans="5:22" s="102" customFormat="1">
-      <c r="E277" s="98"/>
+    <row r="277" spans="5:22">
+      <c r="E277" s="32"/>
       <c r="F277" s="58"/>
-      <c r="G277" s="137" t="s">
-        <v>384</v>
-      </c>
-      <c r="H277" s="137"/>
-      <c r="I277" s="136"/>
-      <c r="J277" s="136"/>
-      <c r="K277" s="136"/>
-      <c r="L277" s="106"/>
-      <c r="M277" s="106"/>
-      <c r="N277" s="106"/>
-      <c r="O277" s="106"/>
-      <c r="P277" s="105"/>
-      <c r="Q277" s="105"/>
-      <c r="R277" s="105"/>
-      <c r="S277" s="105"/>
-      <c r="T277" s="105"/>
-      <c r="U277" s="105"/>
-      <c r="V277" s="105"/>
-    </row>
-    <row r="278" spans="5:22">
-      <c r="E278" s="32"/>
-      <c r="F278" s="48"/>
-      <c r="G278" s="138" t="s">
-        <v>385</v>
-      </c>
-      <c r="H278" s="97"/>
-      <c r="I278" s="97"/>
-      <c r="J278" s="97"/>
-      <c r="K278" s="139"/>
-      <c r="L278" s="97"/>
-      <c r="M278" s="97"/>
-      <c r="N278" s="97"/>
-      <c r="O278" s="97"/>
-      <c r="P278" s="84"/>
-      <c r="Q278" s="84"/>
-      <c r="R278" s="84"/>
-      <c r="S278" s="84"/>
-      <c r="T278" s="84"/>
-      <c r="U278" s="13"/>
-      <c r="V278" s="13"/>
+      <c r="G277" s="97" t="s">
+        <v>341</v>
+      </c>
+      <c r="H277" s="97"/>
+      <c r="I277" s="97"/>
+      <c r="J277" s="97"/>
+      <c r="K277" s="97"/>
+      <c r="L277" s="97"/>
+      <c r="M277" s="97"/>
+      <c r="N277" s="97"/>
+      <c r="O277" s="97"/>
+      <c r="P277" s="96"/>
+      <c r="Q277" s="96"/>
+      <c r="R277" s="96"/>
+      <c r="S277" s="96"/>
+      <c r="T277" s="96"/>
+      <c r="U277" s="13"/>
+      <c r="V277" s="13"/>
+    </row>
+    <row r="278" spans="5:22" s="102" customFormat="1">
+      <c r="E278" s="98"/>
+      <c r="F278" s="58"/>
+      <c r="G278" s="122" t="s">
+        <v>383</v>
+      </c>
+      <c r="H278" s="122"/>
+      <c r="I278" s="121"/>
+      <c r="J278" s="121"/>
+      <c r="K278" s="121"/>
+      <c r="L278" s="106"/>
+      <c r="M278" s="106"/>
+      <c r="N278" s="106"/>
+      <c r="O278" s="106"/>
+      <c r="P278" s="105"/>
+      <c r="Q278" s="105"/>
+      <c r="R278" s="105"/>
+      <c r="S278" s="105"/>
+      <c r="T278" s="105"/>
+      <c r="U278" s="105"/>
+      <c r="V278" s="105"/>
     </row>
     <row r="279" spans="5:22">
       <c r="E279" s="32"/>
       <c r="F279" s="48"/>
-      <c r="G279" s="96" t="s">
-        <v>341</v>
+      <c r="G279" s="123" t="s">
+        <v>384</v>
       </c>
       <c r="H279" s="97"/>
       <c r="I279" s="97"/>
       <c r="J279" s="97"/>
-      <c r="K279" s="97"/>
+      <c r="K279" s="124"/>
       <c r="L279" s="97"/>
       <c r="M279" s="97"/>
       <c r="N279" s="97"/>
@@ -14233,7 +14264,7 @@
       <c r="E280" s="32"/>
       <c r="F280" s="48"/>
       <c r="G280" s="96" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H280" s="97"/>
       <c r="I280" s="97"/>
@@ -14251,10 +14282,12 @@
       <c r="U280" s="13"/>
       <c r="V280" s="13"/>
     </row>
-    <row r="281" spans="5:22" s="92" customFormat="1">
-      <c r="E281" s="98"/>
-      <c r="F281" s="99"/>
-      <c r="G281" s="96"/>
+    <row r="281" spans="5:22">
+      <c r="E281" s="32"/>
+      <c r="F281" s="48"/>
+      <c r="G281" s="96" t="s">
+        <v>343</v>
+      </c>
       <c r="H281" s="97"/>
       <c r="I281" s="97"/>
       <c r="J281" s="97"/>
@@ -14268,8 +14301,8 @@
       <c r="R281" s="84"/>
       <c r="S281" s="84"/>
       <c r="T281" s="84"/>
-      <c r="U281" s="96"/>
-      <c r="V281" s="96"/>
+      <c r="U281" s="13"/>
+      <c r="V281" s="13"/>
     </row>
     <row r="282" spans="5:22" s="92" customFormat="1">
       <c r="E282" s="98"/>
@@ -14431,27 +14464,33 @@
       <c r="U289" s="96"/>
       <c r="V289" s="96"/>
     </row>
-    <row r="290" spans="1:22">
-      <c r="E290" s="32"/>
-      <c r="F290" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G290" s="23"/>
-      <c r="H290" s="23"/>
-      <c r="I290" s="21"/>
-      <c r="J290" s="21"/>
-      <c r="K290" s="21"/>
-      <c r="L290" s="21"/>
-      <c r="M290" s="21"/>
-      <c r="N290" s="21"/>
+    <row r="290" spans="1:22" s="92" customFormat="1">
+      <c r="E290" s="98"/>
+      <c r="F290" s="99"/>
+      <c r="G290" s="96"/>
+      <c r="H290" s="97"/>
+      <c r="I290" s="97"/>
+      <c r="J290" s="97"/>
+      <c r="K290" s="97"/>
+      <c r="L290" s="97"/>
+      <c r="M290" s="97"/>
+      <c r="N290" s="97"/>
+      <c r="O290" s="97"/>
+      <c r="P290" s="84"/>
+      <c r="Q290" s="84"/>
+      <c r="R290" s="84"/>
+      <c r="S290" s="84"/>
+      <c r="T290" s="84"/>
+      <c r="U290" s="96"/>
+      <c r="V290" s="96"/>
     </row>
     <row r="291" spans="1:22">
       <c r="E291" s="32"/>
-      <c r="F291" s="22"/>
-      <c r="G291" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="H291" s="24"/>
+      <c r="F291" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G291" s="23"/>
+      <c r="H291" s="23"/>
       <c r="I291" s="21"/>
       <c r="J291" s="21"/>
       <c r="K291" s="21"/>
@@ -14463,7 +14502,7 @@
       <c r="E292" s="32"/>
       <c r="F292" s="22"/>
       <c r="G292" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H292" s="24"/>
       <c r="I292" s="21"/>
@@ -14475,11 +14514,11 @@
     </row>
     <row r="293" spans="1:22">
       <c r="E293" s="32"/>
-      <c r="F293" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="G293" s="23"/>
-      <c r="H293" s="23"/>
+      <c r="F293" s="22"/>
+      <c r="G293" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="H293" s="24"/>
       <c r="I293" s="21"/>
       <c r="J293" s="21"/>
       <c r="K293" s="21"/>
@@ -14489,13 +14528,11 @@
     </row>
     <row r="294" spans="1:22">
       <c r="E294" s="32"/>
-      <c r="F294" s="21"/>
-      <c r="G294" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="H294" s="23" t="s">
-        <v>153</v>
-      </c>
+      <c r="F294" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G294" s="23"/>
+      <c r="H294" s="23"/>
       <c r="I294" s="21"/>
       <c r="J294" s="21"/>
       <c r="K294" s="21"/>
@@ -14507,10 +14544,10 @@
       <c r="E295" s="32"/>
       <c r="F295" s="21"/>
       <c r="G295" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H295" s="28" t="s">
-        <v>138</v>
+        <v>152</v>
+      </c>
+      <c r="H295" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="I295" s="21"/>
       <c r="J295" s="21"/>
@@ -14520,13 +14557,14 @@
       <c r="N295" s="21"/>
     </row>
     <row r="296" spans="1:22">
-      <c r="D296" s="72" t="s">
-        <v>317</v>
-      </c>
-      <c r="E296" s="73"/>
-      <c r="F296" s="68"/>
-      <c r="G296" s="68"/>
-      <c r="H296" s="68"/>
+      <c r="E296" s="32"/>
+      <c r="F296" s="21"/>
+      <c r="G296" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="H296" s="28" t="s">
+        <v>138</v>
+      </c>
       <c r="I296" s="21"/>
       <c r="J296" s="21"/>
       <c r="K296" s="21"/>
@@ -14535,10 +14573,10 @@
       <c r="N296" s="21"/>
     </row>
     <row r="297" spans="1:22">
-      <c r="D297" s="69"/>
-      <c r="E297" s="67" t="s">
-        <v>322</v>
-      </c>
+      <c r="D297" s="72" t="s">
+        <v>316</v>
+      </c>
+      <c r="E297" s="73"/>
       <c r="F297" s="68"/>
       <c r="G297" s="68"/>
       <c r="H297" s="68"/>
@@ -14550,14 +14588,13 @@
       <c r="N297" s="21"/>
     </row>
     <row r="298" spans="1:22">
-      <c r="E298" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="F298" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="G298" s="21"/>
-      <c r="H298" s="21"/>
+      <c r="D298" s="69"/>
+      <c r="E298" s="67" t="s">
+        <v>321</v>
+      </c>
+      <c r="F298" s="68"/>
+      <c r="G298" s="68"/>
+      <c r="H298" s="68"/>
       <c r="I298" s="21"/>
       <c r="J298" s="21"/>
       <c r="K298" s="21"/>
@@ -14566,8 +14603,12 @@
       <c r="N298" s="21"/>
     </row>
     <row r="299" spans="1:22">
-      <c r="E299" s="32"/>
-      <c r="F299" s="21"/>
+      <c r="E299" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F299" s="66" t="s">
+        <v>322</v>
+      </c>
       <c r="G299" s="21"/>
       <c r="H299" s="21"/>
       <c r="I299" s="21"/>
@@ -14578,9 +14619,6 @@
       <c r="N299" s="21"/>
     </row>
     <row r="300" spans="1:22">
-      <c r="B300" s="30" t="s">
-        <v>161</v>
-      </c>
       <c r="E300" s="32"/>
       <c r="F300" s="21"/>
       <c r="G300" s="21"/>
@@ -14593,8 +14631,8 @@
       <c r="N300" s="21"/>
     </row>
     <row r="301" spans="1:22">
-      <c r="C301" s="1" t="s">
-        <v>162</v>
+      <c r="B301" s="30" t="s">
+        <v>161</v>
       </c>
       <c r="E301" s="32"/>
       <c r="F301" s="21"/>
@@ -14608,58 +14646,58 @@
       <c r="N301" s="21"/>
     </row>
     <row r="302" spans="1:22">
-      <c r="A302" s="2" t="s">
+      <c r="C302" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E302" s="32"/>
+      <c r="F302" s="21"/>
+      <c r="G302" s="21"/>
+      <c r="H302" s="21"/>
+      <c r="I302" s="21"/>
+      <c r="J302" s="21"/>
+      <c r="K302" s="21"/>
+      <c r="L302" s="21"/>
+      <c r="M302" s="21"/>
+      <c r="N302" s="21"/>
+    </row>
+    <row r="303" spans="1:22">
+      <c r="A303" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D302" s="96" t="s">
-        <v>348</v>
-      </c>
-      <c r="E302" s="55"/>
-      <c r="F302" s="24"/>
-      <c r="G302" s="24"/>
-      <c r="H302" s="24"/>
-      <c r="I302" s="24"/>
-      <c r="J302" s="24"/>
-      <c r="K302" s="24"/>
-      <c r="L302" s="24"/>
-      <c r="M302" s="24"/>
-      <c r="N302" s="21"/>
-    </row>
-    <row r="303" spans="1:22" s="102" customFormat="1">
-      <c r="D303" s="105"/>
-      <c r="E303" s="108" t="s">
-        <v>352</v>
-      </c>
-      <c r="F303" s="108"/>
-      <c r="G303" s="108"/>
-      <c r="H303" s="108"/>
-      <c r="I303" s="108"/>
-      <c r="J303" s="108"/>
+      <c r="D303" s="96" t="s">
+        <v>347</v>
+      </c>
+      <c r="E303" s="55"/>
+      <c r="F303" s="24"/>
+      <c r="G303" s="24"/>
+      <c r="H303" s="24"/>
+      <c r="I303" s="24"/>
+      <c r="J303" s="24"/>
       <c r="K303" s="24"/>
       <c r="L303" s="24"/>
       <c r="M303" s="24"/>
       <c r="N303" s="21"/>
     </row>
-    <row r="304" spans="1:22">
-      <c r="D304" s="105" t="s">
-        <v>349</v>
-      </c>
-      <c r="E304" s="109"/>
-      <c r="F304" s="106"/>
-      <c r="G304" s="106"/>
-      <c r="H304" s="106"/>
-      <c r="I304" s="106"/>
-      <c r="J304" s="106"/>
-      <c r="K304" s="106"/>
-      <c r="L304" s="106"/>
+    <row r="304" spans="1:22" s="102" customFormat="1">
+      <c r="D304" s="105"/>
+      <c r="E304" s="108" t="s">
+        <v>351</v>
+      </c>
+      <c r="F304" s="108"/>
+      <c r="G304" s="108"/>
+      <c r="H304" s="108"/>
+      <c r="I304" s="108"/>
+      <c r="J304" s="108"/>
+      <c r="K304" s="24"/>
+      <c r="L304" s="24"/>
       <c r="M304" s="24"/>
       <c r="N304" s="21"/>
     </row>
     <row r="305" spans="3:14">
-      <c r="D305" s="105"/>
-      <c r="E305" s="106" t="s">
-        <v>350</v>
-      </c>
+      <c r="D305" s="105" t="s">
+        <v>348</v>
+      </c>
+      <c r="E305" s="109"/>
       <c r="F305" s="106"/>
       <c r="G305" s="106"/>
       <c r="H305" s="106"/>
@@ -14671,10 +14709,10 @@
       <c r="N305" s="21"/>
     </row>
     <row r="306" spans="3:14">
-      <c r="D306" s="105" t="s">
-        <v>351</v>
-      </c>
-      <c r="E306" s="109"/>
+      <c r="D306" s="105"/>
+      <c r="E306" s="106" t="s">
+        <v>349</v>
+      </c>
       <c r="F306" s="106"/>
       <c r="G306" s="106"/>
       <c r="H306" s="106"/>
@@ -14686,39 +14724,54 @@
       <c r="N306" s="21"/>
     </row>
     <row r="307" spans="3:14">
-      <c r="C307" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D307" s="13"/>
-      <c r="E307" s="24"/>
-      <c r="F307" s="24"/>
-      <c r="G307" s="24"/>
-      <c r="H307" s="24"/>
-      <c r="I307" s="24"/>
-      <c r="J307" s="24"/>
-      <c r="K307" s="24"/>
-      <c r="L307" s="24"/>
+      <c r="D307" s="105" t="s">
+        <v>350</v>
+      </c>
+      <c r="E307" s="109"/>
+      <c r="F307" s="106"/>
+      <c r="G307" s="106"/>
+      <c r="H307" s="106"/>
+      <c r="I307" s="106"/>
+      <c r="J307" s="106"/>
+      <c r="K307" s="106"/>
+      <c r="L307" s="106"/>
       <c r="M307" s="24"/>
       <c r="N307" s="21"/>
     </row>
     <row r="308" spans="3:14">
-      <c r="D308" s="2" t="s">
+      <c r="C308" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D308" s="13"/>
+      <c r="E308" s="24"/>
+      <c r="F308" s="24"/>
+      <c r="G308" s="24"/>
+      <c r="H308" s="24"/>
+      <c r="I308" s="24"/>
+      <c r="J308" s="24"/>
+      <c r="K308" s="24"/>
+      <c r="L308" s="24"/>
+      <c r="M308" s="24"/>
+      <c r="N308" s="21"/>
+    </row>
+    <row r="309" spans="3:14">
+      <c r="D309" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E308" s="21"/>
-    </row>
-    <row r="309" spans="3:14">
       <c r="E309" s="21"/>
     </row>
     <row r="310" spans="3:14">
       <c r="E310" s="21"/>
+    </row>
+    <row r="311" spans="3:14">
+      <c r="E311" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:AA1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="A138:A139 A146:A147 A254:A258 A149:A198 A207:A252 A107:A136 A97:A105 A1:A95 A262:A1048576">
+  <phoneticPr fontId="15" type="noConversion"/>
+  <conditionalFormatting sqref="A139:A140 A147:A148 A255:A259 A150:A199 A208:A253 A108:A137 A98:A106 A1:A96 A263:A1048576">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -14750,32 +14803,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="22.5">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
     </row>
     <row r="2" spans="1:24">
       <c r="B2" s="32" t="s">
@@ -14891,7 +14944,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:X1"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14912,34 +14965,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="21" customFormat="1" ht="22.5">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="134"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="139"/>
     </row>
     <row r="2" spans="1:27" s="14" customFormat="1">
       <c r="B2" s="14" t="s">
@@ -15183,7 +15236,7 @@
     </row>
     <row r="18" spans="2:16" s="13" customFormat="1">
       <c r="C18" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -15558,7 +15611,7 @@
       <c r="G40" s="13"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -15596,7 +15649,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -15616,7 +15669,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="76" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M43" s="76"/>
       <c r="N43" s="76"/>
@@ -15635,7 +15688,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="76" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M44" s="76"/>
       <c r="N44" s="76"/>
@@ -15654,7 +15707,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="76" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M45" s="76"/>
       <c r="N45" s="76"/>
@@ -16145,7 +16198,7 @@
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G79" s="74"/>
       <c r="H79" s="74"/>
@@ -16184,7 +16237,7 @@
       <c r="D82" s="13"/>
       <c r="E82" s="2"/>
       <c r="F82" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
@@ -16197,7 +16250,7 @@
       <c r="D83" s="13"/>
       <c r="E83" s="2"/>
       <c r="F83" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
@@ -16511,7 +16564,7 @@
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -16797,13 +16850,13 @@
     <row r="128" spans="2:17">
       <c r="F128" s="22"/>
       <c r="G128" s="63" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="129" spans="5:8">
       <c r="F129" s="22"/>
       <c r="G129" s="63" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="130" spans="5:8">
@@ -16827,21 +16880,21 @@
     </row>
     <row r="133" spans="5:8">
       <c r="E133" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F133" s="55"/>
     </row>
     <row r="134" spans="5:8">
       <c r="E134" s="13"/>
       <c r="F134" s="63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:AA1"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A1:A6 A8:A1048576">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -17124,7 +17177,7 @@
       <c r="K14" s="26"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -17388,7 +17441,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="C20" s="114" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D20" s="21">
         <v>0.5</v>
@@ -17412,7 +17465,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D23" s="21">
         <v>1</v>
@@ -17423,14 +17476,14 @@
         <v>2</v>
       </c>
       <c r="C24" s="114" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D24" s="21">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17455,30 +17508,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="116" customFormat="1">
       <c r="A1" s="116" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" s="117" t="s">
         <v>357</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="C1" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="D1" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="E1" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="F1" s="116" t="s">
         <v>361</v>
-      </c>
-      <c r="F1" s="116" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="115" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="115" t="s">
         <v>363</v>
-      </c>
-      <c r="C2" s="115" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -17486,10 +17539,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="115" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3" s="115" t="s">
         <v>365</v>
-      </c>
-      <c r="E3" s="115" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="132" customHeight="1">
@@ -17497,10 +17550,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="115" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E4" s="118" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -17508,10 +17561,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="115" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E5" s="115" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -17519,10 +17572,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="115" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6" s="115" t="s">
         <v>370</v>
-      </c>
-      <c r="E6" s="115" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -17530,15 +17583,15 @@
         <v>5</v>
       </c>
       <c r="C7" s="115" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E7" s="115" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="C9" s="115" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -17546,11 +17599,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="115" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17927,7 +17980,7 @@
       <c r="M50" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gd/交互系统/邮箱系统设计.xlsx
+++ b/gd/交互系统/邮箱系统设计.xlsx
@@ -26,6 +26,7 @@
     <definedName name="对应道具进包_增长对应经验以及金币、钻石、活力值_提取按钮消失_所有附件框右上角出现”对勾“图标_代表已收取_。">'逻辑+UI'!$G$279</definedName>
     <definedName name="二、聊天框玩家名称">美术需求!$B$27</definedName>
     <definedName name="附件可以为道具、金币、钻石、经验、活力值_均以图标形式显示_调取道具图标即可_数字采用程序字即可。">'逻辑+UI'!$F$252</definedName>
+    <definedName name="根据客户端语言发送对应语言的邮件">邮件配置结构!$B$8</definedName>
     <definedName name="活力值达到上限仍然收取成功_多于上限的活力值作废。">'逻辑+UI'!$F$198</definedName>
     <definedName name="金币钻石达到上限的处理符合通用规则。">'逻辑+UI'!$F$197</definedName>
     <definedName name="若当前邮箱已满_玩家正在读取最后一封邮件_此时有新邮件进入_则邮箱界面右侧保持玩家读取的邮件不变_左侧邮件列表刷新。">'逻辑+UI'!$E$143</definedName>
@@ -42,429 +43,429 @@
     <definedName name="长按才能录音_松手后直接发送录音内容。">#REF!</definedName>
     <definedName name="自动删除动画_被删除的邮件直接消失_下方邮件自动向上提">'逻辑+UI'!$E$304</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="408">
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>提示方式</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>触发条件</t>
   </si>
   <si>
     <t>提示范围</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>文字内容</t>
   </si>
   <si>
     <t>系统公告</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>我只想告诉你，注意用词：</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>基础聊天框</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>左侧聊天框</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>聊天输入框</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>循环提示信息——&gt;放在loading做提示比较合适</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>系统频道的提示信息颜色可配置</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>走马灯</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>基础聊天显示框</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>左侧聊天显示框</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>左侧聊天频道按钮</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>基础聊天显示框隐藏按钮</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>控件类型</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>按钮</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>显示位置</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>出现/隐藏规则</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>按钮文案</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>按钮操作</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>按钮样式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>系统提示信息的关键字</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>则往平行线以上趋势的滑动都判定为向上，往平行线以下趋势的滑动都判定为向下，</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>见示意图</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（非警示）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（警示）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮箱系统设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>邮箱系统相关逻辑说明</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>svn://10.21.2.47/gd/交互系统/邮箱系统设计.xlsx</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>一、邮箱系统概述</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>二、进入邮箱系统</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>邮箱系统</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>通过游戏主功能界面的邮箱UI进入邮箱。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>邮箱UI</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击邮箱UI，打开邮箱界面。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>美术需求</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>项目</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>效果示意</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1. 主界面邮箱UI</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">      邮箱UI</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>三、邮箱界面</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>界面标题</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>邮件列表</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>界面标题</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>按下</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>2.邮箱界面</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮件列表</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>新邮件提示</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>类似效果</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>进入邮箱</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>玩家邮箱中不包含未读取邮件时，红点才会消失。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>当玩家邮箱中包含未读取邮件时，邮箱UI处会有提示，表现为按钮右上方标示一红点。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>未读取邮件提示，UI右上方标示一红点。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮件样式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮件类型图标</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>图标类似效果</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>（不要右下角的那个字）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2）包含附件的邮件</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>邮件标题</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>具体内容根据邮件配置显示。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>发件人</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示  “来自：XXXX”，XXX根据邮件配置显示。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>发件人最多支持显示6个汉字及对应的字符</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示邮件标题</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>发件日期</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示邮件发送日期</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>邮件状态提示图标</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>类似效果</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>邮件排列</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>信件按照两个层级的顺序排列。优先第一层级排列，再按照第二层级排列。</t>
@@ -474,433 +475,401 @@
   </si>
   <si>
     <t>多于1页时，可通过拖动显示其他邮件。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>拖动操作</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>向上、向下滑动的定义</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>取一条与手机屏幕平行的线，且穿过手指落点，</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>手指落点</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>手指滑到一个点停留后，该点成为新的判定落点。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>拖动时，已有信息立刻变化，信息状态会停留在手指离开屏幕时的状态（即此时显示半字，也不进行适配）。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>手指按下的落点若在邮件列表范围内，判定为针对邮件列表内容操作。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>手指向上滑动，则信息向上滚动；手指向下滑动，则信息向下滚动。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮件标题最多支持显示10个汉字及对应的字符（遵循敏感字与屏蔽字统一规则）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>没有邮件的情况</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>邮件数量/最大邮件数量</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>一键领取按钮</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>邮件内容显示框</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>收取顺序：按照邮件排列顺序，由上到下逐封收取</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>收取操作只会对当前选中的切页的邮件有效。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1）纯文字邮件（不包含附件的邮件）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>mail_record_001</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>玩家自己</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>自动收取含有附件的邮件，包括未读和已读；纯文字邮件也进行收取操作。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>没有可收取的邮件</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮件标题</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>发件日期</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>发件人</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>邮件正文</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>附件列表</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>收取按钮</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>打开邮箱界面时，默认邮件内容显示框不显示任何邮件内容，空着。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>发件人</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>规则同邮件列表的发件人</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>发件日期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>待定</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>规则同邮件列表的发件日期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>显示邮件正文</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>每行最大显示19个汉字或者对应字符，每页最多显示5行</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>显示邮件中的附件</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>附件</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>参考效果</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示道具图标，若数量大于1，则在图标上标示数量，若为1个，则不标示数量，只显示图标</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>经验/金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>点击道具，会出现对应的tips，遵循道具的tips规则</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>收取按钮</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>按下</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>事件</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>音效资源</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>收取附件成功</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面显示时显示，其余时间不显示</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>一键领取</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>使用者注意：寄送物品如果填数量，数量需要小于等于物品规定的堆叠上限。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮箱系统配置结构</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>系统邮件没有发送数量上限。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>四、其他逻辑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>1. 邮件的自动删除</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2. 已读邮件的定义</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>每收取一封邮件时，不会在邮件内容显示框显示对应内容。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>没有可操作的邮件哦！</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>附件数量每封邮件不能超过5个。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>发信原因</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>发信人</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>信件内容</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>TEXT</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TEXT</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>NUM</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>reasonMail</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>sender</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>subject</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>标识邮件内容
 命名规则：mail_系统名_001</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>可配置文案
 默认为：系统</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>可配置文案，支持换行、变色
 默认为空</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>当邮件玩家未操作时，显示图标，玩家点击邮件后，图标消失。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>邮箱系统只提供接收系统邮件的功能，主要用于系统为玩家发送奖励等。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>当玩家未对邮件操作时，显示图标，玩家点击邮件后，图标消失。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>沿平行线滑动手指，不滚动。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>显示选中邮件的标题，居中显示</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>已有邮件数量/最大邮件数量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>每删除1个邮件，已有邮件数量减1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮件数量/最大邮件数量</t>
   </si>
   <si>
     <t>最大邮件数量暂定为300</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>采用通用UI的提示窗口</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当邮箱邮件数量大于等于280时，玩家每次打开邮箱，都会弹出提示框如下：</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当邮箱邮件数量大于等于300时，玩家每次打开邮箱，都会弹出提示框如下：</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>mail_record_002</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>若没有，则点击按钮不进行领取操作，同时弹出提示信息mail_record_001。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>收取成功！</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>玩家在邮件列表点击一次后，即算已读状态。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>日期格式建议修改，与老外的习惯相符合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>一键领取了带有附件的新邮件，这个图标消失么？</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>滚动条这个跟其他系统统一风格吧，不要沿用战音的设计了</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>数值程序字？</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>不能是已读就删吧，还要判断有没有收取附件</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>这块配置格式问下程序是不是用副本结算的配置格式吧</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>这个是不是等主界面的时候做？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>一些重要的文字邮件也不留么，比如“大返利，充1送100”</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>这块全用道具系统的显示方式就行</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>金币和经验不知道道具有没有显示方式</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>前面说系统邮件没有发送数量上限，如果发送的系统邮件超过300如何？</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>5个的限制将来如果出了玩家间邮件也限制5个？</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>另外邮件是否有过期时间？如果有，过期和上线限制一个就行吧</t>
@@ -949,7 +918,7 @@
     <rPh sb="27" eb="28">
       <t>b</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>没有删除功能，这个提示不太好吧</t>
@@ -977,7 +946,7 @@
     <rPh sb="14" eb="15">
       <t>b</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>这期间收到的邮件是消失了还是系统暂存了？顶替旧的比较好吧</t>
@@ -999,109 +968,109 @@
     <rPh sb="7" eb="8">
       <t>b</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>删了</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>一键领取之后，邮件都消失啦</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2.按接收邮件的时间从后到前顺序排列，最前显示最新接收的信件。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当邮箱邮件数量达到300时，若有新邮件，则新邮件会顶替掉旧邮件，超出几封则顶掉几封，按接收时间顺序从后到前顺序顶掉，即最早接收的最先被顶掉。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>提示信息内容：邮箱即将爆仓，请及时收取邮件</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>没有过期时间</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>提示信息内容：邮箱已经爆仓，快快收取邮件</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>多于1页时，通过拖动操作可查看超过的内容。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>是的</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示格式为  “XX-XX-XXXX“</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>代表XX月XX日XXXX年</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>显示道具图标，符合道具系统的显示规则</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>经验和金币采用右图规则即可</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>需求都是要提的呀~</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>测试反馈回归</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>rewardID</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>附件</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>配置reward的ID。
 具体的发放道具、经验、金币都配在reward表中。
 默认为空</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>窗口类型</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>一级窗口</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>MT、辛炜、珍珍、木木、兔桑、雷神、帆爷、小珍、小龙、雪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>讨论邮箱系统逻辑，回归会议问题</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>回归三方问题</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1118,360 +1087,360 @@
       </rPr>
       <t>需求设计规范附件不能超过5个，且不会直接赠送宠物，可通过赠送宠物碎片达到赠送宠物的设计目的</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>附件可以为道具、金币、钻石、经验，均以图标形式显示，调取道具图标即可，数字采用程序字即可。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>收取时，玩家已经满级（经验已达最大值），不影响收取，多余的经验作废。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示经验/金币/钻石图标，图标右下角标示经验/金币/钻石数值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>由于什么原因，需要调用到系统邮件功能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>对应工时（单位：d）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面所有内容</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面基本布局</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮件列表部分</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮件内容及附件部分</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮件限制，收取，删除功能（包括一键领取）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>数据结构+初始化+配置表</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>看信+收取+全部收取</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>发信</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>位置1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>若邮件不包含附件，则附件处空着即可。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>位置2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>若邮件不包含附件，则附件处空着即可</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>去掉界面空着时的提示图和提示文字显示需求</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>对应英文</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>公会频道</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>世界频道</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>去掉邮件附件位置显示的”附件“两个字</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>按照标准格式回归”提示信息“切页</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮件标题采用文字缩放规则显示</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>系统邮件正文内容汉字数上限500</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>文字支持变色、换行功能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮箱开启过程中，有新邮件来，界面刷新</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮件正文汉字上限回归</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>若邮箱已满，玩家打开邮箱，又收到x封新邮件，则邮箱界面时时刷新，新邮件会根据上面的规则定掉老邮件。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>邮箱开启时邮箱满且又收到新邮件的处理</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>若当前邮箱已满，玩家正在读取最后一封邮件，此时有新邮件进入，则邮箱界面右侧保持玩家读取的邮件不变，左侧邮件列表刷新。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>收取邮件失败</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>若最后一封邮件包含附件，则此时玩家进行收取操作，收取失败，弹出IM提示信息mail_record_005。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>mail_record_005</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮件已过期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>位置1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>位置2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮箱满时的刷新逻辑</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>金币、钻石达到上限不终止邮箱收取操作</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>多语言id</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>mail_title</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>每页最多显示邮件数量以美术图为准，最后一封半个显示。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>mail_laizi</t>
   </si>
   <si>
     <t>mail_youxiangjiangman</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>mail_youxiangyiman</t>
   </si>
   <si>
     <t>mail_yijianlingqu</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>确认收取所有邮件吗？</t>
   </si>
   <si>
     <t>提示信息内容</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>mail_shouquall</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>mail_coinmanle</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击”取消“，关闭二级，操作取消；</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮，判断是否有邮件，若有，则弹出二级提示框：</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>点击”确定“，进行每封的收取操作：</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>邮箱改版内容</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>收取成功的邮件从邮件列表中清除，清空邮件内容显示框。客户端会在收取完成后一次刷新邮件列表和邮件内容显示框。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>每行最大显示字符数和每页最多显示行数根据美术效果图定</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮件样式需要有整体选中状态</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>在左侧邮件列表点击邮件，邮件变为选中状态且右侧即显示对应邮件内容。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>1）当邮件包含附件时，按钮文案为”收取“</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>mail_shouqu</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2）当邮件不包含附件时，按钮文案为”删除“</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>返回按钮</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>提示信息</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>返回按钮</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面显示时显示</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮，关闭邮箱界面，返回到主界面</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示  ”邮件将在领取附件后自动删除“</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>mail_zidongshantips</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>list_empty</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>效果同装备列表即可。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>若无邮件，则列表处显示提示信息“别找了，啥都没有…”</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>对比之前的在字体和行间距方面应做的修改（根据集体测试反馈的问题）：</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>2）改小右侧邮件标题的字号，和左边的列表邮件标题协调一致</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1）减小邮件正文内容的行间距</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>现在是右边的邮件标题字号比左侧列表邮件标题字号大太多了</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>玩家拥有金币、钻石</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>逻辑同主界面</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>若全部邮件收取成功，则清空邮件列表以及邮件内容显示框，同时弹出提示框如下：客户端会在收取完成后一次刷新邮件列表和邮件内容显示框。</t>
@@ -1484,11 +1453,11 @@
   </si>
   <si>
     <t>多语言id</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>mail_CollectedAll</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>收取</t>
@@ -1507,22 +1476,22 @@
   </si>
   <si>
     <t>点击按钮，收取附件且弹出提示信息mail_record_002。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>收取后的效果示意</t>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1. 全部收取不展示获得内容，保留原方案</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>2. 收取邮件逻辑保留原方案</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>不包含附件的邮件：已读取的邮件，会在玩家点击邮件列表其他邮件时，自动从列表中清除。</t>
@@ -1538,54 +1507,54 @@
   </si>
   <si>
     <t>自动删除动画：被删除的邮件直接消失，下方邮件自动向上提</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>3. 增加邮件自动删除时的动画</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>做删除动画</t>
   </si>
   <si>
     <t xml:space="preserve">添加选中/提示/重摆UI  </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>本次验收内容</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>具体内容</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>验收结果</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>2015.12.9</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮箱改版内容</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>玩家拥有金币、钻石</t>
@@ -1595,43 +1564,43 @@
   </si>
   <si>
     <t>邮件样式需要有整体选中状态</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>没有邮件的情况</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>没有邮件的情况</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>一键收取</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>一键收取前没有弹出二级确认框，直接进行了收取操作</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>提示信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>选中一封带附件的邮件不收取，关闭邮箱，再打开邮箱，该邮件仍显示选中</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>补充的新需求</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮箱能够发送活力值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>附件可以为道具、金币、钻石、经验、活力值，均以图标形式显示，调取道具图标即可，数字采用程序字即可。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1647,7 +1616,7 @@
       </rPr>
       <t>/活力值</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1673,19 +1642,19 @@
       </rPr>
       <t>图标，图标右下方标示经验/金币/钻石数值</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮箱补充能够赠送活力值的需求</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>添加策划验收切页</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1711,56 +1680,158 @@
       </rPr>
       <t>达到上限，收取将无法继续获得</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>金币钻石达到上限的处理符合通用规则。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>活力值达到上限仍然收取成功，多于上限的活力值作废。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>对应道具进包，增长对应经验以及金币、钻石、活力值，提取按钮消失，所有附件框右上角出现”对勾“图标（代表已收取）。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>位置3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>该邮件中对应道具进包，增长对应经验以及金币、钻石、活力值。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>若当前右侧邮件存在附件没领取，则右侧界面保持不变，左侧邮件列表刷新；若没有附件或者附件已领取，则右侧邮件刷没，左侧列表刷新</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>打开邮箱UI时，刷新邮件。UI开启的过程中，若有新邮件来，界面立即刷新。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>补充刷新特殊情况处理规则</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>lang_1</t>
+  </si>
+  <si>
+    <t>语言1</t>
+  </si>
+  <si>
+    <t>zh-CN</t>
+  </si>
+  <si>
+    <t>发信原因1</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>发信人1</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题1</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>信件内容1</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>reasonMail_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>sender_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>语言2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>发信原因2</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题2</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>发信人2</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>信件内容2</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang_2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>reasonMail_2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>sender_2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject_2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据客户端语言发送对应语言的邮件</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归根据客户端设置语言发送对应语言邮件规则</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="34">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2314,284 +2385,285 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10730,13 +10802,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L45"/>
+  <dimension ref="A2:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
     <col min="2" max="2" width="27.875" style="1" customWidth="1"/>
@@ -10746,7 +10818,7 @@
     <col min="8" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -10754,10 +10826,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="17.25">
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -10765,7 +10837,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -10773,7 +10845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -10783,7 +10855,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="17.25" thickBot="1">
+    <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -10791,99 +10863,99 @@
       <c r="C11" s="3"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="17.25" thickTop="1">
-      <c r="B12" s="129" t="s">
+    <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="131" t="s">
+      <c r="C12" s="132"/>
+      <c r="D12" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="132"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="134"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="128"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="135"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="D14" s="135"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="137"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="138"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="D15" s="138"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="140"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="126"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="128"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="126"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="126"/>
-    </row>
-    <row r="19" spans="1:12" ht="17.25" thickBot="1">
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="128"/>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="128"/>
-    </row>
-    <row r="20" spans="1:12" ht="17.25" thickTop="1"/>
-    <row r="21" spans="1:12">
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="130"/>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -10906,11 +10978,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
@@ -10924,194 +10996,194 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
       <c r="C24" s="11">
         <v>42222</v>
       </c>
       <c r="E24" s="45"/>
       <c r="F24" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="11">
         <v>42226</v>
       </c>
       <c r="E25" s="46"/>
       <c r="F25" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
       <c r="C26" s="11">
         <v>42256</v>
       </c>
       <c r="E26" s="52"/>
       <c r="F26" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K26" s="38" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L26" s="38" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
       <c r="C27" s="11">
         <v>42270</v>
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" s="11"/>
       <c r="G28" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="11">
         <v>42294</v>
       </c>
       <c r="E29" s="56"/>
       <c r="F29" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G29" s="57" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="C30" s="11"/>
       <c r="E30" s="56"/>
       <c r="G30" s="57" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
       <c r="C31" s="11"/>
       <c r="E31" s="56"/>
       <c r="G31" s="57" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="11"/>
       <c r="E32" s="56"/>
       <c r="G32" s="57" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
       <c r="C33" s="11">
         <v>42298</v>
       </c>
       <c r="E33" s="45"/>
       <c r="F33" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G33" s="57" t="s">
         <v>282</v>
       </c>
-      <c r="G33" s="57" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
       <c r="C34" s="11"/>
       <c r="E34" s="45"/>
       <c r="G34" s="57" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="J34" s="38" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="K34" s="38" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
       <c r="C35" s="11">
         <v>42303</v>
       </c>
       <c r="E35" s="59"/>
       <c r="F35" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B36" s="2"/>
       <c r="C36" s="95">
         <v>42341</v>
       </c>
       <c r="E36" s="100"/>
       <c r="F36" s="3" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="92" customFormat="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="91"/>
       <c r="C37" s="95"/>
       <c r="D37" s="93"/>
       <c r="E37" s="93"/>
       <c r="F37" s="93"/>
       <c r="G37" s="94" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="92" customFormat="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="91"/>
       <c r="C38" s="95"/>
       <c r="D38" s="93"/>
       <c r="E38" s="93"/>
       <c r="F38" s="93"/>
       <c r="G38" s="94" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="102" customFormat="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="101"/>
       <c r="C39" s="104"/>
       <c r="D39" s="103"/>
       <c r="E39" s="103"/>
       <c r="F39" s="103"/>
       <c r="G39" s="110" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="102" customFormat="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="101"/>
       <c r="C40" s="104">
         <v>42347</v>
@@ -11119,29 +11191,29 @@
       <c r="D40" s="103"/>
       <c r="E40" s="46"/>
       <c r="F40" s="103" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G40" s="110" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="J40" s="38" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="K40" s="38" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="102" customFormat="1">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="101"/>
       <c r="C41" s="104"/>
       <c r="D41" s="103"/>
       <c r="E41" s="100"/>
       <c r="F41" s="103"/>
       <c r="G41" s="110" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="102" customFormat="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="101"/>
       <c r="C42" s="104">
         <v>42354</v>
@@ -11149,50 +11221,64 @@
       <c r="D42" s="103"/>
       <c r="E42" s="45"/>
       <c r="F42" s="103" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G42" s="110" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="101"/>
+      <c r="C43" s="104">
+        <v>42397</v>
+      </c>
+      <c r="D43" s="103"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="103" t="s">
+        <v>254</v>
+      </c>
+      <c r="G43" s="110" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="11">
-        <v>42226</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="C45" s="11">
+        <v>42226</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="G46" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11206,7 +11292,7 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K26" location="若无邮件_则列表处为空着即可。" display="位置1"/>
     <hyperlink ref="L26" location="若邮件不包含附件_则附件处空着即可。" display="位置2"/>
@@ -11222,6 +11308,7 @@
     <hyperlink ref="J40" location="活力值达到上限仍然收取成功_多于上限的活力值作废。" display="位置2"/>
     <hyperlink ref="K40" location="对应道具进包_增长对应经验以及金币、钻石、活力值_提取按钮消失_所有附件框右上角出现”对勾“图标_代表已收取_。" display="位置3"/>
     <hyperlink ref="G42" location="若当前右侧邮件存在附件没领取_则右侧界面保持不变_左侧邮件列表刷新_若没有附件或者附件已领取_则右侧邮件刷没_左侧列表刷新" display="补充刷新特殊情况处理规则"/>
+    <hyperlink ref="G43" location="根据客户端语言发送对应语言的邮件" display="回归根据客户端设置语言发送对应语言邮件规则"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11231,112 +11318,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA311"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.75" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" s="21" customFormat="1" ht="22.5">
-      <c r="B1" s="139" t="s">
+    <row r="1" spans="2:27" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="B1" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="139"/>
-    </row>
-    <row r="2" spans="2:27">
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="141"/>
+      <c r="T1" s="141"/>
+      <c r="U1" s="141"/>
+      <c r="V1" s="141"/>
+      <c r="W1" s="141"/>
+      <c r="X1" s="141"/>
+      <c r="Y1" s="141"/>
+      <c r="Z1" s="141"/>
+      <c r="AA1" s="141"/>
+    </row>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B2" s="30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="2:27">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B3" s="31"/>
       <c r="C3" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B5" s="30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B6" s="30"/>
       <c r="C6" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B7" s="30"/>
       <c r="D7" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B8" s="30"/>
     </row>
-    <row r="9" spans="2:27">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B9" s="30"/>
     </row>
-    <row r="10" spans="2:27">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B10" s="30"/>
     </row>
-    <row r="11" spans="2:27">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B11" s="30"/>
     </row>
-    <row r="12" spans="2:27">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B12" s="30"/>
       <c r="U12" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B13" s="30"/>
     </row>
-    <row r="14" spans="2:27">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B14" s="30"/>
     </row>
-    <row r="15" spans="2:27">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B15" s="30"/>
       <c r="H15" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="2:27">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B16" s="30"/>
       <c r="D16" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G16" s="48"/>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B17" s="30"/>
       <c r="C17" s="32" t="s">
         <v>83</v>
@@ -11348,7 +11435,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="30"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21" t="s">
@@ -11360,7 +11447,7 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="30"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21" t="s">
@@ -11372,7 +11459,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="2:17">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="30"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -11382,7 +11469,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="30"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21" t="s">
@@ -11392,7 +11479,7 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" s="30"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -11402,20 +11489,20 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" s="30" t="s">
         <v>74</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
       <c r="E24" s="69"/>
       <c r="F24" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G24" s="69"/>
       <c r="H24" s="69"/>
@@ -11433,7 +11520,7 @@
       <c r="P24" s="69"/>
       <c r="Q24" s="69"/>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="69"/>
@@ -11450,9 +11537,9 @@
       <c r="P25" s="69"/>
       <c r="Q25" s="69"/>
     </row>
-    <row r="26" spans="2:17">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C26" s="69" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D26" s="69"/>
       <c r="E26" s="69"/>
@@ -11469,7 +11556,7 @@
       <c r="P26" s="69"/>
       <c r="Q26" s="69"/>
     </row>
-    <row r="27" spans="2:17">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="69"/>
@@ -11486,7 +11573,7 @@
       <c r="P27" s="69"/>
       <c r="Q27" s="69"/>
     </row>
-    <row r="28" spans="2:17">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C28" s="69"/>
       <c r="D28" s="69"/>
       <c r="E28" s="69"/>
@@ -11503,7 +11590,7 @@
       <c r="P28" s="69"/>
       <c r="Q28" s="69"/>
     </row>
-    <row r="29" spans="2:17">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C29" s="69"/>
       <c r="D29" s="69"/>
       <c r="E29" s="69"/>
@@ -11520,7 +11607,7 @@
       <c r="P29" s="69"/>
       <c r="Q29" s="69"/>
     </row>
-    <row r="30" spans="2:17">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C30" s="69"/>
       <c r="D30" s="69"/>
       <c r="E30" s="69"/>
@@ -11537,7 +11624,7 @@
       <c r="P30" s="69"/>
       <c r="Q30" s="69"/>
     </row>
-    <row r="31" spans="2:17">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C31" s="69"/>
       <c r="D31" s="69"/>
       <c r="E31" s="69"/>
@@ -11554,7 +11641,7 @@
       <c r="P31" s="69"/>
       <c r="Q31" s="69"/>
     </row>
-    <row r="32" spans="2:17">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C32" s="69" t="s">
         <v>76</v>
       </c>
@@ -11573,7 +11660,7 @@
       <c r="P32" s="69"/>
       <c r="Q32" s="69"/>
     </row>
-    <row r="33" spans="3:17">
+    <row r="33" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
       <c r="E33" s="69"/>
@@ -11590,7 +11677,7 @@
       <c r="P33" s="69"/>
       <c r="Q33" s="69"/>
     </row>
-    <row r="34" spans="3:17">
+    <row r="34" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C34" s="69"/>
       <c r="D34" s="69"/>
       <c r="E34" s="69"/>
@@ -11609,7 +11696,7 @@
       </c>
       <c r="Q34" s="69"/>
     </row>
-    <row r="35" spans="3:17">
+    <row r="35" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C35" s="69"/>
       <c r="D35" s="69"/>
       <c r="E35" s="69"/>
@@ -11626,7 +11713,7 @@
       <c r="P35" s="69"/>
       <c r="Q35" s="69"/>
     </row>
-    <row r="36" spans="3:17">
+    <row r="36" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
       <c r="E36" s="69"/>
@@ -11643,7 +11730,7 @@
       <c r="P36" s="69"/>
       <c r="Q36" s="69"/>
     </row>
-    <row r="37" spans="3:17">
+    <row r="37" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C37" s="69"/>
       <c r="D37" s="69"/>
       <c r="E37" s="69"/>
@@ -11660,7 +11747,7 @@
       <c r="P37" s="69"/>
       <c r="Q37" s="69"/>
     </row>
-    <row r="38" spans="3:17">
+    <row r="38" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C38" s="69"/>
       <c r="D38" s="69"/>
       <c r="E38" s="69"/>
@@ -11677,7 +11764,7 @@
       <c r="P38" s="69"/>
       <c r="Q38" s="69"/>
     </row>
-    <row r="39" spans="3:17">
+    <row r="39" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C39" s="69"/>
       <c r="D39" s="69"/>
       <c r="E39" s="69"/>
@@ -11694,7 +11781,7 @@
       <c r="P39" s="69"/>
       <c r="Q39" s="69"/>
     </row>
-    <row r="40" spans="3:17">
+    <row r="40" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C40" s="69"/>
       <c r="D40" s="69"/>
       <c r="E40" s="69"/>
@@ -11711,7 +11798,7 @@
       <c r="P40" s="69"/>
       <c r="Q40" s="69"/>
     </row>
-    <row r="41" spans="3:17">
+    <row r="41" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C41" s="69"/>
       <c r="D41" s="69"/>
       <c r="E41" s="69"/>
@@ -11728,7 +11815,7 @@
       <c r="P41" s="69"/>
       <c r="Q41" s="69"/>
     </row>
-    <row r="42" spans="3:17">
+    <row r="42" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C42" s="69"/>
       <c r="D42" s="69"/>
       <c r="E42" s="69"/>
@@ -11745,7 +11832,7 @@
       <c r="P42" s="69"/>
       <c r="Q42" s="69"/>
     </row>
-    <row r="43" spans="3:17">
+    <row r="43" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
       <c r="E43" s="69"/>
@@ -11762,7 +11849,7 @@
       <c r="P43" s="69"/>
       <c r="Q43" s="69"/>
     </row>
-    <row r="44" spans="3:17">
+    <row r="44" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C44" s="69"/>
       <c r="D44" s="69"/>
       <c r="E44" s="69"/>
@@ -11779,7 +11866,7 @@
       <c r="P44" s="69"/>
       <c r="Q44" s="69"/>
     </row>
-    <row r="45" spans="3:17">
+    <row r="45" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C45" s="69"/>
       <c r="D45" s="69"/>
       <c r="E45" s="69"/>
@@ -11796,7 +11883,7 @@
       <c r="P45" s="69"/>
       <c r="Q45" s="69"/>
     </row>
-    <row r="46" spans="3:17">
+    <row r="46" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C46" s="69"/>
       <c r="D46" s="69"/>
       <c r="E46" s="69"/>
@@ -11813,7 +11900,7 @@
       <c r="P46" s="69"/>
       <c r="Q46" s="69"/>
     </row>
-    <row r="47" spans="3:17">
+    <row r="47" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C47" s="69"/>
       <c r="D47" s="69"/>
       <c r="E47" s="69"/>
@@ -11830,7 +11917,7 @@
       <c r="P47" s="69"/>
       <c r="Q47" s="69"/>
     </row>
-    <row r="48" spans="3:17">
+    <row r="48" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C48" s="69"/>
       <c r="D48" s="69"/>
       <c r="E48" s="69"/>
@@ -11838,7 +11925,7 @@
       <c r="G48" s="69"/>
       <c r="H48" s="69"/>
       <c r="I48" s="69" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="J48" s="69"/>
       <c r="K48" s="69"/>
@@ -11849,31 +11936,31 @@
       <c r="P48" s="69"/>
       <c r="Q48" s="69"/>
     </row>
-    <row r="49" spans="4:15">
+    <row r="49" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="4:15">
+    <row r="50" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D50" s="47" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E50" s="34"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" spans="4:15">
+    <row r="51" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D51" s="34"/>
       <c r="E51" s="34" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="53" spans="4:15">
-      <c r="D53" s="140" t="s">
-        <v>389</v>
+    <row r="53" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D53" s="125" t="s">
+        <v>381</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
@@ -11887,9 +11974,9 @@
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
     </row>
-    <row r="54" spans="4:15">
-      <c r="D54" s="141" t="s">
-        <v>388</v>
+    <row r="54" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D54" s="126" t="s">
+        <v>380</v>
       </c>
       <c r="E54" s="43"/>
       <c r="F54" s="43"/>
@@ -11903,7 +11990,7 @@
       <c r="N54" s="44"/>
       <c r="O54" s="44"/>
     </row>
-    <row r="55" spans="4:15" s="102" customFormat="1">
+    <row r="55" spans="4:15" s="102" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
@@ -11913,32 +12000,32 @@
       <c r="J55" s="24"/>
       <c r="K55" s="24"/>
     </row>
-    <row r="56" spans="4:15">
+    <row r="56" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D56" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="4:15">
+    <row r="57" spans="4:15" x14ac:dyDescent="0.35">
       <c r="E57" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="4:15">
+    <row r="58" spans="4:15" x14ac:dyDescent="0.35">
       <c r="E58" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="59" spans="4:15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="59" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D59" s="14" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E59" s="48"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="4:15">
+    <row r="60" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D60" s="14"/>
       <c r="E60" s="22" t="s">
         <v>47</v>
@@ -11947,7 +12034,7 @@
       <c r="G60" s="23"/>
       <c r="H60" s="23"/>
     </row>
-    <row r="61" spans="4:15">
+    <row r="61" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D61" s="14"/>
       <c r="E61" s="22"/>
       <c r="F61" s="23" t="s">
@@ -11956,7 +12043,7 @@
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
     </row>
-    <row r="62" spans="4:15">
+    <row r="62" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D62" s="14"/>
       <c r="E62" s="22" t="s">
         <v>49</v>
@@ -11965,7 +12052,7 @@
       <c r="G62" s="23"/>
       <c r="H62" s="23"/>
     </row>
-    <row r="63" spans="4:15">
+    <row r="63" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D63" s="14"/>
       <c r="E63" s="22"/>
       <c r="F63" s="23" t="s">
@@ -11974,7 +12061,7 @@
       <c r="G63" s="23"/>
       <c r="H63" s="23"/>
     </row>
-    <row r="64" spans="4:15">
+    <row r="64" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D64" s="14"/>
       <c r="E64" s="22" t="s">
         <v>50</v>
@@ -11983,16 +12070,16 @@
       <c r="G64" s="23"/>
       <c r="H64" s="23"/>
     </row>
-    <row r="65" spans="4:15">
+    <row r="65" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D65" s="14"/>
       <c r="E65" s="22"/>
       <c r="F65" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G65" s="23"/>
       <c r="H65" s="23"/>
     </row>
-    <row r="66" spans="4:15">
+    <row r="66" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D66" s="14"/>
       <c r="E66" s="22" t="s">
         <v>51</v>
@@ -12001,30 +12088,30 @@
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
     </row>
-    <row r="67" spans="4:15">
+    <row r="67" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D67" s="14"/>
       <c r="E67" s="22"/>
       <c r="F67" s="66" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G67" s="23"/>
       <c r="H67" s="23"/>
     </row>
-    <row r="68" spans="4:15">
+    <row r="68" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D68" s="14"/>
       <c r="E68" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F68" s="13"/>
     </row>
-    <row r="69" spans="4:15">
+    <row r="69" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D69" s="14"/>
       <c r="E69" s="48"/>
       <c r="F69" s="13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="70" spans="4:15">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="70" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D70" s="13"/>
       <c r="E70" s="22" t="s">
         <v>53</v>
@@ -12032,7 +12119,7 @@
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
     </row>
-    <row r="71" spans="4:15">
+    <row r="71" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D71" s="13"/>
       <c r="E71" s="22"/>
       <c r="F71" s="23" t="s">
@@ -12040,7 +12127,7 @@
       </c>
       <c r="G71" s="24"/>
     </row>
-    <row r="72" spans="4:15">
+    <row r="72" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D72" s="13"/>
       <c r="E72" s="22"/>
       <c r="F72" s="23" t="s">
@@ -12048,7 +12135,7 @@
       </c>
       <c r="G72" s="24"/>
     </row>
-    <row r="73" spans="4:15">
+    <row r="73" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D73" s="13"/>
       <c r="E73" s="22" t="s">
         <v>151</v>
@@ -12056,7 +12143,7 @@
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
     </row>
-    <row r="74" spans="4:15">
+    <row r="74" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D74" s="13"/>
       <c r="E74" s="21"/>
       <c r="F74" s="23" t="s">
@@ -12066,7 +12153,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="4:15">
+    <row r="75" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D75" s="13"/>
       <c r="E75" s="21"/>
       <c r="F75" s="23" t="s">
@@ -12076,28 +12163,28 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="4:15">
+    <row r="76" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D76" s="72" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E76" s="68"/>
       <c r="F76" s="71"/>
       <c r="G76" s="24"/>
     </row>
-    <row r="77" spans="4:15">
+    <row r="77" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D77" s="69"/>
       <c r="E77" s="77" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F77" s="71"/>
       <c r="G77" s="24"/>
     </row>
-    <row r="78" spans="4:15">
+    <row r="78" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D78" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="4:15">
+    <row r="79" spans="4:15" x14ac:dyDescent="0.35">
       <c r="E79" s="32" t="s">
         <v>89</v>
       </c>
@@ -12112,7 +12199,7 @@
       <c r="N79" s="21"/>
       <c r="O79" s="21"/>
     </row>
-    <row r="80" spans="4:15">
+    <row r="80" spans="4:15" x14ac:dyDescent="0.35">
       <c r="E80" s="21"/>
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
@@ -12123,7 +12210,7 @@
       <c r="L80" s="21"/>
       <c r="O80" s="21"/>
     </row>
-    <row r="81" spans="5:15">
+    <row r="81" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E81" s="21"/>
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
@@ -12134,7 +12221,7 @@
       <c r="L81" s="21"/>
       <c r="O81" s="21"/>
     </row>
-    <row r="82" spans="5:15">
+    <row r="82" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E82" s="21"/>
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
@@ -12145,7 +12232,7 @@
       <c r="L82" s="21"/>
       <c r="O82" s="21"/>
     </row>
-    <row r="83" spans="5:15">
+    <row r="83" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E83" s="21"/>
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
@@ -12156,7 +12243,7 @@
       <c r="L83" s="21"/>
       <c r="O83" s="21"/>
     </row>
-    <row r="84" spans="5:15">
+    <row r="84" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E84" s="21"/>
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
@@ -12167,7 +12254,7 @@
       <c r="L84" s="21"/>
       <c r="O84" s="21"/>
     </row>
-    <row r="85" spans="5:15">
+    <row r="85" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E85" s="21"/>
       <c r="F85" s="21"/>
       <c r="G85" s="21"/>
@@ -12178,7 +12265,7 @@
       <c r="L85" s="21"/>
       <c r="O85" s="21"/>
     </row>
-    <row r="86" spans="5:15">
+    <row r="86" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E86" s="21"/>
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
@@ -12189,7 +12276,7 @@
       <c r="L86" s="21"/>
       <c r="O86" s="21"/>
     </row>
-    <row r="87" spans="5:15">
+    <row r="87" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E87" s="21"/>
       <c r="F87" s="32" t="s">
         <v>90</v>
@@ -12204,7 +12291,7 @@
       <c r="N87" s="21"/>
       <c r="O87" s="21"/>
     </row>
-    <row r="88" spans="5:15">
+    <row r="88" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E88" s="21"/>
       <c r="F88" s="21"/>
       <c r="G88" s="21" t="s">
@@ -12219,7 +12306,7 @@
       <c r="N88" s="21"/>
       <c r="O88" s="21"/>
     </row>
-    <row r="89" spans="5:15">
+    <row r="89" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E89" s="21"/>
       <c r="G89" s="21"/>
       <c r="H89" s="21" t="s">
@@ -12235,7 +12322,7 @@
       <c r="N89" s="21"/>
       <c r="O89" s="21"/>
     </row>
-    <row r="90" spans="5:15">
+    <row r="90" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E90" s="21"/>
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
@@ -12248,7 +12335,7 @@
       <c r="N90" s="21"/>
       <c r="O90" s="21"/>
     </row>
-    <row r="91" spans="5:15">
+    <row r="91" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E91" s="21"/>
       <c r="F91" s="21"/>
       <c r="G91" s="21" t="s">
@@ -12263,7 +12350,7 @@
       <c r="N91" s="21"/>
       <c r="O91" s="21"/>
     </row>
-    <row r="92" spans="5:15">
+    <row r="92" spans="5:15" x14ac:dyDescent="0.35">
       <c r="H92" s="21" t="s">
         <v>91</v>
       </c>
@@ -12271,54 +12358,54 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="5:15">
+    <row r="95" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E95" s="48"/>
       <c r="F95" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="5:15">
+    <row r="96" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E96" s="13"/>
       <c r="F96" s="1"/>
       <c r="G96" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="43" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E97" s="13"/>
       <c r="G97" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E98" s="48"/>
       <c r="F98" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E99" s="13"/>
       <c r="G99" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G100" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G101" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F102" s="1" t="s">
         <v>100</v>
       </c>
@@ -12330,7 +12417,7 @@
       <c r="L102" s="13"/>
       <c r="M102" s="13"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G103" s="13" t="s">
         <v>101</v>
       </c>
@@ -12341,56 +12428,56 @@
       <c r="L103" s="13"/>
       <c r="M103" s="13"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
       <c r="J104" s="24" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K104" s="13"/>
       <c r="L104" s="13"/>
       <c r="M104" s="13"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F105" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="43" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F109" s="69" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G109" s="69"/>
       <c r="H109" s="69"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E111" s="32" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F112" s="24" t="s">
         <v>105</v>
       </c>
@@ -12402,7 +12489,7 @@
       <c r="L112" s="24"/>
       <c r="M112" s="24"/>
     </row>
-    <row r="113" spans="6:15">
+    <row r="113" spans="6:15" x14ac:dyDescent="0.35">
       <c r="G113" s="24" t="s">
         <v>106</v>
       </c>
@@ -12413,9 +12500,9 @@
       <c r="L113" s="24"/>
       <c r="M113" s="24"/>
     </row>
-    <row r="114" spans="6:15">
+    <row r="114" spans="6:15" x14ac:dyDescent="0.35">
       <c r="G114" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H114" s="24"/>
       <c r="I114" s="24"/>
@@ -12424,7 +12511,7 @@
       <c r="L114" s="24"/>
       <c r="M114" s="24"/>
     </row>
-    <row r="115" spans="6:15">
+    <row r="115" spans="6:15" x14ac:dyDescent="0.35">
       <c r="F115" s="24" t="s">
         <v>160</v>
       </c>
@@ -12436,9 +12523,9 @@
       <c r="L115" s="24"/>
       <c r="M115" s="24"/>
     </row>
-    <row r="116" spans="6:15">
+    <row r="116" spans="6:15" x14ac:dyDescent="0.35">
       <c r="F116" s="63" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G116" s="24"/>
       <c r="H116" s="24"/>
@@ -12448,7 +12535,7 @@
       <c r="L116" s="24"/>
       <c r="M116" s="24"/>
     </row>
-    <row r="117" spans="6:15">
+    <row r="117" spans="6:15" x14ac:dyDescent="0.35">
       <c r="F117" s="24" t="s">
         <v>107</v>
       </c>
@@ -12460,12 +12547,12 @@
       <c r="L117" s="24"/>
       <c r="M117" s="24"/>
     </row>
-    <row r="118" spans="6:15">
+    <row r="118" spans="6:15" x14ac:dyDescent="0.35">
       <c r="F118" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="6:15">
+    <row r="119" spans="6:15" x14ac:dyDescent="0.35">
       <c r="F119" s="21"/>
       <c r="G119" s="13" t="s">
         <v>114</v>
@@ -12479,7 +12566,7 @@
       <c r="N119" s="20"/>
       <c r="O119" s="20"/>
     </row>
-    <row r="120" spans="6:15">
+    <row r="120" spans="6:15" x14ac:dyDescent="0.35">
       <c r="F120" s="21"/>
       <c r="G120" s="13" t="s">
         <v>115</v>
@@ -12493,7 +12580,7 @@
       <c r="N120" s="20"/>
       <c r="O120" s="20"/>
     </row>
-    <row r="121" spans="6:15">
+    <row r="121" spans="6:15" x14ac:dyDescent="0.35">
       <c r="F121" s="21"/>
       <c r="G121" s="13" t="s">
         <v>109</v>
@@ -12507,7 +12594,7 @@
       <c r="N121" s="20"/>
       <c r="O121" s="20"/>
     </row>
-    <row r="122" spans="6:15">
+    <row r="122" spans="6:15" x14ac:dyDescent="0.35">
       <c r="F122" s="21"/>
       <c r="G122" s="13"/>
       <c r="H122" s="13" t="s">
@@ -12521,7 +12608,7 @@
       <c r="N122" s="13"/>
       <c r="O122" s="13"/>
     </row>
-    <row r="123" spans="6:15">
+    <row r="123" spans="6:15" x14ac:dyDescent="0.35">
       <c r="F123" s="21"/>
       <c r="G123" s="13"/>
       <c r="H123" s="13" t="s">
@@ -12535,11 +12622,11 @@
       <c r="N123" s="13"/>
       <c r="O123" s="13"/>
     </row>
-    <row r="124" spans="6:15">
+    <row r="124" spans="6:15" x14ac:dyDescent="0.35">
       <c r="F124" s="21"/>
       <c r="G124" s="13"/>
       <c r="H124" s="13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I124" s="13"/>
       <c r="J124" s="13"/>
@@ -12549,7 +12636,7 @@
       <c r="N124" s="13"/>
       <c r="O124" s="13"/>
     </row>
-    <row r="125" spans="6:15">
+    <row r="125" spans="6:15" x14ac:dyDescent="0.35">
       <c r="F125" s="21"/>
       <c r="G125" s="13"/>
       <c r="H125" s="20"/>
@@ -12561,7 +12648,7 @@
       <c r="N125" s="20"/>
       <c r="O125" s="20"/>
     </row>
-    <row r="126" spans="6:15">
+    <row r="126" spans="6:15" x14ac:dyDescent="0.35">
       <c r="F126" s="21"/>
       <c r="G126" s="13"/>
       <c r="H126" s="20"/>
@@ -12573,7 +12660,7 @@
       <c r="N126" s="20"/>
       <c r="O126" s="20"/>
     </row>
-    <row r="127" spans="6:15">
+    <row r="127" spans="6:15" x14ac:dyDescent="0.35">
       <c r="F127" s="21"/>
       <c r="G127" s="13"/>
       <c r="H127" s="20"/>
@@ -12585,7 +12672,7 @@
       <c r="N127" s="20"/>
       <c r="O127" s="20"/>
     </row>
-    <row r="128" spans="6:15">
+    <row r="128" spans="6:15" x14ac:dyDescent="0.35">
       <c r="F128" s="21"/>
       <c r="G128" s="13"/>
       <c r="H128" s="20"/>
@@ -12597,7 +12684,7 @@
       <c r="N128" s="20"/>
       <c r="O128" s="20"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F129" s="13" t="s">
         <v>111</v>
       </c>
@@ -12611,7 +12698,7 @@
       <c r="N129" s="20"/>
       <c r="O129" s="20"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F130" s="21"/>
       <c r="G130" s="13"/>
       <c r="H130" s="20"/>
@@ -12623,7 +12710,7 @@
       <c r="N130" s="20"/>
       <c r="O130" s="20"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F131" s="21"/>
       <c r="G131" s="13"/>
       <c r="H131" s="13" t="s">
@@ -12637,7 +12724,7 @@
       <c r="N131" s="20"/>
       <c r="O131" s="20"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F132" s="21"/>
       <c r="G132" s="13" t="s">
         <v>113</v>
@@ -12651,69 +12738,69 @@
       <c r="N132" s="20"/>
       <c r="O132" s="20"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E133" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E134" s="13"/>
       <c r="F134" s="69" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G134" s="69"/>
       <c r="H134" s="69"/>
       <c r="I134" s="69"/>
       <c r="J134" s="69"/>
       <c r="L134" s="75" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="M134" s="66" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E135" s="13"/>
       <c r="F135" s="69" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G135" s="69"/>
       <c r="H135" s="69"/>
       <c r="I135" s="69"/>
       <c r="J135" s="69"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D137" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E138" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E139" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" ht="33" x14ac:dyDescent="0.35">
+      <c r="A141" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="E141" s="13" t="s">
         <v>212</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" ht="33">
-      <c r="A141" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="E141" s="13" t="s">
-        <v>220</v>
       </c>
       <c r="F141" s="13"/>
       <c r="G141" s="13"/>
@@ -12730,11 +12817,11 @@
       <c r="R141" s="13"/>
       <c r="S141" s="13"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A142" s="42"/>
       <c r="D142" s="13"/>
       <c r="E142" s="13" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F142" s="13"/>
       <c r="G142" s="13"/>
@@ -12751,11 +12838,11 @@
       <c r="R142" s="13"/>
       <c r="S142" s="13"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A143" s="42"/>
       <c r="D143" s="13"/>
       <c r="E143" s="13" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F143" s="13"/>
       <c r="G143" s="13"/>
@@ -12772,11 +12859,11 @@
       <c r="R143" s="13"/>
       <c r="S143" s="13"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A144" s="42"/>
       <c r="D144" s="13"/>
       <c r="E144" s="13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
@@ -12793,13 +12880,13 @@
       <c r="R144" s="13"/>
       <c r="S144" s="13"/>
     </row>
-    <row r="145" spans="1:19" ht="33">
+    <row r="145" spans="1:19" ht="33" x14ac:dyDescent="0.35">
       <c r="A145" s="42" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D145" s="13"/>
       <c r="E145" s="13" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F145" s="13"/>
       <c r="G145" s="13"/>
@@ -12816,85 +12903,85 @@
       <c r="R145" s="13"/>
       <c r="S145" s="13"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A146" s="43" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K147" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A149" s="42" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="N149" s="13"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K150" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L150" s="13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K151" s="13"/>
       <c r="L151" s="13"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K152" s="13"/>
       <c r="L152" s="13"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K153" s="13"/>
       <c r="L153" s="13"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E155" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K157" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K159" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M159" s="13"/>
       <c r="N159" s="13"/>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K160" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="161" spans="4:17">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="161" spans="4:17" x14ac:dyDescent="0.35">
       <c r="K161" s="13"/>
     </row>
-    <row r="162" spans="4:17">
+    <row r="162" spans="4:17" x14ac:dyDescent="0.35">
       <c r="K162" s="13"/>
     </row>
-    <row r="163" spans="4:17">
+    <row r="163" spans="4:17" x14ac:dyDescent="0.35">
       <c r="K163" s="13"/>
     </row>
-    <row r="165" spans="4:17">
+    <row r="165" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D165" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="166" spans="4:17">
+    <row r="166" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D166" s="1"/>
       <c r="E166" s="22" t="s">
         <v>47</v>
@@ -12903,7 +12990,7 @@
       <c r="G166" s="23"/>
       <c r="H166" s="23"/>
     </row>
-    <row r="167" spans="4:17">
+    <row r="167" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D167" s="1"/>
       <c r="E167" s="22"/>
       <c r="F167" s="23" t="s">
@@ -12912,7 +12999,7 @@
       <c r="G167" s="23"/>
       <c r="H167" s="23"/>
     </row>
-    <row r="168" spans="4:17">
+    <row r="168" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D168" s="1"/>
       <c r="E168" s="22" t="s">
         <v>49</v>
@@ -12921,7 +13008,7 @@
       <c r="G168" s="23"/>
       <c r="H168" s="23"/>
     </row>
-    <row r="169" spans="4:17">
+    <row r="169" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D169" s="1"/>
       <c r="E169" s="22"/>
       <c r="F169" s="23" t="s">
@@ -12930,7 +13017,7 @@
       <c r="G169" s="23"/>
       <c r="H169" s="23"/>
     </row>
-    <row r="170" spans="4:17">
+    <row r="170" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D170" s="1"/>
       <c r="E170" s="22" t="s">
         <v>50</v>
@@ -12939,7 +13026,7 @@
       <c r="G170" s="23"/>
       <c r="H170" s="23"/>
     </row>
-    <row r="171" spans="4:17">
+    <row r="171" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D171" s="1"/>
       <c r="E171" s="22"/>
       <c r="F171" s="2" t="s">
@@ -12948,7 +13035,7 @@
       <c r="G171" s="23"/>
       <c r="H171" s="23"/>
     </row>
-    <row r="172" spans="4:17">
+    <row r="172" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E172" s="22" t="s">
         <v>51</v>
       </c>
@@ -12956,7 +13043,7 @@
       <c r="G172" s="23"/>
       <c r="H172" s="23"/>
     </row>
-    <row r="173" spans="4:17">
+    <row r="173" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D173" s="1"/>
       <c r="E173" s="22"/>
       <c r="F173" s="23" t="s">
@@ -12965,24 +13052,24 @@
       <c r="G173" s="23"/>
       <c r="H173" s="23"/>
     </row>
-    <row r="174" spans="4:17">
+    <row r="174" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D174" s="1"/>
       <c r="E174" s="22"/>
       <c r="F174" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G174" s="66" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H174" s="23"/>
     </row>
-    <row r="175" spans="4:17">
+    <row r="175" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D175" s="1"/>
       <c r="E175" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="176" spans="4:17">
+    <row r="176" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D176" s="1"/>
       <c r="F176" s="21" t="s">
         <v>122</v>
@@ -12999,7 +13086,7 @@
       <c r="P176" s="21"/>
       <c r="Q176" s="21"/>
     </row>
-    <row r="177" spans="4:19">
+    <row r="177" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D177" s="1"/>
       <c r="F177" s="21" t="s">
         <v>121</v>
@@ -13016,7 +13103,7 @@
       <c r="P177" s="21"/>
       <c r="Q177" s="21"/>
     </row>
-    <row r="178" spans="4:19">
+    <row r="178" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D178" s="1"/>
       <c r="F178" s="21" t="s">
         <v>126</v>
@@ -13033,7 +13120,7 @@
       <c r="P178" s="21"/>
       <c r="Q178" s="21"/>
     </row>
-    <row r="179" spans="4:19">
+    <row r="179" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D179" s="1"/>
       <c r="F179" s="21" t="s">
         <v>164</v>
@@ -13048,7 +13135,7 @@
       <c r="P179" s="21"/>
       <c r="Q179" s="21"/>
     </row>
-    <row r="180" spans="4:19">
+    <row r="180" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D180" s="1"/>
       <c r="F180" s="21"/>
       <c r="G180" s="21"/>
@@ -13059,10 +13146,10 @@
       <c r="M180" s="21"/>
       <c r="N180" s="21"/>
     </row>
-    <row r="181" spans="4:19">
+    <row r="181" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D181" s="1"/>
       <c r="F181" s="67" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G181" s="68"/>
       <c r="H181" s="68"/>
@@ -13078,7 +13165,7 @@
       <c r="R181" s="13"/>
       <c r="S181" s="13"/>
     </row>
-    <row r="182" spans="4:19">
+    <row r="182" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D182" s="1"/>
       <c r="F182" s="67"/>
       <c r="G182" s="68"/>
@@ -13095,7 +13182,7 @@
       <c r="R182" s="13"/>
       <c r="S182" s="13"/>
     </row>
-    <row r="183" spans="4:19">
+    <row r="183" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D183" s="1"/>
       <c r="F183" s="67"/>
       <c r="G183" s="68"/>
@@ -13103,7 +13190,7 @@
       <c r="I183" s="68"/>
       <c r="J183" s="68"/>
       <c r="K183" s="69" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L183" s="69"/>
       <c r="M183" s="69"/>
@@ -13114,7 +13201,7 @@
       <c r="R183" s="13"/>
       <c r="S183" s="13"/>
     </row>
-    <row r="184" spans="4:19">
+    <row r="184" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D184" s="1"/>
       <c r="F184" s="67"/>
       <c r="G184" s="68"/>
@@ -13131,7 +13218,7 @@
       <c r="R184" s="13"/>
       <c r="S184" s="13"/>
     </row>
-    <row r="185" spans="4:19">
+    <row r="185" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D185" s="1"/>
       <c r="F185" s="67"/>
       <c r="G185" s="68"/>
@@ -13139,7 +13226,7 @@
       <c r="I185" s="68"/>
       <c r="J185" s="68"/>
       <c r="K185" s="69" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="L185" s="69"/>
       <c r="M185" s="69"/>
@@ -13147,7 +13234,7 @@
       <c r="O185" s="68"/>
       <c r="P185" s="13"/>
     </row>
-    <row r="186" spans="4:19">
+    <row r="186" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D186" s="1"/>
       <c r="F186" s="67"/>
       <c r="G186" s="68"/>
@@ -13156,19 +13243,19 @@
       <c r="J186" s="68"/>
       <c r="K186" s="69"/>
       <c r="L186" s="68" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="M186" s="69"/>
       <c r="N186" s="69"/>
       <c r="O186" s="68"/>
       <c r="P186" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="Q186" s="13" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="187" spans="4:19">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="187" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D187" s="1"/>
       <c r="F187" s="67"/>
       <c r="G187" s="68"/>
@@ -13177,18 +13264,18 @@
       <c r="J187" s="68"/>
       <c r="K187" s="68"/>
       <c r="L187" s="120" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M187" s="121"/>
       <c r="N187" s="68"/>
       <c r="O187" s="68"/>
       <c r="P187" s="13"/>
       <c r="Q187" s="13" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="R187" s="13"/>
     </row>
-    <row r="188" spans="4:19">
+    <row r="188" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D188" s="1"/>
       <c r="F188" s="67"/>
       <c r="G188" s="68"/>
@@ -13205,7 +13292,7 @@
       <c r="R188" s="13"/>
       <c r="S188" s="13"/>
     </row>
-    <row r="189" spans="4:19">
+    <row r="189" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D189" s="1"/>
       <c r="F189" s="67"/>
       <c r="G189" s="68"/>
@@ -13222,7 +13309,7 @@
       <c r="R189" s="13"/>
       <c r="S189" s="13"/>
     </row>
-    <row r="190" spans="4:19">
+    <row r="190" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D190" s="1"/>
       <c r="F190" s="67"/>
       <c r="G190" s="68"/>
@@ -13239,7 +13326,7 @@
       <c r="R190" s="13"/>
       <c r="S190" s="13"/>
     </row>
-    <row r="191" spans="4:19">
+    <row r="191" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D191" s="1"/>
       <c r="F191" s="67"/>
       <c r="G191" s="68"/>
@@ -13256,7 +13343,7 @@
       <c r="R191" s="13"/>
       <c r="S191" s="13"/>
     </row>
-    <row r="192" spans="4:19">
+    <row r="192" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D192" s="1"/>
       <c r="F192" s="67"/>
       <c r="G192" s="68"/>
@@ -13273,10 +13360,10 @@
       <c r="R192" s="13"/>
       <c r="S192" s="13"/>
     </row>
-    <row r="193" spans="1:25">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.35">
       <c r="D193" s="1"/>
       <c r="F193" s="67" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G193" s="68"/>
       <c r="H193" s="68"/>
@@ -13292,10 +13379,10 @@
       <c r="R193" s="13"/>
       <c r="S193" s="13"/>
     </row>
-    <row r="194" spans="1:25">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.35">
       <c r="D194" s="1"/>
       <c r="F194" s="67" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G194" s="68"/>
       <c r="H194" s="68"/>
@@ -13311,10 +13398,10 @@
       <c r="R194" s="13"/>
       <c r="S194" s="13"/>
     </row>
-    <row r="195" spans="1:25">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.35">
       <c r="D195" s="1"/>
       <c r="F195" s="123" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G195" s="24"/>
       <c r="H195" s="24"/>
@@ -13330,10 +13417,10 @@
       <c r="R195" s="13"/>
       <c r="S195" s="13"/>
     </row>
-    <row r="196" spans="1:25">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.35">
       <c r="D196" s="1"/>
       <c r="F196" s="13" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G196" s="24"/>
       <c r="H196" s="24"/>
@@ -13349,11 +13436,11 @@
       <c r="R196" s="13"/>
       <c r="S196" s="13"/>
     </row>
-    <row r="197" spans="1:25">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.35">
       <c r="D197" s="1"/>
       <c r="E197" s="13"/>
       <c r="F197" s="13" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G197" s="24"/>
       <c r="H197" s="24"/>
@@ -13369,10 +13456,10 @@
       <c r="R197" s="13"/>
       <c r="S197" s="13"/>
     </row>
-    <row r="198" spans="1:25" s="102" customFormat="1">
+    <row r="198" spans="1:25" s="102" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D198" s="101"/>
       <c r="F198" s="122" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G198" s="122"/>
       <c r="H198" s="121"/>
@@ -13388,7 +13475,7 @@
       <c r="R198" s="105"/>
       <c r="S198" s="105"/>
     </row>
-    <row r="199" spans="1:25">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.35">
       <c r="D199" s="1"/>
       <c r="F199" s="24"/>
       <c r="G199" s="24"/>
@@ -13405,12 +13492,12 @@
       <c r="R199" s="13"/>
       <c r="S199" s="13"/>
     </row>
-    <row r="200" spans="1:25">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A200" s="41" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F200" s="108" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G200" s="111"/>
       <c r="H200" s="111"/>
@@ -13426,7 +13513,7 @@
       <c r="R200" s="78"/>
       <c r="S200" s="13"/>
     </row>
-    <row r="201" spans="1:25">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A201" s="41"/>
       <c r="F201" s="112"/>
       <c r="G201" s="111"/>
@@ -13443,7 +13530,7 @@
       <c r="R201" s="78"/>
       <c r="S201" s="13"/>
     </row>
-    <row r="202" spans="1:25">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A202" s="41"/>
       <c r="F202" s="112"/>
       <c r="G202" s="111"/>
@@ -13451,7 +13538,7 @@
       <c r="I202" s="111"/>
       <c r="J202" s="111"/>
       <c r="K202" s="107" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="L202" s="113"/>
       <c r="M202" s="113"/>
@@ -13462,7 +13549,7 @@
       <c r="R202" s="78"/>
       <c r="S202" s="13"/>
     </row>
-    <row r="203" spans="1:25">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A203" s="41"/>
       <c r="F203" s="112"/>
       <c r="G203" s="111"/>
@@ -13479,7 +13566,7 @@
       <c r="R203" s="78"/>
       <c r="S203" s="13"/>
     </row>
-    <row r="204" spans="1:25">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A204" s="41"/>
       <c r="F204" s="111"/>
       <c r="G204" s="107"/>
@@ -13487,7 +13574,7 @@
       <c r="I204" s="111"/>
       <c r="J204" s="111"/>
       <c r="K204" s="107" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L204" s="113"/>
       <c r="M204" s="113"/>
@@ -13498,17 +13585,17 @@
       <c r="R204" s="13"/>
       <c r="S204" s="13"/>
     </row>
-    <row r="205" spans="1:25">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A205" s="41"/>
       <c r="F205" s="24"/>
       <c r="H205" s="24"/>
       <c r="I205" s="24"/>
       <c r="J205" s="24"/>
       <c r="K205" s="80" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L205" s="79" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="M205" s="24"/>
       <c r="N205" s="24"/>
@@ -13518,7 +13605,7 @@
       <c r="R205" s="13"/>
       <c r="S205" s="13"/>
     </row>
-    <row r="206" spans="1:25">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A206" s="41"/>
       <c r="F206" s="24"/>
       <c r="H206" s="24"/>
@@ -13534,7 +13621,7 @@
       <c r="R206" s="13"/>
       <c r="S206" s="13"/>
     </row>
-    <row r="207" spans="1:25">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A207" s="41"/>
       <c r="F207" s="24"/>
       <c r="H207" s="24"/>
@@ -13550,9 +13637,9 @@
       <c r="R207" s="13"/>
       <c r="S207" s="13"/>
     </row>
-    <row r="208" spans="1:25">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.35">
       <c r="F208" s="63" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G208" s="24"/>
       <c r="H208" s="24"/>
@@ -13574,7 +13661,7 @@
       <c r="X208" s="13"/>
       <c r="Y208" s="13"/>
     </row>
-    <row r="209" spans="4:17">
+    <row r="209" spans="4:17" x14ac:dyDescent="0.35">
       <c r="F209" s="21"/>
       <c r="G209" s="21"/>
       <c r="H209" s="21"/>
@@ -13588,41 +13675,41 @@
       <c r="P209" s="21"/>
       <c r="Q209" s="21"/>
     </row>
-    <row r="210" spans="4:17">
+    <row r="210" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E210" s="48"/>
       <c r="F210" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="212" spans="4:17">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="212" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E212" s="22" t="s">
         <v>53</v>
       </c>
       <c r="F212" s="23"/>
       <c r="G212" s="23"/>
     </row>
-    <row r="213" spans="4:17">
+    <row r="213" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E213" s="22"/>
       <c r="F213" s="23" t="s">
         <v>149</v>
       </c>
       <c r="G213" s="24"/>
     </row>
-    <row r="214" spans="4:17">
+    <row r="214" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E214" s="22"/>
       <c r="F214" s="23" t="s">
         <v>150</v>
       </c>
       <c r="G214" s="24"/>
     </row>
-    <row r="215" spans="4:17">
+    <row r="215" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E215" s="22" t="s">
         <v>151</v>
       </c>
       <c r="F215" s="23"/>
       <c r="G215" s="23"/>
     </row>
-    <row r="216" spans="4:17">
+    <row r="216" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E216" s="21"/>
       <c r="F216" s="23" t="s">
         <v>152</v>
@@ -13631,7 +13718,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="217" spans="4:17">
+    <row r="217" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E217" s="21"/>
       <c r="F217" s="23" t="s">
         <v>154</v>
@@ -13640,22 +13727,22 @@
         <v>138</v>
       </c>
     </row>
-    <row r="218" spans="4:17">
+    <row r="218" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E218" s="21"/>
       <c r="F218" s="23"/>
       <c r="G218" s="24"/>
     </row>
-    <row r="219" spans="4:17">
+    <row r="219" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D219" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="221" spans="4:17">
+    <row r="221" spans="4:17" x14ac:dyDescent="0.35">
       <c r="K221" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="222" spans="4:17">
+    <row r="222" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D222" s="2" t="s">
         <v>130</v>
       </c>
@@ -13663,46 +13750,46 @@
         <v>129</v>
       </c>
     </row>
-    <row r="225" spans="4:11">
+    <row r="225" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D225" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="229" spans="4:11">
+    <row r="229" spans="4:11" x14ac:dyDescent="0.35">
       <c r="K229" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="234" spans="4:11">
+    <row r="234" spans="4:11" x14ac:dyDescent="0.35">
       <c r="H234" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="236" spans="4:11">
+    <row r="236" spans="4:11" x14ac:dyDescent="0.35">
       <c r="E236" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G236" s="69"/>
       <c r="H236" s="69"/>
     </row>
-    <row r="237" spans="4:11">
+    <row r="237" spans="4:11" x14ac:dyDescent="0.35">
       <c r="E237" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="238" spans="4:11">
+    <row r="238" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D238" s="48"/>
       <c r="E238" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="239" spans="4:11">
+    <row r="239" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D239" s="13"/>
       <c r="F239" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="240" spans="4:11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="240" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D240" s="48"/>
       <c r="E240" s="32" t="s">
         <v>135</v>
@@ -13713,7 +13800,7 @@
       <c r="I240" s="21"/>
       <c r="J240" s="21"/>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D241" s="13"/>
       <c r="E241" s="21"/>
       <c r="F241" s="21" t="s">
@@ -13724,7 +13811,7 @@
       <c r="I241" s="21"/>
       <c r="J241" s="21"/>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D242" s="13"/>
       <c r="E242" s="32" t="s">
         <v>137</v>
@@ -13735,7 +13822,7 @@
       <c r="I242" s="21"/>
       <c r="J242" s="21"/>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D243" s="13"/>
       <c r="E243" s="21"/>
       <c r="F243" s="21" t="s">
@@ -13746,13 +13833,13 @@
       <c r="I243" s="21"/>
       <c r="J243" s="21"/>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D244" s="48"/>
       <c r="E244" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D245" s="13"/>
       <c r="F245" s="21" t="s">
         <v>140</v>
@@ -13763,9 +13850,9 @@
       <c r="J245" s="21"/>
       <c r="K245" s="21"/>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F246" s="21" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G246" s="21"/>
       <c r="H246" s="21"/>
@@ -13773,9 +13860,9 @@
       <c r="J246" s="21"/>
       <c r="K246" s="21"/>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F247" s="70" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G247" s="21"/>
       <c r="H247" s="21"/>
@@ -13784,12 +13871,12 @@
       <c r="K247" s="39"/>
       <c r="L247" s="13"/>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F248" s="13" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G248" s="13"/>
       <c r="H248" s="13"/>
@@ -13798,16 +13885,16 @@
       <c r="K248" s="13"/>
       <c r="L248" s="13"/>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E249" s="13"/>
       <c r="F249" s="13" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G249" s="13"/>
       <c r="H249" s="13"/>
       <c r="I249" s="13"/>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D250" s="48"/>
       <c r="E250" s="32" t="s">
         <v>143</v>
@@ -13818,7 +13905,7 @@
       <c r="I250" s="21"/>
       <c r="J250" s="21"/>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E251" s="24"/>
       <c r="F251" s="24" t="s">
         <v>142</v>
@@ -13835,10 +13922,10 @@
       <c r="P251" s="13"/>
       <c r="Q251" s="13"/>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E252" s="24"/>
       <c r="F252" s="119" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G252" s="24"/>
       <c r="H252" s="24"/>
@@ -13852,13 +13939,13 @@
       <c r="P252" s="13"/>
       <c r="Q252" s="13"/>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E253" s="24"/>
       <c r="F253" s="24" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G253" s="24"/>
       <c r="H253" s="24"/>
@@ -13872,9 +13959,9 @@
       <c r="P253" s="13"/>
       <c r="Q253" s="13"/>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A254" s="44" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E254" s="24"/>
       <c r="F254" s="24"/>
@@ -13890,13 +13977,13 @@
       <c r="P254" s="13"/>
       <c r="Q254" s="13"/>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E255" s="24"/>
       <c r="F255" s="119" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G255" s="119" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H255" s="121"/>
       <c r="I255" s="121"/>
@@ -13909,9 +13996,9 @@
       <c r="P255" s="13"/>
       <c r="Q255" s="13"/>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E256" s="13"/>
       <c r="F256" s="13"/>
@@ -13929,7 +14016,7 @@
       <c r="P256" s="13"/>
       <c r="Q256" s="13"/>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E257" s="13"/>
       <c r="F257" s="13"/>
       <c r="G257" s="13"/>
@@ -13944,7 +14031,7 @@
       <c r="P257" s="13"/>
       <c r="Q257" s="13"/>
     </row>
-    <row r="258" spans="1:17">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E258" s="13"/>
       <c r="F258" s="13"/>
       <c r="G258" s="13"/>
@@ -13959,7 +14046,7 @@
       <c r="P258" s="13"/>
       <c r="Q258" s="13"/>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E259" s="13"/>
       <c r="F259" s="13"/>
       <c r="G259" s="13"/>
@@ -13974,16 +14061,16 @@
       <c r="P259" s="13"/>
       <c r="Q259" s="13"/>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A260" s="41" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E260" s="13"/>
       <c r="F260" s="24" t="s">
         <v>57</v>
       </c>
       <c r="G260" s="24" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H260" s="24"/>
       <c r="I260" s="24"/>
@@ -13996,9 +14083,9 @@
       <c r="P260" s="13"/>
       <c r="Q260" s="13"/>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A261" s="41" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G261" s="21" t="s">
         <v>147</v>
@@ -14008,9 +14095,9 @@
       <c r="J261" s="21"/>
       <c r="K261" s="21"/>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A262" s="44" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G262" s="21"/>
       <c r="H262" s="21"/>
@@ -14018,15 +14105,15 @@
       <c r="J262" s="21"/>
       <c r="K262" s="21"/>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F263" s="24" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G263" s="24"/>
       <c r="H263" s="24"/>
       <c r="I263" s="13"/>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E264" s="32" t="s">
         <v>148</v>
       </c>
@@ -14040,7 +14127,7 @@
       <c r="M264" s="21"/>
       <c r="N264" s="21"/>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E265" s="32"/>
       <c r="F265" s="22" t="s">
         <v>47</v>
@@ -14050,7 +14137,7 @@
       <c r="I265" s="23"/>
       <c r="J265" s="23"/>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E266" s="32"/>
       <c r="F266" s="22"/>
       <c r="G266" s="23" t="s">
@@ -14060,7 +14147,7 @@
       <c r="I266" s="23"/>
       <c r="J266" s="23"/>
     </row>
-    <row r="267" spans="1:17">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E267" s="32"/>
       <c r="F267" s="22" t="s">
         <v>49</v>
@@ -14072,7 +14159,7 @@
       <c r="K267" s="23"/>
       <c r="N267" s="21"/>
     </row>
-    <row r="268" spans="1:17">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E268" s="32"/>
       <c r="F268" s="22"/>
       <c r="G268" s="23" t="s">
@@ -14084,7 +14171,7 @@
       <c r="K268" s="23"/>
       <c r="N268" s="21"/>
     </row>
-    <row r="269" spans="1:17">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E269" s="32"/>
       <c r="F269" s="22" t="s">
         <v>50</v>
@@ -14096,11 +14183,11 @@
       <c r="K269" s="23"/>
       <c r="N269" s="21"/>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E270" s="32"/>
       <c r="F270" s="22"/>
       <c r="G270" s="87" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H270" s="89"/>
       <c r="I270" s="89"/>
@@ -14109,11 +14196,11 @@
       <c r="L270" s="85"/>
       <c r="N270" s="21"/>
     </row>
-    <row r="271" spans="1:17" s="86" customFormat="1">
+    <row r="271" spans="1:17" s="86" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E271" s="90"/>
       <c r="F271" s="88"/>
       <c r="G271" s="87" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H271" s="89"/>
       <c r="I271" s="89"/>
@@ -14122,7 +14209,7 @@
       <c r="L271" s="85"/>
       <c r="N271" s="21"/>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F272" s="22" t="s">
         <v>51</v>
       </c>
@@ -14133,11 +14220,11 @@
       <c r="K272" s="23"/>
       <c r="N272" s="21"/>
     </row>
-    <row r="273" spans="5:22">
+    <row r="273" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E273" s="32"/>
       <c r="F273" s="22"/>
       <c r="G273" s="83" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H273" s="81"/>
       <c r="I273" s="81"/>
@@ -14146,21 +14233,21 @@
       <c r="L273" s="82"/>
       <c r="N273" s="21"/>
     </row>
-    <row r="274" spans="5:22">
+    <row r="274" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E274" s="32"/>
       <c r="F274" s="22"/>
       <c r="G274" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H274" s="66" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="I274" s="23"/>
       <c r="J274" s="23"/>
       <c r="K274" s="23"/>
       <c r="N274" s="21"/>
     </row>
-    <row r="275" spans="5:22">
+    <row r="275" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E275" s="32"/>
       <c r="F275" s="22" t="s">
         <v>52</v>
@@ -14172,11 +14259,11 @@
       <c r="K275" s="23"/>
       <c r="N275" s="21"/>
     </row>
-    <row r="276" spans="5:22">
+    <row r="276" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E276" s="32"/>
       <c r="F276" s="14"/>
       <c r="G276" s="97" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H276" s="97"/>
       <c r="I276" s="97"/>
@@ -14194,11 +14281,11 @@
       <c r="U276" s="13"/>
       <c r="V276" s="13"/>
     </row>
-    <row r="277" spans="5:22">
+    <row r="277" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E277" s="32"/>
       <c r="F277" s="58"/>
       <c r="G277" s="97" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H277" s="97"/>
       <c r="I277" s="97"/>
@@ -14216,11 +14303,11 @@
       <c r="U277" s="13"/>
       <c r="V277" s="13"/>
     </row>
-    <row r="278" spans="5:22" s="102" customFormat="1">
+    <row r="278" spans="5:22" s="102" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E278" s="98"/>
       <c r="F278" s="58"/>
       <c r="G278" s="122" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H278" s="122"/>
       <c r="I278" s="121"/>
@@ -14238,11 +14325,11 @@
       <c r="U278" s="105"/>
       <c r="V278" s="105"/>
     </row>
-    <row r="279" spans="5:22">
+    <row r="279" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E279" s="32"/>
       <c r="F279" s="48"/>
       <c r="G279" s="123" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="H279" s="97"/>
       <c r="I279" s="97"/>
@@ -14260,11 +14347,11 @@
       <c r="U279" s="13"/>
       <c r="V279" s="13"/>
     </row>
-    <row r="280" spans="5:22">
+    <row r="280" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E280" s="32"/>
       <c r="F280" s="48"/>
       <c r="G280" s="96" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="H280" s="97"/>
       <c r="I280" s="97"/>
@@ -14282,11 +14369,11 @@
       <c r="U280" s="13"/>
       <c r="V280" s="13"/>
     </row>
-    <row r="281" spans="5:22">
+    <row r="281" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E281" s="32"/>
       <c r="F281" s="48"/>
       <c r="G281" s="96" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="H281" s="97"/>
       <c r="I281" s="97"/>
@@ -14304,7 +14391,7 @@
       <c r="U281" s="13"/>
       <c r="V281" s="13"/>
     </row>
-    <row r="282" spans="5:22" s="92" customFormat="1">
+    <row r="282" spans="5:22" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E282" s="98"/>
       <c r="F282" s="99"/>
       <c r="G282" s="96"/>
@@ -14324,7 +14411,7 @@
       <c r="U282" s="96"/>
       <c r="V282" s="96"/>
     </row>
-    <row r="283" spans="5:22" s="92" customFormat="1">
+    <row r="283" spans="5:22" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E283" s="98"/>
       <c r="F283" s="99"/>
       <c r="G283" s="96"/>
@@ -14344,7 +14431,7 @@
       <c r="U283" s="96"/>
       <c r="V283" s="96"/>
     </row>
-    <row r="284" spans="5:22" s="92" customFormat="1">
+    <row r="284" spans="5:22" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E284" s="98"/>
       <c r="F284" s="99"/>
       <c r="G284" s="96"/>
@@ -14364,7 +14451,7 @@
       <c r="U284" s="96"/>
       <c r="V284" s="96"/>
     </row>
-    <row r="285" spans="5:22" s="92" customFormat="1">
+    <row r="285" spans="5:22" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E285" s="98"/>
       <c r="F285" s="99"/>
       <c r="G285" s="96"/>
@@ -14384,7 +14471,7 @@
       <c r="U285" s="96"/>
       <c r="V285" s="96"/>
     </row>
-    <row r="286" spans="5:22" s="92" customFormat="1">
+    <row r="286" spans="5:22" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E286" s="98"/>
       <c r="F286" s="99"/>
       <c r="G286" s="96"/>
@@ -14404,7 +14491,7 @@
       <c r="U286" s="96"/>
       <c r="V286" s="96"/>
     </row>
-    <row r="287" spans="5:22" s="92" customFormat="1">
+    <row r="287" spans="5:22" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E287" s="98"/>
       <c r="F287" s="99"/>
       <c r="G287" s="96"/>
@@ -14424,7 +14511,7 @@
       <c r="U287" s="96"/>
       <c r="V287" s="96"/>
     </row>
-    <row r="288" spans="5:22" s="92" customFormat="1">
+    <row r="288" spans="5:22" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E288" s="98"/>
       <c r="F288" s="99"/>
       <c r="G288" s="96"/>
@@ -14444,7 +14531,7 @@
       <c r="U288" s="96"/>
       <c r="V288" s="96"/>
     </row>
-    <row r="289" spans="1:22" s="92" customFormat="1">
+    <row r="289" spans="1:22" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E289" s="98"/>
       <c r="F289" s="99"/>
       <c r="G289" s="96"/>
@@ -14464,7 +14551,7 @@
       <c r="U289" s="96"/>
       <c r="V289" s="96"/>
     </row>
-    <row r="290" spans="1:22" s="92" customFormat="1">
+    <row r="290" spans="1:22" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E290" s="98"/>
       <c r="F290" s="99"/>
       <c r="G290" s="96"/>
@@ -14484,7 +14571,7 @@
       <c r="U290" s="96"/>
       <c r="V290" s="96"/>
     </row>
-    <row r="291" spans="1:22">
+    <row r="291" spans="1:22" x14ac:dyDescent="0.35">
       <c r="E291" s="32"/>
       <c r="F291" s="22" t="s">
         <v>53</v>
@@ -14498,7 +14585,7 @@
       <c r="M291" s="21"/>
       <c r="N291" s="21"/>
     </row>
-    <row r="292" spans="1:22">
+    <row r="292" spans="1:22" x14ac:dyDescent="0.35">
       <c r="E292" s="32"/>
       <c r="F292" s="22"/>
       <c r="G292" s="23" t="s">
@@ -14512,7 +14599,7 @@
       <c r="M292" s="21"/>
       <c r="N292" s="21"/>
     </row>
-    <row r="293" spans="1:22">
+    <row r="293" spans="1:22" x14ac:dyDescent="0.35">
       <c r="E293" s="32"/>
       <c r="F293" s="22"/>
       <c r="G293" s="23" t="s">
@@ -14526,7 +14613,7 @@
       <c r="M293" s="21"/>
       <c r="N293" s="21"/>
     </row>
-    <row r="294" spans="1:22">
+    <row r="294" spans="1:22" x14ac:dyDescent="0.35">
       <c r="E294" s="32"/>
       <c r="F294" s="22" t="s">
         <v>151</v>
@@ -14540,7 +14627,7 @@
       <c r="M294" s="21"/>
       <c r="N294" s="21"/>
     </row>
-    <row r="295" spans="1:22">
+    <row r="295" spans="1:22" x14ac:dyDescent="0.35">
       <c r="E295" s="32"/>
       <c r="F295" s="21"/>
       <c r="G295" s="23" t="s">
@@ -14556,7 +14643,7 @@
       <c r="M295" s="21"/>
       <c r="N295" s="21"/>
     </row>
-    <row r="296" spans="1:22">
+    <row r="296" spans="1:22" x14ac:dyDescent="0.35">
       <c r="E296" s="32"/>
       <c r="F296" s="21"/>
       <c r="G296" s="23" t="s">
@@ -14572,9 +14659,9 @@
       <c r="M296" s="21"/>
       <c r="N296" s="21"/>
     </row>
-    <row r="297" spans="1:22">
+    <row r="297" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D297" s="72" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E297" s="73"/>
       <c r="F297" s="68"/>
@@ -14587,10 +14674,10 @@
       <c r="M297" s="21"/>
       <c r="N297" s="21"/>
     </row>
-    <row r="298" spans="1:22">
+    <row r="298" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D298" s="69"/>
       <c r="E298" s="67" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F298" s="68"/>
       <c r="G298" s="68"/>
@@ -14602,12 +14689,12 @@
       <c r="M298" s="21"/>
       <c r="N298" s="21"/>
     </row>
-    <row r="299" spans="1:22">
+    <row r="299" spans="1:22" x14ac:dyDescent="0.35">
       <c r="E299" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F299" s="66" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G299" s="21"/>
       <c r="H299" s="21"/>
@@ -14618,7 +14705,7 @@
       <c r="M299" s="21"/>
       <c r="N299" s="21"/>
     </row>
-    <row r="300" spans="1:22">
+    <row r="300" spans="1:22" x14ac:dyDescent="0.35">
       <c r="E300" s="32"/>
       <c r="F300" s="21"/>
       <c r="G300" s="21"/>
@@ -14630,7 +14717,7 @@
       <c r="M300" s="21"/>
       <c r="N300" s="21"/>
     </row>
-    <row r="301" spans="1:22">
+    <row r="301" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B301" s="30" t="s">
         <v>161</v>
       </c>
@@ -14645,7 +14732,7 @@
       <c r="M301" s="21"/>
       <c r="N301" s="21"/>
     </row>
-    <row r="302" spans="1:22">
+    <row r="302" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C302" s="1" t="s">
         <v>162</v>
       </c>
@@ -14660,12 +14747,12 @@
       <c r="M302" s="21"/>
       <c r="N302" s="21"/>
     </row>
-    <row r="303" spans="1:22">
+    <row r="303" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D303" s="96" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E303" s="55"/>
       <c r="F303" s="24"/>
@@ -14678,10 +14765,10 @@
       <c r="M303" s="24"/>
       <c r="N303" s="21"/>
     </row>
-    <row r="304" spans="1:22" s="102" customFormat="1">
+    <row r="304" spans="1:22" s="102" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D304" s="105"/>
       <c r="E304" s="108" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F304" s="108"/>
       <c r="G304" s="108"/>
@@ -14693,9 +14780,9 @@
       <c r="M304" s="24"/>
       <c r="N304" s="21"/>
     </row>
-    <row r="305" spans="3:14">
+    <row r="305" spans="3:14" x14ac:dyDescent="0.35">
       <c r="D305" s="105" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E305" s="109"/>
       <c r="F305" s="106"/>
@@ -14708,10 +14795,10 @@
       <c r="M305" s="24"/>
       <c r="N305" s="21"/>
     </row>
-    <row r="306" spans="3:14">
+    <row r="306" spans="3:14" x14ac:dyDescent="0.35">
       <c r="D306" s="105"/>
       <c r="E306" s="106" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F306" s="106"/>
       <c r="G306" s="106"/>
@@ -14723,9 +14810,9 @@
       <c r="M306" s="24"/>
       <c r="N306" s="21"/>
     </row>
-    <row r="307" spans="3:14">
+    <row r="307" spans="3:14" x14ac:dyDescent="0.35">
       <c r="D307" s="105" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E307" s="109"/>
       <c r="F307" s="106"/>
@@ -14738,7 +14825,7 @@
       <c r="M307" s="24"/>
       <c r="N307" s="21"/>
     </row>
-    <row r="308" spans="3:14">
+    <row r="308" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C308" s="1" t="s">
         <v>163</v>
       </c>
@@ -14754,23 +14841,23 @@
       <c r="M308" s="24"/>
       <c r="N308" s="21"/>
     </row>
-    <row r="309" spans="3:14">
+    <row r="309" spans="3:14" x14ac:dyDescent="0.35">
       <c r="D309" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E309" s="21"/>
     </row>
-    <row r="310" spans="3:14">
+    <row r="310" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E310" s="21"/>
     </row>
-    <row r="311" spans="3:14">
+    <row r="311" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E311" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:AA1"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="A139:A140 A147:A148 A255:A259 A150:A199 A208:A253 A108:A137 A98:A106 A1:A96 A263:A1048576">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -14787,10 +14874,10 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="21"/>
     <col min="2" max="2" width="23.125" style="21" customWidth="1"/>
@@ -14799,152 +14886,227 @@
     <col min="5" max="5" width="17.75" style="21" customWidth="1"/>
     <col min="6" max="6" width="17.375" style="21" customWidth="1"/>
     <col min="7" max="7" width="25" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="21"/>
+    <col min="8" max="9" width="9" style="21"/>
+    <col min="10" max="10" width="12.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="22.5">
-      <c r="A1" s="139" t="s">
+    <row r="1" spans="1:24" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="141"/>
+      <c r="T1" s="141"/>
+      <c r="U1" s="141"/>
+      <c r="V1" s="141"/>
+      <c r="W1" s="141"/>
+      <c r="X1" s="141"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B2" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:24">
+        <v>168</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="98" t="s">
+        <v>383</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="109" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="98" t="s">
+        <v>383</v>
+      </c>
+      <c r="J2" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="L2" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="M2" s="109" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="32"/>
       <c r="B3" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="H3" s="24"/>
-    </row>
-    <row r="4" spans="1:24">
+        <v>171</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="98" t="s">
+        <v>384</v>
+      </c>
+      <c r="E3" s="98" t="s">
+        <v>391</v>
+      </c>
+      <c r="F3" s="98" t="s">
+        <v>392</v>
+      </c>
+      <c r="G3" s="98" t="s">
+        <v>393</v>
+      </c>
+      <c r="H3" s="109" t="s">
+        <v>394</v>
+      </c>
+      <c r="I3" s="98" t="s">
+        <v>402</v>
+      </c>
+      <c r="J3" s="98" t="s">
+        <v>403</v>
+      </c>
+      <c r="K3" s="98" t="s">
+        <v>404</v>
+      </c>
+      <c r="L3" s="98" t="s">
+        <v>405</v>
+      </c>
+      <c r="M3" s="109" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="32"/>
       <c r="B4" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>234</v>
-      </c>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:24" ht="81.75" customHeight="1">
+      <c r="C4" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="98" t="s">
+        <v>385</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="F4" s="88" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="88" t="s">
+        <v>389</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>390</v>
+      </c>
+      <c r="I4" s="98" t="s">
+        <v>396</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="K4" s="88" t="s">
+        <v>399</v>
+      </c>
+      <c r="L4" s="88" t="s">
+        <v>398</v>
+      </c>
+      <c r="M4" s="62" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>182</v>
+        <v>173</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>386</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="1:24">
+        <v>238</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="M5" s="61" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="32"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="32"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B8" s="142" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G9" s="21" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G10" s="21" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G13" s="40" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:X1"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14958,43 +15120,43 @@
       <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.625" style="24" hidden="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="21" customFormat="1" ht="22.5">
-      <c r="B1" s="139" t="s">
+    <row r="1" spans="1:27" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="B1" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="139"/>
-    </row>
-    <row r="2" spans="1:27" s="14" customFormat="1">
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="141"/>
+      <c r="T1" s="141"/>
+      <c r="U1" s="141"/>
+      <c r="V1" s="141"/>
+      <c r="W1" s="141"/>
+      <c r="X1" s="141"/>
+      <c r="Y1" s="141"/>
+      <c r="Z1" s="141"/>
+      <c r="AA1" s="141"/>
+    </row>
+    <row r="2" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
         <v>70</v>
       </c>
@@ -15002,12 +15164,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="13" customFormat="1">
+    <row r="3" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="13" customFormat="1">
+    <row r="4" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -15022,7 +15184,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:27" s="13" customFormat="1">
+    <row r="5" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -15037,9 +15199,9 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:27" s="13" customFormat="1">
+    <row r="6" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -15055,9 +15217,9 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:27" s="13" customFormat="1">
+    <row r="7" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -15073,7 +15235,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:27" s="13" customFormat="1">
+    <row r="8" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -15088,7 +15250,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:27" s="13" customFormat="1">
+    <row r="9" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -15102,7 +15264,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:27" s="13" customFormat="1">
+    <row r="10" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -15119,7 +15281,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:27" s="13" customFormat="1">
+    <row r="11" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -15133,7 +15295,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:27" s="13" customFormat="1">
+    <row r="12" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>88</v>
@@ -15150,7 +15312,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:27" s="13" customFormat="1">
+    <row r="13" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -15165,7 +15327,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:27" s="13" customFormat="1">
+    <row r="14" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -15179,7 +15341,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:27" s="13" customFormat="1">
+    <row r="15" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>81</v>
       </c>
@@ -15196,12 +15358,12 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:27" s="13" customFormat="1">
+    <row r="16" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -15218,7 +15380,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="2:16" s="13" customFormat="1">
+    <row r="17" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -15234,9 +15396,9 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="2:16" s="13" customFormat="1">
+    <row r="18" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C18" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -15251,7 +15413,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="2:16" s="13" customFormat="1">
+    <row r="19" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -15267,7 +15429,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="2:16" s="13" customFormat="1">
+    <row r="20" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -15283,7 +15445,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="2:16" s="13" customFormat="1">
+    <row r="21" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -15299,7 +15461,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="2:16" s="13" customFormat="1">
+    <row r="22" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -15315,7 +15477,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="2:16" s="13" customFormat="1">
+    <row r="23" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -15331,7 +15493,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="2:16" s="13" customFormat="1">
+    <row r="24" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C24" s="2" t="s">
         <v>76</v>
       </c>
@@ -15349,7 +15511,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="2:16" s="13" customFormat="1">
+    <row r="25" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -15365,7 +15527,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="2:16" s="13" customFormat="1">
+    <row r="26" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -15383,7 +15545,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="2:16" s="13" customFormat="1">
+    <row r="27" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="14"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -15400,7 +15562,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="2:16" s="13" customFormat="1">
+    <row r="28" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -15416,7 +15578,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="2:16" s="13" customFormat="1">
+    <row r="29" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -15432,7 +15594,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" s="13"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -15449,7 +15611,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" s="13"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -15466,7 +15628,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" s="13"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -15483,7 +15645,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" s="13"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -15500,7 +15662,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" s="13"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -15517,7 +15679,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" s="13"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -15534,7 +15696,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" s="13"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -15551,7 +15713,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37" s="13"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -15568,7 +15730,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38" s="13"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -15585,7 +15747,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B39" s="13"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -15602,7 +15764,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40" s="13"/>
       <c r="C40" s="2"/>
       <c r="D40" s="13"/>
@@ -15611,7 +15773,7 @@
       <c r="G40" s="13"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -15621,7 +15783,7 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B41" s="13"/>
       <c r="C41" s="2"/>
       <c r="D41" s="13"/>
@@ -15638,7 +15800,7 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B42" s="13"/>
       <c r="C42" s="2"/>
       <c r="D42" s="13"/>
@@ -15649,7 +15811,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -15657,7 +15819,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="2:16" ht="18">
+    <row r="43" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B43" s="13"/>
       <c r="C43" s="2"/>
       <c r="D43" s="13"/>
@@ -15669,14 +15831,14 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="76" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="M43" s="76"/>
       <c r="N43" s="76"/>
       <c r="O43" s="76"/>
       <c r="P43" s="76"/>
     </row>
-    <row r="44" spans="2:16" ht="18">
+    <row r="44" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B44" s="13"/>
       <c r="C44" s="2"/>
       <c r="D44" s="13"/>
@@ -15688,14 +15850,14 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="76" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M44" s="76"/>
       <c r="N44" s="76"/>
       <c r="O44" s="76"/>
       <c r="P44" s="76"/>
     </row>
-    <row r="45" spans="2:16" ht="18">
+    <row r="45" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B45" s="13"/>
       <c r="C45" s="2"/>
       <c r="D45" s="13"/>
@@ -15707,14 +15869,14 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="76" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="M45" s="76"/>
       <c r="N45" s="76"/>
       <c r="O45" s="76"/>
       <c r="P45" s="76"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B46" s="13"/>
       <c r="C46" s="2"/>
       <c r="D46" s="13"/>
@@ -15731,7 +15893,7 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B47" s="13"/>
       <c r="C47" s="2"/>
       <c r="D47" s="13"/>
@@ -15748,7 +15910,7 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B48" s="13"/>
       <c r="C48" s="2"/>
       <c r="D48" s="13"/>
@@ -15765,7 +15927,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="2:16">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B49" s="13"/>
       <c r="C49" s="2"/>
       <c r="D49" s="13"/>
@@ -15782,7 +15944,7 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="1" t="s">
@@ -15795,7 +15957,7 @@
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
     </row>
-    <row r="51" spans="2:16">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -15811,7 +15973,7 @@
       <c r="L51" s="21"/>
       <c r="M51" s="21"/>
     </row>
-    <row r="52" spans="2:16">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -15825,7 +15987,7 @@
       <c r="L52" s="21"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="2:16">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -15839,7 +16001,7 @@
       <c r="L53" s="21"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="2:16">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -15853,7 +16015,7 @@
       <c r="L54" s="21"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="2:16">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="E55" s="21"/>
@@ -15866,7 +16028,7 @@
       <c r="L55" s="21"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="2:16">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="E56" s="21"/>
@@ -15879,7 +16041,7 @@
       <c r="L56" s="21"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="2:16">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -15893,7 +16055,7 @@
       <c r="L57" s="21"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="2:16">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -15907,7 +16069,7 @@
       <c r="L58" s="21"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="2:16">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -15923,7 +16085,7 @@
       <c r="L59" s="21"/>
       <c r="M59" s="21"/>
     </row>
-    <row r="60" spans="2:16">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
@@ -15939,7 +16101,7 @@
       <c r="L60" s="21"/>
       <c r="M60" s="21"/>
     </row>
-    <row r="61" spans="2:16">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -15957,7 +16119,7 @@
       <c r="L61" s="21"/>
       <c r="M61" s="21"/>
     </row>
-    <row r="62" spans="2:16">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -15971,7 +16133,7 @@
       <c r="L62" s="21"/>
       <c r="M62" s="21"/>
     </row>
-    <row r="63" spans="2:16">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -15987,7 +16149,7 @@
       <c r="L63" s="21"/>
       <c r="M63" s="21"/>
     </row>
-    <row r="64" spans="2:16">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B64" s="13"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -16003,7 +16165,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="2:14">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.35">
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -16014,12 +16176,12 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="2:14">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.35">
       <c r="F66" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="2:14">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
@@ -16033,7 +16195,7 @@
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" spans="2:14">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
@@ -16047,7 +16209,7 @@
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" spans="2:14">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
       <c r="F69" s="1" t="s">
@@ -16061,7 +16223,7 @@
       <c r="L69" s="20"/>
       <c r="M69" s="20"/>
     </row>
-    <row r="70" spans="2:14">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
       <c r="F70" s="2"/>
@@ -16075,7 +16237,7 @@
       <c r="L70" s="20"/>
       <c r="M70" s="20"/>
     </row>
-    <row r="71" spans="2:14">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.35">
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
         <v>98</v>
@@ -16084,7 +16246,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="2:14">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B72" s="29"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -16097,7 +16259,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="13"/>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -16110,23 +16272,23 @@
       <c r="I73" s="2"/>
       <c r="J73" s="13"/>
     </row>
-    <row r="74" spans="2:14">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="24" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K74" s="13"/>
     </row>
-    <row r="75" spans="2:14">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -16143,14 +16305,14 @@
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="2:14">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -16160,7 +16322,7 @@
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="2:14">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -16177,7 +16339,7 @@
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="2:14">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -16192,13 +16354,13 @@
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="2:14">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="74" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G79" s="74"/>
       <c r="H79" s="74"/>
@@ -16209,7 +16371,7 @@
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="2:14">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
@@ -16219,7 +16381,7 @@
       <c r="H80" s="74"/>
       <c r="I80" s="74"/>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -16231,33 +16393,33 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="2"/>
       <c r="F82" s="13" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
       <c r="J82" s="13"/>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="2"/>
       <c r="F83" s="13" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
       <c r="J83" s="13"/>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="1" t="s">
@@ -16270,7 +16432,7 @@
       <c r="I84" s="14"/>
       <c r="J84" s="14"/>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
@@ -16283,7 +16445,7 @@
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -16296,7 +16458,7 @@
       <c r="I86" s="14"/>
       <c r="J86" s="14"/>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
@@ -16309,7 +16471,7 @@
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
@@ -16321,7 +16483,7 @@
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
@@ -16333,7 +16495,7 @@
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
     </row>
-    <row r="90" spans="2:11">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
@@ -16344,7 +16506,7 @@
       <c r="I90" s="13"/>
       <c r="J90" s="13"/>
     </row>
-    <row r="91" spans="2:11">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
       <c r="D91" s="1" t="s">
@@ -16358,7 +16520,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="2:11">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="2"/>
@@ -16370,7 +16532,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="2:11">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
       <c r="D93" s="2"/>
@@ -16384,7 +16546,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="2:11">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
       <c r="D94" s="2" t="s">
@@ -16400,7 +16562,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="2:11">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
       <c r="D95" s="2"/>
@@ -16412,7 +16574,7 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="2:11">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -16422,7 +16584,7 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B97" s="29"/>
       <c r="C97" s="13"/>
       <c r="D97" s="2" t="s">
@@ -16436,7 +16598,7 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="2"/>
@@ -16448,7 +16610,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="2:11">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="2"/>
@@ -16460,7 +16622,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
       <c r="D100" s="2"/>
@@ -16472,7 +16634,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
       <c r="D101" s="2"/>
@@ -16486,7 +16648,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="102" spans="2:11">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="2"/>
@@ -16498,7 +16660,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
       <c r="D103" s="2"/>
@@ -16510,7 +16672,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="2:11">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="2"/>
@@ -16522,7 +16684,7 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
       <c r="D105" s="2"/>
@@ -16534,7 +16696,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="2:11">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
       <c r="D106" s="2"/>
@@ -16547,7 +16709,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
       <c r="D107" s="2"/>
@@ -16559,12 +16721,12 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -16572,7 +16734,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
@@ -16585,7 +16747,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
@@ -16598,7 +16760,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="2:11">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
@@ -16611,7 +16773,7 @@
       <c r="I111" s="21"/>
       <c r="J111" s="21"/>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
@@ -16624,7 +16786,7 @@
       <c r="I112" s="21"/>
       <c r="J112" s="21"/>
     </row>
-    <row r="113" spans="2:17">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
@@ -16641,7 +16803,7 @@
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
     </row>
-    <row r="114" spans="2:17">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
@@ -16657,13 +16819,13 @@
       <c r="P114" s="13"/>
       <c r="Q114" s="13"/>
     </row>
-    <row r="115" spans="2:17">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="21"/>
       <c r="F115" s="24" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K115" s="13"/>
       <c r="L115" s="13"/>
@@ -16673,13 +16835,13 @@
       <c r="P115" s="13"/>
       <c r="Q115" s="13"/>
     </row>
-    <row r="116" spans="2:17">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
       <c r="E116" s="21"/>
       <c r="F116" s="24" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="K116" s="13"/>
       <c r="L116" s="13"/>
@@ -16689,7 +16851,7 @@
       <c r="P116" s="13"/>
       <c r="Q116" s="13"/>
     </row>
-    <row r="117" spans="2:17">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
@@ -16704,7 +16866,7 @@
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="2:17">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
@@ -16713,7 +16875,7 @@
         <v>146</v>
       </c>
       <c r="G118" s="21" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
@@ -16723,7 +16885,7 @@
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
     </row>
-    <row r="119" spans="2:17">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
@@ -16740,7 +16902,7 @@
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
     </row>
-    <row r="120" spans="2:17">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
@@ -16755,7 +16917,7 @@
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
     </row>
-    <row r="121" spans="2:17">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
@@ -16770,7 +16932,7 @@
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
     </row>
-    <row r="122" spans="2:17">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
@@ -16789,7 +16951,7 @@
       <c r="M122" s="21"/>
       <c r="N122" s="21"/>
     </row>
-    <row r="123" spans="2:17">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
@@ -16806,7 +16968,7 @@
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
     </row>
-    <row r="124" spans="2:17">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
@@ -16821,13 +16983,13 @@
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
     </row>
-    <row r="125" spans="2:17">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
       <c r="F125" s="21" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G125" s="21"/>
       <c r="H125" s="21"/>
@@ -16836,65 +16998,65 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="2:17">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.35">
       <c r="E126" s="32" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="127" spans="2:17">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.35">
       <c r="F127" s="22" t="s">
         <v>51</v>
       </c>
       <c r="G127" s="23"/>
     </row>
-    <row r="128" spans="2:17">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.35">
       <c r="F128" s="22"/>
       <c r="G128" s="63" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="129" spans="5:8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="129" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F129" s="22"/>
       <c r="G129" s="63" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="130" spans="5:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="130" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F130" s="22" t="s">
         <v>53</v>
       </c>
       <c r="G130" s="23"/>
       <c r="H130" s="23"/>
     </row>
-    <row r="131" spans="5:8">
+    <row r="131" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F131" s="22"/>
       <c r="G131" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="5:8">
+    <row r="132" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F132" s="22"/>
       <c r="G132" s="23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="133" spans="5:8">
+    <row r="133" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E133" s="14" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F133" s="55"/>
     </row>
-    <row r="134" spans="5:8">
+    <row r="134" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E134" s="13"/>
       <c r="F134" s="63" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:AA1"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A1:A6 A8:A1048576">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -16913,7 +17075,7 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" style="21" customWidth="1"/>
     <col min="2" max="2" width="46" style="21" customWidth="1"/>
@@ -16925,7 +17087,7 @@
     <col min="11" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -16945,7 +17107,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>31</v>
       </c>
@@ -16959,13 +17121,13 @@
         <v>34</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>42</v>
@@ -16986,7 +17148,7 @@
       <c r="Q2" s="25"/>
       <c r="R2" s="24"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>124</v>
       </c>
@@ -17011,9 +17173,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>155</v>
@@ -17022,7 +17184,7 @@
         <v>125</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="27">
@@ -17036,18 +17198,18 @@
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
     </row>
-    <row r="5" spans="1:18" s="24" customFormat="1">
+    <row r="5" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="64" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C5" s="64" t="s">
         <v>125</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E5" s="64"/>
       <c r="F5" s="65"/>
@@ -17059,7 +17221,7 @@
       </c>
       <c r="K5" s="65"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -17072,7 +17234,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="27"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -17085,7 +17247,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -17098,7 +17260,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -17111,7 +17273,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -17124,7 +17286,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -17137,7 +17299,7 @@
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -17150,7 +17312,7 @@
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -17163,7 +17325,7 @@
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -17177,7 +17339,7 @@
       <c r="K14" s="26"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -17191,7 +17353,7 @@
       <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="9" style="21"/>
     <col min="3" max="3" width="53.75" style="21" bestFit="1" customWidth="1"/>
@@ -17201,24 +17363,24 @@
     <col min="10" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="51" customFormat="1" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:13" s="50" customFormat="1">
+    <row r="1" spans="1:13" s="51" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49">
         <v>42198</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J2" s="50" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="12" customFormat="1" ht="17.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B3" s="32" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -17227,16 +17389,16 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="32" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
     </row>
-    <row r="4" spans="1:13" s="12" customFormat="1" ht="17.25">
+    <row r="4" spans="1:13" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -17252,12 +17414,12 @@
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
     </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="17.25">
+    <row r="5" spans="1:13" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B5" s="21">
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D5" s="21">
         <v>1</v>
@@ -17272,12 +17434,12 @@
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
     </row>
-    <row r="6" spans="1:13" s="12" customFormat="1" ht="17.25">
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B6" s="21">
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D6" s="21">
         <v>1</v>
@@ -17292,12 +17454,12 @@
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
     </row>
-    <row r="7" spans="1:13" s="12" customFormat="1" ht="17.25">
+    <row r="7" spans="1:13" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B7" s="21">
         <v>3</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D7" s="21">
         <v>1</v>
@@ -17312,12 +17474,12 @@
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:13" s="12" customFormat="1" ht="17.25">
+    <row r="8" spans="1:13" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B8" s="21">
         <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D8" s="21">
         <v>1.5</v>
@@ -17332,7 +17494,7 @@
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="1:13" s="12" customFormat="1" ht="17.25">
+    <row r="9" spans="1:13" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -17346,9 +17508,9 @@
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
     </row>
-    <row r="10" spans="1:13" s="12" customFormat="1" ht="17.25">
+    <row r="10" spans="1:13" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B10" s="21" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -17362,12 +17524,12 @@
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
     </row>
-    <row r="11" spans="1:13" s="12" customFormat="1" ht="17.25">
+    <row r="11" spans="1:13" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B11" s="21">
         <v>1</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D11" s="21">
         <v>1</v>
@@ -17382,66 +17544,66 @@
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" s="21">
         <v>2</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D12" s="21">
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" s="21">
         <v>3</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D13" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15" s="32" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C16" s="21" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D16" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="50" customFormat="1">
+    <row r="18" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="49">
         <v>42341</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B19" s="98" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="I19" s="98" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C20" s="114" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D20" s="21">
         <v>0.5</v>
@@ -17450,40 +17612,40 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B21" s="98" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B22" s="21" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B23" s="21">
         <v>1</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D23" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B24" s="21">
         <v>2</v>
       </c>
       <c r="C24" s="114" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D24" s="21">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17496,7 +17658,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.625" style="115" customWidth="1"/>
     <col min="2" max="2" width="9" style="115"/>
@@ -17506,104 +17668,104 @@
     <col min="6" max="16384" width="9" style="115"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="116" customFormat="1">
+    <row r="1" spans="1:6" s="116" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="116" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B1" s="117" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C1" s="116" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D1" s="116" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E1" s="116" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F1" s="116" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="115" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C2" s="115" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" s="115">
         <v>1</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E3" s="115" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="132" customHeight="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="115">
         <v>2</v>
       </c>
       <c r="C4" s="115" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E4" s="118" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="115">
         <v>3</v>
       </c>
       <c r="C5" s="115" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E5" s="115" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="115">
         <v>4</v>
       </c>
       <c r="C6" s="115" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E6" s="115" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" s="115">
         <v>5</v>
       </c>
       <c r="C7" s="115" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E7" s="115" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C9" s="115" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="C9" s="115" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="115">
         <v>1</v>
       </c>
       <c r="C10" s="115" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17617,17 +17779,17 @@
       <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>37</v>
       </c>
@@ -17638,7 +17800,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>38</v>
       </c>
@@ -17646,32 +17808,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="17.25">
+    <row r="29" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -17685,7 +17847,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" ht="17.25">
+    <row r="30" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -17699,7 +17861,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13" ht="17.25">
+    <row r="31" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -17713,7 +17875,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13" ht="17.25">
+    <row r="32" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -17727,7 +17889,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13" ht="17.25">
+    <row r="33" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -17741,7 +17903,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" ht="17.25">
+    <row r="34" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -17755,7 +17917,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" ht="17.25">
+    <row r="35" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -17769,7 +17931,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13" ht="17.25">
+    <row r="36" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -17783,7 +17945,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13" ht="17.25">
+    <row r="37" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -17797,7 +17959,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="2:13" ht="17.25">
+    <row r="38" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -17811,7 +17973,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="2:13" ht="17.25">
+    <row r="39" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -17825,7 +17987,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="2:13" ht="17.25">
+    <row r="40" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -17839,7 +18001,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="2:13" ht="17.25">
+    <row r="41" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -17853,7 +18015,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="2:13" ht="17.25">
+    <row r="42" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -17867,7 +18029,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="2:13" ht="17.25">
+    <row r="43" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -17881,7 +18043,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="2:13" ht="17.25">
+    <row r="44" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -17895,7 +18057,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="2:13" ht="17.25">
+    <row r="45" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -17909,7 +18071,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="2:13" ht="17.25">
+    <row r="46" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -17923,7 +18085,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="2:13" ht="17.25">
+    <row r="47" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -17937,7 +18099,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="2:13" ht="17.25">
+    <row r="48" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -17951,7 +18113,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="2:13" ht="17.25">
+    <row r="49" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -17965,7 +18127,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="2:13" ht="17.25">
+    <row r="50" spans="2:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -17980,7 +18142,7 @@
       <c r="M50" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
